--- a/data-supermarket.xlsx
+++ b/data-supermarket.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Documents\vysokaSkola\MAS\semestralna praca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Documents\vysokaSkola\MAS\MAS_billa_simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="doba_obsluhypokladne_1" localSheetId="0">'Obsluha na pokladni'!$B$4:$E$102</definedName>
+    <definedName name="New_Text_Document" localSheetId="0">'Obsluha na pokladni'!$G$4:$G$103</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,6 +40,13 @@
         <textField position="10"/>
         <textField position="19"/>
         <textField position="31"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="New Text Document" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="D:\Data\Documents\vysokaSkola\MAS\MAS_billa_simulation\New Text Document.txt">
+      <textFields>
+        <textField/>
       </textFields>
     </textPr>
   </connection>
@@ -111,9 +119,6 @@
     <t>DOBA OBSLUHY NA POKLADNI</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -152,14 +157,16 @@
   <si>
     <t>Count</t>
   </si>
+  <si>
+    <t>Doba obsluhy na pokladni</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
-    <numFmt numFmtId="167" formatCode="[ss]"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -489,11 +496,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -502,6 +505,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,6 +532,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="doba_obsluhypokladne_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -793,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,6 +815,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.140625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="9" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -814,14 +826,14 @@
     </row>
     <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
@@ -841,10 +853,10 @@
       <c r="E3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="37" t="s">
         <v>19</v>
       </c>
     </row>
@@ -864,18 +876,17 @@
       <c r="E4" s="28">
         <v>0.4880902777777778</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="36">
         <f>E4-C4</f>
         <v>5.4398148148154801E-4</v>
       </c>
-      <c r="G4" s="38">
-        <f>TIME(E4,E4,E4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="42"/>
+      <c r="G4" s="42">
+        <v>47</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
@@ -893,16 +904,15 @@
       <c r="E5" s="28">
         <v>0.48927083333333332</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <f t="shared" ref="F5:F68" si="0">E5-C5</f>
         <v>1.1458333333333459E-3</v>
       </c>
-      <c r="G5" s="38">
-        <f t="shared" ref="G5:H68" si="1">F5</f>
-        <v>1.1458333333333459E-3</v>
-      </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
+      <c r="G5" s="42">
+        <v>99</v>
+      </c>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
@@ -920,19 +930,18 @@
       <c r="E6" s="28">
         <v>0.48947916666666669</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="36">
         <f t="shared" si="0"/>
         <v>1.8518518518523264E-4</v>
       </c>
-      <c r="G6" s="38">
-        <f t="shared" si="1"/>
-        <v>1.8518518518523264E-4</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="40">
-        <v>5.0694444444444875E-4</v>
+      <c r="G6" s="42">
+        <v>16</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="38">
+        <v>43.8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -951,19 +960,18 @@
       <c r="E7" s="28">
         <v>0.48979166666666668</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="36">
         <f t="shared" si="0"/>
         <v>2.777777777778212E-4</v>
       </c>
-      <c r="G7" s="38">
-        <f t="shared" si="1"/>
-        <v>2.777777777778212E-4</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="40">
-        <v>2.7822557122696743E-5</v>
+      <c r="G7" s="42">
+        <v>24</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="38">
+        <v>2.4038689354009835</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -982,19 +990,18 @@
       <c r="E8" s="28">
         <v>0.49079861111111112</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <f t="shared" si="0"/>
         <v>9.6064814814816879E-4</v>
       </c>
-      <c r="G8" s="38">
-        <f t="shared" si="1"/>
-        <v>9.6064814814816879E-4</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="40">
-        <v>4.8611111111107608E-4</v>
+      <c r="G8" s="42">
+        <v>83</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="38">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1013,19 +1020,18 @@
       <c r="E9" s="28">
         <v>0.49094907407407407</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <f t="shared" si="0"/>
         <v>5.7870370370360913E-5</v>
       </c>
-      <c r="G9" s="38">
-        <f t="shared" si="1"/>
-        <v>5.7870370370360913E-5</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="40">
-        <v>4.861111111111871E-4</v>
+      <c r="G9" s="42">
+        <v>5</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="38">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,19 +1050,18 @@
       <c r="E10" s="28">
         <v>0.49131944444444442</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <f t="shared" si="0"/>
         <v>3.3564814814807109E-4</v>
       </c>
-      <c r="G10" s="38">
-        <f t="shared" si="1"/>
-        <v>3.3564814814807109E-4</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="40">
-        <v>2.7822557122696742E-4</v>
+      <c r="G10" s="42">
+        <v>29</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="38">
+        <v>24.038689354009836</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1075,19 +1080,18 @@
       <c r="E11" s="28">
         <v>0.49163194444444441</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <f t="shared" si="0"/>
         <v>2.3148148148144365E-4</v>
       </c>
-      <c r="G11" s="38">
-        <f t="shared" si="1"/>
-        <v>2.3148148148144365E-4</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="40">
-        <v>7.7409468484572321E-8</v>
+      <c r="G11" s="42">
+        <v>20</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="38">
+        <v>577.85858585858591</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1106,19 +1110,18 @@
       <c r="E12" s="28">
         <v>0.49217592592592596</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="36">
         <f t="shared" si="0"/>
         <v>4.0509259259263741E-4</v>
       </c>
-      <c r="G12" s="38">
-        <f t="shared" si="1"/>
-        <v>4.0509259259263741E-4</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="40">
-        <v>2.4605882226919857</v>
+      <c r="G12" s="42">
+        <v>35</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="38">
+        <v>2.4605882226919138</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1137,19 +1140,18 @@
       <c r="E13" s="28">
         <v>0.49265046296296294</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="36">
         <f t="shared" si="0"/>
         <v>3.0092592592589895E-4</v>
       </c>
-      <c r="G13" s="38">
-        <f t="shared" si="1"/>
-        <v>3.0092592592589895E-4</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="40">
-        <v>1.0425245334883952</v>
+      <c r="G13" s="42">
+        <v>26</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="38">
+        <v>1.0425245334884037</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1168,19 +1170,18 @@
       <c r="E14" s="28">
         <v>0.49437500000000001</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <f t="shared" si="0"/>
         <v>1.6898148148148384E-3</v>
       </c>
-      <c r="G14" s="38">
-        <f t="shared" si="1"/>
-        <v>1.6898148148148384E-3</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="40">
-        <v>1.6898148148148384E-3</v>
+      <c r="G14" s="42">
+        <v>146</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="38">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1199,18 +1200,17 @@
       <c r="E15" s="28">
         <v>0.49501157407407409</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <f t="shared" si="0"/>
         <v>2.8935185185186008E-4</v>
       </c>
-      <c r="G15" s="38">
-        <f t="shared" si="1"/>
-        <v>2.8935185185186008E-4</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="40">
+      <c r="G15" s="42">
+        <v>25</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="38">
         <v>0</v>
       </c>
     </row>
@@ -1230,19 +1230,18 @@
       <c r="E16" s="28">
         <v>0.49576388888888889</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="36">
         <f t="shared" si="0"/>
         <v>6.9444444444449749E-4</v>
       </c>
-      <c r="G16" s="38">
-        <f t="shared" si="1"/>
-        <v>6.9444444444449749E-4</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="40">
-        <v>1.6898148148148384E-3</v>
+      <c r="G16" s="42">
+        <v>60</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="38">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1261,19 +1260,18 @@
       <c r="E17" s="28">
         <v>0.49619212962962966</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="36">
         <f t="shared" si="0"/>
         <v>4.0509259259263741E-4</v>
       </c>
-      <c r="G17" s="38">
-        <f t="shared" si="1"/>
-        <v>4.0509259259263741E-4</v>
-      </c>
-      <c r="I17" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="40">
-        <v>5.0694444444444875E-2</v>
+      <c r="G17" s="42">
+        <v>35</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="38">
+        <v>4380</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1292,18 +1290,17 @@
       <c r="E18" s="28">
         <v>0.49652777777777773</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <f t="shared" si="0"/>
         <v>3.0092592592589895E-4</v>
       </c>
-      <c r="G18" s="38">
-        <f t="shared" si="1"/>
-        <v>3.0092592592589895E-4</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="41">
+      <c r="G18" s="42">
+        <v>26</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="39">
         <v>100</v>
       </c>
     </row>
@@ -1323,13 +1320,12 @@
       <c r="E19" s="28">
         <v>0.4968981481481482</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="36">
         <f t="shared" si="0"/>
         <v>3.5879629629631538E-4</v>
       </c>
-      <c r="G19" s="38">
-        <f t="shared" si="1"/>
-        <v>3.5879629629631538E-4</v>
+      <c r="G19" s="42">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1348,13 +1344,12 @@
       <c r="E20" s="28">
         <v>0.4979513888888889</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <f t="shared" si="0"/>
         <v>3.3564814814818211E-4</v>
       </c>
-      <c r="G20" s="38">
-        <f t="shared" si="1"/>
-        <v>3.3564814814818211E-4</v>
+      <c r="G20" s="42">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1373,13 +1368,12 @@
       <c r="E21" s="28">
         <v>0.49881944444444443</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="36">
         <f t="shared" si="0"/>
         <v>8.4490740740739145E-4</v>
       </c>
-      <c r="G21" s="38">
-        <f t="shared" si="1"/>
-        <v>8.4490740740739145E-4</v>
+      <c r="G21" s="42">
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1398,13 +1392,12 @@
       <c r="E22" s="28">
         <v>0.49958333333333332</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <f t="shared" si="0"/>
         <v>7.5231481481480289E-4</v>
       </c>
-      <c r="G22" s="38">
-        <f t="shared" si="1"/>
-        <v>7.5231481481480289E-4</v>
+      <c r="G22" s="42">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1423,13 +1416,12 @@
       <c r="E23" s="28">
         <v>0.50017361111111114</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <f t="shared" si="0"/>
         <v>5.6712962962962576E-4</v>
       </c>
-      <c r="G23" s="38">
-        <f t="shared" si="1"/>
-        <v>5.6712962962962576E-4</v>
+      <c r="G23" s="42">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1448,13 +1440,12 @@
       <c r="E24" s="28">
         <v>0.5006828703703704</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="36">
         <f t="shared" si="0"/>
         <v>4.861111111111871E-4</v>
       </c>
-      <c r="G24" s="38">
-        <f t="shared" si="1"/>
-        <v>4.861111111111871E-4</v>
+      <c r="G24" s="42">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1473,13 +1464,12 @@
       <c r="E25" s="28">
         <v>0.5018055555555555</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="36">
         <f t="shared" si="0"/>
         <v>6.8287037037029208E-4</v>
       </c>
-      <c r="G25" s="38">
-        <f t="shared" si="1"/>
-        <v>6.8287037037029208E-4</v>
+      <c r="G25" s="42">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1498,13 +1488,12 @@
       <c r="E26" s="28">
         <v>0.50298611111111113</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="36">
         <f t="shared" si="0"/>
         <v>1.0185185185185297E-3</v>
       </c>
-      <c r="G26" s="38">
-        <f t="shared" si="1"/>
-        <v>1.0185185185185297E-3</v>
+      <c r="G26" s="42">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1523,13 +1512,12 @@
       <c r="E27" s="28">
         <v>0.50348379629629625</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="36">
         <f t="shared" si="0"/>
         <v>4.7453703703692618E-4</v>
       </c>
-      <c r="G27" s="38">
-        <f t="shared" si="1"/>
-        <v>4.7453703703692618E-4</v>
+      <c r="G27" s="42">
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1548,13 +1536,12 @@
       <c r="E28" s="28">
         <v>0.50394675925925925</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="36">
         <f t="shared" si="0"/>
         <v>4.3981481481480955E-4</v>
       </c>
-      <c r="G28" s="38">
-        <f t="shared" si="1"/>
-        <v>4.3981481481480955E-4</v>
+      <c r="G28" s="42">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1573,13 +1560,12 @@
       <c r="E29" s="28">
         <v>0.50457175925925923</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="36">
         <f t="shared" si="0"/>
         <v>5.7870370370372015E-4</v>
       </c>
-      <c r="G29" s="38">
-        <f t="shared" si="1"/>
-        <v>5.7870370370372015E-4</v>
+      <c r="G29" s="42">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1598,13 +1584,12 @@
       <c r="E30" s="28">
         <v>0.50496527777777778</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="36">
         <f t="shared" si="0"/>
         <v>3.4722222222216548E-4</v>
       </c>
-      <c r="G30" s="38">
-        <f t="shared" si="1"/>
-        <v>3.4722222222216548E-4</v>
+      <c r="G30" s="42">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1623,13 +1608,12 @@
       <c r="E31" s="28">
         <v>0.50564814814814818</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="36">
         <f t="shared" si="0"/>
         <v>6.5972222222221433E-4</v>
       </c>
-      <c r="G31" s="38">
-        <f t="shared" si="1"/>
-        <v>6.5972222222221433E-4</v>
+      <c r="G31" s="42">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1648,13 +1632,12 @@
       <c r="E32" s="28">
         <v>0.50593750000000004</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="36">
         <f t="shared" si="0"/>
         <v>2.5462962962974345E-4</v>
       </c>
-      <c r="G32" s="38">
-        <f t="shared" si="1"/>
-        <v>2.5462962962974345E-4</v>
+      <c r="G32" s="42">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1673,13 +1656,12 @@
       <c r="E33" s="28">
         <v>0.5064467592592593</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="36">
         <f t="shared" si="0"/>
         <v>4.861111111111871E-4</v>
       </c>
-      <c r="G33" s="38">
-        <f t="shared" si="1"/>
-        <v>4.861111111111871E-4</v>
+      <c r="G33" s="42">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1698,13 +1680,12 @@
       <c r="E34" s="28">
         <v>0.50706018518518514</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="36">
         <f t="shared" si="0"/>
         <v>6.018518518517979E-4</v>
       </c>
-      <c r="G34" s="38">
-        <f t="shared" si="1"/>
-        <v>6.018518518517979E-4</v>
+      <c r="G34" s="42">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1723,13 +1704,12 @@
       <c r="E35" s="28">
         <v>0.5074305555555555</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="36">
         <f t="shared" si="0"/>
         <v>3.1249999999993783E-4</v>
       </c>
-      <c r="G35" s="38">
-        <f t="shared" si="1"/>
-        <v>3.1249999999993783E-4</v>
+      <c r="G35" s="42">
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1748,13 +1728,12 @@
       <c r="E36" s="28">
         <v>0.50813657407407409</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="36">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="G36" s="38">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444198E-4</v>
+      <c r="G36" s="42">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1773,13 +1752,12 @@
       <c r="E37" s="28">
         <v>0.50854166666666667</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="36">
         <f t="shared" si="0"/>
         <v>3.8194444444450415E-4</v>
       </c>
-      <c r="G37" s="38">
-        <f t="shared" si="1"/>
-        <v>3.8194444444450415E-4</v>
+      <c r="G37" s="42">
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1798,13 +1776,12 @@
       <c r="E38" s="28">
         <v>0.50901620370370371</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="36">
         <f t="shared" si="0"/>
         <v>4.6296296296299833E-4</v>
       </c>
-      <c r="G38" s="38">
-        <f t="shared" si="1"/>
-        <v>4.6296296296299833E-4</v>
+      <c r="G38" s="42">
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1823,13 +1800,12 @@
       <c r="E39" s="28">
         <v>0.50951388888888893</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="36">
         <f t="shared" si="0"/>
         <v>4.861111111111871E-4</v>
       </c>
-      <c r="G39" s="38">
-        <f t="shared" si="1"/>
-        <v>4.861111111111871E-4</v>
+      <c r="G39" s="42">
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1848,13 +1824,12 @@
       <c r="E40" s="28">
         <v>0.51075231481481487</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="36">
         <f t="shared" si="0"/>
         <v>1.1574074074074403E-3</v>
       </c>
-      <c r="G40" s="38">
-        <f t="shared" si="1"/>
-        <v>1.1574074074074403E-3</v>
+      <c r="G40" s="42">
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1873,13 +1848,12 @@
       <c r="E41" s="28">
         <v>0.51107638888888884</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="36">
         <f t="shared" si="0"/>
         <v>2.0833333333325488E-4</v>
       </c>
-      <c r="G41" s="38">
-        <f t="shared" si="1"/>
-        <v>2.0833333333325488E-4</v>
+      <c r="G41" s="42">
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1898,13 +1872,12 @@
       <c r="E42" s="28">
         <v>0.51168981481481479</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="36">
         <f t="shared" si="0"/>
         <v>6.018518518517979E-4</v>
       </c>
-      <c r="G42" s="38">
-        <f t="shared" si="1"/>
-        <v>6.018518518517979E-4</v>
+      <c r="G42" s="42">
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1923,13 +1896,12 @@
       <c r="E43" s="28">
         <v>0.51178240740740744</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="36">
         <f t="shared" si="0"/>
         <v>8.1018518518494176E-5</v>
       </c>
-      <c r="G43" s="38">
-        <f t="shared" si="1"/>
-        <v>8.1018518518494176E-5</v>
+      <c r="G43" s="42">
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1948,13 +1920,12 @@
       <c r="E44" s="28">
         <v>0.51230324074074074</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="36">
         <f t="shared" si="0"/>
         <v>5.0925925925926485E-4</v>
       </c>
-      <c r="G44" s="38">
-        <f t="shared" si="1"/>
-        <v>5.0925925925926485E-4</v>
+      <c r="G44" s="42">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1973,13 +1944,12 @@
       <c r="E45" s="28">
         <v>0.51292824074074073</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="36">
         <f t="shared" si="0"/>
         <v>6.134259259259478E-4</v>
       </c>
-      <c r="G45" s="38">
-        <f t="shared" si="1"/>
-        <v>6.134259259259478E-4</v>
+      <c r="G45" s="42">
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1998,13 +1968,12 @@
       <c r="E46" s="28">
         <v>0.51351851851851849</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="36">
         <f t="shared" si="0"/>
         <v>5.324074074073426E-4</v>
       </c>
-      <c r="G46" s="38">
-        <f t="shared" si="1"/>
-        <v>5.324074074073426E-4</v>
+      <c r="G46" s="42">
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2023,13 +1992,12 @@
       <c r="E47" s="28">
         <v>0.51439814814814822</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="36">
         <f t="shared" si="0"/>
         <v>8.4490740740750248E-4</v>
       </c>
-      <c r="G47" s="38">
-        <f t="shared" si="1"/>
-        <v>8.4490740740750248E-4</v>
+      <c r="G47" s="42">
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2048,13 +2016,12 @@
       <c r="E48" s="28">
         <v>0.51508101851851851</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="36">
         <f t="shared" si="0"/>
         <v>6.712962962962532E-4</v>
       </c>
-      <c r="G48" s="38">
-        <f t="shared" si="1"/>
-        <v>6.712962962962532E-4</v>
+      <c r="G48" s="42">
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2073,13 +2040,12 @@
       <c r="E49" s="28">
         <v>0.51538194444444441</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="36">
         <f t="shared" si="0"/>
         <v>2.7777777777771018E-4</v>
       </c>
-      <c r="G49" s="38">
-        <f t="shared" si="1"/>
-        <v>2.7777777777771018E-4</v>
+      <c r="G49" s="42">
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2098,13 +2064,12 @@
       <c r="E50" s="28">
         <v>0.51553240740740736</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="36">
         <f t="shared" si="0"/>
         <v>1.388888888889106E-4</v>
       </c>
-      <c r="G50" s="38">
-        <f t="shared" si="1"/>
-        <v>1.388888888889106E-4</v>
+      <c r="G50" s="42">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2123,13 +2088,12 @@
       <c r="E51" s="28">
         <v>0.5157870370370371</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="36">
         <f t="shared" si="0"/>
         <v>2.4305555555559355E-4</v>
       </c>
-      <c r="G51" s="38">
-        <f t="shared" si="1"/>
-        <v>2.4305555555559355E-4</v>
+      <c r="G51" s="42">
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2148,13 +2112,12 @@
       <c r="E52" s="28">
         <v>0.51599537037037035</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="36">
         <f t="shared" si="0"/>
         <v>1.7361111111113825E-4</v>
       </c>
-      <c r="G52" s="38">
-        <f t="shared" si="1"/>
-        <v>1.7361111111113825E-4</v>
+      <c r="G52" s="42">
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2173,13 +2136,12 @@
       <c r="E53" s="28">
         <v>0.51684027777777775</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="36">
         <f t="shared" si="0"/>
         <v>8.3333333333324155E-4</v>
       </c>
-      <c r="G53" s="38">
-        <f t="shared" si="1"/>
-        <v>8.3333333333324155E-4</v>
+      <c r="G53" s="42">
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2198,13 +2160,12 @@
       <c r="E54" s="28">
         <v>0.51730324074074074</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="36">
         <f t="shared" si="0"/>
         <v>4.3981481481480955E-4</v>
       </c>
-      <c r="G54" s="38">
-        <f t="shared" si="1"/>
-        <v>4.3981481481480955E-4</v>
+      <c r="G54" s="42">
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2223,13 +2184,12 @@
       <c r="E55" s="28">
         <v>0.51778935185185182</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="36">
         <f t="shared" si="0"/>
         <v>4.8611111111107608E-4</v>
       </c>
-      <c r="G55" s="38">
-        <f t="shared" si="1"/>
-        <v>4.8611111111107608E-4</v>
+      <c r="G55" s="42">
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2248,13 +2208,12 @@
       <c r="E56" s="28">
         <v>0.51857638888888891</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="36">
         <f t="shared" si="0"/>
         <v>7.2916666666666963E-4</v>
       </c>
-      <c r="G56" s="38">
-        <f t="shared" si="1"/>
-        <v>7.2916666666666963E-4</v>
+      <c r="G56" s="42">
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2273,13 +2232,12 @@
       <c r="E57" s="28">
         <v>0.51914351851851859</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="36">
         <f t="shared" si="0"/>
         <v>5.555555555556424E-4</v>
       </c>
-      <c r="G57" s="38">
-        <f t="shared" si="1"/>
-        <v>5.555555555556424E-4</v>
+      <c r="G57" s="42">
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2298,13 +2256,12 @@
       <c r="E58" s="28">
         <v>0.51954861111111106</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="36">
         <f t="shared" si="0"/>
         <v>3.5879629629631538E-4</v>
       </c>
-      <c r="G58" s="38">
-        <f t="shared" si="1"/>
-        <v>3.5879629629631538E-4</v>
+      <c r="G58" s="42">
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2323,13 +2280,12 @@
       <c r="E59" s="28">
         <v>0.52023148148148146</v>
       </c>
-      <c r="F59" s="37">
+      <c r="F59" s="36">
         <f t="shared" si="0"/>
         <v>6.3657407407402555E-4</v>
       </c>
-      <c r="G59" s="38">
-        <f t="shared" si="1"/>
-        <v>6.3657407407402555E-4</v>
+      <c r="G59" s="42">
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2348,13 +2304,12 @@
       <c r="E60" s="28">
         <v>0.52069444444444446</v>
       </c>
-      <c r="F60" s="37">
+      <c r="F60" s="36">
         <f t="shared" si="0"/>
         <v>4.2824074074077068E-4</v>
       </c>
-      <c r="G60" s="38">
-        <f t="shared" si="1"/>
-        <v>4.2824074074077068E-4</v>
+      <c r="G60" s="42">
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2373,13 +2328,12 @@
       <c r="E61" s="28">
         <v>0.52143518518518517</v>
       </c>
-      <c r="F61" s="37">
+      <c r="F61" s="36">
         <f t="shared" si="0"/>
         <v>7.1759259259263075E-4</v>
       </c>
-      <c r="G61" s="38">
-        <f t="shared" si="1"/>
-        <v>7.1759259259263075E-4</v>
+      <c r="G61" s="42">
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2398,13 +2352,12 @@
       <c r="E62" s="28">
         <v>0.52197916666666666</v>
       </c>
-      <c r="F62" s="37">
+      <c r="F62" s="36">
         <f t="shared" si="0"/>
         <v>5.3240740740745363E-4</v>
       </c>
-      <c r="G62" s="38">
-        <f t="shared" si="1"/>
-        <v>5.3240740740745363E-4</v>
+      <c r="G62" s="42">
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2423,13 +2376,12 @@
       <c r="E63" s="28">
         <v>0.52253472222222219</v>
       </c>
-      <c r="F63" s="37">
+      <c r="F63" s="36">
         <f t="shared" si="0"/>
         <v>4.9768518518522598E-4</v>
       </c>
-      <c r="G63" s="38">
-        <f t="shared" si="1"/>
-        <v>4.9768518518522598E-4</v>
+      <c r="G63" s="42">
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2448,13 +2400,12 @@
       <c r="E64" s="28">
         <v>0.52303240740740742</v>
       </c>
-      <c r="F64" s="37">
+      <c r="F64" s="36">
         <f t="shared" si="0"/>
         <v>4.861111111111871E-4</v>
       </c>
-      <c r="G64" s="38">
-        <f t="shared" si="1"/>
-        <v>4.861111111111871E-4</v>
+      <c r="G64" s="42">
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2473,13 +2424,12 @@
       <c r="E65" s="28">
         <v>0.52350694444444446</v>
       </c>
-      <c r="F65" s="37">
+      <c r="F65" s="36">
         <f t="shared" si="0"/>
         <v>4.6296296296299833E-4</v>
       </c>
-      <c r="G65" s="38">
-        <f t="shared" si="1"/>
-        <v>4.6296296296299833E-4</v>
+      <c r="G65" s="42">
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2498,13 +2448,12 @@
       <c r="E66" s="28">
         <v>0.52410879629629636</v>
       </c>
-      <c r="F66" s="37">
+      <c r="F66" s="36">
         <f t="shared" si="0"/>
         <v>5.9027777777787005E-4</v>
       </c>
-      <c r="G66" s="38">
-        <f t="shared" si="1"/>
-        <v>5.9027777777787005E-4</v>
+      <c r="G66" s="42">
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2523,13 +2472,12 @@
       <c r="E67" s="28">
         <v>0.52515046296296297</v>
       </c>
-      <c r="F67" s="37">
+      <c r="F67" s="36">
         <f t="shared" si="0"/>
         <v>1.0300925925925686E-3</v>
       </c>
-      <c r="G67" s="38">
-        <f t="shared" si="1"/>
-        <v>1.0300925925925686E-3</v>
+      <c r="G67" s="42">
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2548,13 +2496,12 @@
       <c r="E68" s="28">
         <v>0.5292824074074074</v>
       </c>
-      <c r="F68" s="37">
+      <c r="F68" s="36">
         <f t="shared" si="0"/>
         <v>8.796296296296191E-4</v>
       </c>
-      <c r="G68" s="38">
-        <f t="shared" si="1"/>
-        <v>8.796296296296191E-4</v>
+      <c r="G68" s="42">
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2573,13 +2520,12 @@
       <c r="E69" s="28">
         <v>0.53020833333333328</v>
       </c>
-      <c r="F69" s="37">
-        <f t="shared" ref="F69:F103" si="2">E69-C69</f>
+      <c r="F69" s="36">
+        <f t="shared" ref="F69:F103" si="1">E69-C69</f>
         <v>3.4722222222216548E-4</v>
       </c>
-      <c r="G69" s="38">
-        <f t="shared" ref="G69:H103" si="3">F69</f>
-        <v>3.4722222222216548E-4</v>
+      <c r="G69" s="42">
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2598,13 +2544,12 @@
       <c r="E70" s="28">
         <v>0.53033564814814815</v>
       </c>
-      <c r="F70" s="37">
-        <f t="shared" si="2"/>
+      <c r="F70" s="36">
+        <f t="shared" si="1"/>
         <v>8.1018518518494176E-5</v>
       </c>
-      <c r="G70" s="38">
-        <f t="shared" si="3"/>
-        <v>8.1018518518494176E-5</v>
+      <c r="G70" s="42">
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2623,13 +2568,12 @@
       <c r="E71" s="28">
         <v>0.53039351851851857</v>
       </c>
-      <c r="F71" s="37">
-        <f t="shared" si="2"/>
+      <c r="F71" s="36">
+        <f t="shared" si="1"/>
         <v>1.1574074074149898E-5</v>
       </c>
-      <c r="G71" s="38">
-        <f t="shared" si="3"/>
-        <v>1.1574074074149898E-5</v>
+      <c r="G71" s="42">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2648,13 +2592,12 @@
       <c r="E72" s="28">
         <v>0.5307291666666667</v>
       </c>
-      <c r="F72" s="37">
-        <f t="shared" si="2"/>
+      <c r="F72" s="36">
+        <f t="shared" si="1"/>
         <v>2.8935185185186008E-4</v>
       </c>
-      <c r="G72" s="38">
-        <f t="shared" si="3"/>
-        <v>2.8935185185186008E-4</v>
+      <c r="G72" s="42">
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2673,13 +2616,12 @@
       <c r="E73" s="28">
         <v>0.53234953703703702</v>
       </c>
-      <c r="F73" s="37">
-        <f t="shared" si="2"/>
+      <c r="F73" s="36">
+        <f t="shared" si="1"/>
         <v>8.9120370370365798E-4</v>
       </c>
-      <c r="G73" s="38">
-        <f t="shared" si="3"/>
-        <v>8.9120370370365798E-4</v>
+      <c r="G73" s="42">
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2698,13 +2640,12 @@
       <c r="E74" s="28">
         <v>0.53288194444444448</v>
       </c>
-      <c r="F74" s="37">
-        <f t="shared" si="2"/>
+      <c r="F74" s="36">
+        <f t="shared" si="1"/>
         <v>5.0925925925926485E-4</v>
       </c>
-      <c r="G74" s="38">
-        <f t="shared" si="3"/>
-        <v>5.0925925925926485E-4</v>
+      <c r="G74" s="42">
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2723,13 +2664,12 @@
       <c r="E75" s="28">
         <v>0.53340277777777778</v>
       </c>
-      <c r="F75" s="37">
-        <f t="shared" si="2"/>
+      <c r="F75" s="36">
+        <f t="shared" si="1"/>
         <v>5.0925925925926485E-4</v>
       </c>
-      <c r="G75" s="38">
-        <f t="shared" si="3"/>
-        <v>5.0925925925926485E-4</v>
+      <c r="G75" s="42">
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2748,13 +2688,12 @@
       <c r="E76" s="28">
         <v>0.53384259259259259</v>
       </c>
-      <c r="F76" s="37">
-        <f t="shared" si="2"/>
+      <c r="F76" s="36">
+        <f t="shared" si="1"/>
         <v>4.2824074074077068E-4</v>
       </c>
-      <c r="G76" s="38">
-        <f t="shared" si="3"/>
-        <v>4.2824074074077068E-4</v>
+      <c r="G76" s="42">
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2773,13 +2712,12 @@
       <c r="E77" s="28">
         <v>0.53451388888888884</v>
       </c>
-      <c r="F77" s="37">
-        <f t="shared" si="2"/>
+      <c r="F77" s="36">
+        <f t="shared" si="1"/>
         <v>6.2499999999998668E-4</v>
       </c>
-      <c r="G77" s="38">
-        <f t="shared" si="3"/>
-        <v>6.2499999999998668E-4</v>
+      <c r="G77" s="42">
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2798,13 +2736,12 @@
       <c r="E78" s="28">
         <v>0.53498842592592599</v>
       </c>
-      <c r="F78" s="37">
-        <f t="shared" si="2"/>
+      <c r="F78" s="36">
+        <f t="shared" si="1"/>
         <v>3.8194444444450415E-4</v>
       </c>
-      <c r="G78" s="38">
-        <f t="shared" si="3"/>
-        <v>3.8194444444450415E-4</v>
+      <c r="G78" s="42">
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,13 +2760,12 @@
       <c r="E79" s="28">
         <v>0.5352662037037037</v>
       </c>
-      <c r="F79" s="37">
-        <f t="shared" si="2"/>
+      <c r="F79" s="36">
+        <f t="shared" si="1"/>
         <v>2.7777777777771018E-4</v>
       </c>
-      <c r="G79" s="38">
-        <f t="shared" si="3"/>
-        <v>2.7777777777771018E-4</v>
+      <c r="G79" s="42">
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2848,13 +2784,12 @@
       <c r="E80" s="28">
         <v>0.53589120370370369</v>
       </c>
-      <c r="F80" s="37">
-        <f t="shared" si="2"/>
+      <c r="F80" s="36">
+        <f t="shared" si="1"/>
         <v>6.018518518517979E-4</v>
       </c>
-      <c r="G80" s="38">
-        <f t="shared" si="3"/>
-        <v>6.018518518517979E-4</v>
+      <c r="G80" s="42">
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2873,13 +2808,12 @@
       <c r="E81" s="28">
         <v>0.53686342592592595</v>
       </c>
-      <c r="F81" s="37">
-        <f t="shared" si="2"/>
+      <c r="F81" s="36">
+        <f t="shared" si="1"/>
         <v>7.4074074074081953E-4</v>
       </c>
-      <c r="G81" s="38">
-        <f t="shared" si="3"/>
-        <v>7.4074074074081953E-4</v>
+      <c r="G81" s="42">
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2898,13 +2832,12 @@
       <c r="E82" s="28">
         <v>0.53738425925925926</v>
       </c>
-      <c r="F82" s="37">
-        <f t="shared" si="2"/>
+      <c r="F82" s="36">
+        <f t="shared" si="1"/>
         <v>3.8194444444450415E-4</v>
       </c>
-      <c r="G82" s="38">
-        <f t="shared" si="3"/>
-        <v>3.8194444444450415E-4</v>
+      <c r="G82" s="42">
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2923,13 +2856,12 @@
       <c r="E83" s="28">
         <v>0.53789351851851852</v>
       </c>
-      <c r="F83" s="37">
-        <f t="shared" si="2"/>
+      <c r="F83" s="36">
+        <f t="shared" si="1"/>
         <v>4.8611111111107608E-4</v>
       </c>
-      <c r="G83" s="38">
-        <f t="shared" si="3"/>
-        <v>4.8611111111107608E-4</v>
+      <c r="G83" s="42">
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2948,13 +2880,12 @@
       <c r="E84" s="28">
         <v>0.5385416666666667</v>
       </c>
-      <c r="F84" s="37">
-        <f t="shared" si="2"/>
+      <c r="F84" s="36">
+        <f t="shared" si="1"/>
         <v>6.3657407407413658E-4</v>
       </c>
-      <c r="G84" s="38">
-        <f t="shared" si="3"/>
-        <v>6.3657407407413658E-4</v>
+      <c r="G84" s="42">
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2973,13 +2904,12 @@
       <c r="E85" s="28">
         <v>0.53965277777777776</v>
       </c>
-      <c r="F85" s="37">
-        <f t="shared" si="2"/>
+      <c r="F85" s="36">
+        <f t="shared" si="1"/>
         <v>1.0763888888888351E-3</v>
       </c>
-      <c r="G85" s="38">
-        <f t="shared" si="3"/>
-        <v>1.0763888888888351E-3</v>
+      <c r="G85" s="42">
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2998,13 +2928,12 @@
       <c r="E86" s="28">
         <v>0.54010416666666672</v>
       </c>
-      <c r="F86" s="37">
-        <f t="shared" si="2"/>
+      <c r="F86" s="36">
+        <f t="shared" si="1"/>
         <v>4.0509259259269292E-4</v>
       </c>
-      <c r="G86" s="38">
-        <f t="shared" si="3"/>
-        <v>4.0509259259269292E-4</v>
+      <c r="G86" s="42">
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3023,13 +2952,12 @@
       <c r="E87" s="28">
         <v>0.54094907407407411</v>
       </c>
-      <c r="F87" s="37">
-        <f t="shared" si="2"/>
+      <c r="F87" s="36">
+        <f t="shared" si="1"/>
         <v>7.9861111111112493E-4</v>
       </c>
-      <c r="G87" s="38">
-        <f t="shared" si="3"/>
-        <v>7.9861111111112493E-4</v>
+      <c r="G87" s="42">
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3048,13 +2976,12 @@
       <c r="E88" s="28">
         <v>0.54126157407407405</v>
       </c>
-      <c r="F88" s="37">
-        <f t="shared" si="2"/>
+      <c r="F88" s="36">
+        <f t="shared" si="1"/>
         <v>1.3888888888879958E-4</v>
       </c>
-      <c r="G88" s="38">
-        <f t="shared" si="3"/>
-        <v>1.3888888888879958E-4</v>
+      <c r="G88" s="42">
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3073,13 +3000,12 @@
       <c r="E89" s="28">
         <v>0.54199074074074072</v>
       </c>
-      <c r="F89" s="37">
-        <f t="shared" si="2"/>
+      <c r="F89" s="36">
+        <f t="shared" si="1"/>
         <v>6.2499999999998668E-4</v>
       </c>
-      <c r="G89" s="38">
-        <f t="shared" si="3"/>
-        <v>6.2499999999998668E-4</v>
+      <c r="G89" s="42">
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3098,13 +3024,12 @@
       <c r="E90" s="28">
         <v>0.54259259259259263</v>
       </c>
-      <c r="F90" s="37">
-        <f t="shared" si="2"/>
+      <c r="F90" s="36">
+        <f t="shared" si="1"/>
         <v>5.7870370370372015E-4</v>
       </c>
-      <c r="G90" s="38">
-        <f t="shared" si="3"/>
-        <v>5.7870370370372015E-4</v>
+      <c r="G90" s="42">
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3123,13 +3048,12 @@
       <c r="E91" s="28">
         <v>0.54309027777777774</v>
       </c>
-      <c r="F91" s="37">
-        <f t="shared" si="2"/>
+      <c r="F91" s="36">
+        <f t="shared" si="1"/>
         <v>1.7361111111113825E-4</v>
       </c>
-      <c r="G91" s="38">
-        <f t="shared" si="3"/>
-        <v>1.7361111111113825E-4</v>
+      <c r="G91" s="42">
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3148,13 +3072,12 @@
       <c r="E92" s="28">
         <v>0.54402777777777778</v>
       </c>
-      <c r="F92" s="37">
-        <f t="shared" si="2"/>
+      <c r="F92" s="36">
+        <f t="shared" si="1"/>
         <v>9.0277777777780788E-4</v>
       </c>
-      <c r="G92" s="38">
-        <f t="shared" si="3"/>
-        <v>9.0277777777780788E-4</v>
+      <c r="G92" s="42">
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3173,13 +3096,12 @@
       <c r="E93" s="28">
         <v>0.54452546296296289</v>
       </c>
-      <c r="F93" s="37">
-        <f t="shared" si="2"/>
+      <c r="F93" s="36">
+        <f t="shared" si="1"/>
         <v>4.7453703703692618E-4</v>
       </c>
-      <c r="G93" s="38">
-        <f t="shared" si="3"/>
-        <v>4.7453703703692618E-4</v>
+      <c r="G93" s="42">
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3198,13 +3120,12 @@
       <c r="E94" s="28">
         <v>0.54533564814814817</v>
       </c>
-      <c r="F94" s="37">
-        <f t="shared" si="2"/>
+      <c r="F94" s="36">
+        <f t="shared" si="1"/>
         <v>7.8703703703708605E-4</v>
       </c>
-      <c r="G94" s="38">
-        <f t="shared" si="3"/>
-        <v>7.8703703703708605E-4</v>
+      <c r="G94" s="42">
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3223,13 +3144,12 @@
       <c r="E95" s="28">
         <v>0.54579861111111116</v>
       </c>
-      <c r="F95" s="37">
-        <f t="shared" si="2"/>
+      <c r="F95" s="36">
+        <f t="shared" si="1"/>
         <v>4.3981481481480955E-4</v>
       </c>
-      <c r="G95" s="38">
-        <f t="shared" si="3"/>
-        <v>4.3981481481480955E-4</v>
+      <c r="G95" s="42">
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3248,13 +3168,12 @@
       <c r="E96" s="28">
         <v>0.54615740740740748</v>
       </c>
-      <c r="F96" s="37">
-        <f t="shared" si="2"/>
+      <c r="F96" s="36">
+        <f t="shared" si="1"/>
         <v>3.5879629629631538E-4</v>
       </c>
-      <c r="G96" s="38">
-        <f t="shared" si="3"/>
-        <v>3.5879629629631538E-4</v>
+      <c r="G96" s="42">
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3273,13 +3192,12 @@
       <c r="E97" s="28">
         <v>0.54638888888888892</v>
       </c>
-      <c r="F97" s="37">
-        <f t="shared" si="2"/>
+      <c r="F97" s="36">
+        <f t="shared" si="1"/>
         <v>1.9675925925932702E-4</v>
       </c>
-      <c r="G97" s="38">
-        <f t="shared" si="3"/>
-        <v>1.9675925925932702E-4</v>
+      <c r="G97" s="42">
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3298,13 +3216,12 @@
       <c r="E98" s="28">
         <v>0.54673611111111109</v>
       </c>
-      <c r="F98" s="37">
-        <f t="shared" si="2"/>
+      <c r="F98" s="36">
+        <f t="shared" si="1"/>
         <v>3.356481481481266E-4</v>
       </c>
-      <c r="G98" s="38">
-        <f t="shared" si="3"/>
-        <v>3.356481481481266E-4</v>
+      <c r="G98" s="42">
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3323,13 +3240,12 @@
       <c r="E99" s="28">
         <v>0.54700231481481476</v>
       </c>
-      <c r="F99" s="37">
-        <f t="shared" si="2"/>
+      <c r="F99" s="36">
+        <f t="shared" si="1"/>
         <v>2.546296296295214E-4</v>
       </c>
-      <c r="G99" s="38">
-        <f t="shared" si="3"/>
-        <v>2.546296296295214E-4</v>
+      <c r="G99" s="42">
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3348,13 +3264,12 @@
       <c r="E100" s="28">
         <v>0.54723379629629632</v>
       </c>
-      <c r="F100" s="37">
-        <f t="shared" si="2"/>
+      <c r="F100" s="36">
+        <f t="shared" si="1"/>
         <v>2.1990740740740478E-4</v>
       </c>
-      <c r="G100" s="38">
-        <f t="shared" si="3"/>
-        <v>2.1990740740740478E-4</v>
+      <c r="G100" s="42">
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3373,13 +3288,12 @@
       <c r="E101" s="28">
         <v>0.54775462962962962</v>
       </c>
-      <c r="F101" s="37">
-        <f t="shared" si="2"/>
+      <c r="F101" s="36">
+        <f t="shared" si="1"/>
         <v>3.356481481481266E-4</v>
       </c>
-      <c r="G101" s="38">
-        <f t="shared" si="3"/>
-        <v>3.356481481481266E-4</v>
+      <c r="G101" s="42">
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3398,13 +3312,12 @@
       <c r="E102" s="28">
         <v>0.54837962962962961</v>
       </c>
-      <c r="F102" s="37">
-        <f t="shared" si="2"/>
+      <c r="F102" s="36">
+        <f t="shared" si="1"/>
         <v>6.2499999999998668E-4</v>
       </c>
-      <c r="G102" s="38">
-        <f t="shared" si="3"/>
-        <v>6.2499999999998668E-4</v>
+      <c r="G102" s="42">
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3415,12 +3328,11 @@
       <c r="C103" s="28"/>
       <c r="D103" s="35"/>
       <c r="E103" s="28"/>
-      <c r="F103" s="37">
-        <f t="shared" si="2"/>
+      <c r="F103" s="36">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G103" s="38">
-        <f t="shared" si="3"/>
+      <c r="G103" s="42">
         <v>0</v>
       </c>
     </row>

--- a/data-supermarket.xlsx
+++ b/data-supermarket.xlsx
@@ -17,10 +17,14 @@
     <sheet name="Kým sa pozbiera z pohladne" sheetId="2" r:id="rId3"/>
     <sheet name="Čas v systéme" sheetId="4" r:id="rId4"/>
     <sheet name="Veľkosť radu pri pokladni" sheetId="5" r:id="rId5"/>
+    <sheet name="Rozdiely príchodov" sheetId="6" r:id="rId6"/>
+    <sheet name="Počet ludí v príchod" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="doba_obsluhypokladne_1" localSheetId="0">'Obsluha na pokladni'!$B$4:$E$102</definedName>
-    <definedName name="New_Text_Document" localSheetId="0">'Obsluha na pokladni'!$G$4:$G$103</definedName>
+    <definedName name="doba_obsluhypokladne_1" localSheetId="0">'Obsluha na pokladni'!$B$4:$E$101</definedName>
+    <definedName name="New_Text_Document" localSheetId="0">'Obsluha na pokladni'!$G$4:$G$102</definedName>
+    <definedName name="pocet_prichLudi" localSheetId="6">'Počet ludí v príchod'!$A$1:$B$39</definedName>
+    <definedName name="pocet_prichLudi_1" localSheetId="5">'Rozdiely príchodov'!$A$1:$B$39</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -50,11 +54,27 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" name="pocet_prichLudi" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\Data\Documents\vysokaSkola\MAS\MAS_billa_simulation\pocet_prichLudi.txt" tab="0" space="1" consecutive="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="pocet_prichLudi1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\Data\Documents\vysokaSkola\MAS\MAS_billa_simulation\pocet_prichLudi.txt" space="1" consecutive="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Por. Číslo</t>
   </si>
@@ -160,6 +180,30 @@
   <si>
     <t>Doba obsluhy na pokladni</t>
   </si>
+  <si>
+    <t>Pocet udajov</t>
+  </si>
+  <si>
+    <t>Veľkosť skupiny</t>
+  </si>
+  <si>
+    <t>Počet výskytov</t>
+  </si>
+  <si>
+    <t>Percentá</t>
+  </si>
+  <si>
+    <t>Spolu</t>
+  </si>
+  <si>
+    <t>Cas odchodu z pokladne</t>
+  </si>
+  <si>
+    <t>Sekundy</t>
+  </si>
+  <si>
+    <t>pocet</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -417,11 +461,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -505,10 +560,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,11 +595,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="doba_obsluhypokladne_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="doba_obsluhypokladne_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pocet_prichLudi_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pocet_prichLudi" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -802,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,31 +884,32 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="9" max="10" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -859,8 +931,14 @@
       <c r="G3" s="37" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -880,15 +958,28 @@
         <f>E4-C4</f>
         <v>5.4398148148154801E-4</v>
       </c>
-      <c r="G4" s="42">
-        <v>47</v>
+      <c r="G4" s="41">
+        <f>F4*86400</f>
+        <v>47.000000000005748</v>
+      </c>
+      <c r="H4" t="e">
+        <f>se</f>
+        <v>#NAME?</v>
       </c>
       <c r="I4" s="40" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="45">
+        <f>C5-E4</f>
+        <v>3.4722222222172139E-5</v>
+      </c>
+      <c r="M4" s="43">
+        <f>L4*86400</f>
+        <v>2.9999999999956728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>2</v>
       </c>
@@ -908,13 +999,22 @@
         <f t="shared" ref="F5:F68" si="0">E5-C5</f>
         <v>1.1458333333333459E-3</v>
       </c>
-      <c r="G5" s="42">
-        <v>99</v>
+      <c r="G5" s="41">
+        <f t="shared" ref="G5:G68" si="1">F5*86400</f>
+        <v>99.00000000000108</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="45">
+        <f t="shared" ref="L5:L68" si="2">C6-E5</f>
+        <v>2.3148148148133263E-5</v>
+      </c>
+      <c r="M5" s="43">
+        <f t="shared" ref="M5:M68" si="3">L5*86400</f>
+        <v>1.9999999999987139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>3</v>
       </c>
@@ -934,8 +1034,9 @@
         <f t="shared" si="0"/>
         <v>1.8518518518523264E-4</v>
       </c>
-      <c r="G6" s="42">
-        <v>16</v>
+      <c r="G6" s="41">
+        <f t="shared" si="1"/>
+        <v>16.0000000000041</v>
       </c>
       <c r="I6" s="38" t="s">
         <v>21</v>
@@ -943,8 +1044,16 @@
       <c r="J6" s="38">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="45">
+        <f t="shared" si="2"/>
+        <v>3.4722222222172139E-5</v>
+      </c>
+      <c r="M6" s="43">
+        <f t="shared" si="3"/>
+        <v>2.9999999999956728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>4</v>
       </c>
@@ -964,8 +1073,9 @@
         <f t="shared" si="0"/>
         <v>2.777777777778212E-4</v>
       </c>
-      <c r="G7" s="42">
-        <v>24</v>
+      <c r="G7" s="41">
+        <f t="shared" si="1"/>
+        <v>24.000000000003752</v>
       </c>
       <c r="I7" s="38" t="s">
         <v>22</v>
@@ -973,8 +1083,16 @@
       <c r="J7" s="38">
         <v>2.4038689354009835</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="45">
+        <f t="shared" si="2"/>
+        <v>4.6296296296266526E-5</v>
+      </c>
+      <c r="M7" s="43">
+        <f t="shared" si="3"/>
+        <v>3.9999999999974278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>5</v>
       </c>
@@ -994,8 +1112,9 @@
         <f t="shared" si="0"/>
         <v>9.6064814814816879E-4</v>
       </c>
-      <c r="G8" s="42">
-        <v>83</v>
+      <c r="G8" s="41">
+        <f t="shared" si="1"/>
+        <v>83.000000000001791</v>
       </c>
       <c r="I8" s="38" t="s">
         <v>23</v>
@@ -1003,8 +1122,16 @@
       <c r="J8" s="38">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="45">
+        <f t="shared" si="2"/>
+        <v>9.2592592592588563E-5</v>
+      </c>
+      <c r="M8" s="43">
+        <f t="shared" si="3"/>
+        <v>7.9999999999996518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>6</v>
       </c>
@@ -1024,8 +1151,9 @@
         <f t="shared" si="0"/>
         <v>5.7870370370360913E-5</v>
       </c>
-      <c r="G9" s="42">
-        <v>5</v>
+      <c r="G9" s="41">
+        <f t="shared" si="1"/>
+        <v>4.9999999999991829</v>
       </c>
       <c r="I9" s="38" t="s">
         <v>24</v>
@@ -1033,8 +1161,16 @@
       <c r="J9" s="38">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="45">
+        <f t="shared" si="2"/>
+        <v>3.4722222222283161E-5</v>
+      </c>
+      <c r="M9" s="43">
+        <f t="shared" si="3"/>
+        <v>3.0000000000052651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>7</v>
       </c>
@@ -1054,8 +1190,9 @@
         <f t="shared" si="0"/>
         <v>3.3564814814807109E-4</v>
       </c>
-      <c r="G10" s="42">
-        <v>29</v>
+      <c r="G10" s="41">
+        <f t="shared" si="1"/>
+        <v>28.999999999993342</v>
       </c>
       <c r="I10" s="38" t="s">
         <v>25</v>
@@ -1063,8 +1200,16 @@
       <c r="J10" s="38">
         <v>24.038689354009836</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="45">
+        <f t="shared" si="2"/>
+        <v>8.1018518518549687E-5</v>
+      </c>
+      <c r="M10" s="43">
+        <f t="shared" si="3"/>
+        <v>7.000000000002693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>8</v>
       </c>
@@ -1084,8 +1229,9 @@
         <f t="shared" si="0"/>
         <v>2.3148148148144365E-4</v>
       </c>
-      <c r="G11" s="42">
-        <v>20</v>
+      <c r="G11" s="41">
+        <f t="shared" si="1"/>
+        <v>19.999999999996732</v>
       </c>
       <c r="I11" s="38" t="s">
         <v>26</v>
@@ -1093,8 +1239,16 @@
       <c r="J11" s="38">
         <v>577.85858585858591</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="45">
+        <f t="shared" si="2"/>
+        <v>1.388888888889106E-4</v>
+      </c>
+      <c r="M11" s="43">
+        <f t="shared" si="3"/>
+        <v>12.000000000001876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>9</v>
       </c>
@@ -1114,8 +1268,9 @@
         <f t="shared" si="0"/>
         <v>4.0509259259263741E-4</v>
       </c>
-      <c r="G12" s="42">
-        <v>35</v>
+      <c r="G12" s="41">
+        <f t="shared" si="1"/>
+        <v>35.000000000003872</v>
       </c>
       <c r="I12" s="38" t="s">
         <v>27</v>
@@ -1123,8 +1278,16 @@
       <c r="J12" s="38">
         <v>2.4605882226919138</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="45">
+        <f t="shared" si="2"/>
+        <v>1.7361111111108274E-4</v>
+      </c>
+      <c r="M12" s="43">
+        <f t="shared" si="3"/>
+        <v>14.999999999997549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>10</v>
       </c>
@@ -1144,8 +1307,9 @@
         <f t="shared" si="0"/>
         <v>3.0092592592589895E-4</v>
       </c>
-      <c r="G13" s="42">
-        <v>26</v>
+      <c r="G13" s="41">
+        <f t="shared" si="1"/>
+        <v>25.999999999997669</v>
       </c>
       <c r="I13" s="38" t="s">
         <v>28</v>
@@ -1153,8 +1317,16 @@
       <c r="J13" s="38">
         <v>1.0425245334884037</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13" s="45">
+        <f t="shared" si="2"/>
+        <v>3.472222222222765E-5</v>
+      </c>
+      <c r="M13" s="43">
+        <f t="shared" si="3"/>
+        <v>3.000000000000469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>11</v>
       </c>
@@ -1174,8 +1346,9 @@
         <f t="shared" si="0"/>
         <v>1.6898148148148384E-3</v>
       </c>
-      <c r="G14" s="42">
-        <v>146</v>
+      <c r="G14" s="41">
+        <f t="shared" si="1"/>
+        <v>146.00000000000205</v>
       </c>
       <c r="I14" s="38" t="s">
         <v>29</v>
@@ -1183,8 +1356,16 @@
       <c r="J14" s="38">
         <v>146</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="45">
+        <f t="shared" si="2"/>
+        <v>3.4722222222222099E-4</v>
+      </c>
+      <c r="M14" s="43">
+        <f t="shared" si="3"/>
+        <v>29.999999999999893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>12</v>
       </c>
@@ -1204,8 +1385,9 @@
         <f t="shared" si="0"/>
         <v>2.8935185185186008E-4</v>
       </c>
-      <c r="G15" s="42">
-        <v>25</v>
+      <c r="G15" s="41">
+        <f t="shared" si="1"/>
+        <v>25.000000000000711</v>
       </c>
       <c r="I15" s="38" t="s">
         <v>30</v>
@@ -1213,8 +1395,16 @@
       <c r="J15" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" s="45">
+        <f t="shared" si="2"/>
+        <v>5.7870370370305402E-5</v>
+      </c>
+      <c r="M15" s="43">
+        <f t="shared" si="3"/>
+        <v>4.9999999999943867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>13</v>
       </c>
@@ -1234,8 +1424,9 @@
         <f t="shared" si="0"/>
         <v>6.9444444444449749E-4</v>
       </c>
-      <c r="G16" s="42">
-        <v>60</v>
+      <c r="G16" s="41">
+        <f t="shared" si="1"/>
+        <v>60.000000000004583</v>
       </c>
       <c r="I16" s="38" t="s">
         <v>31</v>
@@ -1243,8 +1434,16 @@
       <c r="J16" s="38">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="45">
+        <f t="shared" si="2"/>
+        <v>2.3148148148133263E-5</v>
+      </c>
+      <c r="M16" s="43">
+        <f t="shared" si="3"/>
+        <v>1.9999999999987139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>14</v>
       </c>
@@ -1264,8 +1463,9 @@
         <f t="shared" si="0"/>
         <v>4.0509259259263741E-4</v>
       </c>
-      <c r="G17" s="42">
-        <v>35</v>
+      <c r="G17" s="41">
+        <f t="shared" si="1"/>
+        <v>35.000000000003872</v>
       </c>
       <c r="I17" s="38" t="s">
         <v>32</v>
@@ -1273,8 +1473,16 @@
       <c r="J17" s="38">
         <v>4380</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="45">
+        <f t="shared" si="2"/>
+        <v>3.4722222222172139E-5</v>
+      </c>
+      <c r="M17" s="43">
+        <f t="shared" si="3"/>
+        <v>2.9999999999956728</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <v>15</v>
       </c>
@@ -1294,8 +1502,9 @@
         <f t="shared" si="0"/>
         <v>3.0092592592589895E-4</v>
       </c>
-      <c r="G18" s="42">
-        <v>26</v>
+      <c r="G18" s="41">
+        <f t="shared" si="1"/>
+        <v>25.999999999997669</v>
       </c>
       <c r="I18" s="39" t="s">
         <v>33</v>
@@ -1303,8 +1512,16 @@
       <c r="J18" s="39">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074149898E-5</v>
+      </c>
+      <c r="M18" s="43">
+        <f t="shared" si="3"/>
+        <v>1.0000000000065512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>16</v>
       </c>
@@ -1324,11 +1541,20 @@
         <f t="shared" si="0"/>
         <v>3.5879629629631538E-4</v>
       </c>
-      <c r="G19" s="42">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="41">
+        <f t="shared" si="1"/>
+        <v>31.000000000001648</v>
+      </c>
+      <c r="L19" s="45">
+        <f t="shared" si="2"/>
+        <v>7.1759259259251973E-4</v>
+      </c>
+      <c r="M19" s="43">
+        <f t="shared" si="3"/>
+        <v>61.999999999993705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>17</v>
       </c>
@@ -1348,11 +1574,20 @@
         <f t="shared" si="0"/>
         <v>3.3564814814818211E-4</v>
       </c>
-      <c r="G20" s="42">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="41">
+        <f t="shared" si="1"/>
+        <v>29.000000000002935</v>
+      </c>
+      <c r="L20" s="45">
+        <f t="shared" si="2"/>
+        <v>2.3148148148133263E-5</v>
+      </c>
+      <c r="M20" s="43">
+        <f t="shared" si="3"/>
+        <v>1.9999999999987139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>18</v>
       </c>
@@ -1372,11 +1607,20 @@
         <f t="shared" si="0"/>
         <v>8.4490740740739145E-4</v>
       </c>
-      <c r="G21" s="42">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="41">
+        <f t="shared" si="1"/>
+        <v>72.999999999998622</v>
+      </c>
+      <c r="L21" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074094387E-5</v>
+      </c>
+      <c r="M21" s="43">
+        <f t="shared" si="3"/>
+        <v>1.000000000001755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>19</v>
       </c>
@@ -1396,11 +1640,20 @@
         <f t="shared" si="0"/>
         <v>7.5231481481480289E-4</v>
       </c>
-      <c r="G22" s="42">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="41">
+        <f t="shared" si="1"/>
+        <v>64.999999999998977</v>
+      </c>
+      <c r="L22" s="45">
+        <f t="shared" si="2"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="M22" s="43">
+        <f t="shared" si="3"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>20</v>
       </c>
@@ -1420,11 +1673,20 @@
         <f t="shared" si="0"/>
         <v>5.6712962962962576E-4</v>
       </c>
-      <c r="G23" s="42">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="41">
+        <f t="shared" si="1"/>
+        <v>48.999999999999666</v>
+      </c>
+      <c r="L23" s="45">
+        <f t="shared" si="2"/>
+        <v>2.3148148148077752E-5</v>
+      </c>
+      <c r="M23" s="43">
+        <f t="shared" si="3"/>
+        <v>1.9999999999939178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>21</v>
       </c>
@@ -1444,11 +1706,20 @@
         <f t="shared" si="0"/>
         <v>4.861111111111871E-4</v>
       </c>
-      <c r="G24" s="42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="41">
+        <f t="shared" si="1"/>
+        <v>42.000000000006565</v>
+      </c>
+      <c r="L24" s="45">
+        <f t="shared" si="2"/>
+        <v>4.3981481481480955E-4</v>
+      </c>
+      <c r="M24" s="43">
+        <f t="shared" si="3"/>
+        <v>37.999999999999545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>22</v>
       </c>
@@ -1468,11 +1739,20 @@
         <f t="shared" si="0"/>
         <v>6.8287037037029208E-4</v>
       </c>
-      <c r="G25" s="42">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="41">
+        <f t="shared" si="1"/>
+        <v>58.999999999993236</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="2"/>
+        <v>1.6203703703709937E-4</v>
+      </c>
+      <c r="M25" s="43">
+        <f t="shared" si="3"/>
+        <v>14.000000000005386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>23</v>
       </c>
@@ -1492,11 +1772,20 @@
         <f t="shared" si="0"/>
         <v>1.0185185185185297E-3</v>
       </c>
-      <c r="G26" s="42">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="41">
+        <f t="shared" si="1"/>
+        <v>88.000000000000966</v>
+      </c>
+      <c r="L26" s="45">
+        <f t="shared" si="2"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="M26" s="43">
+        <f t="shared" si="3"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>24</v>
       </c>
@@ -1516,11 +1805,20 @@
         <f t="shared" si="0"/>
         <v>4.7453703703692618E-4</v>
       </c>
-      <c r="G27" s="42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="41">
+        <f t="shared" si="1"/>
+        <v>40.999999999990422</v>
+      </c>
+      <c r="L27" s="45">
+        <f t="shared" si="2"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="M27" s="43">
+        <f t="shared" si="3"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>25</v>
       </c>
@@ -1540,11 +1838,20 @@
         <f t="shared" si="0"/>
         <v>4.3981481481480955E-4</v>
       </c>
-      <c r="G28" s="42">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="41">
+        <f t="shared" si="1"/>
+        <v>37.999999999999545</v>
+      </c>
+      <c r="L28" s="45">
+        <f t="shared" si="2"/>
+        <v>4.6296296296266526E-5</v>
+      </c>
+      <c r="M28" s="43">
+        <f t="shared" si="3"/>
+        <v>3.9999999999974278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>26</v>
       </c>
@@ -1564,11 +1871,20 @@
         <f t="shared" si="0"/>
         <v>5.7870370370372015E-4</v>
       </c>
-      <c r="G29" s="42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="41">
+        <f t="shared" si="1"/>
+        <v>50.000000000001421</v>
+      </c>
+      <c r="L29" s="45">
+        <f t="shared" si="2"/>
+        <v>4.6296296296377548E-5</v>
+      </c>
+      <c r="M29" s="43">
+        <f t="shared" si="3"/>
+        <v>4.0000000000070202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>27</v>
       </c>
@@ -1588,11 +1904,20 @@
         <f t="shared" si="0"/>
         <v>3.4722222222216548E-4</v>
       </c>
-      <c r="G30" s="42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="41">
+        <f t="shared" si="1"/>
+        <v>29.999999999995097</v>
+      </c>
+      <c r="L30" s="45">
+        <f t="shared" si="2"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="M30" s="43">
+        <f t="shared" si="3"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>28</v>
       </c>
@@ -1612,11 +1937,20 @@
         <f t="shared" si="0"/>
         <v>6.5972222222221433E-4</v>
       </c>
-      <c r="G31" s="42">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="41">
+        <f t="shared" si="1"/>
+        <v>56.999999999999318</v>
+      </c>
+      <c r="L31" s="45">
+        <f t="shared" si="2"/>
+        <v>3.4722222222116628E-5</v>
+      </c>
+      <c r="M31" s="43">
+        <f t="shared" si="3"/>
+        <v>2.9999999999908766</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>29</v>
       </c>
@@ -1636,11 +1970,20 @@
         <f t="shared" si="0"/>
         <v>2.5462962962974345E-4</v>
       </c>
-      <c r="G32" s="42">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="41">
+        <f t="shared" si="1"/>
+        <v>22.000000000009834</v>
+      </c>
+      <c r="L32" s="45">
+        <f t="shared" si="2"/>
+        <v>2.3148148148077752E-5</v>
+      </c>
+      <c r="M32" s="43">
+        <f t="shared" si="3"/>
+        <v>1.9999999999939178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>30</v>
       </c>
@@ -1660,11 +2003,20 @@
         <f t="shared" si="0"/>
         <v>4.861111111111871E-4</v>
       </c>
-      <c r="G33" s="42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="41">
+        <f t="shared" si="1"/>
+        <v>42.000000000006565</v>
+      </c>
+      <c r="L33" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M33" s="43">
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>31</v>
       </c>
@@ -1684,11 +2036,20 @@
         <f t="shared" si="0"/>
         <v>6.018518518517979E-4</v>
       </c>
-      <c r="G34" s="42">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="41">
+        <f t="shared" si="1"/>
+        <v>51.999999999995339</v>
+      </c>
+      <c r="L34" s="45">
+        <f t="shared" si="2"/>
+        <v>5.7870370370416424E-5</v>
+      </c>
+      <c r="M34" s="43">
+        <f t="shared" si="3"/>
+        <v>5.000000000003979</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>32</v>
       </c>
@@ -1708,11 +2069,20 @@
         <f t="shared" si="0"/>
         <v>3.1249999999993783E-4</v>
       </c>
-      <c r="G35" s="42">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="41">
+        <f t="shared" si="1"/>
+        <v>26.999999999994628</v>
+      </c>
+      <c r="L35" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074149898E-5</v>
+      </c>
+      <c r="M35" s="43">
+        <f t="shared" si="3"/>
+        <v>1.0000000000065512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>33</v>
       </c>
@@ -1732,11 +2102,20 @@
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="G36" s="42">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="41">
+        <f t="shared" si="1"/>
+        <v>59.999999999999787</v>
+      </c>
+      <c r="L36" s="45">
+        <f t="shared" si="2"/>
+        <v>2.3148148148077752E-5</v>
+      </c>
+      <c r="M36" s="43">
+        <f t="shared" si="3"/>
+        <v>1.9999999999939178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>34</v>
       </c>
@@ -1756,11 +2135,20 @@
         <f t="shared" si="0"/>
         <v>3.8194444444450415E-4</v>
       </c>
-      <c r="G37" s="42">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="41">
+        <f t="shared" si="1"/>
+        <v>33.000000000005159</v>
+      </c>
+      <c r="L37" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M37" s="43">
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>35</v>
       </c>
@@ -1780,11 +2168,20 @@
         <f t="shared" si="0"/>
         <v>4.6296296296299833E-4</v>
       </c>
-      <c r="G38" s="42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="41">
+        <f t="shared" si="1"/>
+        <v>40.000000000003055</v>
+      </c>
+      <c r="L38" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M38" s="43">
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>36</v>
       </c>
@@ -1804,11 +2201,20 @@
         <f t="shared" si="0"/>
         <v>4.861111111111871E-4</v>
       </c>
-      <c r="G39" s="42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="41">
+        <f t="shared" si="1"/>
+        <v>42.000000000006565</v>
+      </c>
+      <c r="L39" s="45">
+        <f t="shared" si="2"/>
+        <v>8.1018518518494176E-5</v>
+      </c>
+      <c r="M39" s="43">
+        <f t="shared" si="3"/>
+        <v>6.9999999999978968</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>37</v>
       </c>
@@ -1828,11 +2234,20 @@
         <f t="shared" si="0"/>
         <v>1.1574074074074403E-3</v>
       </c>
-      <c r="G40" s="42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="41">
+        <f t="shared" si="1"/>
+        <v>100.00000000000284</v>
+      </c>
+      <c r="L40" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074072183E-4</v>
+      </c>
+      <c r="M40" s="43">
+        <f t="shared" si="3"/>
+        <v>9.9999999999983658</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>38</v>
       </c>
@@ -1852,11 +2267,20 @@
         <f t="shared" si="0"/>
         <v>2.0833333333325488E-4</v>
       </c>
-      <c r="G41" s="42">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="41">
+        <f t="shared" si="1"/>
+        <v>17.999999999993221</v>
+      </c>
+      <c r="L41" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074149898E-5</v>
+      </c>
+      <c r="M41" s="43">
+        <f t="shared" si="3"/>
+        <v>1.0000000000065512</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>39</v>
       </c>
@@ -1876,11 +2300,20 @@
         <f t="shared" si="0"/>
         <v>6.018518518517979E-4</v>
       </c>
-      <c r="G42" s="42">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="41">
+        <f t="shared" si="1"/>
+        <v>51.999999999995339</v>
+      </c>
+      <c r="L42" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074149898E-5</v>
+      </c>
+      <c r="M42" s="43">
+        <f t="shared" si="3"/>
+        <v>1.0000000000065512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>40</v>
       </c>
@@ -1900,11 +2333,20 @@
         <f t="shared" si="0"/>
         <v>8.1018518518494176E-5</v>
       </c>
-      <c r="G43" s="42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="41">
+        <f t="shared" si="1"/>
+        <v>6.9999999999978968</v>
+      </c>
+      <c r="L43" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M43" s="43">
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>41</v>
       </c>
@@ -1924,11 +2366,20 @@
         <f t="shared" si="0"/>
         <v>5.0925925925926485E-4</v>
       </c>
-      <c r="G44" s="42">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="41">
+        <f t="shared" si="1"/>
+        <v>44.000000000000483</v>
+      </c>
+      <c r="L44" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M44" s="43">
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>42</v>
       </c>
@@ -1948,11 +2399,20 @@
         <f t="shared" si="0"/>
         <v>6.134259259259478E-4</v>
       </c>
-      <c r="G45" s="42">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="41">
+        <f t="shared" si="1"/>
+        <v>53.00000000000189</v>
+      </c>
+      <c r="L45" s="45">
+        <f t="shared" si="2"/>
+        <v>5.7870370370416424E-5</v>
+      </c>
+      <c r="M45" s="43">
+        <f t="shared" si="3"/>
+        <v>5.000000000003979</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>43</v>
       </c>
@@ -1972,11 +2432,20 @@
         <f t="shared" si="0"/>
         <v>5.324074074073426E-4</v>
       </c>
-      <c r="G46" s="42">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="41">
+        <f t="shared" si="1"/>
+        <v>45.999999999994401</v>
+      </c>
+      <c r="L46" s="45">
+        <f t="shared" si="2"/>
+        <v>3.472222222222765E-5</v>
+      </c>
+      <c r="M46" s="43">
+        <f t="shared" si="3"/>
+        <v>3.000000000000469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>44</v>
       </c>
@@ -1996,11 +2465,20 @@
         <f t="shared" si="0"/>
         <v>8.4490740740750248E-4</v>
       </c>
-      <c r="G47" s="42">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="41">
+        <f t="shared" si="1"/>
+        <v>73.000000000008214</v>
+      </c>
+      <c r="L47" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M47" s="43">
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <v>45</v>
       </c>
@@ -2020,11 +2498,20 @@
         <f t="shared" si="0"/>
         <v>6.712962962962532E-4</v>
       </c>
-      <c r="G48" s="42">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="41">
+        <f t="shared" si="1"/>
+        <v>57.999999999996277</v>
+      </c>
+      <c r="L48" s="45">
+        <f t="shared" si="2"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="M48" s="43">
+        <f t="shared" si="3"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>46</v>
       </c>
@@ -2044,11 +2531,20 @@
         <f t="shared" si="0"/>
         <v>2.7777777777771018E-4</v>
       </c>
-      <c r="G49" s="42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="41">
+        <f t="shared" si="1"/>
+        <v>23.999999999994159</v>
+      </c>
+      <c r="L49" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M49" s="43">
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
         <v>47</v>
       </c>
@@ -2068,11 +2564,20 @@
         <f t="shared" si="0"/>
         <v>1.388888888889106E-4</v>
       </c>
-      <c r="G50" s="42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="41">
+        <f t="shared" si="1"/>
+        <v>12.000000000001876</v>
+      </c>
+      <c r="L50" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074149898E-5</v>
+      </c>
+      <c r="M50" s="43">
+        <f t="shared" si="3"/>
+        <v>1.0000000000065512</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="27">
         <v>48</v>
       </c>
@@ -2092,11 +2597,20 @@
         <f t="shared" si="0"/>
         <v>2.4305555555559355E-4</v>
       </c>
-      <c r="G51" s="42">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="41">
+        <f t="shared" si="1"/>
+        <v>21.000000000003283</v>
+      </c>
+      <c r="L51" s="45">
+        <f t="shared" si="2"/>
+        <v>3.4722222222116628E-5</v>
+      </c>
+      <c r="M51" s="43">
+        <f t="shared" si="3"/>
+        <v>2.9999999999908766</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="27">
         <v>49</v>
       </c>
@@ -2116,11 +2630,20 @@
         <f t="shared" si="0"/>
         <v>1.7361111111113825E-4</v>
       </c>
-      <c r="G52" s="42">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="41">
+        <f t="shared" si="1"/>
+        <v>15.000000000002345</v>
+      </c>
+      <c r="L52" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074149898E-5</v>
+      </c>
+      <c r="M52" s="43">
+        <f t="shared" si="3"/>
+        <v>1.0000000000065512</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
         <v>50</v>
       </c>
@@ -2140,11 +2663,20 @@
         <f t="shared" si="0"/>
         <v>8.3333333333324155E-4</v>
       </c>
-      <c r="G53" s="42">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="41">
+        <f t="shared" si="1"/>
+        <v>71.99999999999207</v>
+      </c>
+      <c r="L53" s="45">
+        <f t="shared" si="2"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="M53" s="43">
+        <f t="shared" si="3"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>51</v>
       </c>
@@ -2164,11 +2696,20 @@
         <f t="shared" si="0"/>
         <v>4.3981481481480955E-4</v>
       </c>
-      <c r="G54" s="42">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="41">
+        <f t="shared" si="1"/>
+        <v>37.999999999999545</v>
+      </c>
+      <c r="L54" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
         <v>52</v>
       </c>
@@ -2188,11 +2729,20 @@
         <f t="shared" si="0"/>
         <v>4.8611111111107608E-4</v>
       </c>
-      <c r="G55" s="42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="41">
+        <f t="shared" si="1"/>
+        <v>41.999999999996973</v>
+      </c>
+      <c r="L55" s="45">
+        <f t="shared" si="2"/>
+        <v>5.7870370370416424E-5</v>
+      </c>
+      <c r="M55" s="43">
+        <f t="shared" si="3"/>
+        <v>5.000000000003979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
         <v>53</v>
       </c>
@@ -2212,11 +2762,20 @@
         <f t="shared" si="0"/>
         <v>7.2916666666666963E-4</v>
       </c>
-      <c r="G56" s="42">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="41">
+        <f t="shared" si="1"/>
+        <v>63.000000000000256</v>
+      </c>
+      <c r="L56" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M56" s="43">
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
         <v>54</v>
       </c>
@@ -2236,11 +2795,20 @@
         <f t="shared" si="0"/>
         <v>5.555555555556424E-4</v>
       </c>
-      <c r="G57" s="42">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="41">
+        <f t="shared" si="1"/>
+        <v>48.000000000007503</v>
+      </c>
+      <c r="L57" s="45">
+        <f t="shared" si="2"/>
+        <v>4.6296296296155504E-5</v>
+      </c>
+      <c r="M57" s="43">
+        <f t="shared" si="3"/>
+        <v>3.9999999999878355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>55</v>
       </c>
@@ -2260,11 +2828,20 @@
         <f t="shared" si="0"/>
         <v>3.5879629629631538E-4</v>
       </c>
-      <c r="G58" s="42">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="41">
+        <f t="shared" si="1"/>
+        <v>31.000000000001648</v>
+      </c>
+      <c r="L58" s="45">
+        <f t="shared" si="2"/>
+        <v>4.6296296296377548E-5</v>
+      </c>
+      <c r="M58" s="43">
+        <f t="shared" si="3"/>
+        <v>4.0000000000070202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>56</v>
       </c>
@@ -2284,11 +2861,20 @@
         <f t="shared" si="0"/>
         <v>6.3657407407402555E-4</v>
       </c>
-      <c r="G59" s="42">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="41">
+        <f t="shared" si="1"/>
+        <v>54.999999999995808</v>
+      </c>
+      <c r="L59" s="45">
+        <f t="shared" si="2"/>
+        <v>3.472222222222765E-5</v>
+      </c>
+      <c r="M59" s="43">
+        <f t="shared" si="3"/>
+        <v>3.000000000000469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>57</v>
       </c>
@@ -2308,11 +2894,20 @@
         <f t="shared" si="0"/>
         <v>4.2824074074077068E-4</v>
       </c>
-      <c r="G60" s="42">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="41">
+        <f t="shared" si="1"/>
+        <v>37.000000000002586</v>
+      </c>
+      <c r="L60" s="45">
+        <f t="shared" si="2"/>
+        <v>2.3148148148077752E-5</v>
+      </c>
+      <c r="M60" s="43">
+        <f t="shared" si="3"/>
+        <v>1.9999999999939178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>58</v>
       </c>
@@ -2332,11 +2927,20 @@
         <f t="shared" si="0"/>
         <v>7.1759259259263075E-4</v>
       </c>
-      <c r="G61" s="42">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="41">
+        <f t="shared" si="1"/>
+        <v>62.000000000003297</v>
+      </c>
+      <c r="L61" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M61" s="43">
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="27">
         <v>59</v>
       </c>
@@ -2356,11 +2960,20 @@
         <f t="shared" si="0"/>
         <v>5.3240740740745363E-4</v>
       </c>
-      <c r="G62" s="42">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="41">
+        <f t="shared" si="1"/>
+        <v>46.000000000003993</v>
+      </c>
+      <c r="L62" s="45">
+        <f t="shared" si="2"/>
+        <v>5.7870370370305402E-5</v>
+      </c>
+      <c r="M62" s="43">
+        <f t="shared" si="3"/>
+        <v>4.9999999999943867</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
         <v>60</v>
       </c>
@@ -2380,11 +2993,20 @@
         <f t="shared" si="0"/>
         <v>4.9768518518522598E-4</v>
       </c>
-      <c r="G63" s="42">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="41">
+        <f t="shared" si="1"/>
+        <v>43.000000000003524</v>
+      </c>
+      <c r="L63" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M63" s="43">
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="27">
         <v>61</v>
       </c>
@@ -2404,11 +3026,20 @@
         <f t="shared" si="0"/>
         <v>4.861111111111871E-4</v>
       </c>
-      <c r="G64" s="42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="41">
+        <f t="shared" si="1"/>
+        <v>42.000000000006565</v>
+      </c>
+      <c r="L64" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M64" s="43">
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="27">
         <v>62</v>
       </c>
@@ -2428,11 +3059,20 @@
         <f t="shared" si="0"/>
         <v>4.6296296296299833E-4</v>
       </c>
-      <c r="G65" s="42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="41">
+        <f t="shared" si="1"/>
+        <v>40.000000000003055</v>
+      </c>
+      <c r="L65" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M65" s="43">
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="27">
         <v>63</v>
       </c>
@@ -2452,11 +3092,20 @@
         <f t="shared" si="0"/>
         <v>5.9027777777787005E-4</v>
       </c>
-      <c r="G66" s="42">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="41">
+        <f t="shared" si="1"/>
+        <v>51.000000000007972</v>
+      </c>
+      <c r="L66" s="45">
+        <f t="shared" si="2"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M66" s="43">
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="27">
         <v>64</v>
       </c>
@@ -2476,11 +3125,20 @@
         <f t="shared" si="0"/>
         <v>1.0300925925925686E-3</v>
       </c>
-      <c r="G67" s="42">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="41">
+        <f t="shared" si="1"/>
+        <v>88.999999999997925</v>
+      </c>
+      <c r="L67" s="45">
+        <f t="shared" si="2"/>
+        <v>3.2523148148148051E-3</v>
+      </c>
+      <c r="M67" s="43">
+        <f t="shared" si="3"/>
+        <v>280.99999999999915</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
         <v>65</v>
       </c>
@@ -2500,11 +3158,20 @@
         <f t="shared" si="0"/>
         <v>8.796296296296191E-4</v>
       </c>
-      <c r="G68" s="42">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="41">
+        <f t="shared" si="1"/>
+        <v>75.999999999999091</v>
+      </c>
+      <c r="L68" s="45">
+        <f t="shared" si="2"/>
+        <v>5.7870370370372015E-4</v>
+      </c>
+      <c r="M68" s="43">
+        <f t="shared" si="3"/>
+        <v>50.000000000001421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="27">
         <v>66</v>
       </c>
@@ -2521,14 +3188,23 @@
         <v>0.53020833333333328</v>
       </c>
       <c r="F69" s="36">
-        <f t="shared" ref="F69:F103" si="1">E69-C69</f>
+        <f t="shared" ref="F69:F103" si="4">E69-C69</f>
         <v>3.4722222222216548E-4</v>
       </c>
-      <c r="G69" s="42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="41">
+        <f t="shared" ref="G69:G103" si="5">F69*86400</f>
+        <v>29.999999999995097</v>
+      </c>
+      <c r="L69" s="45">
+        <f t="shared" ref="L69:L104" si="6">C70-E69</f>
+        <v>4.6296296296377548E-5</v>
+      </c>
+      <c r="M69" s="43">
+        <f t="shared" ref="M69:M102" si="7">L69*86400</f>
+        <v>4.0000000000070202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="27">
         <v>67</v>
       </c>
@@ -2545,14 +3221,23 @@
         <v>0.53033564814814815</v>
       </c>
       <c r="F70" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.1018518518494176E-5</v>
       </c>
-      <c r="G70" s="42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="41">
+        <f t="shared" si="5"/>
+        <v>6.9999999999978968</v>
+      </c>
+      <c r="L70" s="45">
+        <f t="shared" si="6"/>
+        <v>1.0416666666668295E-4</v>
+      </c>
+      <c r="M70" s="43">
+        <f t="shared" si="7"/>
+        <v>9.0000000000014069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="27">
         <v>68</v>
       </c>
@@ -2560,23 +3245,32 @@
         <v>42684</v>
       </c>
       <c r="C71" s="28">
-        <v>0.53038194444444442</v>
+        <v>0.53043981481481484</v>
       </c>
       <c r="D71" s="35">
         <v>42684</v>
       </c>
       <c r="E71" s="28">
-        <v>0.53039351851851857</v>
+        <v>0.5307291666666667</v>
       </c>
       <c r="F71" s="36">
-        <f t="shared" si="1"/>
-        <v>1.1574074074149898E-5</v>
-      </c>
-      <c r="G71" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2.8935185185186008E-4</v>
+      </c>
+      <c r="G71" s="41">
+        <f t="shared" si="5"/>
+        <v>25.000000000000711</v>
+      </c>
+      <c r="L71" s="45">
+        <f t="shared" si="6"/>
+        <v>7.2916666666666963E-4</v>
+      </c>
+      <c r="M71" s="43">
+        <f t="shared" si="7"/>
+        <v>63.000000000000256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="27">
         <v>69</v>
       </c>
@@ -2584,23 +3278,32 @@
         <v>42684</v>
       </c>
       <c r="C72" s="28">
-        <v>0.53043981481481484</v>
+        <v>0.53145833333333337</v>
       </c>
       <c r="D72" s="35">
         <v>42684</v>
       </c>
       <c r="E72" s="28">
-        <v>0.5307291666666667</v>
+        <v>0.53234953703703702</v>
       </c>
       <c r="F72" s="36">
-        <f t="shared" si="1"/>
-        <v>2.8935185185186008E-4</v>
-      </c>
-      <c r="G72" s="42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>8.9120370370365798E-4</v>
+      </c>
+      <c r="G72" s="41">
+        <f t="shared" si="5"/>
+        <v>76.999999999996049</v>
+      </c>
+      <c r="L72" s="45">
+        <f t="shared" si="6"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="M72" s="43">
+        <f t="shared" si="7"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="27">
         <v>70</v>
       </c>
@@ -2608,23 +3311,32 @@
         <v>42684</v>
       </c>
       <c r="C73" s="28">
-        <v>0.53145833333333337</v>
+        <v>0.53237268518518521</v>
       </c>
       <c r="D73" s="35">
         <v>42684</v>
       </c>
       <c r="E73" s="28">
-        <v>0.53234953703703702</v>
+        <v>0.53288194444444448</v>
       </c>
       <c r="F73" s="36">
-        <f t="shared" si="1"/>
-        <v>8.9120370370365798E-4</v>
-      </c>
-      <c r="G73" s="42">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>5.0925925925926485E-4</v>
+      </c>
+      <c r="G73" s="41">
+        <f t="shared" si="5"/>
+        <v>44.000000000000483</v>
+      </c>
+      <c r="L73" s="45">
+        <f t="shared" si="6"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M73" s="43">
+        <f t="shared" si="7"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="27">
         <v>71</v>
       </c>
@@ -2632,23 +3344,32 @@
         <v>42684</v>
       </c>
       <c r="C74" s="28">
-        <v>0.53237268518518521</v>
+        <v>0.53289351851851852</v>
       </c>
       <c r="D74" s="35">
         <v>42684</v>
       </c>
       <c r="E74" s="28">
-        <v>0.53288194444444448</v>
+        <v>0.53340277777777778</v>
       </c>
       <c r="F74" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.0925925925926485E-4</v>
       </c>
-      <c r="G74" s="42">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="41">
+        <f t="shared" si="5"/>
+        <v>44.000000000000483</v>
+      </c>
+      <c r="L74" s="45">
+        <f t="shared" si="6"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M74" s="43">
+        <f t="shared" si="7"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="27">
         <v>72</v>
       </c>
@@ -2656,23 +3377,32 @@
         <v>42684</v>
       </c>
       <c r="C75" s="28">
-        <v>0.53289351851851852</v>
+        <v>0.53341435185185182</v>
       </c>
       <c r="D75" s="35">
         <v>42684</v>
       </c>
       <c r="E75" s="28">
-        <v>0.53340277777777778</v>
+        <v>0.53384259259259259</v>
       </c>
       <c r="F75" s="36">
-        <f t="shared" si="1"/>
-        <v>5.0925925925926485E-4</v>
-      </c>
-      <c r="G75" s="42">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4.2824074074077068E-4</v>
+      </c>
+      <c r="G75" s="41">
+        <f t="shared" si="5"/>
+        <v>37.000000000002586</v>
+      </c>
+      <c r="L75" s="45">
+        <f t="shared" si="6"/>
+        <v>4.6296296296266526E-5</v>
+      </c>
+      <c r="M75" s="43">
+        <f t="shared" si="7"/>
+        <v>3.9999999999974278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="27">
         <v>73</v>
       </c>
@@ -2680,23 +3410,32 @@
         <v>42684</v>
       </c>
       <c r="C76" s="28">
-        <v>0.53341435185185182</v>
+        <v>0.53388888888888886</v>
       </c>
       <c r="D76" s="35">
         <v>42684</v>
       </c>
       <c r="E76" s="28">
-        <v>0.53384259259259259</v>
+        <v>0.53451388888888884</v>
       </c>
       <c r="F76" s="36">
-        <f t="shared" si="1"/>
-        <v>4.2824074074077068E-4</v>
-      </c>
-      <c r="G76" s="42">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>6.2499999999998668E-4</v>
+      </c>
+      <c r="G76" s="41">
+        <f t="shared" si="5"/>
+        <v>53.999999999998849</v>
+      </c>
+      <c r="L76" s="45">
+        <f t="shared" si="6"/>
+        <v>9.2592592592644074E-5</v>
+      </c>
+      <c r="M76" s="43">
+        <f t="shared" si="7"/>
+        <v>8.000000000004448</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="27">
         <v>74</v>
       </c>
@@ -2704,23 +3443,32 @@
         <v>42684</v>
       </c>
       <c r="C77" s="28">
-        <v>0.53388888888888886</v>
+        <v>0.53460648148148149</v>
       </c>
       <c r="D77" s="35">
         <v>42684</v>
       </c>
       <c r="E77" s="28">
-        <v>0.53451388888888884</v>
+        <v>0.53498842592592599</v>
       </c>
       <c r="F77" s="36">
-        <f t="shared" si="1"/>
-        <v>6.2499999999998668E-4</v>
-      </c>
-      <c r="G77" s="42">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.8194444444450415E-4</v>
+      </c>
+      <c r="G77" s="41">
+        <f t="shared" si="5"/>
+        <v>33.000000000005159</v>
+      </c>
+      <c r="L77" s="45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="27">
         <v>75</v>
       </c>
@@ -2728,23 +3476,32 @@
         <v>42684</v>
       </c>
       <c r="C78" s="28">
-        <v>0.53460648148148149</v>
+        <v>0.53498842592592599</v>
       </c>
       <c r="D78" s="35">
         <v>42684</v>
       </c>
       <c r="E78" s="28">
-        <v>0.53498842592592599</v>
+        <v>0.5352662037037037</v>
       </c>
       <c r="F78" s="36">
-        <f t="shared" si="1"/>
-        <v>3.8194444444450415E-4</v>
-      </c>
-      <c r="G78" s="42">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2.7777777777771018E-4</v>
+      </c>
+      <c r="G78" s="41">
+        <f t="shared" si="5"/>
+        <v>23.999999999994159</v>
+      </c>
+      <c r="L78" s="45">
+        <f t="shared" si="6"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="M78" s="43">
+        <f t="shared" si="7"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="27">
         <v>76</v>
       </c>
@@ -2752,23 +3509,32 @@
         <v>42684</v>
       </c>
       <c r="C79" s="28">
-        <v>0.53498842592592599</v>
+        <v>0.53528935185185189</v>
       </c>
       <c r="D79" s="35">
         <v>42684</v>
       </c>
       <c r="E79" s="28">
-        <v>0.5352662037037037</v>
+        <v>0.53589120370370369</v>
       </c>
       <c r="F79" s="36">
-        <f t="shared" si="1"/>
-        <v>2.7777777777771018E-4</v>
-      </c>
-      <c r="G79" s="42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>6.018518518517979E-4</v>
+      </c>
+      <c r="G79" s="41">
+        <f t="shared" si="5"/>
+        <v>51.999999999995339</v>
+      </c>
+      <c r="L79" s="45">
+        <f t="shared" si="6"/>
+        <v>2.3148148148144365E-4</v>
+      </c>
+      <c r="M79" s="43">
+        <f t="shared" si="7"/>
+        <v>19.999999999996732</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="27">
         <v>77</v>
       </c>
@@ -2776,23 +3542,32 @@
         <v>42684</v>
       </c>
       <c r="C80" s="28">
-        <v>0.53528935185185189</v>
+        <v>0.53612268518518513</v>
       </c>
       <c r="D80" s="35">
         <v>42684</v>
       </c>
       <c r="E80" s="28">
-        <v>0.53589120370370369</v>
+        <v>0.53686342592592595</v>
       </c>
       <c r="F80" s="36">
-        <f t="shared" si="1"/>
-        <v>6.018518518517979E-4</v>
-      </c>
-      <c r="G80" s="42">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.4074074074081953E-4</v>
+      </c>
+      <c r="G80" s="41">
+        <f t="shared" si="5"/>
+        <v>64.000000000006807</v>
+      </c>
+      <c r="L80" s="45">
+        <f t="shared" si="6"/>
+        <v>1.3888888888879958E-4</v>
+      </c>
+      <c r="M80" s="43">
+        <f t="shared" si="7"/>
+        <v>11.999999999992284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="27">
         <v>78</v>
       </c>
@@ -2800,23 +3575,32 @@
         <v>42684</v>
       </c>
       <c r="C81" s="28">
-        <v>0.53612268518518513</v>
+        <v>0.53700231481481475</v>
       </c>
       <c r="D81" s="35">
         <v>42684</v>
       </c>
       <c r="E81" s="28">
-        <v>0.53686342592592595</v>
+        <v>0.53738425925925926</v>
       </c>
       <c r="F81" s="36">
-        <f t="shared" si="1"/>
-        <v>7.4074074074081953E-4</v>
-      </c>
-      <c r="G81" s="42">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.8194444444450415E-4</v>
+      </c>
+      <c r="G81" s="41">
+        <f t="shared" si="5"/>
+        <v>33.000000000005159</v>
+      </c>
+      <c r="L81" s="45">
+        <f t="shared" si="6"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="M81" s="43">
+        <f t="shared" si="7"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="27">
         <v>79</v>
       </c>
@@ -2824,23 +3608,32 @@
         <v>42684</v>
       </c>
       <c r="C82" s="28">
-        <v>0.53700231481481475</v>
+        <v>0.53740740740740744</v>
       </c>
       <c r="D82" s="35">
         <v>42684</v>
       </c>
       <c r="E82" s="28">
-        <v>0.53738425925925926</v>
+        <v>0.53789351851851852</v>
       </c>
       <c r="F82" s="36">
-        <f t="shared" si="1"/>
-        <v>3.8194444444450415E-4</v>
-      </c>
-      <c r="G82" s="42">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4.8611111111107608E-4</v>
+      </c>
+      <c r="G82" s="41">
+        <f t="shared" si="5"/>
+        <v>41.999999999996973</v>
+      </c>
+      <c r="L82" s="45">
+        <f t="shared" si="6"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M82" s="43">
+        <f t="shared" si="7"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="27">
         <v>80</v>
       </c>
@@ -2848,23 +3641,32 @@
         <v>42684</v>
       </c>
       <c r="C83" s="28">
-        <v>0.53740740740740744</v>
+        <v>0.53790509259259256</v>
       </c>
       <c r="D83" s="35">
         <v>42684</v>
       </c>
       <c r="E83" s="28">
-        <v>0.53789351851851852</v>
+        <v>0.5385416666666667</v>
       </c>
       <c r="F83" s="36">
-        <f t="shared" si="1"/>
-        <v>4.8611111111107608E-4</v>
-      </c>
-      <c r="G83" s="42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>6.3657407407413658E-4</v>
+      </c>
+      <c r="G83" s="41">
+        <f t="shared" si="5"/>
+        <v>55.0000000000054</v>
+      </c>
+      <c r="L83" s="45">
+        <f t="shared" si="6"/>
+        <v>3.472222222222765E-5</v>
+      </c>
+      <c r="M83" s="43">
+        <f t="shared" si="7"/>
+        <v>3.000000000000469</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="27">
         <v>81</v>
       </c>
@@ -2872,23 +3674,32 @@
         <v>42684</v>
       </c>
       <c r="C84" s="28">
-        <v>0.53790509259259256</v>
+        <v>0.53857638888888892</v>
       </c>
       <c r="D84" s="35">
         <v>42684</v>
       </c>
       <c r="E84" s="28">
-        <v>0.5385416666666667</v>
+        <v>0.53965277777777776</v>
       </c>
       <c r="F84" s="36">
-        <f t="shared" si="1"/>
-        <v>6.3657407407413658E-4</v>
-      </c>
-      <c r="G84" s="42">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.0763888888888351E-3</v>
+      </c>
+      <c r="G84" s="41">
+        <f t="shared" si="5"/>
+        <v>92.999999999995353</v>
+      </c>
+      <c r="L84" s="45">
+        <f t="shared" si="6"/>
+        <v>4.6296296296266526E-5</v>
+      </c>
+      <c r="M84" s="43">
+        <f t="shared" si="7"/>
+        <v>3.9999999999974278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="27">
         <v>82</v>
       </c>
@@ -2896,23 +3707,32 @@
         <v>42684</v>
       </c>
       <c r="C85" s="28">
-        <v>0.53857638888888892</v>
+        <v>0.53969907407407403</v>
       </c>
       <c r="D85" s="35">
         <v>42684</v>
       </c>
       <c r="E85" s="28">
-        <v>0.53965277777777776</v>
+        <v>0.54010416666666672</v>
       </c>
       <c r="F85" s="36">
-        <f t="shared" si="1"/>
-        <v>1.0763888888888351E-3</v>
-      </c>
-      <c r="G85" s="42">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4.0509259259269292E-4</v>
+      </c>
+      <c r="G85" s="41">
+        <f t="shared" si="5"/>
+        <v>35.000000000008669</v>
+      </c>
+      <c r="L85" s="45">
+        <f t="shared" si="6"/>
+        <v>4.6296296296266526E-5</v>
+      </c>
+      <c r="M85" s="43">
+        <f t="shared" si="7"/>
+        <v>3.9999999999974278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="27">
         <v>83</v>
       </c>
@@ -2920,23 +3740,32 @@
         <v>42684</v>
       </c>
       <c r="C86" s="28">
-        <v>0.53969907407407403</v>
+        <v>0.54015046296296299</v>
       </c>
       <c r="D86" s="35">
         <v>42684</v>
       </c>
       <c r="E86" s="28">
-        <v>0.54010416666666672</v>
+        <v>0.54094907407407411</v>
       </c>
       <c r="F86" s="36">
-        <f t="shared" si="1"/>
-        <v>4.0509259259269292E-4</v>
-      </c>
-      <c r="G86" s="42">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.9861111111112493E-4</v>
+      </c>
+      <c r="G86" s="41">
+        <f t="shared" si="5"/>
+        <v>69.000000000001194</v>
+      </c>
+      <c r="L86" s="45">
+        <f t="shared" si="6"/>
+        <v>1.7361111111113825E-4</v>
+      </c>
+      <c r="M86" s="43">
+        <f t="shared" si="7"/>
+        <v>15.000000000002345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="27">
         <v>84</v>
       </c>
@@ -2944,23 +3773,32 @@
         <v>42684</v>
       </c>
       <c r="C87" s="28">
-        <v>0.54015046296296299</v>
+        <v>0.54112268518518525</v>
       </c>
       <c r="D87" s="35">
         <v>42684</v>
       </c>
       <c r="E87" s="28">
-        <v>0.54094907407407411</v>
+        <v>0.54126157407407405</v>
       </c>
       <c r="F87" s="36">
-        <f t="shared" si="1"/>
-        <v>7.9861111111112493E-4</v>
-      </c>
-      <c r="G87" s="42">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.3888888888879958E-4</v>
+      </c>
+      <c r="G87" s="41">
+        <f t="shared" si="5"/>
+        <v>11.999999999992284</v>
+      </c>
+      <c r="L87" s="45">
+        <f t="shared" si="6"/>
+        <v>1.0416666666668295E-4</v>
+      </c>
+      <c r="M87" s="43">
+        <f t="shared" si="7"/>
+        <v>9.0000000000014069</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="27">
         <v>85</v>
       </c>
@@ -2968,23 +3806,32 @@
         <v>42684</v>
       </c>
       <c r="C88" s="28">
-        <v>0.54112268518518525</v>
+        <v>0.54136574074074073</v>
       </c>
       <c r="D88" s="35">
         <v>42684</v>
       </c>
       <c r="E88" s="28">
-        <v>0.54126157407407405</v>
+        <v>0.54199074074074072</v>
       </c>
       <c r="F88" s="36">
-        <f t="shared" si="1"/>
-        <v>1.3888888888879958E-4</v>
-      </c>
-      <c r="G88" s="42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>6.2499999999998668E-4</v>
+      </c>
+      <c r="G88" s="41">
+        <f t="shared" si="5"/>
+        <v>53.999999999998849</v>
+      </c>
+      <c r="L88" s="45">
+        <f t="shared" si="6"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="M88" s="43">
+        <f t="shared" si="7"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="27">
         <v>86</v>
       </c>
@@ -2992,23 +3839,32 @@
         <v>42684</v>
       </c>
       <c r="C89" s="28">
-        <v>0.54136574074074073</v>
+        <v>0.54201388888888891</v>
       </c>
       <c r="D89" s="35">
         <v>42684</v>
       </c>
       <c r="E89" s="28">
-        <v>0.54199074074074072</v>
+        <v>0.54259259259259263</v>
       </c>
       <c r="F89" s="36">
-        <f t="shared" si="1"/>
-        <v>6.2499999999998668E-4</v>
-      </c>
-      <c r="G89" s="42">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>5.7870370370372015E-4</v>
+      </c>
+      <c r="G89" s="41">
+        <f t="shared" si="5"/>
+        <v>50.000000000001421</v>
+      </c>
+      <c r="L89" s="45">
+        <f t="shared" si="6"/>
+        <v>3.240740740739767E-4</v>
+      </c>
+      <c r="M89" s="43">
+        <f t="shared" si="7"/>
+        <v>27.999999999991587</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="27">
         <v>87</v>
       </c>
@@ -3016,23 +3872,32 @@
         <v>42684</v>
       </c>
       <c r="C90" s="28">
-        <v>0.54201388888888891</v>
+        <v>0.5429166666666666</v>
       </c>
       <c r="D90" s="35">
         <v>42684</v>
       </c>
       <c r="E90" s="28">
-        <v>0.54259259259259263</v>
+        <v>0.54309027777777774</v>
       </c>
       <c r="F90" s="36">
-        <f t="shared" si="1"/>
-        <v>5.7870370370372015E-4</v>
-      </c>
-      <c r="G90" s="42">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.7361111111113825E-4</v>
+      </c>
+      <c r="G90" s="41">
+        <f t="shared" si="5"/>
+        <v>15.000000000002345</v>
+      </c>
+      <c r="L90" s="45">
+        <f t="shared" si="6"/>
+        <v>3.472222222222765E-5</v>
+      </c>
+      <c r="M90" s="43">
+        <f t="shared" si="7"/>
+        <v>3.000000000000469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="27">
         <v>88</v>
       </c>
@@ -3040,23 +3905,32 @@
         <v>42684</v>
       </c>
       <c r="C91" s="28">
-        <v>0.5429166666666666</v>
+        <v>0.54312499999999997</v>
       </c>
       <c r="D91" s="35">
         <v>42684</v>
       </c>
       <c r="E91" s="28">
-        <v>0.54309027777777774</v>
+        <v>0.54402777777777778</v>
       </c>
       <c r="F91" s="36">
-        <f t="shared" si="1"/>
-        <v>1.7361111111113825E-4</v>
-      </c>
-      <c r="G91" s="42">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>9.0277777777780788E-4</v>
+      </c>
+      <c r="G91" s="41">
+        <f t="shared" si="5"/>
+        <v>78.000000000002601</v>
+      </c>
+      <c r="L91" s="45">
+        <f t="shared" si="6"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="M91" s="43">
+        <f t="shared" si="7"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="27">
         <v>89</v>
       </c>
@@ -3064,23 +3938,32 @@
         <v>42684</v>
       </c>
       <c r="C92" s="28">
-        <v>0.54312499999999997</v>
+        <v>0.54405092592592597</v>
       </c>
       <c r="D92" s="35">
         <v>42684</v>
       </c>
       <c r="E92" s="28">
-        <v>0.54402777777777778</v>
+        <v>0.54452546296296289</v>
       </c>
       <c r="F92" s="36">
-        <f t="shared" si="1"/>
-        <v>9.0277777777780788E-4</v>
-      </c>
-      <c r="G92" s="42">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4.7453703703692618E-4</v>
+      </c>
+      <c r="G92" s="41">
+        <f t="shared" si="5"/>
+        <v>40.999999999990422</v>
+      </c>
+      <c r="L92" s="45">
+        <f t="shared" si="6"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="M92" s="43">
+        <f t="shared" si="7"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="27">
         <v>90</v>
       </c>
@@ -3088,23 +3971,32 @@
         <v>42684</v>
       </c>
       <c r="C93" s="28">
-        <v>0.54405092592592597</v>
+        <v>0.54454861111111108</v>
       </c>
       <c r="D93" s="35">
         <v>42684</v>
       </c>
       <c r="E93" s="28">
-        <v>0.54452546296296289</v>
+        <v>0.54533564814814817</v>
       </c>
       <c r="F93" s="36">
-        <f t="shared" si="1"/>
-        <v>4.7453703703692618E-4</v>
-      </c>
-      <c r="G93" s="42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>7.8703703703708605E-4</v>
+      </c>
+      <c r="G93" s="41">
+        <f t="shared" si="5"/>
+        <v>68.000000000004235</v>
+      </c>
+      <c r="L93" s="45">
+        <f t="shared" si="6"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="M93" s="43">
+        <f t="shared" si="7"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="27">
         <v>91</v>
       </c>
@@ -3112,23 +4004,32 @@
         <v>42684</v>
       </c>
       <c r="C94" s="28">
-        <v>0.54454861111111108</v>
+        <v>0.54535879629629636</v>
       </c>
       <c r="D94" s="35">
         <v>42684</v>
       </c>
       <c r="E94" s="28">
-        <v>0.54533564814814817</v>
+        <v>0.54579861111111116</v>
       </c>
       <c r="F94" s="36">
-        <f t="shared" si="1"/>
-        <v>7.8703703703708605E-4</v>
-      </c>
-      <c r="G94" s="42">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>4.3981481481480955E-4</v>
+      </c>
+      <c r="G94" s="41">
+        <f t="shared" si="5"/>
+        <v>37.999999999999545</v>
+      </c>
+      <c r="L94" s="45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="27">
         <v>92</v>
       </c>
@@ -3136,23 +4037,32 @@
         <v>42684</v>
       </c>
       <c r="C95" s="28">
-        <v>0.54535879629629636</v>
+        <v>0.54579861111111116</v>
       </c>
       <c r="D95" s="35">
         <v>42684</v>
       </c>
       <c r="E95" s="28">
-        <v>0.54579861111111116</v>
+        <v>0.54615740740740748</v>
       </c>
       <c r="F95" s="36">
-        <f t="shared" si="1"/>
-        <v>4.3981481481480955E-4</v>
-      </c>
-      <c r="G95" s="42">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.5879629629631538E-4</v>
+      </c>
+      <c r="G95" s="41">
+        <f t="shared" si="5"/>
+        <v>31.000000000001648</v>
+      </c>
+      <c r="L95" s="45">
+        <f t="shared" si="6"/>
+        <v>3.4722222222116628E-5</v>
+      </c>
+      <c r="M95" s="43">
+        <f t="shared" si="7"/>
+        <v>2.9999999999908766</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="27">
         <v>93</v>
       </c>
@@ -3160,23 +4070,32 @@
         <v>42684</v>
       </c>
       <c r="C96" s="28">
-        <v>0.54579861111111116</v>
+        <v>0.5461921296296296</v>
       </c>
       <c r="D96" s="35">
         <v>42684</v>
       </c>
       <c r="E96" s="28">
-        <v>0.54615740740740748</v>
+        <v>0.54638888888888892</v>
       </c>
       <c r="F96" s="36">
-        <f t="shared" si="1"/>
-        <v>3.5879629629631538E-4</v>
-      </c>
-      <c r="G96" s="42">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.9675925925932702E-4</v>
+      </c>
+      <c r="G96" s="41">
+        <f t="shared" si="5"/>
+        <v>17.000000000005855</v>
+      </c>
+      <c r="L96" s="45">
+        <f t="shared" si="6"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="M96" s="43">
+        <f t="shared" si="7"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="27">
         <v>94</v>
       </c>
@@ -3184,23 +4103,32 @@
         <v>42684</v>
       </c>
       <c r="C97" s="28">
-        <v>0.5461921296296296</v>
+        <v>0.54640046296296296</v>
       </c>
       <c r="D97" s="35">
         <v>42684</v>
       </c>
       <c r="E97" s="28">
-        <v>0.54638888888888892</v>
+        <v>0.54673611111111109</v>
       </c>
       <c r="F97" s="36">
-        <f t="shared" si="1"/>
-        <v>1.9675925925932702E-4</v>
-      </c>
-      <c r="G97" s="42">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.356481481481266E-4</v>
+      </c>
+      <c r="G97" s="41">
+        <f t="shared" si="5"/>
+        <v>28.999999999998138</v>
+      </c>
+      <c r="L97" s="45">
+        <f t="shared" si="6"/>
+        <v>1.1574074074149898E-5</v>
+      </c>
+      <c r="M97" s="43">
+        <f t="shared" si="7"/>
+        <v>1.0000000000065512</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="27">
         <v>95</v>
       </c>
@@ -3208,23 +4136,32 @@
         <v>42684</v>
       </c>
       <c r="C98" s="28">
-        <v>0.54640046296296296</v>
+        <v>0.54674768518518524</v>
       </c>
       <c r="D98" s="35">
         <v>42684</v>
       </c>
       <c r="E98" s="28">
-        <v>0.54673611111111109</v>
+        <v>0.54700231481481476</v>
       </c>
       <c r="F98" s="36">
-        <f t="shared" si="1"/>
-        <v>3.356481481481266E-4</v>
-      </c>
-      <c r="G98" s="42">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2.546296296295214E-4</v>
+      </c>
+      <c r="G98" s="41">
+        <f t="shared" si="5"/>
+        <v>21.999999999990649</v>
+      </c>
+      <c r="L98" s="45">
+        <f t="shared" si="6"/>
+        <v>1.1574074074149898E-5</v>
+      </c>
+      <c r="M98" s="43">
+        <f t="shared" si="7"/>
+        <v>1.0000000000065512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="27">
         <v>96</v>
       </c>
@@ -3232,23 +4169,32 @@
         <v>42684</v>
       </c>
       <c r="C99" s="28">
-        <v>0.54674768518518524</v>
+        <v>0.54701388888888891</v>
       </c>
       <c r="D99" s="35">
         <v>42684</v>
       </c>
       <c r="E99" s="28">
-        <v>0.54700231481481476</v>
+        <v>0.54723379629629632</v>
       </c>
       <c r="F99" s="36">
-        <f t="shared" si="1"/>
-        <v>2.546296296295214E-4</v>
-      </c>
-      <c r="G99" s="42">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2.1990740740740478E-4</v>
+      </c>
+      <c r="G99" s="41">
+        <f t="shared" si="5"/>
+        <v>18.999999999999773</v>
+      </c>
+      <c r="L99" s="45">
+        <f t="shared" si="6"/>
+        <v>1.8518518518517713E-4</v>
+      </c>
+      <c r="M99" s="43">
+        <f t="shared" si="7"/>
+        <v>15.999999999999304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="27">
         <v>97</v>
       </c>
@@ -3256,23 +4202,32 @@
         <v>42684</v>
       </c>
       <c r="C100" s="28">
-        <v>0.54701388888888891</v>
+        <v>0.54741898148148149</v>
       </c>
       <c r="D100" s="35">
         <v>42684</v>
       </c>
       <c r="E100" s="28">
-        <v>0.54723379629629632</v>
+        <v>0.54775462962962962</v>
       </c>
       <c r="F100" s="36">
-        <f t="shared" si="1"/>
-        <v>2.1990740740740478E-4</v>
-      </c>
-      <c r="G100" s="42">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.356481481481266E-4</v>
+      </c>
+      <c r="G100" s="41">
+        <f t="shared" si="5"/>
+        <v>28.999999999998138</v>
+      </c>
+      <c r="L100" s="45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="27">
         <v>98</v>
       </c>
@@ -3280,61 +4235,90 @@
         <v>42684</v>
       </c>
       <c r="C101" s="28">
-        <v>0.54741898148148149</v>
+        <v>0.54775462962962962</v>
       </c>
       <c r="D101" s="35">
         <v>42684</v>
       </c>
       <c r="E101" s="28">
-        <v>0.54775462962962962</v>
+        <v>0.54837962962962961</v>
       </c>
       <c r="F101" s="36">
-        <f t="shared" si="1"/>
-        <v>3.356481481481266E-4</v>
-      </c>
-      <c r="G101" s="42">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>6.2499999999998668E-4</v>
+      </c>
+      <c r="G101" s="41">
+        <f t="shared" si="5"/>
+        <v>53.999999999998849</v>
+      </c>
+      <c r="L101" s="45">
+        <f t="shared" si="6"/>
+        <v>4.6296296296377548E-5</v>
+      </c>
+      <c r="M101" s="43">
+        <f t="shared" si="7"/>
+        <v>4.0000000000070202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="27">
         <v>99</v>
       </c>
-      <c r="B102" s="35">
-        <v>42684</v>
-      </c>
+      <c r="B102" s="28"/>
       <c r="C102" s="28">
-        <v>0.54775462962962962</v>
-      </c>
-      <c r="D102" s="35">
-        <v>42684</v>
-      </c>
+        <v>0.54842592592592598</v>
+      </c>
+      <c r="D102" s="28"/>
       <c r="E102" s="28">
-        <v>0.54837962962962961</v>
+        <v>0.54925925925925922</v>
       </c>
       <c r="F102" s="36">
-        <f t="shared" si="1"/>
-        <v>6.2499999999998668E-4</v>
-      </c>
-      <c r="G102" s="42">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="27">
+        <f>E102-C102</f>
+        <v>8.3333333333324155E-4</v>
+      </c>
+      <c r="G102" s="41">
+        <f t="shared" si="5"/>
+        <v>71.99999999999207</v>
+      </c>
+      <c r="L102" s="45">
+        <f t="shared" si="6"/>
+        <v>6.94444444444553E-5</v>
+      </c>
+      <c r="M102" s="43">
+        <f t="shared" si="7"/>
+        <v>6.0000000000009379</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="44">
         <v>100</v>
       </c>
-      <c r="B103" s="35"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="28"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="45">
+        <v>0.54932870370370368</v>
+      </c>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45">
+        <v>0.55027777777777775</v>
+      </c>
       <c r="F103" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="42">
-        <v>0</v>
-      </c>
+        <f>E103-C103</f>
+        <v>9.490740740740744E-4</v>
+      </c>
+      <c r="G103" s="41">
+        <f t="shared" si="5"/>
+        <v>82.000000000000028</v>
+      </c>
+      <c r="L103" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="M103" s="43">
+        <f>COUNT(M4:M102)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L104" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3351,7 +4335,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4190,7 +5174,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5030,7 +6014,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5865,8 +6849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6893,4 +7877,925 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="33">
+        <v>0.63468749999999996</v>
+      </c>
+      <c r="B1" s="33">
+        <f>A2-A1</f>
+        <v>2.1990740740740478E-4</v>
+      </c>
+      <c r="C1" s="43">
+        <f>B1*86400</f>
+        <v>18.999999999999773</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
+        <v>0.63490740740740736</v>
+      </c>
+      <c r="B2" s="33">
+        <f t="shared" ref="B2:B39" si="0">A3-A2</f>
+        <v>1.1226851851852127E-3</v>
+      </c>
+      <c r="C2" s="43">
+        <f t="shared" ref="C2:C39" si="1">B2*86400</f>
+        <v>97.000000000002373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>0.63603009259259258</v>
+      </c>
+      <c r="B3" s="33">
+        <f t="shared" si="0"/>
+        <v>6.94444444444553E-5</v>
+      </c>
+      <c r="C3" s="43">
+        <f t="shared" si="1"/>
+        <v>6.0000000000009379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>0.63609953703703703</v>
+      </c>
+      <c r="B4" s="33">
+        <f t="shared" si="0"/>
+        <v>2.083333333333659E-4</v>
+      </c>
+      <c r="C4" s="43">
+        <f t="shared" si="1"/>
+        <v>18.000000000002814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>0.6363078703703704</v>
+      </c>
+      <c r="B5" s="33">
+        <f t="shared" si="0"/>
+        <v>3.7037037037035425E-4</v>
+      </c>
+      <c r="C5" s="43">
+        <f t="shared" si="1"/>
+        <v>31.999999999998607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>0.63667824074074075</v>
+      </c>
+      <c r="B6" s="33">
+        <f t="shared" si="0"/>
+        <v>1.1111111111110628E-3</v>
+      </c>
+      <c r="C6" s="43">
+        <f t="shared" si="1"/>
+        <v>95.999999999995822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>0.63778935185185182</v>
+      </c>
+      <c r="B7" s="33">
+        <f t="shared" si="0"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="C7" s="43">
+        <f t="shared" si="1"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>0.6378125</v>
+      </c>
+      <c r="B8" s="33">
+        <f t="shared" si="0"/>
+        <v>1.2731481481487172E-4</v>
+      </c>
+      <c r="C8" s="43">
+        <f t="shared" si="1"/>
+        <v>11.000000000004917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>0.63793981481481488</v>
+      </c>
+      <c r="B9" s="33">
+        <f t="shared" si="0"/>
+        <v>1.5046296296294948E-4</v>
+      </c>
+      <c r="C9" s="43">
+        <f t="shared" si="1"/>
+        <v>12.999999999998835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>0.63809027777777783</v>
+      </c>
+      <c r="B10" s="33">
+        <f t="shared" si="0"/>
+        <v>8.1018518518494176E-5</v>
+      </c>
+      <c r="C10" s="43">
+        <f t="shared" si="1"/>
+        <v>6.9999999999978968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>0.63817129629629632</v>
+      </c>
+      <c r="B11" s="33">
+        <f t="shared" si="0"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="C11" s="43">
+        <f t="shared" si="1"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>0.63818287037037036</v>
+      </c>
+      <c r="B12" s="33">
+        <f t="shared" si="0"/>
+        <v>1.5046296296294948E-4</v>
+      </c>
+      <c r="C12" s="43">
+        <f t="shared" si="1"/>
+        <v>12.999999999998835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>0.63833333333333331</v>
+      </c>
+      <c r="B13" s="33">
+        <f t="shared" si="0"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="C13" s="43">
+        <f t="shared" si="1"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>0.6383564814814815</v>
+      </c>
+      <c r="B14" s="33">
+        <f t="shared" si="0"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="C14" s="43">
+        <f t="shared" si="1"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>0.63837962962962969</v>
+      </c>
+      <c r="B15" s="33">
+        <f t="shared" si="0"/>
+        <v>1.96759259259216E-4</v>
+      </c>
+      <c r="C15" s="43">
+        <f t="shared" si="1"/>
+        <v>16.999999999996263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>0.6385763888888889</v>
+      </c>
+      <c r="B16" s="33">
+        <f t="shared" si="0"/>
+        <v>5.7870370370305402E-5</v>
+      </c>
+      <c r="C16" s="43">
+        <f t="shared" si="1"/>
+        <v>4.9999999999943867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>0.63863425925925921</v>
+      </c>
+      <c r="B17" s="33">
+        <f t="shared" si="0"/>
+        <v>4.3981481481480955E-4</v>
+      </c>
+      <c r="C17" s="43">
+        <f t="shared" si="1"/>
+        <v>37.999999999999545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>0.63907407407407402</v>
+      </c>
+      <c r="B18" s="33">
+        <f t="shared" si="0"/>
+        <v>2.5462962962974345E-4</v>
+      </c>
+      <c r="C18" s="43">
+        <f t="shared" si="1"/>
+        <v>22.000000000009834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>0.63932870370370376</v>
+      </c>
+      <c r="B19" s="33">
+        <f t="shared" si="0"/>
+        <v>1.1574074074038876E-5</v>
+      </c>
+      <c r="C19" s="43">
+        <f t="shared" si="1"/>
+        <v>0.99999999999695888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>0.6393402777777778</v>
+      </c>
+      <c r="B20" s="33">
+        <f t="shared" si="0"/>
+        <v>2.777777777778212E-4</v>
+      </c>
+      <c r="C20" s="43">
+        <f t="shared" si="1"/>
+        <v>24.000000000003752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>0.63961805555555562</v>
+      </c>
+      <c r="B21" s="33">
+        <f t="shared" si="0"/>
+        <v>4.9768518518511495E-4</v>
+      </c>
+      <c r="C21" s="43">
+        <f t="shared" si="1"/>
+        <v>42.999999999993932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
+        <v>0.64011574074074074</v>
+      </c>
+      <c r="B22" s="33">
+        <f t="shared" si="0"/>
+        <v>6.3657407407402555E-4</v>
+      </c>
+      <c r="C22" s="43">
+        <f t="shared" si="1"/>
+        <v>54.999999999995808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>0.64075231481481476</v>
+      </c>
+      <c r="B23" s="33">
+        <f t="shared" si="0"/>
+        <v>4.9768518518522598E-4</v>
+      </c>
+      <c r="C23" s="43">
+        <f t="shared" si="1"/>
+        <v>43.000000000003524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
+        <v>0.64124999999999999</v>
+      </c>
+      <c r="B24" s="33">
+        <f t="shared" si="0"/>
+        <v>2.5462962962963243E-4</v>
+      </c>
+      <c r="C24" s="43">
+        <f t="shared" si="1"/>
+        <v>22.000000000000242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <v>0.64150462962962962</v>
+      </c>
+      <c r="B25" s="33">
+        <f t="shared" si="0"/>
+        <v>2.1990740740740478E-4</v>
+      </c>
+      <c r="C25" s="43">
+        <f t="shared" si="1"/>
+        <v>18.999999999999773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <v>0.64172453703703702</v>
+      </c>
+      <c r="B26" s="33">
+        <f t="shared" si="0"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="C26" s="43">
+        <f t="shared" si="1"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <v>0.64174768518518521</v>
+      </c>
+      <c r="B27" s="33">
+        <f t="shared" si="0"/>
+        <v>1.273148148147607E-4</v>
+      </c>
+      <c r="C27" s="43">
+        <f t="shared" si="1"/>
+        <v>10.999999999995325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
+        <v>0.64187499999999997</v>
+      </c>
+      <c r="B28" s="33">
+        <f t="shared" si="0"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="C28" s="43">
+        <f t="shared" si="1"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
+        <v>0.64189814814814816</v>
+      </c>
+      <c r="B29" s="33">
+        <f t="shared" si="0"/>
+        <v>3.472222222222765E-4</v>
+      </c>
+      <c r="C29" s="43">
+        <f t="shared" si="1"/>
+        <v>30.00000000000469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
+        <v>0.64224537037037044</v>
+      </c>
+      <c r="B30" s="33">
+        <f t="shared" si="0"/>
+        <v>2.0833333333325488E-4</v>
+      </c>
+      <c r="C30" s="43">
+        <f t="shared" si="1"/>
+        <v>17.999999999993221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
+        <v>0.64245370370370369</v>
+      </c>
+      <c r="B31" s="33">
+        <f t="shared" si="0"/>
+        <v>1.1342592592592515E-3</v>
+      </c>
+      <c r="C31" s="43">
+        <f t="shared" si="1"/>
+        <v>97.999999999999332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
+        <v>0.64358796296296295</v>
+      </c>
+      <c r="B32" s="33">
+        <f t="shared" si="0"/>
+        <v>4.6296296296299833E-4</v>
+      </c>
+      <c r="C32" s="43">
+        <f t="shared" si="1"/>
+        <v>40.000000000003055</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
+        <v>0.64405092592592594</v>
+      </c>
+      <c r="B33" s="33">
+        <f t="shared" si="0"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="C33" s="43">
+        <f t="shared" si="1"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <v>0.64407407407407413</v>
+      </c>
+      <c r="B34" s="33">
+        <f t="shared" si="0"/>
+        <v>2.3148148148077752E-5</v>
+      </c>
+      <c r="C34" s="43">
+        <f t="shared" si="1"/>
+        <v>1.9999999999939178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
+        <v>0.64409722222222221</v>
+      </c>
+      <c r="B35" s="33">
+        <f t="shared" si="0"/>
+        <v>8.1018518518494176E-5</v>
+      </c>
+      <c r="C35" s="43">
+        <f t="shared" si="1"/>
+        <v>6.9999999999978968</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <v>0.6441782407407407</v>
+      </c>
+      <c r="B36" s="33">
+        <f t="shared" si="0"/>
+        <v>3.472222222222765E-5</v>
+      </c>
+      <c r="C36" s="43">
+        <f t="shared" si="1"/>
+        <v>3.000000000000469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
+        <v>0.64421296296296293</v>
+      </c>
+      <c r="B37" s="33">
+        <f t="shared" si="0"/>
+        <v>6.94444444444553E-5</v>
+      </c>
+      <c r="C37" s="43">
+        <f t="shared" si="1"/>
+        <v>6.0000000000009379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
+        <v>0.64428240740740739</v>
+      </c>
+      <c r="B38" s="33">
+        <f t="shared" si="0"/>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="C38" s="43">
+        <f t="shared" si="1"/>
+        <v>2.0000000000035101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>0.64430555555555558</v>
+      </c>
+      <c r="B39" s="33">
+        <f t="shared" si="0"/>
+        <v>-0.64430555555555558</v>
+      </c>
+      <c r="C39" s="43">
+        <f t="shared" si="1"/>
+        <v>-55668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="33"/>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIF(B1:B55,1)</f>
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <f>E4*100/E1</f>
+        <v>67.272727272727266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIF(B1:B55,2)</f>
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <f>E5*100/E1</f>
+        <v>23.636363636363637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIF(B1:B55,3)</f>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f>E6*100/E1</f>
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F4:F6)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E4:E6)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-supermarket.xlsx
+++ b/data-supermarket.xlsx
@@ -9,23 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="890" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Obsluha na pokladni" sheetId="1" r:id="rId1"/>
-    <sheet name="Kým sa pozbiera z pokladne" sheetId="2" r:id="rId2"/>
-    <sheet name="Doba čakania v rade" sheetId="8" r:id="rId3"/>
-    <sheet name="Príchod zakaznikov" sheetId="3" r:id="rId4"/>
-    <sheet name="Čas v systéme" sheetId="4" r:id="rId5"/>
-    <sheet name="Veľkosť radu pri pokladni" sheetId="5" r:id="rId6"/>
-    <sheet name="Počet ľudí v príchod" sheetId="7" r:id="rId7"/>
+    <sheet name="Odchod z pokladne" sheetId="2" r:id="rId2"/>
+    <sheet name="Časy medzi príchodmi zákazníkov" sheetId="3" r:id="rId3"/>
+    <sheet name="CD - Počet ľudí v príchod" sheetId="7" r:id="rId4"/>
+    <sheet name="VAL - Pobyt v systéme" sheetId="4" r:id="rId5"/>
+    <sheet name="VAL - Dĺžka radu pri pokladni" sheetId="5" r:id="rId6"/>
+    <sheet name="VAL - Doba čakania v rade" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="dlzkaRadu" localSheetId="5">'Veľkosť radu pri pokladni'!$B$4:$C$61</definedName>
+    <definedName name="dlzkaRadu" localSheetId="5">'VAL - Dĺžka radu pri pokladni'!$B$4:$C$61</definedName>
     <definedName name="doba_obsluhypokladne_1" localSheetId="0">'Obsluha na pokladni'!$B$4:$E$101</definedName>
     <definedName name="New_Text_Document" localSheetId="0">'Obsluha na pokladni'!$G$4:$G$102</definedName>
-    <definedName name="pocet_prichLudi" localSheetId="6">'Počet ľudí v príchod'!$A$3:$B$41</definedName>
-    <definedName name="pocet_prichLudi_1" localSheetId="3">'Príchod zakaznikov'!$B$3:$C$41</definedName>
+    <definedName name="pocet_prichLudi" localSheetId="3">'CD - Počet ľudí v príchod'!$A$3:$B$41</definedName>
+    <definedName name="pocet_prichLudi_1" localSheetId="2">'Časy medzi príchodmi zákazníkov'!$B$3:$C$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Por. Číslo</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Percentá</t>
-  </si>
-  <si>
-    <t>Cas odchodu z pokladne</t>
   </si>
   <si>
     <t>Sekundy</t>
@@ -190,7 +187,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
-    <numFmt numFmtId="169" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -296,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -321,27 +318,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -352,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -404,13 +381,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -424,9 +394,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,15 +428,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,11 +472,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="doba_obsluhypokladne_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="doba_obsluhypokladne_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,11 +484,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dlzkaRadu" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pocet_prichLudi" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pocet_prichLudi" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dlzkaRadu" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:M103"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,25 +772,25 @@
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -833,16 +810,11 @@
         <v>6</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -869,7 +841,7 @@
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -896,7 +868,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -923,7 +895,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -950,7 +922,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -977,7 +949,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1004,7 +976,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -1031,7 +1003,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -1058,7 +1030,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -1085,7 +1057,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -1112,7 +1084,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -1139,7 +1111,7 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -1166,7 +1138,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -3389,7 +3361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -3410,13 +3382,13 @@
       <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>21</v>
+      <c r="B2" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -3427,7 +3399,7 @@
         <v>3.4722222222172139E-5</v>
       </c>
       <c r="C3" s="4">
-        <f>B3*86400</f>
+        <f t="shared" ref="C3:C34" si="0">B3*86400</f>
         <v>2.9999999999956728</v>
       </c>
       <c r="D3" s="26"/>
@@ -3441,7 +3413,7 @@
         <v>2.3148148148133263E-5</v>
       </c>
       <c r="C4" s="4">
-        <f>B4*86400</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999987139</v>
       </c>
       <c r="D4" s="26"/>
@@ -3455,7 +3427,7 @@
         <v>3.4722222222172139E-5</v>
       </c>
       <c r="C5" s="4">
-        <f>B5*86400</f>
+        <f t="shared" si="0"/>
         <v>2.9999999999956728</v>
       </c>
       <c r="D5" s="26"/>
@@ -3469,7 +3441,7 @@
         <v>4.6296296296266526E-5</v>
       </c>
       <c r="C6" s="4">
-        <f>B6*86400</f>
+        <f t="shared" si="0"/>
         <v>3.9999999999974278</v>
       </c>
       <c r="D6" s="26"/>
@@ -3483,7 +3455,7 @@
         <v>9.2592592592588563E-5</v>
       </c>
       <c r="C7" s="4">
-        <f>B7*86400</f>
+        <f t="shared" si="0"/>
         <v>7.9999999999996518</v>
       </c>
       <c r="D7" s="26"/>
@@ -3497,7 +3469,7 @@
         <v>3.4722222222283161E-5</v>
       </c>
       <c r="C8" s="4">
-        <f>B8*86400</f>
+        <f t="shared" si="0"/>
         <v>3.0000000000052651</v>
       </c>
       <c r="D8" s="26"/>
@@ -3511,7 +3483,7 @@
         <v>8.1018518518549687E-5</v>
       </c>
       <c r="C9" s="4">
-        <f>B9*86400</f>
+        <f t="shared" si="0"/>
         <v>7.000000000002693</v>
       </c>
       <c r="D9" s="26"/>
@@ -3525,7 +3497,7 @@
         <v>1.388888888889106E-4</v>
       </c>
       <c r="C10" s="4">
-        <f>B10*86400</f>
+        <f t="shared" si="0"/>
         <v>12.000000000001876</v>
       </c>
       <c r="D10" s="26"/>
@@ -3539,7 +3511,7 @@
         <v>1.7361111111108274E-4</v>
       </c>
       <c r="C11" s="4">
-        <f>B11*86400</f>
+        <f t="shared" si="0"/>
         <v>14.999999999997549</v>
       </c>
       <c r="D11" s="26"/>
@@ -3553,7 +3525,7 @@
         <v>3.472222222222765E-5</v>
       </c>
       <c r="C12" s="4">
-        <f>B12*86400</f>
+        <f t="shared" si="0"/>
         <v>3.000000000000469</v>
       </c>
       <c r="D12" s="26"/>
@@ -3567,7 +3539,7 @@
         <v>3.4722222222222099E-4</v>
       </c>
       <c r="C13" s="4">
-        <f>B13*86400</f>
+        <f t="shared" si="0"/>
         <v>29.999999999999893</v>
       </c>
       <c r="D13" s="26"/>
@@ -3581,7 +3553,7 @@
         <v>5.7870370370305402E-5</v>
       </c>
       <c r="C14" s="4">
-        <f>B14*86400</f>
+        <f t="shared" si="0"/>
         <v>4.9999999999943867</v>
       </c>
       <c r="D14" s="26"/>
@@ -3595,7 +3567,7 @@
         <v>2.3148148148133263E-5</v>
       </c>
       <c r="C15" s="4">
-        <f>B15*86400</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999987139</v>
       </c>
       <c r="D15" s="26"/>
@@ -3609,7 +3581,7 @@
         <v>3.4722222222172139E-5</v>
       </c>
       <c r="C16" s="4">
-        <f>B16*86400</f>
+        <f t="shared" si="0"/>
         <v>2.9999999999956728</v>
       </c>
       <c r="D16" s="26"/>
@@ -3623,7 +3595,7 @@
         <v>1.1574074074149898E-5</v>
       </c>
       <c r="C17" s="4">
-        <f>B17*86400</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000065512</v>
       </c>
       <c r="D17" s="26"/>
@@ -3637,7 +3609,7 @@
         <v>7.1759259259251973E-4</v>
       </c>
       <c r="C18" s="4">
-        <f>B18*86400</f>
+        <f t="shared" si="0"/>
         <v>61.999999999993705</v>
       </c>
       <c r="D18" s="26"/>
@@ -3651,7 +3623,7 @@
         <v>2.3148148148133263E-5</v>
       </c>
       <c r="C19" s="4">
-        <f>B19*86400</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999987139</v>
       </c>
       <c r="D19" s="26"/>
@@ -3665,7 +3637,7 @@
         <v>1.1574074074094387E-5</v>
       </c>
       <c r="C20" s="4">
-        <f>B20*86400</f>
+        <f t="shared" si="0"/>
         <v>1.000000000001755</v>
       </c>
       <c r="D20" s="26"/>
@@ -3679,7 +3651,7 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C21" s="4">
-        <f>B21*86400</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D21" s="26"/>
@@ -3693,7 +3665,7 @@
         <v>2.3148148148077752E-5</v>
       </c>
       <c r="C22" s="4">
-        <f>B22*86400</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999939178</v>
       </c>
       <c r="D22" s="26"/>
@@ -3707,7 +3679,7 @@
         <v>4.3981481481480955E-4</v>
       </c>
       <c r="C23" s="4">
-        <f>B23*86400</f>
+        <f t="shared" si="0"/>
         <v>37.999999999999545</v>
       </c>
       <c r="D23" s="26"/>
@@ -3721,7 +3693,7 @@
         <v>1.6203703703709937E-4</v>
       </c>
       <c r="C24" s="4">
-        <f>B24*86400</f>
+        <f t="shared" si="0"/>
         <v>14.000000000005386</v>
       </c>
       <c r="D24" s="26"/>
@@ -3735,7 +3707,7 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C25" s="4">
-        <f>B25*86400</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D25" s="26"/>
@@ -3749,7 +3721,7 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C26" s="4">
-        <f>B26*86400</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D26" s="26"/>
@@ -3763,7 +3735,7 @@
         <v>4.6296296296266526E-5</v>
       </c>
       <c r="C27" s="4">
-        <f>B27*86400</f>
+        <f t="shared" si="0"/>
         <v>3.9999999999974278</v>
       </c>
       <c r="D27" s="26"/>
@@ -3777,7 +3749,7 @@
         <v>4.6296296296377548E-5</v>
       </c>
       <c r="C28" s="4">
-        <f>B28*86400</f>
+        <f t="shared" si="0"/>
         <v>4.0000000000070202</v>
       </c>
       <c r="D28" s="26"/>
@@ -3791,7 +3763,7 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C29" s="4">
-        <f>B29*86400</f>
+        <f t="shared" si="0"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D29" s="26"/>
@@ -3805,7 +3777,7 @@
         <v>3.4722222222116628E-5</v>
       </c>
       <c r="C30" s="4">
-        <f>B30*86400</f>
+        <f t="shared" si="0"/>
         <v>2.9999999999908766</v>
       </c>
       <c r="D30" s="26"/>
@@ -3819,7 +3791,7 @@
         <v>2.3148148148077752E-5</v>
       </c>
       <c r="C31" s="4">
-        <f>B31*86400</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999939178</v>
       </c>
       <c r="D31" s="26"/>
@@ -3833,7 +3805,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C32" s="4">
-        <f>B32*86400</f>
+        <f t="shared" si="0"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D32" s="26"/>
@@ -3847,7 +3819,7 @@
         <v>5.7870370370416424E-5</v>
       </c>
       <c r="C33" s="4">
-        <f>B33*86400</f>
+        <f t="shared" si="0"/>
         <v>5.000000000003979</v>
       </c>
       <c r="D33" s="26"/>
@@ -3861,7 +3833,7 @@
         <v>1.1574074074149898E-5</v>
       </c>
       <c r="C34" s="4">
-        <f>B34*86400</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000065512</v>
       </c>
       <c r="D34" s="26"/>
@@ -3875,7 +3847,7 @@
         <v>2.3148148148077752E-5</v>
       </c>
       <c r="C35" s="4">
-        <f>B35*86400</f>
+        <f t="shared" ref="C35:C66" si="1">B35*86400</f>
         <v>1.9999999999939178</v>
       </c>
       <c r="D35" s="26"/>
@@ -3889,7 +3861,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C36" s="4">
-        <f>B36*86400</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D36" s="26"/>
@@ -3903,7 +3875,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C37" s="4">
-        <f>B37*86400</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D37" s="26"/>
@@ -3917,7 +3889,7 @@
         <v>8.1018518518494176E-5</v>
       </c>
       <c r="C38" s="4">
-        <f>B38*86400</f>
+        <f t="shared" si="1"/>
         <v>6.9999999999978968</v>
       </c>
       <c r="D38" s="26"/>
@@ -3931,7 +3903,7 @@
         <v>1.1574074074072183E-4</v>
       </c>
       <c r="C39" s="4">
-        <f>B39*86400</f>
+        <f t="shared" si="1"/>
         <v>9.9999999999983658</v>
       </c>
       <c r="D39" s="26"/>
@@ -3945,7 +3917,7 @@
         <v>1.1574074074149898E-5</v>
       </c>
       <c r="C40" s="4">
-        <f>B40*86400</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000065512</v>
       </c>
       <c r="D40" s="26"/>
@@ -3959,7 +3931,7 @@
         <v>1.1574074074149898E-5</v>
       </c>
       <c r="C41" s="4">
-        <f>B41*86400</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000065512</v>
       </c>
       <c r="D41" s="26"/>
@@ -3973,7 +3945,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C42" s="4">
-        <f>B42*86400</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D42" s="26"/>
@@ -3987,7 +3959,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C43" s="4">
-        <f>B43*86400</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D43" s="26"/>
@@ -4001,7 +3973,7 @@
         <v>5.7870370370416424E-5</v>
       </c>
       <c r="C44" s="4">
-        <f>B44*86400</f>
+        <f t="shared" si="1"/>
         <v>5.000000000003979</v>
       </c>
       <c r="D44" s="26"/>
@@ -4015,7 +3987,7 @@
         <v>3.472222222222765E-5</v>
       </c>
       <c r="C45" s="4">
-        <f>B45*86400</f>
+        <f t="shared" si="1"/>
         <v>3.000000000000469</v>
       </c>
       <c r="D45" s="26"/>
@@ -4029,7 +4001,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C46" s="4">
-        <f>B46*86400</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D46" s="26"/>
@@ -4043,7 +4015,7 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C47" s="4">
-        <f>B47*86400</f>
+        <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D47" s="26"/>
@@ -4057,7 +4029,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C48" s="4">
-        <f>B48*86400</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D48" s="26"/>
@@ -4071,7 +4043,7 @@
         <v>1.1574074074149898E-5</v>
       </c>
       <c r="C49" s="4">
-        <f>B49*86400</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000065512</v>
       </c>
       <c r="D49" s="26"/>
@@ -4085,7 +4057,7 @@
         <v>3.4722222222116628E-5</v>
       </c>
       <c r="C50" s="4">
-        <f>B50*86400</f>
+        <f t="shared" si="1"/>
         <v>2.9999999999908766</v>
       </c>
       <c r="D50" s="26"/>
@@ -4099,7 +4071,7 @@
         <v>1.1574074074149898E-5</v>
       </c>
       <c r="C51" s="4">
-        <f>B51*86400</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000065512</v>
       </c>
       <c r="D51" s="26"/>
@@ -4113,7 +4085,7 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C52" s="4">
-        <f>B52*86400</f>
+        <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D52" s="26"/>
@@ -4127,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="4">
-        <f>B53*86400</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D53" s="26"/>
@@ -4141,7 +4113,7 @@
         <v>5.7870370370416424E-5</v>
       </c>
       <c r="C54" s="4">
-        <f>B54*86400</f>
+        <f t="shared" si="1"/>
         <v>5.000000000003979</v>
       </c>
       <c r="D54" s="26"/>
@@ -4155,7 +4127,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C55" s="4">
-        <f>B55*86400</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D55" s="26"/>
@@ -4169,7 +4141,7 @@
         <v>4.6296296296155504E-5</v>
       </c>
       <c r="C56" s="4">
-        <f>B56*86400</f>
+        <f t="shared" si="1"/>
         <v>3.9999999999878355</v>
       </c>
       <c r="D56" s="26"/>
@@ -4183,7 +4155,7 @@
         <v>4.6296296296377548E-5</v>
       </c>
       <c r="C57" s="4">
-        <f>B57*86400</f>
+        <f t="shared" si="1"/>
         <v>4.0000000000070202</v>
       </c>
       <c r="D57" s="26"/>
@@ -4197,7 +4169,7 @@
         <v>3.472222222222765E-5</v>
       </c>
       <c r="C58" s="4">
-        <f>B58*86400</f>
+        <f t="shared" si="1"/>
         <v>3.000000000000469</v>
       </c>
       <c r="D58" s="26"/>
@@ -4211,7 +4183,7 @@
         <v>2.3148148148077752E-5</v>
       </c>
       <c r="C59" s="4">
-        <f>B59*86400</f>
+        <f t="shared" si="1"/>
         <v>1.9999999999939178</v>
       </c>
       <c r="D59" s="26"/>
@@ -4225,7 +4197,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C60" s="4">
-        <f>B60*86400</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D60" s="26"/>
@@ -4239,7 +4211,7 @@
         <v>5.7870370370305402E-5</v>
       </c>
       <c r="C61" s="4">
-        <f>B61*86400</f>
+        <f t="shared" si="1"/>
         <v>4.9999999999943867</v>
       </c>
       <c r="D61" s="26"/>
@@ -4253,7 +4225,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C62" s="4">
-        <f>B62*86400</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D62" s="26"/>
@@ -4267,7 +4239,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C63" s="4">
-        <f>B63*86400</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D63" s="26"/>
@@ -4281,7 +4253,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C64" s="4">
-        <f>B64*86400</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D64" s="26"/>
@@ -4295,7 +4267,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C65" s="4">
-        <f>B65*86400</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D65" s="26"/>
@@ -4309,7 +4281,7 @@
         <v>3.2523148148148051E-3</v>
       </c>
       <c r="C66" s="4">
-        <f>B66*86400</f>
+        <f t="shared" si="1"/>
         <v>280.99999999999915</v>
       </c>
       <c r="D66" s="26"/>
@@ -4323,7 +4295,7 @@
         <v>5.7870370370372015E-4</v>
       </c>
       <c r="C67" s="4">
-        <f>B67*86400</f>
+        <f t="shared" ref="C67:C98" si="2">B67*86400</f>
         <v>50.000000000001421</v>
       </c>
       <c r="D67" s="26"/>
@@ -4337,7 +4309,7 @@
         <v>4.6296296296377548E-5</v>
       </c>
       <c r="C68" s="4">
-        <f>B68*86400</f>
+        <f t="shared" si="2"/>
         <v>4.0000000000070202</v>
       </c>
       <c r="D68" s="26"/>
@@ -4351,7 +4323,7 @@
         <v>1.0416666666668295E-4</v>
       </c>
       <c r="C69" s="4">
-        <f>B69*86400</f>
+        <f t="shared" si="2"/>
         <v>9.0000000000014069</v>
       </c>
       <c r="D69" s="26"/>
@@ -4365,7 +4337,7 @@
         <v>7.2916666666666963E-4</v>
       </c>
       <c r="C70" s="4">
-        <f>B70*86400</f>
+        <f t="shared" si="2"/>
         <v>63.000000000000256</v>
       </c>
       <c r="D70" s="26"/>
@@ -4379,7 +4351,7 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C71" s="4">
-        <f>B71*86400</f>
+        <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D71" s="26"/>
@@ -4393,7 +4365,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C72" s="4">
-        <f>B72*86400</f>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D72" s="26"/>
@@ -4407,7 +4379,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C73" s="4">
-        <f>B73*86400</f>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D73" s="26"/>
@@ -4421,7 +4393,7 @@
         <v>4.6296296296266526E-5</v>
       </c>
       <c r="C74" s="4">
-        <f>B74*86400</f>
+        <f t="shared" si="2"/>
         <v>3.9999999999974278</v>
       </c>
       <c r="D74" s="26"/>
@@ -4435,7 +4407,7 @@
         <v>9.2592592592644074E-5</v>
       </c>
       <c r="C75" s="4">
-        <f>B75*86400</f>
+        <f t="shared" si="2"/>
         <v>8.000000000004448</v>
       </c>
       <c r="D75" s="26"/>
@@ -4449,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="4">
-        <f>B76*86400</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D76" s="26"/>
@@ -4463,7 +4435,7 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C77" s="4">
-        <f>B77*86400</f>
+        <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D77" s="26"/>
@@ -4477,7 +4449,7 @@
         <v>2.3148148148144365E-4</v>
       </c>
       <c r="C78" s="4">
-        <f>B78*86400</f>
+        <f t="shared" si="2"/>
         <v>19.999999999996732</v>
       </c>
       <c r="D78" s="26"/>
@@ -4491,7 +4463,7 @@
         <v>1.3888888888879958E-4</v>
       </c>
       <c r="C79" s="4">
-        <f>B79*86400</f>
+        <f t="shared" si="2"/>
         <v>11.999999999992284</v>
       </c>
       <c r="D79" s="26"/>
@@ -4505,7 +4477,7 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C80" s="4">
-        <f>B80*86400</f>
+        <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D80" s="26"/>
@@ -4519,7 +4491,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C81" s="4">
-        <f>B81*86400</f>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D81" s="26"/>
@@ -4533,7 +4505,7 @@
         <v>3.472222222222765E-5</v>
       </c>
       <c r="C82" s="4">
-        <f>B82*86400</f>
+        <f t="shared" si="2"/>
         <v>3.000000000000469</v>
       </c>
       <c r="D82" s="26"/>
@@ -4547,7 +4519,7 @@
         <v>4.6296296296266526E-5</v>
       </c>
       <c r="C83" s="4">
-        <f>B83*86400</f>
+        <f t="shared" si="2"/>
         <v>3.9999999999974278</v>
       </c>
       <c r="D83" s="26"/>
@@ -4561,7 +4533,7 @@
         <v>4.6296296296266526E-5</v>
       </c>
       <c r="C84" s="4">
-        <f>B84*86400</f>
+        <f t="shared" si="2"/>
         <v>3.9999999999974278</v>
       </c>
       <c r="D84" s="26"/>
@@ -4575,7 +4547,7 @@
         <v>1.7361111111113825E-4</v>
       </c>
       <c r="C85" s="4">
-        <f>B85*86400</f>
+        <f t="shared" si="2"/>
         <v>15.000000000002345</v>
       </c>
       <c r="D85" s="26"/>
@@ -4589,7 +4561,7 @@
         <v>1.0416666666668295E-4</v>
       </c>
       <c r="C86" s="4">
-        <f>B86*86400</f>
+        <f t="shared" si="2"/>
         <v>9.0000000000014069</v>
       </c>
       <c r="D86" s="26"/>
@@ -4603,7 +4575,7 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C87" s="4">
-        <f>B87*86400</f>
+        <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D87" s="26"/>
@@ -4617,7 +4589,7 @@
         <v>3.240740740739767E-4</v>
       </c>
       <c r="C88" s="4">
-        <f>B88*86400</f>
+        <f t="shared" si="2"/>
         <v>27.999999999991587</v>
       </c>
       <c r="D88" s="26"/>
@@ -4631,7 +4603,7 @@
         <v>3.472222222222765E-5</v>
       </c>
       <c r="C89" s="4">
-        <f>B89*86400</f>
+        <f t="shared" si="2"/>
         <v>3.000000000000469</v>
       </c>
       <c r="D89" s="26"/>
@@ -4645,7 +4617,7 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C90" s="4">
-        <f>B90*86400</f>
+        <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D90" s="26"/>
@@ -4659,7 +4631,7 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C91" s="4">
-        <f>B91*86400</f>
+        <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D91" s="26"/>
@@ -4673,7 +4645,7 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C92" s="4">
-        <f>B92*86400</f>
+        <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D92" s="26"/>
@@ -4687,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="4">
-        <f>B93*86400</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D93" s="26"/>
@@ -4701,7 +4673,7 @@
         <v>3.4722222222116628E-5</v>
       </c>
       <c r="C94" s="4">
-        <f>B94*86400</f>
+        <f t="shared" si="2"/>
         <v>2.9999999999908766</v>
       </c>
       <c r="D94" s="26"/>
@@ -4715,7 +4687,7 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C95" s="4">
-        <f>B95*86400</f>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D95" s="26"/>
@@ -4729,7 +4701,7 @@
         <v>1.1574074074149898E-5</v>
       </c>
       <c r="C96" s="4">
-        <f>B96*86400</f>
+        <f t="shared" si="2"/>
         <v>1.0000000000065512</v>
       </c>
       <c r="D96" s="26"/>
@@ -4743,7 +4715,7 @@
         <v>1.1574074074149898E-5</v>
       </c>
       <c r="C97" s="4">
-        <f>B97*86400</f>
+        <f t="shared" si="2"/>
         <v>1.0000000000065512</v>
       </c>
       <c r="D97" s="26"/>
@@ -4757,7 +4729,7 @@
         <v>1.8518518518517713E-4</v>
       </c>
       <c r="C98" s="4">
-        <f>B98*86400</f>
+        <f t="shared" si="2"/>
         <v>15.999999999999304</v>
       </c>
       <c r="D98" s="26"/>
@@ -4771,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="4">
-        <f>B99*86400</f>
+        <f t="shared" ref="C99:C130" si="3">B99*86400</f>
         <v>0</v>
       </c>
       <c r="D99" s="26"/>
@@ -4785,7 +4757,7 @@
         <v>4.6296296296377548E-5</v>
       </c>
       <c r="C100" s="4">
-        <f>B100*86400</f>
+        <f t="shared" si="3"/>
         <v>4.0000000000070202</v>
       </c>
       <c r="D100" s="26"/>
@@ -4799,7 +4771,7 @@
         <v>6.94444444444553E-5</v>
       </c>
       <c r="C101" s="4">
-        <f>B101*86400</f>
+        <f t="shared" si="3"/>
         <v>6.0000000000009379</v>
       </c>
       <c r="D101" s="26"/>
@@ -4817,352 +4789,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-    </row>
-    <row r="2" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="56">
-        <v>0</v>
-      </c>
-      <c r="C3" s="56">
-        <v>1.8865740740740742E-3</v>
-      </c>
-      <c r="D3" s="57">
-        <f>C3-B3</f>
-        <v>1.8865740740740742E-3</v>
-      </c>
-      <c r="E3" s="53">
-        <f>D3*86400</f>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="56">
-        <v>0</v>
-      </c>
-      <c r="C4" s="56">
-        <v>1.6203703703703703E-3</v>
-      </c>
-      <c r="D4" s="57">
-        <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>1.6203703703703703E-3</v>
-      </c>
-      <c r="E4" s="53">
-        <f t="shared" ref="E4:E14" si="1">D4*86400</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="56">
-        <v>3.9351851851851852E-4</v>
-      </c>
-      <c r="C5" s="56">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="D5" s="57">
-        <f t="shared" si="0"/>
-        <v>9.9537037037037042E-4</v>
-      </c>
-      <c r="E5" s="53">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="56">
-        <v>3.9351851851851852E-4</v>
-      </c>
-      <c r="C6" s="56">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="D6" s="57">
-        <f t="shared" si="0"/>
-        <v>2.3842592592592596E-3</v>
-      </c>
-      <c r="E6" s="53">
-        <f t="shared" si="1"/>
-        <v>206.00000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="56">
-        <v>1.1226851851851851E-3</v>
-      </c>
-      <c r="C7" s="56">
-        <v>4.7800925925925919E-3</v>
-      </c>
-      <c r="D7" s="57">
-        <f t="shared" si="0"/>
-        <v>3.657407407407407E-3</v>
-      </c>
-      <c r="E7" s="53">
-        <f t="shared" si="1"/>
-        <v>315.99999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="56">
-        <v>2.5462962962962961E-3</v>
-      </c>
-      <c r="C8" s="56">
-        <v>4.363425925925926E-3</v>
-      </c>
-      <c r="D8" s="57">
-        <f t="shared" si="0"/>
-        <v>1.8171296296296299E-3</v>
-      </c>
-      <c r="E8" s="53">
-        <f t="shared" si="1"/>
-        <v>157.00000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="56">
-        <v>2.9861111111111113E-3</v>
-      </c>
-      <c r="C9" s="56">
-        <v>4.5138888888888893E-3</v>
-      </c>
-      <c r="D9" s="57">
-        <f t="shared" si="0"/>
-        <v>1.5277777777777781E-3</v>
-      </c>
-      <c r="E9" s="53">
-        <f t="shared" si="1"/>
-        <v>132.00000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="56">
-        <v>3.4490740740740745E-3</v>
-      </c>
-      <c r="C10" s="56">
-        <v>4.9768518518518521E-3</v>
-      </c>
-      <c r="D10" s="57">
-        <f t="shared" si="0"/>
-        <v>1.5277777777777776E-3</v>
-      </c>
-      <c r="E10" s="53">
-        <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="56">
-        <v>5.1273148148148146E-3</v>
-      </c>
-      <c r="C11" s="56">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="D11" s="57">
-        <f t="shared" si="0"/>
-        <v>2.6851851851851854E-3</v>
-      </c>
-      <c r="E11" s="53">
-        <f t="shared" si="1"/>
-        <v>232.00000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="56">
-        <v>5.5671296296296302E-3</v>
-      </c>
-      <c r="C12" s="56">
-        <v>6.7129629629629622E-3</v>
-      </c>
-      <c r="D12" s="57">
-        <f t="shared" si="0"/>
-        <v>1.145833333333332E-3</v>
-      </c>
-      <c r="E12" s="53">
-        <f t="shared" si="1"/>
-        <v>98.999999999999886</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="56">
-        <v>5.7291666666666671E-3</v>
-      </c>
-      <c r="C13" s="56">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="D13" s="57">
-        <f t="shared" si="0"/>
-        <v>1.2152777777777769E-3</v>
-      </c>
-      <c r="E13" s="53">
-        <f t="shared" si="1"/>
-        <v>104.99999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="56">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="C14" s="56">
-        <v>8.8310185185185176E-3</v>
-      </c>
-      <c r="D14" s="57">
-        <f t="shared" si="0"/>
-        <v>1.1921296296296289E-3</v>
-      </c>
-      <c r="E14" s="53">
-        <f t="shared" si="1"/>
-        <v>102.99999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5179,642 +4808,636 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="56">
         <v>1</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="50">
         <v>0.63468749999999996</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="51">
         <f>B4-B3</f>
         <v>2.1990740740740478E-4</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="55">
         <f>C3*86400</f>
         <v>18.999999999999773</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="56">
         <v>2</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="50">
         <v>0.63490740740740736</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="51">
         <f t="shared" ref="C4:C41" si="0">B5-B4</f>
         <v>1.1226851851852127E-3</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="55">
         <f t="shared" ref="D4:D41" si="1">C4*86400</f>
         <v>97.000000000002373</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="56">
         <v>3</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="50">
         <v>0.63603009259259258</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="51">
         <f t="shared" si="0"/>
         <v>6.94444444444553E-5</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="55">
         <f t="shared" si="1"/>
         <v>6.0000000000009379</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="56">
         <v>4</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="50">
         <v>0.63609953703703703</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="51">
         <f t="shared" si="0"/>
         <v>2.083333333333659E-4</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="55">
         <f t="shared" si="1"/>
         <v>18.000000000002814</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="56">
         <v>5</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="50">
         <v>0.6363078703703704</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="51">
         <f t="shared" si="0"/>
         <v>3.7037037037035425E-4</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="55">
         <f t="shared" si="1"/>
         <v>31.999999999998607</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="56">
         <v>6</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="50">
         <v>0.63667824074074075</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="51">
         <f t="shared" si="0"/>
         <v>1.1111111111110628E-3</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="55">
         <f t="shared" si="1"/>
         <v>95.999999999995822</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="56">
         <v>7</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="50">
         <v>0.63778935185185182</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="55">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="56">
         <v>8</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="50">
         <v>0.6378125</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="51">
         <f t="shared" si="0"/>
         <v>1.2731481481487172E-4</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="55">
         <f t="shared" si="1"/>
         <v>11.000000000004917</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="56">
         <v>9</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="50">
         <v>0.63793981481481488</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="51">
         <f t="shared" si="0"/>
         <v>1.5046296296294948E-4</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="55">
         <f t="shared" si="1"/>
         <v>12.999999999998835</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="56">
         <v>10</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="50">
         <v>0.63809027777777783</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="51">
         <f t="shared" si="0"/>
         <v>8.1018518518494176E-5</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="55">
         <f t="shared" si="1"/>
         <v>6.9999999999978968</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="56">
         <v>11</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="50">
         <v>0.63817129629629632</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="51">
         <f t="shared" si="0"/>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="55">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="56">
         <v>12</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="50">
         <v>0.63818287037037036</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="51">
         <f t="shared" si="0"/>
         <v>1.5046296296294948E-4</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="55">
         <f t="shared" si="1"/>
         <v>12.999999999998835</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="56">
         <v>13</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="50">
         <v>0.63833333333333331</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="55">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="56">
         <v>14</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="50">
         <v>0.6383564814814815</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="55">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
+      <c r="A17" s="56">
         <v>15</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="50">
         <v>0.63837962962962969</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="51">
         <f t="shared" si="0"/>
         <v>1.96759259259216E-4</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="55">
         <f t="shared" si="1"/>
         <v>16.999999999996263</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="56">
         <v>16</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="50">
         <v>0.6385763888888889</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="51">
         <f t="shared" si="0"/>
         <v>5.7870370370305402E-5</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="55">
         <f t="shared" si="1"/>
         <v>4.9999999999943867</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
+      <c r="A19" s="56">
         <v>17</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="50">
         <v>0.63863425925925921</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="51">
         <f t="shared" si="0"/>
         <v>4.3981481481480955E-4</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="55">
         <f t="shared" si="1"/>
         <v>37.999999999999545</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+      <c r="A20" s="56">
         <v>18</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="50">
         <v>0.63907407407407402</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="51">
         <f t="shared" si="0"/>
         <v>2.5462962962974345E-4</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="55">
         <f t="shared" si="1"/>
         <v>22.000000000009834</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
+      <c r="A21" s="56">
         <v>19</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="50">
         <v>0.63932870370370376</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="51">
         <f t="shared" si="0"/>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="55">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="56">
         <v>20</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="50">
         <v>0.6393402777777778</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="51">
         <f t="shared" si="0"/>
         <v>2.777777777778212E-4</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="55">
         <f t="shared" si="1"/>
         <v>24.000000000003752</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="56">
         <v>21</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="50">
         <v>0.63961805555555562</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="51">
         <f t="shared" si="0"/>
         <v>4.9768518518511495E-4</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="55">
         <f t="shared" si="1"/>
         <v>42.999999999993932</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="56">
         <v>22</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="50">
         <v>0.64011574074074074</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="51">
         <f t="shared" si="0"/>
         <v>6.3657407407402555E-4</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="55">
         <f t="shared" si="1"/>
         <v>54.999999999995808</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="56">
         <v>23</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="50">
         <v>0.64075231481481476</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="51">
         <f t="shared" si="0"/>
         <v>4.9768518518522598E-4</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="55">
         <f t="shared" si="1"/>
         <v>43.000000000003524</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="56">
         <v>24</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="50">
         <v>0.64124999999999999</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="51">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-4</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="55">
         <f t="shared" si="1"/>
         <v>22.000000000000242</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+      <c r="A27" s="56">
         <v>25</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="50">
         <v>0.64150462962962962</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="51">
         <f t="shared" si="0"/>
         <v>2.1990740740740478E-4</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="55">
         <f t="shared" si="1"/>
         <v>18.999999999999773</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
+      <c r="A28" s="56">
         <v>26</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="50">
         <v>0.64172453703703702</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="55">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
+      <c r="A29" s="56">
         <v>27</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="50">
         <v>0.64174768518518521</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="51">
         <f t="shared" si="0"/>
         <v>1.273148148147607E-4</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="55">
         <f t="shared" si="1"/>
         <v>10.999999999995325</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+      <c r="A30" s="56">
         <v>28</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="50">
         <v>0.64187499999999997</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="55">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="56">
         <v>29</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="50">
         <v>0.64189814814814816</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="51">
         <f t="shared" si="0"/>
         <v>3.472222222222765E-4</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="55">
         <f t="shared" si="1"/>
         <v>30.00000000000469</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
+      <c r="A32" s="56">
         <v>30</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="50">
         <v>0.64224537037037044</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="51">
         <f t="shared" si="0"/>
         <v>2.0833333333325488E-4</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="55">
         <f t="shared" si="1"/>
         <v>17.999999999993221</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
+      <c r="A33" s="56">
         <v>31</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="50">
         <v>0.64245370370370369</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="51">
         <f t="shared" si="0"/>
         <v>1.1342592592592515E-3</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="55">
         <f t="shared" si="1"/>
         <v>97.999999999999332</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+      <c r="A34" s="56">
         <v>32</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="50">
         <v>0.64358796296296295</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="51">
         <f t="shared" si="0"/>
         <v>4.6296296296299833E-4</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="55">
         <f t="shared" si="1"/>
         <v>40.000000000003055</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
+      <c r="A35" s="56">
         <v>33</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="50">
         <v>0.64405092592592594</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="55">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
+      <c r="A36" s="56">
         <v>34</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="50">
         <v>0.64407407407407413</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148077752E-5</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="55">
         <f t="shared" si="1"/>
         <v>1.9999999999939178</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
+      <c r="A37" s="56">
         <v>35</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="50">
         <v>0.64409722222222221</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="51">
         <f t="shared" si="0"/>
         <v>8.1018518518494176E-5</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="55">
         <f t="shared" si="1"/>
         <v>6.9999999999978968</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+      <c r="A38" s="56">
         <v>36</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="50">
         <v>0.6441782407407407</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="51">
         <f t="shared" si="0"/>
         <v>3.472222222222765E-5</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="55">
         <f t="shared" si="1"/>
         <v>3.000000000000469</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
+      <c r="A39" s="56">
         <v>37</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="50">
         <v>0.64421296296296293</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="51">
         <f t="shared" si="0"/>
         <v>6.94444444444553E-5</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="55">
         <f t="shared" si="1"/>
         <v>6.0000000000009379</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27">
+      <c r="A40" s="56">
         <v>38</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="50">
         <v>0.64428240740740739</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="55">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
+      <c r="A41" s="56">
         <v>39</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="50">
         <v>0.64430555555555558</v>
       </c>
-      <c r="C41" s="30">
-        <f t="shared" si="0"/>
-        <v>-0.64430555555555558</v>
-      </c>
-      <c r="D41" s="31">
-        <f t="shared" si="1"/>
-        <v>-55668</v>
-      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="55"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
@@ -6189,6 +5812,557 @@
       <c r="D103" s="26"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38">
+        <v>2</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="36">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38">
+        <v>1</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38">
+        <v>1</v>
+      </c>
+      <c r="D6" s="33">
+        <v>1</v>
+      </c>
+      <c r="E6" s="33">
+        <f>COUNTIF(B3:B57,1)</f>
+        <v>37</v>
+      </c>
+      <c r="F6" s="33">
+        <f>E6*100/E3</f>
+        <v>67.272727272727266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38">
+        <v>1</v>
+      </c>
+      <c r="D7" s="33">
+        <v>2</v>
+      </c>
+      <c r="E7" s="33">
+        <f>COUNTIF(B3:B57,2)</f>
+        <v>13</v>
+      </c>
+      <c r="F7" s="33">
+        <f>E7*100/E3</f>
+        <v>23.636363636363637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38">
+        <v>1</v>
+      </c>
+      <c r="D8" s="33">
+        <v>3</v>
+      </c>
+      <c r="E8" s="33">
+        <f>COUNTIF(B3:B57,3)</f>
+        <v>5</v>
+      </c>
+      <c r="F8" s="33">
+        <f>E8*100/E3</f>
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38">
+        <v>2</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="34">
+        <f>SUM(F6:F8)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <v>8</v>
+      </c>
+      <c r="B10" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <v>9</v>
+      </c>
+      <c r="B11" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
+        <v>10</v>
+      </c>
+      <c r="B12" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="37">
+        <v>12</v>
+      </c>
+      <c r="B14" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="37">
+        <v>14</v>
+      </c>
+      <c r="B16" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
+        <v>15</v>
+      </c>
+      <c r="B17" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>16</v>
+      </c>
+      <c r="B18" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="37">
+        <v>17</v>
+      </c>
+      <c r="B19" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
+        <v>19</v>
+      </c>
+      <c r="B21" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
+        <v>20</v>
+      </c>
+      <c r="B22" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <v>21</v>
+      </c>
+      <c r="B23" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
+        <v>22</v>
+      </c>
+      <c r="B24" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
+        <v>23</v>
+      </c>
+      <c r="B25" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
+        <v>24</v>
+      </c>
+      <c r="B26" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="37">
+        <v>25</v>
+      </c>
+      <c r="B27" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="37">
+        <v>26</v>
+      </c>
+      <c r="B28" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="37">
+        <v>27</v>
+      </c>
+      <c r="B29" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="37">
+        <v>28</v>
+      </c>
+      <c r="B30" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <v>29</v>
+      </c>
+      <c r="B31" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
+        <v>30</v>
+      </c>
+      <c r="B32" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
+        <v>31</v>
+      </c>
+      <c r="B33" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="37">
+        <v>32</v>
+      </c>
+      <c r="B34" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="37">
+        <v>33</v>
+      </c>
+      <c r="B35" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
+        <v>34</v>
+      </c>
+      <c r="B36" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="37">
+        <v>36</v>
+      </c>
+      <c r="B38" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
+        <v>37</v>
+      </c>
+      <c r="B39" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="37">
+        <v>38</v>
+      </c>
+      <c r="B40" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="37">
+        <v>39</v>
+      </c>
+      <c r="B41" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
+        <v>40</v>
+      </c>
+      <c r="B42" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="37">
+        <v>41</v>
+      </c>
+      <c r="B43" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="37">
+        <v>42</v>
+      </c>
+      <c r="B44" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="37">
+        <v>43</v>
+      </c>
+      <c r="B45" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="37">
+        <v>44</v>
+      </c>
+      <c r="B46" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="37">
+        <v>45</v>
+      </c>
+      <c r="B47" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="37">
+        <v>46</v>
+      </c>
+      <c r="B48" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="37">
+        <v>47</v>
+      </c>
+      <c r="B49" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="37">
+        <v>48</v>
+      </c>
+      <c r="B50" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="37">
+        <v>49</v>
+      </c>
+      <c r="B51" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="37">
+        <v>50</v>
+      </c>
+      <c r="B52" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="37">
+        <v>51</v>
+      </c>
+      <c r="B53" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="37">
+        <v>52</v>
+      </c>
+      <c r="B54" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="37">
+        <v>53</v>
+      </c>
+      <c r="B55" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="37">
+        <v>54</v>
+      </c>
+      <c r="B56" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="37">
+        <v>55</v>
+      </c>
+      <c r="B57" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="31"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="31"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6221,28 +6395,28 @@
       <c r="C2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="54" t="s">
-        <v>18</v>
+      <c r="E2" s="48" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="55">
+      <c r="B3" s="49">
         <v>0</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="49">
         <v>4.5949074074074078E-3</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="46">
         <f>C3-B3</f>
         <v>4.5949074074074078E-3</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="47">
         <f>D3*86400</f>
         <v>397.00000000000006</v>
       </c>
@@ -6251,17 +6425,17 @@
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="49">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="49">
         <v>4.2013888888888891E-3</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="46">
         <f t="shared" ref="D4:D23" si="0">C4-B4</f>
         <v>3.9120370370370368E-3</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="47">
         <f t="shared" ref="E4:E23" si="1">D4*86400</f>
         <v>338</v>
       </c>
@@ -6270,17 +6444,17 @@
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="49">
         <v>1.0763888888888889E-3</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="49">
         <v>1.238425925925926E-2</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="46">
         <f t="shared" si="0"/>
         <v>1.1307870370370371E-2</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="47">
         <f t="shared" si="1"/>
         <v>977</v>
       </c>
@@ -6289,17 +6463,17 @@
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="49">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="49">
         <v>7.9861111111111122E-3</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="46">
         <f t="shared" si="0"/>
         <v>6.3657407407407421E-3</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="47">
         <f t="shared" si="1"/>
         <v>550.00000000000011</v>
       </c>
@@ -6308,17 +6482,17 @@
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="49">
         <v>2.5925925925925925E-3</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="49">
         <v>8.4027777777777781E-3</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="46">
         <f t="shared" si="0"/>
         <v>5.8101851851851856E-3</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="47">
         <f t="shared" si="1"/>
         <v>502.00000000000006</v>
       </c>
@@ -6327,17 +6501,17 @@
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="49">
         <v>6.7129629629629622E-3</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="49">
         <v>9.4212962962962957E-3</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="46">
         <f t="shared" si="0"/>
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="47">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
@@ -6346,17 +6520,17 @@
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="49">
         <v>8.0671296296296307E-3</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="49">
         <v>1.2962962962962963E-2</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="46">
         <f t="shared" si="0"/>
         <v>4.8958333333333319E-3</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="47">
         <f t="shared" si="1"/>
         <v>422.99999999999989</v>
       </c>
@@ -6365,17 +6539,17 @@
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="49">
         <v>1.0393518518518519E-2</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="49">
         <v>1.8483796296296297E-2</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="46">
         <f t="shared" si="0"/>
         <v>8.0902777777777778E-3</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="47">
         <f t="shared" si="1"/>
         <v>699</v>
       </c>
@@ -6384,17 +6558,17 @@
       <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="49">
         <v>1.4120370370370368E-2</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="49">
         <v>2.0034722222222221E-2</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="46">
         <f t="shared" si="0"/>
         <v>5.9143518518518529E-3</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="47">
         <f t="shared" si="1"/>
         <v>511.00000000000011</v>
       </c>
@@ -6403,17 +6577,17 @@
       <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="49">
         <v>1.486111111111111E-2</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="49">
         <v>1.9247685185185184E-2</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="46">
         <f t="shared" si="0"/>
         <v>4.386574074074074E-3</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="47">
         <f t="shared" si="1"/>
         <v>379</v>
       </c>
@@ -6422,17 +6596,17 @@
       <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="49">
         <v>1.6342592592592593E-2</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="49">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="46">
         <f t="shared" si="0"/>
         <v>3.1018518518518522E-3</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="47">
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
@@ -6441,17 +6615,17 @@
       <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="49">
         <v>1.8194444444444444E-2</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="49">
         <v>2.298611111111111E-2</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="46">
         <f t="shared" si="0"/>
         <v>4.7916666666666663E-3</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="47">
         <f t="shared" si="1"/>
         <v>413.99999999999994</v>
       </c>
@@ -6460,17 +6634,17 @@
       <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="49">
         <v>2.0983796296296296E-2</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="49">
         <v>2.6469907407407411E-2</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="46">
         <f t="shared" si="0"/>
         <v>5.4861111111111152E-3</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="47">
         <f t="shared" si="1"/>
         <v>474.00000000000034</v>
       </c>
@@ -6479,17 +6653,17 @@
       <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="49">
         <v>0</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="49">
         <v>3.3680555555555551E-3</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="46">
         <f t="shared" si="0"/>
         <v>3.3680555555555551E-3</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="47">
         <f t="shared" si="1"/>
         <v>290.99999999999994</v>
       </c>
@@ -6498,17 +6672,17 @@
       <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="49">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="49">
         <v>3.37962962962963E-3</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="46">
         <f t="shared" si="0"/>
         <v>3.368055555555556E-3</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="47">
         <f t="shared" si="1"/>
         <v>291.00000000000006</v>
       </c>
@@ -6517,17 +6691,17 @@
       <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="49">
         <v>1.7361111111111112E-4</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="49">
         <v>7.9976851851851858E-3</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="46">
         <f t="shared" si="0"/>
         <v>7.8240740740740753E-3</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="47">
         <f t="shared" si="1"/>
         <v>676.00000000000011</v>
       </c>
@@ -6536,17 +6710,17 @@
       <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="49">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="49">
         <v>6.4814814814814813E-3</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="46">
         <f t="shared" si="0"/>
         <v>6.1342592592592594E-3</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="47">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
@@ -6555,17 +6729,17 @@
       <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="55">
+      <c r="B20" s="49">
         <v>3.5879629629629635E-4</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="49">
         <v>8.7962962962962968E-3</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="46">
         <f t="shared" si="0"/>
         <v>8.4375000000000006E-3</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="47">
         <f t="shared" si="1"/>
         <v>729</v>
       </c>
@@ -6574,17 +6748,17 @@
       <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="55">
+      <c r="B21" s="49">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="49">
         <v>7.0023148148148154E-3</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="46">
         <f t="shared" si="0"/>
         <v>6.5625000000000006E-3</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="47">
         <f t="shared" si="1"/>
         <v>567</v>
       </c>
@@ -6593,17 +6767,17 @@
       <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="49">
         <v>8.564814814814815E-4</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="49">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="46">
         <f t="shared" si="0"/>
         <v>5.1967592592592595E-3</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="47">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
@@ -6612,17 +6786,17 @@
       <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="55">
+      <c r="B23" s="49">
         <v>1.7245370370370372E-3</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="49">
         <v>5.3240740740740748E-3</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="46">
         <f t="shared" si="0"/>
         <v>3.5995370370370374E-3</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="47">
         <f t="shared" si="1"/>
         <v>311.00000000000006</v>
       </c>
@@ -6633,8 +6807,8 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
@@ -6642,8 +6816,8 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
@@ -6651,8 +6825,8 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -6660,8 +6834,8 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
@@ -6669,8 +6843,8 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
@@ -6678,8 +6852,8 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
@@ -6687,8 +6861,8 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
@@ -6696,8 +6870,8 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
@@ -6705,11 +6879,11 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -6717,7 +6891,7 @@
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -6725,7 +6899,7 @@
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -6733,7 +6907,7 @@
       <c r="F35" s="26"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -6741,7 +6915,7 @@
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
@@ -6749,7 +6923,7 @@
       <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -6757,7 +6931,7 @@
       <c r="F38" s="26"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -6765,7 +6939,7 @@
       <c r="F39" s="26"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -6773,7 +6947,7 @@
       <c r="F40" s="26"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
@@ -6781,7 +6955,7 @@
       <c r="F41" s="26"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
@@ -6789,7 +6963,7 @@
       <c r="F42" s="26"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
@@ -6797,7 +6971,7 @@
       <c r="F43" s="26"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
@@ -6805,7 +6979,7 @@
       <c r="F44" s="26"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
@@ -6813,7 +6987,7 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
@@ -6821,7 +6995,7 @@
       <c r="F46" s="26"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -6829,7 +7003,7 @@
       <c r="F47" s="26"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
@@ -6837,7 +7011,7 @@
       <c r="F48" s="26"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
@@ -6845,7 +7019,7 @@
       <c r="F49" s="26"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
@@ -6853,7 +7027,7 @@
       <c r="F50" s="26"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
@@ -6861,7 +7035,7 @@
       <c r="F51" s="26"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
@@ -6869,7 +7043,7 @@
       <c r="F52" s="26"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -6877,7 +7051,7 @@
       <c r="F53" s="26"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -6885,7 +7059,7 @@
       <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -6893,7 +7067,7 @@
       <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -6901,7 +7075,7 @@
       <c r="F56" s="26"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
@@ -6909,7 +7083,7 @@
       <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -6917,7 +7091,7 @@
       <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
@@ -6925,7 +7099,7 @@
       <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
@@ -6933,7 +7107,7 @@
       <c r="F60" s="26"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
@@ -6941,7 +7115,7 @@
       <c r="F61" s="26"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
@@ -6949,7 +7123,7 @@
       <c r="F62" s="26"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
@@ -6957,7 +7131,7 @@
       <c r="F63" s="26"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
@@ -6965,7 +7139,7 @@
       <c r="F64" s="26"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
@@ -6973,7 +7147,7 @@
       <c r="F65" s="26"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
@@ -6981,7 +7155,7 @@
       <c r="F66" s="26"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="25"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
@@ -6989,7 +7163,7 @@
       <c r="F67" s="26"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
+      <c r="A68" s="45"/>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
@@ -6997,7 +7171,7 @@
       <c r="F68" s="26"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
@@ -7005,7 +7179,7 @@
       <c r="F69" s="26"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
@@ -7013,7 +7187,7 @@
       <c r="F70" s="26"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="25"/>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
@@ -7021,7 +7195,7 @@
       <c r="F71" s="26"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
@@ -7029,7 +7203,7 @@
       <c r="F72" s="26"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
+      <c r="A73" s="45"/>
       <c r="B73" s="25"/>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
@@ -7037,7 +7211,7 @@
       <c r="F73" s="26"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
+      <c r="A74" s="45"/>
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
@@ -7045,7 +7219,7 @@
       <c r="F74" s="26"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
+      <c r="A75" s="45"/>
       <c r="B75" s="25"/>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
@@ -7053,7 +7227,7 @@
       <c r="F75" s="26"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
@@ -7061,7 +7235,7 @@
       <c r="F76" s="26"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
@@ -7069,7 +7243,7 @@
       <c r="F77" s="26"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
@@ -7077,7 +7251,7 @@
       <c r="F78" s="26"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="51"/>
+      <c r="A79" s="45"/>
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
@@ -7085,7 +7259,7 @@
       <c r="F79" s="26"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -7093,7 +7267,7 @@
       <c r="F80" s="26"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="51"/>
+      <c r="A81" s="45"/>
       <c r="B81" s="25"/>
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
@@ -7101,7 +7275,7 @@
       <c r="F81" s="26"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
+      <c r="A82" s="45"/>
       <c r="B82" s="25"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
@@ -7109,7 +7283,7 @@
       <c r="F82" s="26"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
+      <c r="A83" s="45"/>
       <c r="B83" s="25"/>
       <c r="C83" s="26"/>
       <c r="D83" s="26"/>
@@ -7117,7 +7291,7 @@
       <c r="F83" s="26"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="25"/>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
@@ -7125,7 +7299,7 @@
       <c r="F84" s="26"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
+      <c r="A85" s="45"/>
       <c r="B85" s="25"/>
       <c r="C85" s="26"/>
       <c r="D85" s="26"/>
@@ -7133,7 +7307,7 @@
       <c r="F85" s="26"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
+      <c r="A86" s="45"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
@@ -7141,7 +7315,7 @@
       <c r="F86" s="26"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
+      <c r="A87" s="45"/>
       <c r="B87" s="25"/>
       <c r="C87" s="26"/>
       <c r="D87" s="26"/>
@@ -7149,7 +7323,7 @@
       <c r="F87" s="26"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
+      <c r="A88" s="45"/>
       <c r="B88" s="25"/>
       <c r="C88" s="26"/>
       <c r="D88" s="26"/>
@@ -7157,7 +7331,7 @@
       <c r="F88" s="26"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
+      <c r="A89" s="45"/>
       <c r="B89" s="25"/>
       <c r="C89" s="26"/>
       <c r="D89" s="26"/>
@@ -7165,7 +7339,7 @@
       <c r="F89" s="26"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
+      <c r="A90" s="45"/>
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
@@ -7173,7 +7347,7 @@
       <c r="F90" s="26"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
+      <c r="A91" s="45"/>
       <c r="B91" s="25"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
@@ -7181,7 +7355,7 @@
       <c r="F91" s="26"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
+      <c r="A92" s="45"/>
       <c r="B92" s="25"/>
       <c r="C92" s="26"/>
       <c r="D92" s="26"/>
@@ -7189,7 +7363,7 @@
       <c r="F92" s="26"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
+      <c r="A93" s="45"/>
       <c r="B93" s="25"/>
       <c r="C93" s="26"/>
       <c r="D93" s="26"/>
@@ -7197,7 +7371,7 @@
       <c r="F93" s="26"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
+      <c r="A94" s="45"/>
       <c r="B94" s="25"/>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
@@ -7205,7 +7379,7 @@
       <c r="F94" s="26"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
+      <c r="A95" s="45"/>
       <c r="B95" s="25"/>
       <c r="C95" s="26"/>
       <c r="D95" s="26"/>
@@ -7213,7 +7387,7 @@
       <c r="F95" s="26"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
+      <c r="A96" s="45"/>
       <c r="B96" s="25"/>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
@@ -7221,7 +7395,7 @@
       <c r="F96" s="26"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
+      <c r="A97" s="45"/>
       <c r="B97" s="25"/>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
@@ -7229,7 +7403,7 @@
       <c r="F97" s="26"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
+      <c r="A98" s="45"/>
       <c r="B98" s="25"/>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
@@ -7237,7 +7411,7 @@
       <c r="F98" s="26"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
+      <c r="A99" s="45"/>
       <c r="B99" s="25"/>
       <c r="C99" s="26"/>
       <c r="D99" s="26"/>
@@ -7245,7 +7419,7 @@
       <c r="F99" s="26"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
+      <c r="A100" s="45"/>
       <c r="B100" s="25"/>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
@@ -7253,7 +7427,7 @@
       <c r="F100" s="26"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="51"/>
+      <c r="A101" s="45"/>
       <c r="B101" s="25"/>
       <c r="C101" s="26"/>
       <c r="D101" s="26"/>
@@ -7261,7 +7435,7 @@
       <c r="F101" s="26"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="51"/>
+      <c r="A102" s="45"/>
       <c r="B102" s="25"/>
       <c r="C102" s="26"/>
       <c r="D102" s="26"/>
@@ -7285,8 +7459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7312,8 +7486,8 @@
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>26</v>
+      <c r="C3" s="40" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
@@ -7323,18 +7497,18 @@
       <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="41">
         <v>0.66517361111111117</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="42">
         <v>7</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="50">
+      <c r="F4" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="44">
         <f>COUNT(C4:C61)</f>
         <v>58</v>
       </c>
@@ -7343,18 +7517,18 @@
       <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="41">
         <v>0.66606481481481483</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="42">
         <v>5</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="50">
+      <c r="F5" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="44">
         <f>AVERAGE(C4:C61)</f>
         <v>4.1724137931034484</v>
       </c>
@@ -7363,10 +7537,10 @@
       <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="41">
         <v>0.6665740740740741</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="42">
         <v>4</v>
       </c>
       <c r="D6" s="11"/>
@@ -7377,10 +7551,10 @@
       <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="41">
         <v>0.66728009259259258</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="42">
         <v>5</v>
       </c>
       <c r="D7" s="11"/>
@@ -7391,10 +7565,10 @@
       <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="41">
         <v>0.66734953703703714</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="42">
         <v>4</v>
       </c>
       <c r="D8" s="11"/>
@@ -7405,10 +7579,10 @@
       <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="41">
         <v>0.66766203703703697</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="42">
         <v>3</v>
       </c>
       <c r="D9" s="11"/>
@@ -7419,10 +7593,10 @@
       <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="41">
         <v>0.66843750000000002</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="42">
         <v>2</v>
       </c>
       <c r="D10" s="11"/>
@@ -7433,10 +7607,10 @@
       <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="41">
         <v>0.66870370370370369</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="42">
         <v>3</v>
       </c>
       <c r="D11" s="11"/>
@@ -7447,10 +7621,10 @@
       <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="41">
         <v>0.66890046296296291</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="42">
         <v>2</v>
       </c>
       <c r="D12" s="11"/>
@@ -7461,10 +7635,10 @@
       <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="41">
         <v>0.66900462962962959</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="42">
         <v>3</v>
       </c>
       <c r="D13" s="11"/>
@@ -7475,10 +7649,10 @@
       <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="41">
         <v>0.66905092592592597</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="42">
         <v>4</v>
       </c>
       <c r="D14" s="11"/>
@@ -7489,10 +7663,10 @@
       <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="41">
         <v>0.66918981481481488</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="42">
         <v>3</v>
       </c>
       <c r="D15" s="11"/>
@@ -7503,10 +7677,10 @@
       <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="41">
         <v>0.66956018518518512</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="42">
         <v>2</v>
       </c>
       <c r="D16" s="11"/>
@@ -7517,10 +7691,10 @@
       <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="41">
         <v>0.66982638888888879</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="42">
         <v>3</v>
       </c>
       <c r="D17" s="11"/>
@@ -7531,10 +7705,10 @@
       <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="41">
         <v>0.6699652777777777</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="42">
         <v>4</v>
       </c>
       <c r="D18" s="11"/>
@@ -7545,10 +7719,10 @@
       <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="41">
         <v>0.67052083333333334</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="42">
         <v>3</v>
       </c>
       <c r="D19" s="11"/>
@@ -7559,10 +7733,10 @@
       <c r="A20" s="18">
         <v>17</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="41">
         <v>0.6705902777777778</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="42">
         <v>4</v>
       </c>
       <c r="D20" s="11"/>
@@ -7573,10 +7747,10 @@
       <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="41">
         <v>0.67076388888888883</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="42">
         <v>5</v>
       </c>
       <c r="D21" s="11"/>
@@ -7587,10 +7761,10 @@
       <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="41">
         <v>0.67104166666666665</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="42">
         <v>4</v>
       </c>
       <c r="D22" s="11"/>
@@ -7601,10 +7775,10 @@
       <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="41">
         <v>0.67129629629629628</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="42">
         <v>3</v>
       </c>
       <c r="D23" s="11"/>
@@ -7615,10 +7789,10 @@
       <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="41">
         <v>0.67153935185185187</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="42">
         <v>2</v>
       </c>
       <c r="D24" s="11"/>
@@ -7629,10 +7803,10 @@
       <c r="A25" s="18">
         <v>22</v>
       </c>
-      <c r="B25" s="47">
+      <c r="B25" s="41">
         <v>0.67162037037037037</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="42">
         <v>3</v>
       </c>
       <c r="D25" s="11"/>
@@ -7643,10 +7817,10 @@
       <c r="A26" s="18">
         <v>23</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="41">
         <v>0.67177083333333332</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="42">
         <v>4</v>
       </c>
       <c r="D26" s="11"/>
@@ -7657,10 +7831,10 @@
       <c r="A27" s="18">
         <v>24</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="41">
         <v>0.67181712962962958</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="42">
         <v>5</v>
       </c>
       <c r="D27" s="11"/>
@@ -7671,10 +7845,10 @@
       <c r="A28" s="18">
         <v>25</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="41">
         <v>0.67225694444444439</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="42">
         <v>4</v>
       </c>
       <c r="D28" s="11"/>
@@ -7685,10 +7859,10 @@
       <c r="A29" s="18">
         <v>26</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29" s="41">
         <v>0.67276620370370377</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="42">
         <v>3</v>
       </c>
       <c r="D29" s="11"/>
@@ -7699,10 +7873,10 @@
       <c r="A30" s="18">
         <v>27</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="41">
         <v>0.67305555555555552</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="42">
         <v>2</v>
       </c>
       <c r="D30" s="11"/>
@@ -7713,10 +7887,10 @@
       <c r="A31" s="18">
         <v>28</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="41">
         <v>0.67318287037037028</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="42">
         <v>3</v>
       </c>
       <c r="D31" s="11"/>
@@ -7727,10 +7901,10 @@
       <c r="A32" s="18">
         <v>29</v>
       </c>
-      <c r="B32" s="47">
+      <c r="B32" s="41">
         <v>0.67320601851851858</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="42">
         <v>4</v>
       </c>
       <c r="D32" s="11"/>
@@ -7741,10 +7915,10 @@
       <c r="A33" s="18">
         <v>30</v>
       </c>
-      <c r="B33" s="47">
+      <c r="B33" s="41">
         <v>0.67365740740740743</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="42">
         <v>3</v>
       </c>
       <c r="D33" s="11"/>
@@ -7755,10 +7929,10 @@
       <c r="A34" s="18">
         <v>31</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="41">
         <v>0.67401620370370363</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="42">
         <v>2</v>
       </c>
       <c r="D34" s="11"/>
@@ -7769,10 +7943,10 @@
       <c r="A35" s="18">
         <v>32</v>
       </c>
-      <c r="B35" s="47">
+      <c r="B35" s="41">
         <v>0.67417824074074073</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="42">
         <v>1</v>
       </c>
       <c r="D35" s="11"/>
@@ -7783,10 +7957,10 @@
       <c r="A36" s="18">
         <v>33</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="41">
         <v>0.67436342592592602</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="42">
         <v>2</v>
       </c>
       <c r="D36" s="11"/>
@@ -7797,10 +7971,10 @@
       <c r="A37" s="18">
         <v>34</v>
       </c>
-      <c r="B37" s="47">
+      <c r="B37" s="41">
         <v>0.67453703703703705</v>
       </c>
-      <c r="C37" s="48">
+      <c r="C37" s="42">
         <v>3</v>
       </c>
       <c r="D37" s="11"/>
@@ -7811,10 +7985,10 @@
       <c r="A38" s="18">
         <v>35</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="41">
         <v>0.67466435185185192</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="42">
         <v>2</v>
       </c>
       <c r="D38" s="11"/>
@@ -7825,10 +7999,10 @@
       <c r="A39" s="18">
         <v>36</v>
       </c>
-      <c r="B39" s="47">
+      <c r="B39" s="41">
         <v>0.67486111111111102</v>
       </c>
-      <c r="C39" s="48">
+      <c r="C39" s="42">
         <v>3</v>
       </c>
       <c r="D39" s="11"/>
@@ -7839,10 +8013,10 @@
       <c r="A40" s="18">
         <v>37</v>
       </c>
-      <c r="B40" s="47">
+      <c r="B40" s="41">
         <v>0.67502314814814823</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="42">
         <v>4</v>
       </c>
       <c r="D40" s="11"/>
@@ -7853,10 +8027,10 @@
       <c r="A41" s="18">
         <v>38</v>
       </c>
-      <c r="B41" s="47">
+      <c r="B41" s="41">
         <v>0.6750694444444445</v>
       </c>
-      <c r="C41" s="48">
+      <c r="C41" s="42">
         <v>5</v>
       </c>
       <c r="D41" s="11"/>
@@ -7867,10 +8041,10 @@
       <c r="A42" s="18">
         <v>39</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B42" s="41">
         <v>0.67521990740740734</v>
       </c>
-      <c r="C42" s="48">
+      <c r="C42" s="42">
         <v>4</v>
       </c>
       <c r="D42" s="11"/>
@@ -7881,10 +8055,10 @@
       <c r="A43" s="18">
         <v>40</v>
       </c>
-      <c r="B43" s="47">
+      <c r="B43" s="41">
         <v>0.6756712962962963</v>
       </c>
-      <c r="C43" s="48">
+      <c r="C43" s="42">
         <v>3</v>
       </c>
       <c r="D43" s="11"/>
@@ -7895,10 +8069,10 @@
       <c r="A44" s="18">
         <v>41</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="41">
         <v>0.67571759259259256</v>
       </c>
-      <c r="C44" s="48">
+      <c r="C44" s="42">
         <v>4</v>
       </c>
       <c r="D44" s="11"/>
@@ -7909,10 +8083,10 @@
       <c r="A45" s="18">
         <v>42</v>
       </c>
-      <c r="B45" s="47">
+      <c r="B45" s="41">
         <v>0.67606481481481484</v>
       </c>
-      <c r="C45" s="48">
+      <c r="C45" s="42">
         <v>5</v>
       </c>
       <c r="D45" s="11"/>
@@ -7923,10 +8097,10 @@
       <c r="A46" s="18">
         <v>43</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="41">
         <v>0.6761921296296296</v>
       </c>
-      <c r="C46" s="48">
+      <c r="C46" s="42">
         <v>6</v>
       </c>
       <c r="D46" s="11"/>
@@ -7937,10 +8111,10 @@
       <c r="A47" s="18">
         <v>44</v>
       </c>
-      <c r="B47" s="47">
+      <c r="B47" s="41">
         <v>0.67621527777777779</v>
       </c>
-      <c r="C47" s="48">
+      <c r="C47" s="42">
         <v>5</v>
       </c>
       <c r="D47" s="11"/>
@@ -7951,10 +8125,10 @@
       <c r="A48" s="18">
         <v>45</v>
       </c>
-      <c r="B48" s="47">
+      <c r="B48" s="41">
         <v>0.67660879629629633</v>
       </c>
-      <c r="C48" s="48">
+      <c r="C48" s="42">
         <v>6</v>
       </c>
       <c r="D48" s="11"/>
@@ -7965,10 +8139,10 @@
       <c r="A49" s="18">
         <v>46</v>
       </c>
-      <c r="B49" s="47">
+      <c r="B49" s="41">
         <v>0.67672453703703705</v>
       </c>
-      <c r="C49" s="48">
+      <c r="C49" s="42">
         <v>5</v>
       </c>
       <c r="D49" s="11"/>
@@ -7979,10 +8153,10 @@
       <c r="A50" s="18">
         <v>47</v>
       </c>
-      <c r="B50" s="47">
+      <c r="B50" s="41">
         <v>0.67677083333333332</v>
       </c>
-      <c r="C50" s="48">
+      <c r="C50" s="42">
         <v>6</v>
       </c>
       <c r="D50" s="11"/>
@@ -7993,10 +8167,10 @@
       <c r="A51" s="18">
         <v>48</v>
       </c>
-      <c r="B51" s="47">
+      <c r="B51" s="41">
         <v>0.6769560185185185</v>
       </c>
-      <c r="C51" s="48">
+      <c r="C51" s="42">
         <v>7</v>
       </c>
       <c r="D51" s="11"/>
@@ -8007,10 +8181,10 @@
       <c r="A52" s="18">
         <v>49</v>
       </c>
-      <c r="B52" s="47">
+      <c r="B52" s="41">
         <v>0.67709490740740741</v>
       </c>
-      <c r="C52" s="48">
+      <c r="C52" s="42">
         <v>8</v>
       </c>
       <c r="D52" s="11"/>
@@ -8021,10 +8195,10 @@
       <c r="A53" s="18">
         <v>50</v>
       </c>
-      <c r="B53" s="47">
+      <c r="B53" s="41">
         <v>0.67711805555555549</v>
       </c>
-      <c r="C53" s="48">
+      <c r="C53" s="42">
         <v>7</v>
       </c>
       <c r="D53" s="11"/>
@@ -8035,10 +8209,10 @@
       <c r="A54" s="18">
         <v>51</v>
       </c>
-      <c r="B54" s="47">
+      <c r="B54" s="41">
         <v>0.67743055555555554</v>
       </c>
-      <c r="C54" s="48">
+      <c r="C54" s="42">
         <v>8</v>
       </c>
       <c r="D54" s="11"/>
@@ -8049,10 +8223,10 @@
       <c r="A55" s="18">
         <v>52</v>
       </c>
-      <c r="B55" s="47">
+      <c r="B55" s="41">
         <v>0.67782407407407408</v>
       </c>
-      <c r="C55" s="48">
+      <c r="C55" s="42">
         <v>7</v>
       </c>
       <c r="D55" s="11"/>
@@ -8063,10 +8237,10 @@
       <c r="A56" s="18">
         <v>53</v>
       </c>
-      <c r="B56" s="47">
+      <c r="B56" s="41">
         <v>0.67842592592592599</v>
       </c>
-      <c r="C56" s="48">
+      <c r="C56" s="42">
         <v>6</v>
       </c>
       <c r="D56" s="11"/>
@@ -8077,10 +8251,10 @@
       <c r="A57" s="18">
         <v>54</v>
       </c>
-      <c r="B57" s="47">
+      <c r="B57" s="41">
         <v>0.67881944444444453</v>
       </c>
-      <c r="C57" s="48">
+      <c r="C57" s="42">
         <v>5</v>
       </c>
       <c r="D57" s="11"/>
@@ -8091,10 +8265,10 @@
       <c r="A58" s="18">
         <v>55</v>
       </c>
-      <c r="B58" s="47">
+      <c r="B58" s="41">
         <v>0.67901620370370364</v>
       </c>
-      <c r="C58" s="48">
+      <c r="C58" s="42">
         <v>6</v>
       </c>
       <c r="D58" s="11"/>
@@ -8105,10 +8279,10 @@
       <c r="A59" s="18">
         <v>56</v>
       </c>
-      <c r="B59" s="47">
+      <c r="B59" s="41">
         <v>0.67930555555555561</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="42">
         <v>5</v>
       </c>
       <c r="D59" s="11"/>
@@ -8119,10 +8293,10 @@
       <c r="A60" s="18">
         <v>57</v>
       </c>
-      <c r="B60" s="47">
+      <c r="B60" s="41">
         <v>0.67969907407407415</v>
       </c>
-      <c r="C60" s="48">
+      <c r="C60" s="42">
         <v>6</v>
       </c>
       <c r="D60" s="11"/>
@@ -8133,10 +8307,10 @@
       <c r="A61" s="18">
         <v>58</v>
       </c>
-      <c r="B61" s="47">
+      <c r="B61" s="41">
         <v>0.68008101851851854</v>
       </c>
-      <c r="C61" s="48">
+      <c r="C61" s="42">
         <v>5</v>
       </c>
       <c r="D61" s="11"/>
@@ -8144,335 +8318,335 @@
       <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="45"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="11"/>
       <c r="E62" s="12"/>
       <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="45"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="11"/>
       <c r="E63" s="12"/>
       <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="45"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="11"/>
       <c r="E64" s="12"/>
       <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="45"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="11"/>
       <c r="E65" s="12"/>
       <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="45"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="11"/>
       <c r="E66" s="12"/>
       <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="45"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="39"/>
       <c r="D67" s="11"/>
       <c r="E67" s="12"/>
       <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="45"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="45"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="11"/>
       <c r="E69" s="12"/>
       <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="45"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="39"/>
       <c r="D70" s="11"/>
       <c r="E70" s="12"/>
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="45"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="39"/>
       <c r="D71" s="11"/>
       <c r="E71" s="12"/>
       <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="45"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="11"/>
       <c r="E72" s="12"/>
       <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="45"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="11"/>
       <c r="E73" s="12"/>
       <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="45"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="11"/>
       <c r="E74" s="12"/>
       <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="45"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="11"/>
       <c r="E75" s="12"/>
       <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="45"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="39"/>
       <c r="D76" s="11"/>
       <c r="E76" s="12"/>
       <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="45"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="11"/>
       <c r="E77" s="12"/>
       <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="45"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="11"/>
       <c r="E78" s="12"/>
       <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="45"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="39"/>
       <c r="D79" s="11"/>
       <c r="E79" s="12"/>
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="45"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="45"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="11"/>
       <c r="E81" s="12"/>
       <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="45"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="39"/>
       <c r="D82" s="11"/>
       <c r="E82" s="12"/>
       <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="45"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="11"/>
       <c r="E83" s="12"/>
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="45"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="11"/>
       <c r="E84" s="12"/>
       <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="45"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="39"/>
       <c r="D85" s="11"/>
       <c r="E85" s="12"/>
       <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="45"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="39"/>
       <c r="D86" s="11"/>
       <c r="E86" s="12"/>
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="45"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="39"/>
       <c r="D87" s="11"/>
       <c r="E87" s="12"/>
       <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="45"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="39"/>
       <c r="D88" s="11"/>
       <c r="E88" s="12"/>
       <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="45"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="39"/>
       <c r="D89" s="11"/>
       <c r="E89" s="12"/>
       <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="45"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="39"/>
       <c r="D90" s="11"/>
       <c r="E90" s="12"/>
       <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="45"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="39"/>
       <c r="D91" s="11"/>
       <c r="E91" s="12"/>
       <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="45"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="39"/>
       <c r="D92" s="11"/>
       <c r="E92" s="12"/>
       <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="45"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="11"/>
       <c r="E93" s="12"/>
       <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="45"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="39"/>
       <c r="D94" s="11"/>
       <c r="E94" s="12"/>
       <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="45"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="11"/>
       <c r="E95" s="12"/>
       <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="45"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="39"/>
       <c r="D96" s="11"/>
       <c r="E96" s="12"/>
       <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="45"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="39"/>
       <c r="D97" s="11"/>
       <c r="E97" s="12"/>
       <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="33"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="45"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="11"/>
       <c r="E98" s="12"/>
       <c r="F98" s="11"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="33"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="45"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="39"/>
       <c r="D99" s="11"/>
       <c r="E99" s="12"/>
       <c r="F99" s="11"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="33"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="45"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="39"/>
       <c r="D100" s="11"/>
       <c r="E100" s="12"/>
       <c r="F100" s="11"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="33"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="45"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="39"/>
       <c r="D101" s="11"/>
       <c r="E101" s="12"/>
       <c r="F101" s="11"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="45"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="39"/>
       <c r="D102" s="11"/>
       <c r="E102" s="12"/>
       <c r="F102" s="11"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="33"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="26"/>
@@ -8486,550 +8660,342 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-    </row>
-    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+    </row>
+    <row r="2" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="35"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+        <v>30</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="50">
+        <v>0</v>
+      </c>
+      <c r="C3" s="50">
+        <v>1.8865740740740742E-3</v>
+      </c>
+      <c r="D3" s="51">
+        <f>C3-B3</f>
+        <v>1.8865740740740742E-3</v>
+      </c>
+      <c r="E3" s="47">
+        <f>D3*86400</f>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="42">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
-        <v>2</v>
-      </c>
-      <c r="B4" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="B4" s="50">
+        <v>0</v>
+      </c>
+      <c r="C4" s="50">
+        <v>1.6203703703703703E-3</v>
+      </c>
+      <c r="D4" s="51">
+        <f t="shared" ref="D4:D14" si="0">C4-B4</f>
+        <v>1.6203703703703703E-3</v>
+      </c>
+      <c r="E4" s="47">
+        <f t="shared" ref="E4:E14" si="1">D4*86400</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="44">
-        <v>1</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="50">
+        <v>3.9351851851851852E-4</v>
+      </c>
+      <c r="C5" s="50">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="D5" s="51">
+        <f t="shared" si="0"/>
+        <v>9.9537037037037042E-4</v>
+      </c>
+      <c r="E5" s="47">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50">
+        <v>3.9351851851851852E-4</v>
+      </c>
+      <c r="C6" s="50">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="D6" s="51">
+        <f t="shared" si="0"/>
+        <v>2.3842592592592596E-3</v>
+      </c>
+      <c r="E6" s="47">
+        <f t="shared" si="1"/>
+        <v>206.00000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="50">
+        <v>1.1226851851851851E-3</v>
+      </c>
+      <c r="C7" s="50">
+        <v>4.7800925925925919E-3</v>
+      </c>
+      <c r="D7" s="51">
+        <f t="shared" si="0"/>
+        <v>3.657407407407407E-3</v>
+      </c>
+      <c r="E7" s="47">
+        <f t="shared" si="1"/>
+        <v>315.99999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50">
+        <v>2.5462962962962961E-3</v>
+      </c>
+      <c r="C8" s="50">
+        <v>4.363425925925926E-3</v>
+      </c>
+      <c r="D8" s="51">
+        <f t="shared" si="0"/>
+        <v>1.8171296296296299E-3</v>
+      </c>
+      <c r="E8" s="47">
+        <f t="shared" si="1"/>
+        <v>157.00000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50">
+        <v>2.9861111111111113E-3</v>
+      </c>
+      <c r="C9" s="50">
+        <v>4.5138888888888893E-3</v>
+      </c>
+      <c r="D9" s="51">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777781E-3</v>
+      </c>
+      <c r="E9" s="47">
+        <f t="shared" si="1"/>
+        <v>132.00000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50">
+        <v>3.4490740740740745E-3</v>
+      </c>
+      <c r="C10" s="50">
+        <v>4.9768518518518521E-3</v>
+      </c>
+      <c r="D10" s="51">
+        <f t="shared" si="0"/>
+        <v>1.5277777777777776E-3</v>
+      </c>
+      <c r="E10" s="47">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="50">
+        <v>5.1273148148148146E-3</v>
+      </c>
+      <c r="C11" s="50">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="D11" s="51">
+        <f t="shared" si="0"/>
+        <v>2.6851851851851854E-3</v>
+      </c>
+      <c r="E11" s="47">
+        <f t="shared" si="1"/>
+        <v>232.00000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="50">
+        <v>5.5671296296296302E-3</v>
+      </c>
+      <c r="C12" s="50">
+        <v>6.7129629629629622E-3</v>
+      </c>
+      <c r="D12" s="51">
+        <f t="shared" si="0"/>
+        <v>1.145833333333332E-3</v>
+      </c>
+      <c r="E12" s="47">
+        <f t="shared" si="1"/>
+        <v>98.999999999999886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="50">
+        <v>5.7291666666666671E-3</v>
+      </c>
+      <c r="C13" s="50">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D13" s="51">
+        <f t="shared" si="0"/>
+        <v>1.2152777777777769E-3</v>
+      </c>
+      <c r="E13" s="47">
+        <f t="shared" si="1"/>
+        <v>104.99999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="50">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="C14" s="50">
+        <v>8.8310185185185176E-3</v>
+      </c>
+      <c r="D14" s="51">
+        <f t="shared" si="0"/>
+        <v>1.1921296296296289E-3</v>
+      </c>
+      <c r="E14" s="47">
+        <f t="shared" si="1"/>
+        <v>102.99999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
-        <v>4</v>
-      </c>
-      <c r="B6" s="44">
-        <v>1</v>
-      </c>
-      <c r="D6" s="39">
-        <v>1</v>
-      </c>
-      <c r="E6" s="39">
-        <f>COUNTIF(B3:B57,1)</f>
-        <v>37</v>
-      </c>
-      <c r="F6" s="39">
-        <f>E6*100/E3</f>
-        <v>67.272727272727266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
-        <v>5</v>
-      </c>
-      <c r="B7" s="44">
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>2</v>
-      </c>
-      <c r="E7" s="39">
-        <f>COUNTIF(B3:B57,2)</f>
-        <v>13</v>
-      </c>
-      <c r="F7" s="39">
-        <f>E7*100/E3</f>
-        <v>23.636363636363637</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
-        <v>6</v>
-      </c>
-      <c r="B8" s="44">
-        <v>1</v>
-      </c>
-      <c r="D8" s="39">
-        <v>3</v>
-      </c>
-      <c r="E8" s="39">
-        <f>COUNTIF(B3:B57,3)</f>
-        <v>5</v>
-      </c>
-      <c r="F8" s="39">
-        <f>E8*100/E3</f>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
-        <v>7</v>
-      </c>
-      <c r="B9" s="44">
-        <v>2</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="40">
-        <f>SUM(F6:F8)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
-        <v>8</v>
-      </c>
-      <c r="B10" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
-        <v>9</v>
-      </c>
-      <c r="B11" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
-        <v>10</v>
-      </c>
-      <c r="B12" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
-        <v>11</v>
-      </c>
-      <c r="B13" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
-        <v>12</v>
-      </c>
-      <c r="B14" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
-        <v>13</v>
-      </c>
-      <c r="B15" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
-        <v>14</v>
-      </c>
-      <c r="B16" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
-        <v>15</v>
-      </c>
-      <c r="B17" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
-        <v>16</v>
-      </c>
-      <c r="B18" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
-        <v>21</v>
-      </c>
-      <c r="B23" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
-        <v>22</v>
-      </c>
-      <c r="B24" s="44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
-        <v>23</v>
-      </c>
-      <c r="B25" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
-        <v>24</v>
-      </c>
-      <c r="B26" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
-        <v>25</v>
-      </c>
-      <c r="B27" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
-        <v>26</v>
-      </c>
-      <c r="B28" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
-        <v>27</v>
-      </c>
-      <c r="B29" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
-        <v>28</v>
-      </c>
-      <c r="B30" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
-        <v>29</v>
-      </c>
-      <c r="B31" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="43">
-        <v>30</v>
-      </c>
-      <c r="B32" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
-        <v>31</v>
-      </c>
-      <c r="B33" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="43">
-        <v>32</v>
-      </c>
-      <c r="B34" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
-        <v>33</v>
-      </c>
-      <c r="B35" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
-        <v>34</v>
-      </c>
-      <c r="B36" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="43">
-        <v>35</v>
-      </c>
-      <c r="B37" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="43">
-        <v>36</v>
-      </c>
-      <c r="B38" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="43">
-        <v>37</v>
-      </c>
-      <c r="B39" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="43">
-        <v>38</v>
-      </c>
-      <c r="B40" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="43">
-        <v>39</v>
-      </c>
-      <c r="B41" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="43">
-        <v>40</v>
-      </c>
-      <c r="B42" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="43">
-        <v>41</v>
-      </c>
-      <c r="B43" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="43">
-        <v>42</v>
-      </c>
-      <c r="B44" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="43">
-        <v>43</v>
-      </c>
-      <c r="B45" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="43">
-        <v>44</v>
-      </c>
-      <c r="B46" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="43">
-        <v>45</v>
-      </c>
-      <c r="B47" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="43">
-        <v>46</v>
-      </c>
-      <c r="B48" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="43">
-        <v>47</v>
-      </c>
-      <c r="B49" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="43">
-        <v>48</v>
-      </c>
-      <c r="B50" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="43">
-        <v>49</v>
-      </c>
-      <c r="B51" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="43">
-        <v>50</v>
-      </c>
-      <c r="B52" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="43">
-        <v>51</v>
-      </c>
-      <c r="B53" s="44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="43">
-        <v>52</v>
-      </c>
-      <c r="B54" s="44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="43">
-        <v>53</v>
-      </c>
-      <c r="B55" s="44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="43">
-        <v>54</v>
-      </c>
-      <c r="B56" s="44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="43">
-        <v>55</v>
-      </c>
-      <c r="B57" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-supermarket.xlsx
+++ b/data-supermarket.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="890" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Obsluha na pokladni" sheetId="1" r:id="rId1"/>
     <sheet name="Odchod z pokladne" sheetId="2" r:id="rId2"/>
     <sheet name="Časy medzi príchodmi zákazníkov" sheetId="3" r:id="rId3"/>
-    <sheet name="CD - Počet ľudí v príchod" sheetId="7" r:id="rId4"/>
+    <sheet name="CD - Početnosť ľudí v príchod" sheetId="7" r:id="rId4"/>
     <sheet name="VAL - Pobyt v systéme" sheetId="4" r:id="rId5"/>
     <sheet name="VAL - Dĺžka radu pri pokladni" sheetId="5" r:id="rId6"/>
     <sheet name="VAL - Doba čakania v rade" sheetId="8" r:id="rId7"/>
@@ -24,7 +24,7 @@
     <definedName name="dlzkaRadu" localSheetId="5">'VAL - Dĺžka radu pri pokladni'!$B$4:$C$61</definedName>
     <definedName name="doba_obsluhypokladne_1" localSheetId="0">'Obsluha na pokladni'!$B$4:$E$101</definedName>
     <definedName name="New_Text_Document" localSheetId="0">'Obsluha na pokladni'!$G$4:$G$102</definedName>
-    <definedName name="pocet_prichLudi" localSheetId="3">'CD - Počet ľudí v príchod'!$A$3:$B$41</definedName>
+    <definedName name="pocet_prichLudi" localSheetId="3">'CD - Početnosť ľudí v príchod'!$A$3:$B$41</definedName>
     <definedName name="pocet_prichLudi_1" localSheetId="2">'Časy medzi príchodmi zákazníkov'!$B$3:$C$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -148,13 +148,7 @@
     <t>Čas v sekundách</t>
   </si>
   <si>
-    <t xml:space="preserve">Počet ľudí pri príchode  </t>
-  </si>
-  <si>
     <t>Počet ľudí</t>
-  </si>
-  <si>
-    <t>Spolu percentá</t>
   </si>
   <si>
     <t>Počet údajov :</t>
@@ -179,6 +173,12 @@
   </si>
   <si>
     <t>Čas do</t>
+  </si>
+  <si>
+    <t>Spolu percentá :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Početnosť skupiniek pri príchode do systému</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,12 +271,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,21 +381,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,32 +406,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,11 +466,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="doba_obsluhypokladne_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="doba_obsluhypokladne_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -756,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,14 +773,14 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
@@ -3362,7 +3356,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3382,10 +3376,10 @@
       <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="27"/>
@@ -3394,11 +3388,11 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="14">
         <f>'Obsluha na pokladni'!C5-'Obsluha na pokladni'!E4</f>
         <v>3.4722222222172139E-5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="17">
         <f t="shared" ref="C3:C34" si="0">B3*86400</f>
         <v>2.9999999999956728</v>
       </c>
@@ -3408,11 +3402,11 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="14">
         <f>'Obsluha na pokladni'!C6-'Obsluha na pokladni'!E5</f>
         <v>2.3148148148133263E-5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="17">
         <f t="shared" si="0"/>
         <v>1.9999999999987139</v>
       </c>
@@ -3422,11 +3416,11 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="14">
         <f>'Obsluha na pokladni'!C7-'Obsluha na pokladni'!E6</f>
         <v>3.4722222222172139E-5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
         <v>2.9999999999956728</v>
       </c>
@@ -3436,11 +3430,11 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="14">
         <f>'Obsluha na pokladni'!C8-'Obsluha na pokladni'!E7</f>
         <v>4.6296296296266526E-5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
         <v>3.9999999999974278</v>
       </c>
@@ -3450,11 +3444,11 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="14">
         <f>'Obsluha na pokladni'!C9-'Obsluha na pokladni'!E8</f>
         <v>9.2592592592588563E-5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="17">
         <f t="shared" si="0"/>
         <v>7.9999999999996518</v>
       </c>
@@ -3464,11 +3458,11 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="14">
         <f>'Obsluha na pokladni'!C10-'Obsluha na pokladni'!E9</f>
         <v>3.4722222222283161E-5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
         <v>3.0000000000052651</v>
       </c>
@@ -3478,11 +3472,11 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="14">
         <f>'Obsluha na pokladni'!C11-'Obsluha na pokladni'!E10</f>
         <v>8.1018518518549687E-5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
         <v>7.000000000002693</v>
       </c>
@@ -3492,11 +3486,11 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="14">
         <f>'Obsluha na pokladni'!C12-'Obsluha na pokladni'!E11</f>
         <v>1.388888888889106E-4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
         <v>12.000000000001876</v>
       </c>
@@ -3506,11 +3500,11 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="14">
         <f>'Obsluha na pokladni'!C13-'Obsluha na pokladni'!E12</f>
         <v>1.7361111111108274E-4</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="17">
         <f t="shared" si="0"/>
         <v>14.999999999997549</v>
       </c>
@@ -3520,11 +3514,11 @@
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="14">
         <f>'Obsluha na pokladni'!C14-'Obsluha na pokladni'!E13</f>
         <v>3.472222222222765E-5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="17">
         <f t="shared" si="0"/>
         <v>3.000000000000469</v>
       </c>
@@ -3534,11 +3528,11 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="14">
         <f>'Obsluha na pokladni'!C15-'Obsluha na pokladni'!E14</f>
         <v>3.4722222222222099E-4</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="17">
         <f t="shared" si="0"/>
         <v>29.999999999999893</v>
       </c>
@@ -3548,11 +3542,11 @@
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="14">
         <f>'Obsluha na pokladni'!C16-'Obsluha na pokladni'!E15</f>
         <v>5.7870370370305402E-5</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="17">
         <f t="shared" si="0"/>
         <v>4.9999999999943867</v>
       </c>
@@ -3562,11 +3556,11 @@
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="14">
         <f>'Obsluha na pokladni'!C17-'Obsluha na pokladni'!E16</f>
         <v>2.3148148148133263E-5</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="17">
         <f t="shared" si="0"/>
         <v>1.9999999999987139</v>
       </c>
@@ -3576,11 +3570,11 @@
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="14">
         <f>'Obsluha na pokladni'!C18-'Obsluha na pokladni'!E17</f>
         <v>3.4722222222172139E-5</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="17">
         <f t="shared" si="0"/>
         <v>2.9999999999956728</v>
       </c>
@@ -3590,11 +3584,11 @@
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="14">
         <f>'Obsluha na pokladni'!C19-'Obsluha na pokladni'!E18</f>
         <v>1.1574074074149898E-5</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="17">
         <f t="shared" si="0"/>
         <v>1.0000000000065512</v>
       </c>
@@ -3604,11 +3598,11 @@
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="14">
         <f>'Obsluha na pokladni'!C20-'Obsluha na pokladni'!E19</f>
         <v>7.1759259259251973E-4</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="17">
         <f t="shared" si="0"/>
         <v>61.999999999993705</v>
       </c>
@@ -3618,11 +3612,11 @@
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="14">
         <f>'Obsluha na pokladni'!C21-'Obsluha na pokladni'!E20</f>
         <v>2.3148148148133263E-5</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="17">
         <f t="shared" si="0"/>
         <v>1.9999999999987139</v>
       </c>
@@ -3632,11 +3626,11 @@
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="14">
         <f>'Obsluha na pokladni'!C22-'Obsluha na pokladni'!E21</f>
         <v>1.1574074074094387E-5</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="17">
         <f t="shared" si="0"/>
         <v>1.000000000001755</v>
       </c>
@@ -3646,11 +3640,11 @@
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="14">
         <f>'Obsluha na pokladni'!C23-'Obsluha na pokladni'!E22</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="17">
         <f t="shared" si="0"/>
         <v>2.0000000000035101</v>
       </c>
@@ -3660,11 +3654,11 @@
       <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="14">
         <f>'Obsluha na pokladni'!C24-'Obsluha na pokladni'!E23</f>
         <v>2.3148148148077752E-5</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="17">
         <f t="shared" si="0"/>
         <v>1.9999999999939178</v>
       </c>
@@ -3674,11 +3668,11 @@
       <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="14">
         <f>'Obsluha na pokladni'!C25-'Obsluha na pokladni'!E24</f>
         <v>4.3981481481480955E-4</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="17">
         <f t="shared" si="0"/>
         <v>37.999999999999545</v>
       </c>
@@ -3688,11 +3682,11 @@
       <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="14">
         <f>'Obsluha na pokladni'!C26-'Obsluha na pokladni'!E25</f>
         <v>1.6203703703709937E-4</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="17">
         <f t="shared" si="0"/>
         <v>14.000000000005386</v>
       </c>
@@ -3702,11 +3696,11 @@
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="14">
         <f>'Obsluha na pokladni'!C27-'Obsluha na pokladni'!E26</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="17">
         <f t="shared" si="0"/>
         <v>2.0000000000035101</v>
       </c>
@@ -3716,11 +3710,11 @@
       <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="14">
         <f>'Obsluha na pokladni'!C28-'Obsluha na pokladni'!E27</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="17">
         <f t="shared" si="0"/>
         <v>2.0000000000035101</v>
       </c>
@@ -3730,11 +3724,11 @@
       <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="14">
         <f>'Obsluha na pokladni'!C29-'Obsluha na pokladni'!E28</f>
         <v>4.6296296296266526E-5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="17">
         <f t="shared" si="0"/>
         <v>3.9999999999974278</v>
       </c>
@@ -3744,11 +3738,11 @@
       <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="14">
         <f>'Obsluha na pokladni'!C30-'Obsluha na pokladni'!E29</f>
         <v>4.6296296296377548E-5</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="17">
         <f t="shared" si="0"/>
         <v>4.0000000000070202</v>
       </c>
@@ -3758,11 +3752,11 @@
       <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="14">
         <f>'Obsluha na pokladni'!C31-'Obsluha na pokladni'!E30</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="17">
         <f t="shared" si="0"/>
         <v>2.0000000000035101</v>
       </c>
@@ -3772,11 +3766,11 @@
       <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="14">
         <f>'Obsluha na pokladni'!C32-'Obsluha na pokladni'!E31</f>
         <v>3.4722222222116628E-5</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="17">
         <f t="shared" si="0"/>
         <v>2.9999999999908766</v>
       </c>
@@ -3786,11 +3780,11 @@
       <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="14">
         <f>'Obsluha na pokladni'!C33-'Obsluha na pokladni'!E32</f>
         <v>2.3148148148077752E-5</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="17">
         <f t="shared" si="0"/>
         <v>1.9999999999939178</v>
       </c>
@@ -3800,11 +3794,11 @@
       <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="14">
         <f>'Obsluha na pokladni'!C34-'Obsluha na pokladni'!E33</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="17">
         <f t="shared" si="0"/>
         <v>0.99999999999695888</v>
       </c>
@@ -3814,11 +3808,11 @@
       <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="14">
         <f>'Obsluha na pokladni'!C35-'Obsluha na pokladni'!E34</f>
         <v>5.7870370370416424E-5</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="17">
         <f t="shared" si="0"/>
         <v>5.000000000003979</v>
       </c>
@@ -3828,11 +3822,11 @@
       <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="14">
         <f>'Obsluha na pokladni'!C36-'Obsluha na pokladni'!E35</f>
         <v>1.1574074074149898E-5</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="17">
         <f t="shared" si="0"/>
         <v>1.0000000000065512</v>
       </c>
@@ -3842,11 +3836,11 @@
       <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="14">
         <f>'Obsluha na pokladni'!C37-'Obsluha na pokladni'!E36</f>
         <v>2.3148148148077752E-5</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="17">
         <f t="shared" ref="C35:C66" si="1">B35*86400</f>
         <v>1.9999999999939178</v>
       </c>
@@ -3856,11 +3850,11 @@
       <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="14">
         <f>'Obsluha na pokladni'!C38-'Obsluha na pokladni'!E37</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
@@ -3870,11 +3864,11 @@
       <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="14">
         <f>'Obsluha na pokladni'!C39-'Obsluha na pokladni'!E38</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
@@ -3884,11 +3878,11 @@
       <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="14">
         <f>'Obsluha na pokladni'!C40-'Obsluha na pokladni'!E39</f>
         <v>8.1018518518494176E-5</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="17">
         <f t="shared" si="1"/>
         <v>6.9999999999978968</v>
       </c>
@@ -3898,11 +3892,11 @@
       <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="14">
         <f>'Obsluha na pokladni'!C41-'Obsluha na pokladni'!E40</f>
         <v>1.1574074074072183E-4</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="17">
         <f t="shared" si="1"/>
         <v>9.9999999999983658</v>
       </c>
@@ -3912,11 +3906,11 @@
       <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="14">
         <f>'Obsluha na pokladni'!C42-'Obsluha na pokladni'!E41</f>
         <v>1.1574074074149898E-5</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="17">
         <f t="shared" si="1"/>
         <v>1.0000000000065512</v>
       </c>
@@ -3926,11 +3920,11 @@
       <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="14">
         <f>'Obsluha na pokladni'!C43-'Obsluha na pokladni'!E42</f>
         <v>1.1574074074149898E-5</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="17">
         <f t="shared" si="1"/>
         <v>1.0000000000065512</v>
       </c>
@@ -3940,11 +3934,11 @@
       <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="14">
         <f>'Obsluha na pokladni'!C44-'Obsluha na pokladni'!E43</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
@@ -3954,11 +3948,11 @@
       <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="14">
         <f>'Obsluha na pokladni'!C45-'Obsluha na pokladni'!E44</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
@@ -3968,11 +3962,11 @@
       <c r="A44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="14">
         <f>'Obsluha na pokladni'!C46-'Obsluha na pokladni'!E45</f>
         <v>5.7870370370416424E-5</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="17">
         <f t="shared" si="1"/>
         <v>5.000000000003979</v>
       </c>
@@ -3982,11 +3976,11 @@
       <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="14">
         <f>'Obsluha na pokladni'!C47-'Obsluha na pokladni'!E46</f>
         <v>3.472222222222765E-5</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="17">
         <f t="shared" si="1"/>
         <v>3.000000000000469</v>
       </c>
@@ -3996,11 +3990,11 @@
       <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="14">
         <f>'Obsluha na pokladni'!C48-'Obsluha na pokladni'!E47</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
@@ -4010,11 +4004,11 @@
       <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="14">
         <f>'Obsluha na pokladni'!C49-'Obsluha na pokladni'!E48</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="17">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
@@ -4024,11 +4018,11 @@
       <c r="A48" s="6">
         <v>46</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="14">
         <f>'Obsluha na pokladni'!C50-'Obsluha na pokladni'!E49</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
@@ -4038,11 +4032,11 @@
       <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="14">
         <f>'Obsluha na pokladni'!C51-'Obsluha na pokladni'!E50</f>
         <v>1.1574074074149898E-5</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="17">
         <f t="shared" si="1"/>
         <v>1.0000000000065512</v>
       </c>
@@ -4052,11 +4046,11 @@
       <c r="A50" s="6">
         <v>48</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="14">
         <f>'Obsluha na pokladni'!C52-'Obsluha na pokladni'!E51</f>
         <v>3.4722222222116628E-5</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="17">
         <f t="shared" si="1"/>
         <v>2.9999999999908766</v>
       </c>
@@ -4066,11 +4060,11 @@
       <c r="A51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="14">
         <f>'Obsluha na pokladni'!C53-'Obsluha na pokladni'!E52</f>
         <v>1.1574074074149898E-5</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="17">
         <f t="shared" si="1"/>
         <v>1.0000000000065512</v>
       </c>
@@ -4080,11 +4074,11 @@
       <c r="A52" s="6">
         <v>50</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="14">
         <f>'Obsluha na pokladni'!C54-'Obsluha na pokladni'!E53</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="17">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
@@ -4094,11 +4088,11 @@
       <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="14">
         <f>'Obsluha na pokladni'!C55-'Obsluha na pokladni'!E54</f>
         <v>0</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4108,11 +4102,11 @@
       <c r="A54" s="6">
         <v>52</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="14">
         <f>'Obsluha na pokladni'!C56-'Obsluha na pokladni'!E55</f>
         <v>5.7870370370416424E-5</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="17">
         <f t="shared" si="1"/>
         <v>5.000000000003979</v>
       </c>
@@ -4122,11 +4116,11 @@
       <c r="A55" s="6">
         <v>53</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="14">
         <f>'Obsluha na pokladni'!C57-'Obsluha na pokladni'!E56</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
@@ -4136,11 +4130,11 @@
       <c r="A56" s="6">
         <v>54</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="14">
         <f>'Obsluha na pokladni'!C58-'Obsluha na pokladni'!E57</f>
         <v>4.6296296296155504E-5</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="17">
         <f t="shared" si="1"/>
         <v>3.9999999999878355</v>
       </c>
@@ -4150,11 +4144,11 @@
       <c r="A57" s="6">
         <v>55</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="14">
         <f>'Obsluha na pokladni'!C59-'Obsluha na pokladni'!E58</f>
         <v>4.6296296296377548E-5</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="17">
         <f t="shared" si="1"/>
         <v>4.0000000000070202</v>
       </c>
@@ -4164,11 +4158,11 @@
       <c r="A58" s="6">
         <v>56</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="14">
         <f>'Obsluha na pokladni'!C60-'Obsluha na pokladni'!E59</f>
         <v>3.472222222222765E-5</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="17">
         <f t="shared" si="1"/>
         <v>3.000000000000469</v>
       </c>
@@ -4178,11 +4172,11 @@
       <c r="A59" s="6">
         <v>57</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="14">
         <f>'Obsluha na pokladni'!C61-'Obsluha na pokladni'!E60</f>
         <v>2.3148148148077752E-5</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="17">
         <f t="shared" si="1"/>
         <v>1.9999999999939178</v>
       </c>
@@ -4192,11 +4186,11 @@
       <c r="A60" s="6">
         <v>58</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="14">
         <f>'Obsluha na pokladni'!C62-'Obsluha na pokladni'!E61</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
@@ -4206,11 +4200,11 @@
       <c r="A61" s="6">
         <v>59</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="14">
         <f>'Obsluha na pokladni'!C63-'Obsluha na pokladni'!E62</f>
         <v>5.7870370370305402E-5</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="17">
         <f t="shared" si="1"/>
         <v>4.9999999999943867</v>
       </c>
@@ -4220,11 +4214,11 @@
       <c r="A62" s="6">
         <v>60</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="14">
         <f>'Obsluha na pokladni'!C64-'Obsluha na pokladni'!E63</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
@@ -4234,11 +4228,11 @@
       <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="14">
         <f>'Obsluha na pokladni'!C65-'Obsluha na pokladni'!E64</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
@@ -4248,11 +4242,11 @@
       <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="14">
         <f>'Obsluha na pokladni'!C66-'Obsluha na pokladni'!E65</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
@@ -4262,11 +4256,11 @@
       <c r="A65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="14">
         <f>'Obsluha na pokladni'!C67-'Obsluha na pokladni'!E66</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
@@ -4276,11 +4270,11 @@
       <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="14">
         <f>'Obsluha na pokladni'!C68-'Obsluha na pokladni'!E67</f>
         <v>3.2523148148148051E-3</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="17">
         <f t="shared" si="1"/>
         <v>280.99999999999915</v>
       </c>
@@ -4290,11 +4284,11 @@
       <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="14">
         <f>'Obsluha na pokladni'!C69-'Obsluha na pokladni'!E68</f>
         <v>5.7870370370372015E-4</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="17">
         <f t="shared" ref="C67:C98" si="2">B67*86400</f>
         <v>50.000000000001421</v>
       </c>
@@ -4304,11 +4298,11 @@
       <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="14">
         <f>'Obsluha na pokladni'!C70-'Obsluha na pokladni'!E69</f>
         <v>4.6296296296377548E-5</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="17">
         <f t="shared" si="2"/>
         <v>4.0000000000070202</v>
       </c>
@@ -4318,11 +4312,11 @@
       <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="14">
         <f>'Obsluha na pokladni'!C71-'Obsluha na pokladni'!E70</f>
         <v>1.0416666666668295E-4</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="17">
         <f t="shared" si="2"/>
         <v>9.0000000000014069</v>
       </c>
@@ -4332,11 +4326,11 @@
       <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="14">
         <f>'Obsluha na pokladni'!C72-'Obsluha na pokladni'!E71</f>
         <v>7.2916666666666963E-4</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="17">
         <f t="shared" si="2"/>
         <v>63.000000000000256</v>
       </c>
@@ -4346,11 +4340,11 @@
       <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="14">
         <f>'Obsluha na pokladni'!C73-'Obsluha na pokladni'!E72</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="17">
         <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
@@ -4360,11 +4354,11 @@
       <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="14">
         <f>'Obsluha na pokladni'!C74-'Obsluha na pokladni'!E73</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="17">
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
@@ -4374,11 +4368,11 @@
       <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="14">
         <f>'Obsluha na pokladni'!C75-'Obsluha na pokladni'!E74</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="17">
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
@@ -4388,11 +4382,11 @@
       <c r="A74" s="6">
         <v>72</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="14">
         <f>'Obsluha na pokladni'!C76-'Obsluha na pokladni'!E75</f>
         <v>4.6296296296266526E-5</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="17">
         <f t="shared" si="2"/>
         <v>3.9999999999974278</v>
       </c>
@@ -4402,11 +4396,11 @@
       <c r="A75" s="6">
         <v>73</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="14">
         <f>'Obsluha na pokladni'!C77-'Obsluha na pokladni'!E76</f>
         <v>9.2592592592644074E-5</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="17">
         <f t="shared" si="2"/>
         <v>8.000000000004448</v>
       </c>
@@ -4416,11 +4410,11 @@
       <c r="A76" s="6">
         <v>74</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="14">
         <f>'Obsluha na pokladni'!C78-'Obsluha na pokladni'!E77</f>
         <v>0</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4430,11 +4424,11 @@
       <c r="A77" s="6">
         <v>75</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="14">
         <f>'Obsluha na pokladni'!C79-'Obsluha na pokladni'!E78</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="17">
         <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
@@ -4444,11 +4438,11 @@
       <c r="A78" s="6">
         <v>76</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="14">
         <f>'Obsluha na pokladni'!C80-'Obsluha na pokladni'!E79</f>
         <v>2.3148148148144365E-4</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="17">
         <f t="shared" si="2"/>
         <v>19.999999999996732</v>
       </c>
@@ -4458,11 +4452,11 @@
       <c r="A79" s="6">
         <v>77</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="14">
         <f>'Obsluha na pokladni'!C81-'Obsluha na pokladni'!E80</f>
         <v>1.3888888888879958E-4</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="17">
         <f t="shared" si="2"/>
         <v>11.999999999992284</v>
       </c>
@@ -4472,11 +4466,11 @@
       <c r="A80" s="6">
         <v>78</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="14">
         <f>'Obsluha na pokladni'!C82-'Obsluha na pokladni'!E81</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="17">
         <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
@@ -4486,11 +4480,11 @@
       <c r="A81" s="6">
         <v>79</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="14">
         <f>'Obsluha na pokladni'!C83-'Obsluha na pokladni'!E82</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="17">
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
@@ -4500,11 +4494,11 @@
       <c r="A82" s="6">
         <v>80</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="14">
         <f>'Obsluha na pokladni'!C84-'Obsluha na pokladni'!E83</f>
         <v>3.472222222222765E-5</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="17">
         <f t="shared" si="2"/>
         <v>3.000000000000469</v>
       </c>
@@ -4514,11 +4508,11 @@
       <c r="A83" s="6">
         <v>81</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="14">
         <f>'Obsluha na pokladni'!C85-'Obsluha na pokladni'!E84</f>
         <v>4.6296296296266526E-5</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="17">
         <f t="shared" si="2"/>
         <v>3.9999999999974278</v>
       </c>
@@ -4528,11 +4522,11 @@
       <c r="A84" s="6">
         <v>82</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="14">
         <f>'Obsluha na pokladni'!C86-'Obsluha na pokladni'!E85</f>
         <v>4.6296296296266526E-5</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="17">
         <f t="shared" si="2"/>
         <v>3.9999999999974278</v>
       </c>
@@ -4542,11 +4536,11 @@
       <c r="A85" s="6">
         <v>83</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="14">
         <f>'Obsluha na pokladni'!C87-'Obsluha na pokladni'!E86</f>
         <v>1.7361111111113825E-4</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="17">
         <f t="shared" si="2"/>
         <v>15.000000000002345</v>
       </c>
@@ -4556,11 +4550,11 @@
       <c r="A86" s="6">
         <v>84</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="14">
         <f>'Obsluha na pokladni'!C88-'Obsluha na pokladni'!E87</f>
         <v>1.0416666666668295E-4</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="17">
         <f t="shared" si="2"/>
         <v>9.0000000000014069</v>
       </c>
@@ -4570,11 +4564,11 @@
       <c r="A87" s="6">
         <v>85</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="14">
         <f>'Obsluha na pokladni'!C89-'Obsluha na pokladni'!E88</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="17">
         <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
@@ -4584,11 +4578,11 @@
       <c r="A88" s="6">
         <v>86</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="14">
         <f>'Obsluha na pokladni'!C90-'Obsluha na pokladni'!E89</f>
         <v>3.240740740739767E-4</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="17">
         <f t="shared" si="2"/>
         <v>27.999999999991587</v>
       </c>
@@ -4598,11 +4592,11 @@
       <c r="A89" s="6">
         <v>87</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="14">
         <f>'Obsluha na pokladni'!C91-'Obsluha na pokladni'!E90</f>
         <v>3.472222222222765E-5</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="17">
         <f t="shared" si="2"/>
         <v>3.000000000000469</v>
       </c>
@@ -4612,11 +4606,11 @@
       <c r="A90" s="6">
         <v>88</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="14">
         <f>'Obsluha na pokladni'!C92-'Obsluha na pokladni'!E91</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="17">
         <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
@@ -4626,11 +4620,11 @@
       <c r="A91" s="6">
         <v>89</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="14">
         <f>'Obsluha na pokladni'!C93-'Obsluha na pokladni'!E92</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="17">
         <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
@@ -4640,11 +4634,11 @@
       <c r="A92" s="6">
         <v>90</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="14">
         <f>'Obsluha na pokladni'!C94-'Obsluha na pokladni'!E93</f>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="17">
         <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
@@ -4654,11 +4648,11 @@
       <c r="A93" s="6">
         <v>91</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="14">
         <f>'Obsluha na pokladni'!C95-'Obsluha na pokladni'!E94</f>
         <v>0</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4668,11 +4662,11 @@
       <c r="A94" s="6">
         <v>92</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="14">
         <f>'Obsluha na pokladni'!C96-'Obsluha na pokladni'!E95</f>
         <v>3.4722222222116628E-5</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="17">
         <f t="shared" si="2"/>
         <v>2.9999999999908766</v>
       </c>
@@ -4682,11 +4676,11 @@
       <c r="A95" s="6">
         <v>93</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="14">
         <f>'Obsluha na pokladni'!C97-'Obsluha na pokladni'!E96</f>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="17">
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
@@ -4696,11 +4690,11 @@
       <c r="A96" s="6">
         <v>94</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="14">
         <f>'Obsluha na pokladni'!C98-'Obsluha na pokladni'!E97</f>
         <v>1.1574074074149898E-5</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="17">
         <f t="shared" si="2"/>
         <v>1.0000000000065512</v>
       </c>
@@ -4710,11 +4704,11 @@
       <c r="A97" s="6">
         <v>95</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="14">
         <f>'Obsluha na pokladni'!C99-'Obsluha na pokladni'!E98</f>
         <v>1.1574074074149898E-5</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="17">
         <f t="shared" si="2"/>
         <v>1.0000000000065512</v>
       </c>
@@ -4724,11 +4718,11 @@
       <c r="A98" s="6">
         <v>96</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="14">
         <f>'Obsluha na pokladni'!C100-'Obsluha na pokladni'!E99</f>
         <v>1.8518518518517713E-4</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="17">
         <f t="shared" si="2"/>
         <v>15.999999999999304</v>
       </c>
@@ -4738,12 +4732,12 @@
       <c r="A99" s="6">
         <v>97</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="14">
         <f>'Obsluha na pokladni'!C101-'Obsluha na pokladni'!E100</f>
         <v>0</v>
       </c>
-      <c r="C99" s="4">
-        <f t="shared" ref="C99:C130" si="3">B99*86400</f>
+      <c r="C99" s="17">
+        <f t="shared" ref="C99:C101" si="3">B99*86400</f>
         <v>0</v>
       </c>
       <c r="D99" s="26"/>
@@ -4752,11 +4746,11 @@
       <c r="A100" s="6">
         <v>98</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="14">
         <f>'Obsluha na pokladni'!C102-'Obsluha na pokladni'!E101</f>
         <v>4.6296296296377548E-5</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="17">
         <f t="shared" si="3"/>
         <v>4.0000000000070202</v>
       </c>
@@ -4766,11 +4760,11 @@
       <c r="A101" s="6">
         <v>99</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="14">
         <f>'Obsluha na pokladni'!C103-'Obsluha na pokladni'!E102</f>
         <v>6.94444444444553E-5</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="17">
         <f t="shared" si="3"/>
         <v>6.0000000000009379</v>
       </c>
@@ -4778,8 +4772,8 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="4"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="17"/>
       <c r="D102" s="26"/>
     </row>
   </sheetData>
@@ -4791,8 +4785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4822,622 +4816,622 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
+      <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="45">
         <v>0.63468749999999996</v>
       </c>
       <c r="C3" s="51">
         <f>B4-B3</f>
         <v>2.1990740740740478E-4</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="17">
         <f>C3*86400</f>
         <v>18.999999999999773</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="47">
         <v>2</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="45">
         <v>0.63490740740740736</v>
       </c>
       <c r="C4" s="51">
-        <f t="shared" ref="C4:C41" si="0">B5-B4</f>
+        <f t="shared" ref="C4:C40" si="0">B5-B4</f>
         <v>1.1226851851852127E-3</v>
       </c>
-      <c r="D4" s="55">
-        <f t="shared" ref="D4:D41" si="1">C4*86400</f>
+      <c r="D4" s="17">
+        <f t="shared" ref="D4:D40" si="1">C4*86400</f>
         <v>97.000000000002373</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="47">
         <v>3</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="45">
         <v>0.63603009259259258</v>
       </c>
       <c r="C5" s="51">
         <f t="shared" si="0"/>
         <v>6.94444444444553E-5</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="17">
         <f t="shared" si="1"/>
         <v>6.0000000000009379</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="47">
         <v>4</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="45">
         <v>0.63609953703703703</v>
       </c>
       <c r="C6" s="51">
         <f t="shared" si="0"/>
         <v>2.083333333333659E-4</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="17">
         <f t="shared" si="1"/>
         <v>18.000000000002814</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
+      <c r="A7" s="47">
         <v>5</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="45">
         <v>0.6363078703703704</v>
       </c>
       <c r="C7" s="51">
         <f t="shared" si="0"/>
         <v>3.7037037037035425E-4</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="17">
         <f t="shared" si="1"/>
         <v>31.999999999998607</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="47">
         <v>6</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="45">
         <v>0.63667824074074075</v>
       </c>
       <c r="C8" s="51">
         <f t="shared" si="0"/>
         <v>1.1111111111110628E-3</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="17">
         <f t="shared" si="1"/>
         <v>95.999999999995822</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="A9" s="47">
         <v>7</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="45">
         <v>0.63778935185185182</v>
       </c>
       <c r="C9" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="17">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="47">
         <v>8</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="45">
         <v>0.6378125</v>
       </c>
       <c r="C10" s="51">
         <f t="shared" si="0"/>
         <v>1.2731481481487172E-4</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="17">
         <f t="shared" si="1"/>
         <v>11.000000000004917</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
+      <c r="A11" s="47">
         <v>9</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="45">
         <v>0.63793981481481488</v>
       </c>
       <c r="C11" s="51">
         <f t="shared" si="0"/>
         <v>1.5046296296294948E-4</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="17">
         <f t="shared" si="1"/>
         <v>12.999999999998835</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="47">
         <v>10</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="45">
         <v>0.63809027777777783</v>
       </c>
       <c r="C12" s="51">
         <f t="shared" si="0"/>
         <v>8.1018518518494176E-5</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="17">
         <f t="shared" si="1"/>
         <v>6.9999999999978968</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+      <c r="A13" s="47">
         <v>11</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="45">
         <v>0.63817129629629632</v>
       </c>
       <c r="C13" s="51">
         <f t="shared" si="0"/>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="47">
         <v>12</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="45">
         <v>0.63818287037037036</v>
       </c>
       <c r="C14" s="51">
         <f t="shared" si="0"/>
         <v>1.5046296296294948E-4</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="17">
         <f t="shared" si="1"/>
         <v>12.999999999998835</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+      <c r="A15" s="47">
         <v>13</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="45">
         <v>0.63833333333333331</v>
       </c>
       <c r="C15" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="17">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="47">
         <v>14</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B16" s="45">
         <v>0.6383564814814815</v>
       </c>
       <c r="C16" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="17">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
+      <c r="A17" s="47">
         <v>15</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="45">
         <v>0.63837962962962969</v>
       </c>
       <c r="C17" s="51">
         <f t="shared" si="0"/>
         <v>1.96759259259216E-4</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="17">
         <f t="shared" si="1"/>
         <v>16.999999999996263</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="A18" s="47">
         <v>16</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="45">
         <v>0.6385763888888889</v>
       </c>
       <c r="C18" s="51">
         <f t="shared" si="0"/>
         <v>5.7870370370305402E-5</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="17">
         <f t="shared" si="1"/>
         <v>4.9999999999943867</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
+      <c r="A19" s="47">
         <v>17</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="45">
         <v>0.63863425925925921</v>
       </c>
       <c r="C19" s="51">
         <f t="shared" si="0"/>
         <v>4.3981481481480955E-4</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="17">
         <f t="shared" si="1"/>
         <v>37.999999999999545</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="47">
         <v>18</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="45">
         <v>0.63907407407407402</v>
       </c>
       <c r="C20" s="51">
         <f t="shared" si="0"/>
         <v>2.5462962962974345E-4</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="17">
         <f t="shared" si="1"/>
         <v>22.000000000009834</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
+      <c r="A21" s="47">
         <v>19</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="45">
         <v>0.63932870370370376</v>
       </c>
       <c r="C21" s="51">
         <f t="shared" si="0"/>
         <v>1.1574074074038876E-5</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="17">
         <f t="shared" si="1"/>
         <v>0.99999999999695888</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+      <c r="A22" s="47">
         <v>20</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22" s="45">
         <v>0.6393402777777778</v>
       </c>
       <c r="C22" s="51">
         <f t="shared" si="0"/>
         <v>2.777777777778212E-4</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="17">
         <f t="shared" si="1"/>
         <v>24.000000000003752</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="56">
+      <c r="A23" s="47">
         <v>21</v>
       </c>
-      <c r="B23" s="50">
+      <c r="B23" s="45">
         <v>0.63961805555555562</v>
       </c>
       <c r="C23" s="51">
         <f t="shared" si="0"/>
         <v>4.9768518518511495E-4</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="17">
         <f t="shared" si="1"/>
         <v>42.999999999993932</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="56">
+      <c r="A24" s="47">
         <v>22</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="45">
         <v>0.64011574074074074</v>
       </c>
       <c r="C24" s="51">
         <f t="shared" si="0"/>
         <v>6.3657407407402555E-4</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="17">
         <f t="shared" si="1"/>
         <v>54.999999999995808</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="56">
+      <c r="A25" s="47">
         <v>23</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25" s="45">
         <v>0.64075231481481476</v>
       </c>
       <c r="C25" s="51">
         <f t="shared" si="0"/>
         <v>4.9768518518522598E-4</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="17">
         <f t="shared" si="1"/>
         <v>43.000000000003524</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="56">
+      <c r="A26" s="47">
         <v>24</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="45">
         <v>0.64124999999999999</v>
       </c>
       <c r="C26" s="51">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-4</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D26" s="17">
         <f t="shared" si="1"/>
         <v>22.000000000000242</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="56">
+      <c r="A27" s="47">
         <v>25</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="45">
         <v>0.64150462962962962</v>
       </c>
       <c r="C27" s="51">
         <f t="shared" si="0"/>
         <v>2.1990740740740478E-4</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="17">
         <f t="shared" si="1"/>
         <v>18.999999999999773</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="56">
+      <c r="A28" s="47">
         <v>26</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="45">
         <v>0.64172453703703702</v>
       </c>
       <c r="C28" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D28" s="17">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="56">
+      <c r="A29" s="47">
         <v>27</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29" s="45">
         <v>0.64174768518518521</v>
       </c>
       <c r="C29" s="51">
         <f t="shared" si="0"/>
         <v>1.273148148147607E-4</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="17">
         <f t="shared" si="1"/>
         <v>10.999999999995325</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="56">
+      <c r="A30" s="47">
         <v>28</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B30" s="45">
         <v>0.64187499999999997</v>
       </c>
       <c r="C30" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D30" s="17">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="56">
+      <c r="A31" s="47">
         <v>29</v>
       </c>
-      <c r="B31" s="50">
+      <c r="B31" s="45">
         <v>0.64189814814814816</v>
       </c>
       <c r="C31" s="51">
         <f t="shared" si="0"/>
         <v>3.472222222222765E-4</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="17">
         <f t="shared" si="1"/>
         <v>30.00000000000469</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="56">
+      <c r="A32" s="47">
         <v>30</v>
       </c>
-      <c r="B32" s="50">
+      <c r="B32" s="45">
         <v>0.64224537037037044</v>
       </c>
       <c r="C32" s="51">
         <f t="shared" si="0"/>
         <v>2.0833333333325488E-4</v>
       </c>
-      <c r="D32" s="55">
+      <c r="D32" s="17">
         <f t="shared" si="1"/>
         <v>17.999999999993221</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="56">
+      <c r="A33" s="47">
         <v>31</v>
       </c>
-      <c r="B33" s="50">
+      <c r="B33" s="45">
         <v>0.64245370370370369</v>
       </c>
       <c r="C33" s="51">
         <f t="shared" si="0"/>
         <v>1.1342592592592515E-3</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="17">
         <f t="shared" si="1"/>
         <v>97.999999999999332</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="56">
+      <c r="A34" s="47">
         <v>32</v>
       </c>
-      <c r="B34" s="50">
+      <c r="B34" s="45">
         <v>0.64358796296296295</v>
       </c>
       <c r="C34" s="51">
         <f t="shared" si="0"/>
         <v>4.6296296296299833E-4</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="17">
         <f t="shared" si="1"/>
         <v>40.000000000003055</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="56">
+      <c r="A35" s="47">
         <v>33</v>
       </c>
-      <c r="B35" s="50">
+      <c r="B35" s="45">
         <v>0.64405092592592594</v>
       </c>
       <c r="C35" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="17">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="56">
+      <c r="A36" s="47">
         <v>34</v>
       </c>
-      <c r="B36" s="50">
+      <c r="B36" s="45">
         <v>0.64407407407407413</v>
       </c>
       <c r="C36" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148077752E-5</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D36" s="17">
         <f t="shared" si="1"/>
         <v>1.9999999999939178</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="56">
+      <c r="A37" s="47">
         <v>35</v>
       </c>
-      <c r="B37" s="50">
+      <c r="B37" s="45">
         <v>0.64409722222222221</v>
       </c>
       <c r="C37" s="51">
         <f t="shared" si="0"/>
         <v>8.1018518518494176E-5</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="17">
         <f t="shared" si="1"/>
         <v>6.9999999999978968</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="56">
+      <c r="A38" s="47">
         <v>36</v>
       </c>
-      <c r="B38" s="50">
+      <c r="B38" s="45">
         <v>0.6441782407407407</v>
       </c>
       <c r="C38" s="51">
         <f t="shared" si="0"/>
         <v>3.472222222222765E-5</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="17">
         <f t="shared" si="1"/>
         <v>3.000000000000469</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="56">
+      <c r="A39" s="47">
         <v>37</v>
       </c>
-      <c r="B39" s="50">
+      <c r="B39" s="45">
         <v>0.64421296296296293</v>
       </c>
       <c r="C39" s="51">
         <f t="shared" si="0"/>
         <v>6.94444444444553E-5</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="17">
         <f t="shared" si="1"/>
         <v>6.0000000000009379</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="56">
+      <c r="A40" s="47">
         <v>38</v>
       </c>
-      <c r="B40" s="50">
+      <c r="B40" s="45">
         <v>0.64428240740740739</v>
       </c>
       <c r="C40" s="51">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="17">
         <f t="shared" si="1"/>
         <v>2.0000000000035101</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="56">
+      <c r="A41" s="47">
         <v>39</v>
       </c>
-      <c r="B41" s="50">
+      <c r="B41" s="45">
         <v>0.64430555555555558</v>
       </c>
       <c r="C41" s="51"/>
-      <c r="D41" s="55"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
@@ -5820,8 +5814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5834,530 +5828,530 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="A1" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>2</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="30"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="E3" s="31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="38">
-        <v>2</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="36">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
-        <v>2</v>
-      </c>
-      <c r="B4" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
-        <v>3</v>
-      </c>
-      <c r="B5" s="38">
+      <c r="D5" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
-        <v>4</v>
-      </c>
-      <c r="B6" s="38">
+      <c r="D6" s="55">
         <v>1</v>
       </c>
-      <c r="D6" s="33">
-        <v>1</v>
-      </c>
-      <c r="E6" s="33">
+      <c r="E6" s="55">
         <f>COUNTIF(B3:B57,1)</f>
         <v>37</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="55">
         <f>E6*100/E3</f>
         <v>67.272727272727266</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="A7" s="32">
         <v>5</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="33">
         <v>1</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="55">
         <v>2</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="55">
         <f>COUNTIF(B3:B57,2)</f>
         <v>13</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="55">
         <f>E7*100/E3</f>
         <v>23.636363636363637</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="A8" s="32">
         <v>6</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="33">
         <v>1</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="55">
         <v>3</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="55">
         <f>COUNTIF(B3:B57,3)</f>
         <v>5</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="55">
         <f>E8*100/E3</f>
         <v>9.0909090909090917</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="32">
         <v>7</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="33">
         <v>2</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="34">
+      <c r="E9" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="56">
         <f>SUM(F6:F8)</f>
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="32">
         <v>8</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+      <c r="A11" s="32">
         <v>9</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+      <c r="A12" s="32">
         <v>10</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
+      <c r="A13" s="32">
         <v>11</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
+      <c r="A14" s="32">
         <v>12</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+      <c r="A15" s="32">
         <v>13</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
+      <c r="A16" s="32">
         <v>14</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="A17" s="32">
         <v>15</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="A18" s="32">
         <v>16</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
+      <c r="A19" s="32">
         <v>17</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+      <c r="A20" s="32">
         <v>18</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
+      <c r="A21" s="32">
         <v>19</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
+      <c r="A22" s="32">
         <v>20</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="37">
+      <c r="A23" s="32">
         <v>21</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
+      <c r="A24" s="32">
         <v>22</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
+      <c r="A25" s="32">
         <v>23</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+      <c r="A26" s="32">
         <v>24</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+      <c r="A27" s="32">
         <v>25</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="37">
+      <c r="A28" s="32">
         <v>26</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
+      <c r="A29" s="32">
         <v>27</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="37">
+      <c r="A30" s="32">
         <v>28</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="37">
+      <c r="A31" s="32">
         <v>29</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
+      <c r="A32" s="32">
         <v>30</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="37">
+      <c r="A33" s="32">
         <v>31</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="37">
+      <c r="A34" s="32">
         <v>32</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
+      <c r="A35" s="32">
         <v>33</v>
       </c>
-      <c r="B35" s="38">
+      <c r="B35" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="37">
+      <c r="A36" s="32">
         <v>34</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="37">
+      <c r="A37" s="32">
         <v>35</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="37">
+      <c r="A38" s="32">
         <v>36</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="37">
+      <c r="A39" s="32">
         <v>37</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="37">
+      <c r="A40" s="32">
         <v>38</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="37">
+      <c r="A41" s="32">
         <v>39</v>
       </c>
-      <c r="B41" s="38">
+      <c r="B41" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="37">
+      <c r="A42" s="32">
         <v>40</v>
       </c>
-      <c r="B42" s="38">
+      <c r="B42" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="37">
+      <c r="A43" s="32">
         <v>41</v>
       </c>
-      <c r="B43" s="38">
+      <c r="B43" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="37">
+      <c r="A44" s="32">
         <v>42</v>
       </c>
-      <c r="B44" s="38">
+      <c r="B44" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="37">
+      <c r="A45" s="32">
         <v>43</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="37">
+      <c r="A46" s="32">
         <v>44</v>
       </c>
-      <c r="B46" s="38">
+      <c r="B46" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="37">
+      <c r="A47" s="32">
         <v>45</v>
       </c>
-      <c r="B47" s="38">
+      <c r="B47" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="37">
+      <c r="A48" s="32">
         <v>46</v>
       </c>
-      <c r="B48" s="38">
+      <c r="B48" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="37">
+      <c r="A49" s="32">
         <v>47</v>
       </c>
-      <c r="B49" s="38">
+      <c r="B49" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="37">
+      <c r="A50" s="32">
         <v>48</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="37">
+      <c r="A51" s="32">
         <v>49</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="37">
+      <c r="A52" s="32">
         <v>50</v>
       </c>
-      <c r="B52" s="38">
+      <c r="B52" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="37">
+      <c r="A53" s="32">
         <v>51</v>
       </c>
-      <c r="B53" s="38">
+      <c r="B53" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="37">
+      <c r="A54" s="32">
         <v>52</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="37">
+      <c r="A55" s="32">
         <v>53</v>
       </c>
-      <c r="B55" s="38">
+      <c r="B55" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="37">
+      <c r="A56" s="32">
         <v>54</v>
       </c>
-      <c r="B56" s="38">
+      <c r="B56" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="37">
+      <c r="A57" s="32">
         <v>55</v>
       </c>
-      <c r="B57" s="38">
+      <c r="B57" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
+      <c r="A58" s="30"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
+      <c r="A59" s="30"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
+      <c r="A60" s="30"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
+      <c r="A61" s="30"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
+      <c r="A62" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6395,10 +6389,10 @@
       <c r="C2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="43" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6406,17 +6400,17 @@
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="44">
         <v>0</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="44">
         <v>4.5949074074074078E-3</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="41">
         <f>C3-B3</f>
         <v>4.5949074074074078E-3</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="42">
         <f>D3*86400</f>
         <v>397.00000000000006</v>
       </c>
@@ -6425,17 +6419,17 @@
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="44">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="44">
         <v>4.2013888888888891E-3</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="41">
         <f t="shared" ref="D4:D23" si="0">C4-B4</f>
         <v>3.9120370370370368E-3</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="42">
         <f t="shared" ref="E4:E23" si="1">D4*86400</f>
         <v>338</v>
       </c>
@@ -6444,17 +6438,17 @@
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="44">
         <v>1.0763888888888889E-3</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="44">
         <v>1.238425925925926E-2</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="41">
         <f t="shared" si="0"/>
         <v>1.1307870370370371E-2</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="42">
         <f t="shared" si="1"/>
         <v>977</v>
       </c>
@@ -6463,17 +6457,17 @@
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="44">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="44">
         <v>7.9861111111111122E-3</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="41">
         <f t="shared" si="0"/>
         <v>6.3657407407407421E-3</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="42">
         <f t="shared" si="1"/>
         <v>550.00000000000011</v>
       </c>
@@ -6482,17 +6476,17 @@
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="44">
         <v>2.5925925925925925E-3</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="44">
         <v>8.4027777777777781E-3</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="41">
         <f t="shared" si="0"/>
         <v>5.8101851851851856E-3</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="42">
         <f t="shared" si="1"/>
         <v>502.00000000000006</v>
       </c>
@@ -6501,17 +6495,17 @@
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="44">
         <v>6.7129629629629622E-3</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="44">
         <v>9.4212962962962957E-3</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="41">
         <f t="shared" si="0"/>
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="42">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
@@ -6520,17 +6514,17 @@
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="44">
         <v>8.0671296296296307E-3</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="44">
         <v>1.2962962962962963E-2</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="41">
         <f t="shared" si="0"/>
         <v>4.8958333333333319E-3</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="42">
         <f t="shared" si="1"/>
         <v>422.99999999999989</v>
       </c>
@@ -6539,17 +6533,17 @@
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="44">
         <v>1.0393518518518519E-2</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="44">
         <v>1.8483796296296297E-2</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="41">
         <f t="shared" si="0"/>
         <v>8.0902777777777778E-3</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="42">
         <f t="shared" si="1"/>
         <v>699</v>
       </c>
@@ -6558,17 +6552,17 @@
       <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="44">
         <v>1.4120370370370368E-2</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="44">
         <v>2.0034722222222221E-2</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="41">
         <f t="shared" si="0"/>
         <v>5.9143518518518529E-3</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="42">
         <f t="shared" si="1"/>
         <v>511.00000000000011</v>
       </c>
@@ -6577,17 +6571,17 @@
       <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="44">
         <v>1.486111111111111E-2</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="44">
         <v>1.9247685185185184E-2</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="41">
         <f t="shared" si="0"/>
         <v>4.386574074074074E-3</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="42">
         <f t="shared" si="1"/>
         <v>379</v>
       </c>
@@ -6596,17 +6590,17 @@
       <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="44">
         <v>1.6342592592592593E-2</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="44">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="41">
         <f t="shared" si="0"/>
         <v>3.1018518518518522E-3</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="42">
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
@@ -6615,17 +6609,17 @@
       <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="44">
         <v>1.8194444444444444E-2</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="44">
         <v>2.298611111111111E-2</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="41">
         <f t="shared" si="0"/>
         <v>4.7916666666666663E-3</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="42">
         <f t="shared" si="1"/>
         <v>413.99999999999994</v>
       </c>
@@ -6634,17 +6628,17 @@
       <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="44">
         <v>2.0983796296296296E-2</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="44">
         <v>2.6469907407407411E-2</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="41">
         <f t="shared" si="0"/>
         <v>5.4861111111111152E-3</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="42">
         <f t="shared" si="1"/>
         <v>474.00000000000034</v>
       </c>
@@ -6653,17 +6647,17 @@
       <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="44">
         <v>0</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="44">
         <v>3.3680555555555551E-3</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="41">
         <f t="shared" si="0"/>
         <v>3.3680555555555551E-3</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="42">
         <f t="shared" si="1"/>
         <v>290.99999999999994</v>
       </c>
@@ -6672,17 +6666,17 @@
       <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="44">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="44">
         <v>3.37962962962963E-3</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="41">
         <f t="shared" si="0"/>
         <v>3.368055555555556E-3</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="42">
         <f t="shared" si="1"/>
         <v>291.00000000000006</v>
       </c>
@@ -6691,17 +6685,17 @@
       <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="44">
         <v>1.7361111111111112E-4</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="44">
         <v>7.9976851851851858E-3</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="41">
         <f t="shared" si="0"/>
         <v>7.8240740740740753E-3</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="42">
         <f t="shared" si="1"/>
         <v>676.00000000000011</v>
       </c>
@@ -6710,17 +6704,17 @@
       <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="44">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="44">
         <v>6.4814814814814813E-3</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="41">
         <f t="shared" si="0"/>
         <v>6.1342592592592594E-3</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="42">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
@@ -6729,17 +6723,17 @@
       <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="44">
         <v>3.5879629629629635E-4</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="44">
         <v>8.7962962962962968E-3</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="41">
         <f t="shared" si="0"/>
         <v>8.4375000000000006E-3</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="42">
         <f t="shared" si="1"/>
         <v>729</v>
       </c>
@@ -6748,17 +6742,17 @@
       <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="44">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="44">
         <v>7.0023148148148154E-3</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="41">
         <f t="shared" si="0"/>
         <v>6.5625000000000006E-3</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="42">
         <f t="shared" si="1"/>
         <v>567</v>
       </c>
@@ -6767,17 +6761,17 @@
       <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="44">
         <v>8.564814814814815E-4</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="44">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="41">
         <f t="shared" si="0"/>
         <v>5.1967592592592595E-3</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="42">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
@@ -6786,17 +6780,17 @@
       <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="44">
         <v>1.7245370370370372E-3</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="44">
         <v>5.3240740740740748E-3</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="41">
         <f t="shared" si="0"/>
         <v>3.5995370370370374E-3</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="42">
         <f t="shared" si="1"/>
         <v>311.00000000000006</v>
       </c>
@@ -6807,8 +6801,8 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
@@ -6816,8 +6810,8 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
@@ -6825,8 +6819,8 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -6834,8 +6828,8 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
@@ -6843,8 +6837,8 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
@@ -6852,8 +6846,8 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
@@ -6861,8 +6855,8 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
@@ -6870,8 +6864,8 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
@@ -6879,11 +6873,11 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -6891,7 +6885,7 @@
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -6899,7 +6893,7 @@
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -6907,7 +6901,7 @@
       <c r="F35" s="26"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -6915,7 +6909,7 @@
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
@@ -6923,7 +6917,7 @@
       <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -6931,7 +6925,7 @@
       <c r="F38" s="26"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -6939,7 +6933,7 @@
       <c r="F39" s="26"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -6947,7 +6941,7 @@
       <c r="F40" s="26"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
@@ -6955,7 +6949,7 @@
       <c r="F41" s="26"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
@@ -6963,7 +6957,7 @@
       <c r="F42" s="26"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
@@ -6971,7 +6965,7 @@
       <c r="F43" s="26"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
@@ -6979,7 +6973,7 @@
       <c r="F44" s="26"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
@@ -6987,7 +6981,7 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
@@ -6995,7 +6989,7 @@
       <c r="F46" s="26"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -7003,7 +6997,7 @@
       <c r="F47" s="26"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
@@ -7011,7 +7005,7 @@
       <c r="F48" s="26"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
@@ -7019,7 +7013,7 @@
       <c r="F49" s="26"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
@@ -7027,7 +7021,7 @@
       <c r="F50" s="26"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
@@ -7035,7 +7029,7 @@
       <c r="F51" s="26"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
@@ -7043,7 +7037,7 @@
       <c r="F52" s="26"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -7051,7 +7045,7 @@
       <c r="F53" s="26"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -7059,7 +7053,7 @@
       <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -7067,7 +7061,7 @@
       <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -7075,7 +7069,7 @@
       <c r="F56" s="26"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
@@ -7083,7 +7077,7 @@
       <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -7091,7 +7085,7 @@
       <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
@@ -7099,7 +7093,7 @@
       <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
@@ -7107,7 +7101,7 @@
       <c r="F60" s="26"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
@@ -7115,7 +7109,7 @@
       <c r="F61" s="26"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
@@ -7123,7 +7117,7 @@
       <c r="F62" s="26"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
+      <c r="A63" s="40"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
@@ -7131,7 +7125,7 @@
       <c r="F63" s="26"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
+      <c r="A64" s="40"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
@@ -7139,7 +7133,7 @@
       <c r="F64" s="26"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
+      <c r="A65" s="40"/>
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
@@ -7147,7 +7141,7 @@
       <c r="F65" s="26"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
@@ -7155,7 +7149,7 @@
       <c r="F66" s="26"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
+      <c r="A67" s="40"/>
       <c r="B67" s="25"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
@@ -7163,7 +7157,7 @@
       <c r="F67" s="26"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
@@ -7171,7 +7165,7 @@
       <c r="F68" s="26"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
@@ -7179,7 +7173,7 @@
       <c r="F69" s="26"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
@@ -7187,7 +7181,7 @@
       <c r="F70" s="26"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
+      <c r="A71" s="40"/>
       <c r="B71" s="25"/>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
@@ -7195,7 +7189,7 @@
       <c r="F71" s="26"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
@@ -7203,7 +7197,7 @@
       <c r="F72" s="26"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
+      <c r="A73" s="40"/>
       <c r="B73" s="25"/>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
@@ -7211,7 +7205,7 @@
       <c r="F73" s="26"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
@@ -7219,7 +7213,7 @@
       <c r="F74" s="26"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="25"/>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
@@ -7227,7 +7221,7 @@
       <c r="F75" s="26"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
@@ -7235,7 +7229,7 @@
       <c r="F76" s="26"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
+      <c r="A77" s="40"/>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
@@ -7243,7 +7237,7 @@
       <c r="F77" s="26"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
+      <c r="A78" s="40"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
@@ -7251,7 +7245,7 @@
       <c r="F78" s="26"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
+      <c r="A79" s="40"/>
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
@@ -7259,7 +7253,7 @@
       <c r="F79" s="26"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
+      <c r="A80" s="40"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -7267,7 +7261,7 @@
       <c r="F80" s="26"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="45"/>
+      <c r="A81" s="40"/>
       <c r="B81" s="25"/>
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
@@ -7275,7 +7269,7 @@
       <c r="F81" s="26"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
+      <c r="A82" s="40"/>
       <c r="B82" s="25"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
@@ -7283,7 +7277,7 @@
       <c r="F82" s="26"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
+      <c r="A83" s="40"/>
       <c r="B83" s="25"/>
       <c r="C83" s="26"/>
       <c r="D83" s="26"/>
@@ -7291,7 +7285,7 @@
       <c r="F83" s="26"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
+      <c r="A84" s="40"/>
       <c r="B84" s="25"/>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
@@ -7299,7 +7293,7 @@
       <c r="F84" s="26"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
+      <c r="A85" s="40"/>
       <c r="B85" s="25"/>
       <c r="C85" s="26"/>
       <c r="D85" s="26"/>
@@ -7307,7 +7301,7 @@
       <c r="F85" s="26"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
+      <c r="A86" s="40"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
@@ -7315,7 +7309,7 @@
       <c r="F86" s="26"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
+      <c r="A87" s="40"/>
       <c r="B87" s="25"/>
       <c r="C87" s="26"/>
       <c r="D87" s="26"/>
@@ -7323,7 +7317,7 @@
       <c r="F87" s="26"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
+      <c r="A88" s="40"/>
       <c r="B88" s="25"/>
       <c r="C88" s="26"/>
       <c r="D88" s="26"/>
@@ -7331,7 +7325,7 @@
       <c r="F88" s="26"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
+      <c r="A89" s="40"/>
       <c r="B89" s="25"/>
       <c r="C89" s="26"/>
       <c r="D89" s="26"/>
@@ -7339,7 +7333,7 @@
       <c r="F89" s="26"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
+      <c r="A90" s="40"/>
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
@@ -7347,7 +7341,7 @@
       <c r="F90" s="26"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
+      <c r="A91" s="40"/>
       <c r="B91" s="25"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
@@ -7355,7 +7349,7 @@
       <c r="F91" s="26"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
+      <c r="A92" s="40"/>
       <c r="B92" s="25"/>
       <c r="C92" s="26"/>
       <c r="D92" s="26"/>
@@ -7363,7 +7357,7 @@
       <c r="F92" s="26"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
+      <c r="A93" s="40"/>
       <c r="B93" s="25"/>
       <c r="C93" s="26"/>
       <c r="D93" s="26"/>
@@ -7371,7 +7365,7 @@
       <c r="F93" s="26"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
+      <c r="A94" s="40"/>
       <c r="B94" s="25"/>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
@@ -7379,7 +7373,7 @@
       <c r="F94" s="26"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
+      <c r="A95" s="40"/>
       <c r="B95" s="25"/>
       <c r="C95" s="26"/>
       <c r="D95" s="26"/>
@@ -7387,7 +7381,7 @@
       <c r="F95" s="26"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
+      <c r="A96" s="40"/>
       <c r="B96" s="25"/>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
@@ -7395,7 +7389,7 @@
       <c r="F96" s="26"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
+      <c r="A97" s="40"/>
       <c r="B97" s="25"/>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
@@ -7403,7 +7397,7 @@
       <c r="F97" s="26"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="45"/>
+      <c r="A98" s="40"/>
       <c r="B98" s="25"/>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
@@ -7411,7 +7405,7 @@
       <c r="F98" s="26"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
+      <c r="A99" s="40"/>
       <c r="B99" s="25"/>
       <c r="C99" s="26"/>
       <c r="D99" s="26"/>
@@ -7419,7 +7413,7 @@
       <c r="F99" s="26"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="45"/>
+      <c r="A100" s="40"/>
       <c r="B100" s="25"/>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
@@ -7427,7 +7421,7 @@
       <c r="F100" s="26"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="45"/>
+      <c r="A101" s="40"/>
       <c r="B101" s="25"/>
       <c r="C101" s="26"/>
       <c r="D101" s="26"/>
@@ -7435,7 +7429,7 @@
       <c r="F101" s="26"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="45"/>
+      <c r="A102" s="40"/>
       <c r="B102" s="25"/>
       <c r="C102" s="26"/>
       <c r="D102" s="26"/>
@@ -7486,8 +7480,8 @@
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>25</v>
+      <c r="C3" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
@@ -7497,18 +7491,18 @@
       <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="36">
         <v>0.66517361111111117</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="37">
         <v>7</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="44">
+      <c r="F4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="39">
         <f>COUNT(C4:C61)</f>
         <v>58</v>
       </c>
@@ -7517,18 +7511,18 @@
       <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="36">
         <v>0.66606481481481483</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="37">
         <v>5</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="44">
+      <c r="F5" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="39">
         <f>AVERAGE(C4:C61)</f>
         <v>4.1724137931034484</v>
       </c>
@@ -7537,10 +7531,10 @@
       <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="36">
         <v>0.6665740740740741</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="37">
         <v>4</v>
       </c>
       <c r="D6" s="11"/>
@@ -7551,10 +7545,10 @@
       <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="36">
         <v>0.66728009259259258</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="37">
         <v>5</v>
       </c>
       <c r="D7" s="11"/>
@@ -7565,10 +7559,10 @@
       <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="36">
         <v>0.66734953703703714</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="37">
         <v>4</v>
       </c>
       <c r="D8" s="11"/>
@@ -7579,10 +7573,10 @@
       <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="36">
         <v>0.66766203703703697</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="37">
         <v>3</v>
       </c>
       <c r="D9" s="11"/>
@@ -7593,10 +7587,10 @@
       <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="36">
         <v>0.66843750000000002</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="37">
         <v>2</v>
       </c>
       <c r="D10" s="11"/>
@@ -7607,10 +7601,10 @@
       <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="36">
         <v>0.66870370370370369</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="37">
         <v>3</v>
       </c>
       <c r="D11" s="11"/>
@@ -7621,10 +7615,10 @@
       <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="36">
         <v>0.66890046296296291</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="37">
         <v>2</v>
       </c>
       <c r="D12" s="11"/>
@@ -7635,10 +7629,10 @@
       <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="36">
         <v>0.66900462962962959</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="37">
         <v>3</v>
       </c>
       <c r="D13" s="11"/>
@@ -7649,10 +7643,10 @@
       <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="36">
         <v>0.66905092592592597</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="37">
         <v>4</v>
       </c>
       <c r="D14" s="11"/>
@@ -7663,10 +7657,10 @@
       <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="36">
         <v>0.66918981481481488</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="37">
         <v>3</v>
       </c>
       <c r="D15" s="11"/>
@@ -7677,10 +7671,10 @@
       <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="36">
         <v>0.66956018518518512</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="37">
         <v>2</v>
       </c>
       <c r="D16" s="11"/>
@@ -7691,10 +7685,10 @@
       <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="36">
         <v>0.66982638888888879</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="37">
         <v>3</v>
       </c>
       <c r="D17" s="11"/>
@@ -7705,10 +7699,10 @@
       <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="36">
         <v>0.6699652777777777</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="37">
         <v>4</v>
       </c>
       <c r="D18" s="11"/>
@@ -7719,10 +7713,10 @@
       <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="36">
         <v>0.67052083333333334</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="37">
         <v>3</v>
       </c>
       <c r="D19" s="11"/>
@@ -7733,10 +7727,10 @@
       <c r="A20" s="18">
         <v>17</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="36">
         <v>0.6705902777777778</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="37">
         <v>4</v>
       </c>
       <c r="D20" s="11"/>
@@ -7747,10 +7741,10 @@
       <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="36">
         <v>0.67076388888888883</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="37">
         <v>5</v>
       </c>
       <c r="D21" s="11"/>
@@ -7761,10 +7755,10 @@
       <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="36">
         <v>0.67104166666666665</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="37">
         <v>4</v>
       </c>
       <c r="D22" s="11"/>
@@ -7775,10 +7769,10 @@
       <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="36">
         <v>0.67129629629629628</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="37">
         <v>3</v>
       </c>
       <c r="D23" s="11"/>
@@ -7789,10 +7783,10 @@
       <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="36">
         <v>0.67153935185185187</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="37">
         <v>2</v>
       </c>
       <c r="D24" s="11"/>
@@ -7803,10 +7797,10 @@
       <c r="A25" s="18">
         <v>22</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="36">
         <v>0.67162037037037037</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="37">
         <v>3</v>
       </c>
       <c r="D25" s="11"/>
@@ -7817,10 +7811,10 @@
       <c r="A26" s="18">
         <v>23</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="36">
         <v>0.67177083333333332</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="37">
         <v>4</v>
       </c>
       <c r="D26" s="11"/>
@@ -7831,10 +7825,10 @@
       <c r="A27" s="18">
         <v>24</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="36">
         <v>0.67181712962962958</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="37">
         <v>5</v>
       </c>
       <c r="D27" s="11"/>
@@ -7845,10 +7839,10 @@
       <c r="A28" s="18">
         <v>25</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="36">
         <v>0.67225694444444439</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="37">
         <v>4</v>
       </c>
       <c r="D28" s="11"/>
@@ -7859,10 +7853,10 @@
       <c r="A29" s="18">
         <v>26</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="36">
         <v>0.67276620370370377</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="37">
         <v>3</v>
       </c>
       <c r="D29" s="11"/>
@@ -7873,10 +7867,10 @@
       <c r="A30" s="18">
         <v>27</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="36">
         <v>0.67305555555555552</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="37">
         <v>2</v>
       </c>
       <c r="D30" s="11"/>
@@ -7887,10 +7881,10 @@
       <c r="A31" s="18">
         <v>28</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="36">
         <v>0.67318287037037028</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="37">
         <v>3</v>
       </c>
       <c r="D31" s="11"/>
@@ -7901,10 +7895,10 @@
       <c r="A32" s="18">
         <v>29</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="36">
         <v>0.67320601851851858</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="37">
         <v>4</v>
       </c>
       <c r="D32" s="11"/>
@@ -7915,10 +7909,10 @@
       <c r="A33" s="18">
         <v>30</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="36">
         <v>0.67365740740740743</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="37">
         <v>3</v>
       </c>
       <c r="D33" s="11"/>
@@ -7929,10 +7923,10 @@
       <c r="A34" s="18">
         <v>31</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="36">
         <v>0.67401620370370363</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="37">
         <v>2</v>
       </c>
       <c r="D34" s="11"/>
@@ -7943,10 +7937,10 @@
       <c r="A35" s="18">
         <v>32</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="36">
         <v>0.67417824074074073</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="37">
         <v>1</v>
       </c>
       <c r="D35" s="11"/>
@@ -7957,10 +7951,10 @@
       <c r="A36" s="18">
         <v>33</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="36">
         <v>0.67436342592592602</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="37">
         <v>2</v>
       </c>
       <c r="D36" s="11"/>
@@ -7971,10 +7965,10 @@
       <c r="A37" s="18">
         <v>34</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="36">
         <v>0.67453703703703705</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="37">
         <v>3</v>
       </c>
       <c r="D37" s="11"/>
@@ -7985,10 +7979,10 @@
       <c r="A38" s="18">
         <v>35</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38" s="36">
         <v>0.67466435185185192</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="37">
         <v>2</v>
       </c>
       <c r="D38" s="11"/>
@@ -7999,10 +7993,10 @@
       <c r="A39" s="18">
         <v>36</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39" s="36">
         <v>0.67486111111111102</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="37">
         <v>3</v>
       </c>
       <c r="D39" s="11"/>
@@ -8013,10 +8007,10 @@
       <c r="A40" s="18">
         <v>37</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40" s="36">
         <v>0.67502314814814823</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="37">
         <v>4</v>
       </c>
       <c r="D40" s="11"/>
@@ -8027,10 +8021,10 @@
       <c r="A41" s="18">
         <v>38</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="36">
         <v>0.6750694444444445</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="37">
         <v>5</v>
       </c>
       <c r="D41" s="11"/>
@@ -8041,10 +8035,10 @@
       <c r="A42" s="18">
         <v>39</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="36">
         <v>0.67521990740740734</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="37">
         <v>4</v>
       </c>
       <c r="D42" s="11"/>
@@ -8055,10 +8049,10 @@
       <c r="A43" s="18">
         <v>40</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43" s="36">
         <v>0.6756712962962963</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="37">
         <v>3</v>
       </c>
       <c r="D43" s="11"/>
@@ -8069,10 +8063,10 @@
       <c r="A44" s="18">
         <v>41</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="36">
         <v>0.67571759259259256</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="37">
         <v>4</v>
       </c>
       <c r="D44" s="11"/>
@@ -8083,10 +8077,10 @@
       <c r="A45" s="18">
         <v>42</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45" s="36">
         <v>0.67606481481481484</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="37">
         <v>5</v>
       </c>
       <c r="D45" s="11"/>
@@ -8097,10 +8091,10 @@
       <c r="A46" s="18">
         <v>43</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46" s="36">
         <v>0.6761921296296296</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="37">
         <v>6</v>
       </c>
       <c r="D46" s="11"/>
@@ -8111,10 +8105,10 @@
       <c r="A47" s="18">
         <v>44</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47" s="36">
         <v>0.67621527777777779</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="37">
         <v>5</v>
       </c>
       <c r="D47" s="11"/>
@@ -8125,10 +8119,10 @@
       <c r="A48" s="18">
         <v>45</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48" s="36">
         <v>0.67660879629629633</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="37">
         <v>6</v>
       </c>
       <c r="D48" s="11"/>
@@ -8139,10 +8133,10 @@
       <c r="A49" s="18">
         <v>46</v>
       </c>
-      <c r="B49" s="41">
+      <c r="B49" s="36">
         <v>0.67672453703703705</v>
       </c>
-      <c r="C49" s="42">
+      <c r="C49" s="37">
         <v>5</v>
       </c>
       <c r="D49" s="11"/>
@@ -8153,10 +8147,10 @@
       <c r="A50" s="18">
         <v>47</v>
       </c>
-      <c r="B50" s="41">
+      <c r="B50" s="36">
         <v>0.67677083333333332</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="37">
         <v>6</v>
       </c>
       <c r="D50" s="11"/>
@@ -8167,10 +8161,10 @@
       <c r="A51" s="18">
         <v>48</v>
       </c>
-      <c r="B51" s="41">
+      <c r="B51" s="36">
         <v>0.6769560185185185</v>
       </c>
-      <c r="C51" s="42">
+      <c r="C51" s="37">
         <v>7</v>
       </c>
       <c r="D51" s="11"/>
@@ -8181,10 +8175,10 @@
       <c r="A52" s="18">
         <v>49</v>
       </c>
-      <c r="B52" s="41">
+      <c r="B52" s="36">
         <v>0.67709490740740741</v>
       </c>
-      <c r="C52" s="42">
+      <c r="C52" s="37">
         <v>8</v>
       </c>
       <c r="D52" s="11"/>
@@ -8195,10 +8189,10 @@
       <c r="A53" s="18">
         <v>50</v>
       </c>
-      <c r="B53" s="41">
+      <c r="B53" s="36">
         <v>0.67711805555555549</v>
       </c>
-      <c r="C53" s="42">
+      <c r="C53" s="37">
         <v>7</v>
       </c>
       <c r="D53" s="11"/>
@@ -8209,10 +8203,10 @@
       <c r="A54" s="18">
         <v>51</v>
       </c>
-      <c r="B54" s="41">
+      <c r="B54" s="36">
         <v>0.67743055555555554</v>
       </c>
-      <c r="C54" s="42">
+      <c r="C54" s="37">
         <v>8</v>
       </c>
       <c r="D54" s="11"/>
@@ -8223,10 +8217,10 @@
       <c r="A55" s="18">
         <v>52</v>
       </c>
-      <c r="B55" s="41">
+      <c r="B55" s="36">
         <v>0.67782407407407408</v>
       </c>
-      <c r="C55" s="42">
+      <c r="C55" s="37">
         <v>7</v>
       </c>
       <c r="D55" s="11"/>
@@ -8237,10 +8231,10 @@
       <c r="A56" s="18">
         <v>53</v>
       </c>
-      <c r="B56" s="41">
+      <c r="B56" s="36">
         <v>0.67842592592592599</v>
       </c>
-      <c r="C56" s="42">
+      <c r="C56" s="37">
         <v>6</v>
       </c>
       <c r="D56" s="11"/>
@@ -8251,10 +8245,10 @@
       <c r="A57" s="18">
         <v>54</v>
       </c>
-      <c r="B57" s="41">
+      <c r="B57" s="36">
         <v>0.67881944444444453</v>
       </c>
-      <c r="C57" s="42">
+      <c r="C57" s="37">
         <v>5</v>
       </c>
       <c r="D57" s="11"/>
@@ -8265,10 +8259,10 @@
       <c r="A58" s="18">
         <v>55</v>
       </c>
-      <c r="B58" s="41">
+      <c r="B58" s="36">
         <v>0.67901620370370364</v>
       </c>
-      <c r="C58" s="42">
+      <c r="C58" s="37">
         <v>6</v>
       </c>
       <c r="D58" s="11"/>
@@ -8279,10 +8273,10 @@
       <c r="A59" s="18">
         <v>56</v>
       </c>
-      <c r="B59" s="41">
+      <c r="B59" s="36">
         <v>0.67930555555555561</v>
       </c>
-      <c r="C59" s="42">
+      <c r="C59" s="37">
         <v>5</v>
       </c>
       <c r="D59" s="11"/>
@@ -8293,10 +8287,10 @@
       <c r="A60" s="18">
         <v>57</v>
       </c>
-      <c r="B60" s="41">
+      <c r="B60" s="36">
         <v>0.67969907407407415</v>
       </c>
-      <c r="C60" s="42">
+      <c r="C60" s="37">
         <v>6</v>
       </c>
       <c r="D60" s="11"/>
@@ -8307,10 +8301,10 @@
       <c r="A61" s="18">
         <v>58</v>
       </c>
-      <c r="B61" s="41">
+      <c r="B61" s="36">
         <v>0.68008101851851854</v>
       </c>
-      <c r="C61" s="42">
+      <c r="C61" s="37">
         <v>5</v>
       </c>
       <c r="D61" s="11"/>
@@ -8320,7 +8314,7 @@
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
-      <c r="C62" s="39"/>
+      <c r="C62" s="34"/>
       <c r="D62" s="11"/>
       <c r="E62" s="12"/>
       <c r="F62" s="11"/>
@@ -8328,7 +8322,7 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
-      <c r="C63" s="39"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="11"/>
       <c r="E63" s="12"/>
       <c r="F63" s="11"/>
@@ -8336,7 +8330,7 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
       <c r="B64" s="28"/>
-      <c r="C64" s="39"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="11"/>
       <c r="E64" s="12"/>
       <c r="F64" s="11"/>
@@ -8344,7 +8338,7 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
-      <c r="C65" s="39"/>
+      <c r="C65" s="34"/>
       <c r="D65" s="11"/>
       <c r="E65" s="12"/>
       <c r="F65" s="11"/>
@@ -8352,7 +8346,7 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="28"/>
       <c r="B66" s="28"/>
-      <c r="C66" s="39"/>
+      <c r="C66" s="34"/>
       <c r="D66" s="11"/>
       <c r="E66" s="12"/>
       <c r="F66" s="11"/>
@@ -8360,7 +8354,7 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="39"/>
+      <c r="C67" s="34"/>
       <c r="D67" s="11"/>
       <c r="E67" s="12"/>
       <c r="F67" s="11"/>
@@ -8368,13 +8362,13 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
       <c r="B68" s="28"/>
-      <c r="C68" s="39"/>
+      <c r="C68" s="34"/>
       <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="39"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="11"/>
       <c r="E69" s="12"/>
       <c r="F69" s="11"/>
@@ -8382,7 +8376,7 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="39"/>
+      <c r="C70" s="34"/>
       <c r="D70" s="11"/>
       <c r="E70" s="12"/>
       <c r="F70" s="11"/>
@@ -8390,7 +8384,7 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="28"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="39"/>
+      <c r="C71" s="34"/>
       <c r="D71" s="11"/>
       <c r="E71" s="12"/>
       <c r="F71" s="11"/>
@@ -8398,7 +8392,7 @@
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="39"/>
+      <c r="C72" s="34"/>
       <c r="D72" s="11"/>
       <c r="E72" s="12"/>
       <c r="F72" s="11"/>
@@ -8406,7 +8400,7 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="39"/>
+      <c r="C73" s="34"/>
       <c r="D73" s="11"/>
       <c r="E73" s="12"/>
       <c r="F73" s="11"/>
@@ -8414,7 +8408,7 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
-      <c r="C74" s="39"/>
+      <c r="C74" s="34"/>
       <c r="D74" s="11"/>
       <c r="E74" s="12"/>
       <c r="F74" s="11"/>
@@ -8422,7 +8416,7 @@
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
-      <c r="C75" s="39"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="11"/>
       <c r="E75" s="12"/>
       <c r="F75" s="11"/>
@@ -8430,7 +8424,7 @@
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
-      <c r="C76" s="39"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="11"/>
       <c r="E76" s="12"/>
       <c r="F76" s="11"/>
@@ -8438,7 +8432,7 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
-      <c r="C77" s="39"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="11"/>
       <c r="E77" s="12"/>
       <c r="F77" s="11"/>
@@ -8446,7 +8440,7 @@
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
-      <c r="C78" s="39"/>
+      <c r="C78" s="34"/>
       <c r="D78" s="11"/>
       <c r="E78" s="12"/>
       <c r="F78" s="11"/>
@@ -8454,7 +8448,7 @@
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
-      <c r="C79" s="39"/>
+      <c r="C79" s="34"/>
       <c r="D79" s="11"/>
       <c r="E79" s="12"/>
       <c r="F79" s="11"/>
@@ -8462,7 +8456,7 @@
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
-      <c r="C80" s="39"/>
+      <c r="C80" s="34"/>
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
       <c r="F80" s="11"/>
@@ -8470,7 +8464,7 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="28"/>
       <c r="B81" s="28"/>
-      <c r="C81" s="39"/>
+      <c r="C81" s="34"/>
       <c r="D81" s="11"/>
       <c r="E81" s="12"/>
       <c r="F81" s="11"/>
@@ -8478,7 +8472,7 @@
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
-      <c r="C82" s="39"/>
+      <c r="C82" s="34"/>
       <c r="D82" s="11"/>
       <c r="E82" s="12"/>
       <c r="F82" s="11"/>
@@ -8486,7 +8480,7 @@
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="28"/>
       <c r="B83" s="28"/>
-      <c r="C83" s="39"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="11"/>
       <c r="E83" s="12"/>
       <c r="F83" s="11"/>
@@ -8494,7 +8488,7 @@
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="28"/>
       <c r="B84" s="28"/>
-      <c r="C84" s="39"/>
+      <c r="C84" s="34"/>
       <c r="D84" s="11"/>
       <c r="E84" s="12"/>
       <c r="F84" s="11"/>
@@ -8502,7 +8496,7 @@
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
-      <c r="C85" s="39"/>
+      <c r="C85" s="34"/>
       <c r="D85" s="11"/>
       <c r="E85" s="12"/>
       <c r="F85" s="11"/>
@@ -8510,7 +8504,7 @@
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="28"/>
       <c r="B86" s="28"/>
-      <c r="C86" s="39"/>
+      <c r="C86" s="34"/>
       <c r="D86" s="11"/>
       <c r="E86" s="12"/>
       <c r="F86" s="11"/>
@@ -8518,7 +8512,7 @@
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="28"/>
       <c r="B87" s="28"/>
-      <c r="C87" s="39"/>
+      <c r="C87" s="34"/>
       <c r="D87" s="11"/>
       <c r="E87" s="12"/>
       <c r="F87" s="11"/>
@@ -8526,7 +8520,7 @@
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="28"/>
       <c r="B88" s="28"/>
-      <c r="C88" s="39"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="11"/>
       <c r="E88" s="12"/>
       <c r="F88" s="11"/>
@@ -8534,7 +8528,7 @@
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="28"/>
       <c r="B89" s="28"/>
-      <c r="C89" s="39"/>
+      <c r="C89" s="34"/>
       <c r="D89" s="11"/>
       <c r="E89" s="12"/>
       <c r="F89" s="11"/>
@@ -8542,7 +8536,7 @@
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="28"/>
       <c r="B90" s="28"/>
-      <c r="C90" s="39"/>
+      <c r="C90" s="34"/>
       <c r="D90" s="11"/>
       <c r="E90" s="12"/>
       <c r="F90" s="11"/>
@@ -8550,7 +8544,7 @@
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
-      <c r="C91" s="39"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="11"/>
       <c r="E91" s="12"/>
       <c r="F91" s="11"/>
@@ -8558,7 +8552,7 @@
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="28"/>
       <c r="B92" s="28"/>
-      <c r="C92" s="39"/>
+      <c r="C92" s="34"/>
       <c r="D92" s="11"/>
       <c r="E92" s="12"/>
       <c r="F92" s="11"/>
@@ -8566,7 +8560,7 @@
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="28"/>
       <c r="B93" s="28"/>
-      <c r="C93" s="39"/>
+      <c r="C93" s="34"/>
       <c r="D93" s="11"/>
       <c r="E93" s="12"/>
       <c r="F93" s="11"/>
@@ -8574,7 +8568,7 @@
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
-      <c r="C94" s="39"/>
+      <c r="C94" s="34"/>
       <c r="D94" s="11"/>
       <c r="E94" s="12"/>
       <c r="F94" s="11"/>
@@ -8582,7 +8576,7 @@
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
-      <c r="C95" s="39"/>
+      <c r="C95" s="34"/>
       <c r="D95" s="11"/>
       <c r="E95" s="12"/>
       <c r="F95" s="11"/>
@@ -8590,7 +8584,7 @@
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
-      <c r="C96" s="39"/>
+      <c r="C96" s="34"/>
       <c r="D96" s="11"/>
       <c r="E96" s="12"/>
       <c r="F96" s="11"/>
@@ -8598,7 +8592,7 @@
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="28"/>
       <c r="B97" s="28"/>
-      <c r="C97" s="39"/>
+      <c r="C97" s="34"/>
       <c r="D97" s="11"/>
       <c r="E97" s="12"/>
       <c r="F97" s="11"/>
@@ -8606,7 +8600,7 @@
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="28"/>
       <c r="B98" s="28"/>
-      <c r="C98" s="39"/>
+      <c r="C98" s="34"/>
       <c r="D98" s="11"/>
       <c r="E98" s="12"/>
       <c r="F98" s="11"/>
@@ -8614,7 +8608,7 @@
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="28"/>
       <c r="B99" s="28"/>
-      <c r="C99" s="39"/>
+      <c r="C99" s="34"/>
       <c r="D99" s="11"/>
       <c r="E99" s="12"/>
       <c r="F99" s="11"/>
@@ -8622,7 +8616,7 @@
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
-      <c r="C100" s="39"/>
+      <c r="C100" s="34"/>
       <c r="D100" s="11"/>
       <c r="E100" s="12"/>
       <c r="F100" s="11"/>
@@ -8630,7 +8624,7 @@
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
-      <c r="C101" s="39"/>
+      <c r="C101" s="34"/>
       <c r="D101" s="11"/>
       <c r="E101" s="12"/>
       <c r="F101" s="11"/>
@@ -8638,7 +8632,7 @@
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="28"/>
       <c r="B102" s="28"/>
-      <c r="C102" s="39"/>
+      <c r="C102" s="34"/>
       <c r="D102" s="11"/>
       <c r="E102" s="12"/>
       <c r="F102" s="11"/>
@@ -8669,45 +8663,45 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="A1" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="48" t="s">
         <v>29</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="45">
         <v>0</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="45">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="46">
         <f>C3-B3</f>
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="42">
         <f>D3*86400</f>
         <v>163</v>
       </c>
@@ -8716,17 +8710,17 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="45">
         <v>0</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="45">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="46">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="42">
         <f t="shared" ref="E4:E14" si="1">D4*86400</f>
         <v>140</v>
       </c>
@@ -8735,17 +8729,17 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="45">
         <v>3.9351851851851852E-4</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="45">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="46">
         <f t="shared" si="0"/>
         <v>9.9537037037037042E-4</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="42">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
@@ -8754,17 +8748,17 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="45">
         <v>3.9351851851851852E-4</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="45">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="46">
         <f t="shared" si="0"/>
         <v>2.3842592592592596E-3</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="42">
         <f t="shared" si="1"/>
         <v>206.00000000000003</v>
       </c>
@@ -8773,17 +8767,17 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="45">
         <v>1.1226851851851851E-3</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="45">
         <v>4.7800925925925919E-3</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="46">
         <f t="shared" si="0"/>
         <v>3.657407407407407E-3</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="42">
         <f t="shared" si="1"/>
         <v>315.99999999999994</v>
       </c>
@@ -8792,17 +8786,17 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="45">
         <v>2.5462962962962961E-3</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="45">
         <v>4.363425925925926E-3</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="46">
         <f t="shared" si="0"/>
         <v>1.8171296296296299E-3</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="42">
         <f t="shared" si="1"/>
         <v>157.00000000000003</v>
       </c>
@@ -8811,17 +8805,17 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="45">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="45">
         <v>4.5138888888888893E-3</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="46">
         <f t="shared" si="0"/>
         <v>1.5277777777777781E-3</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="42">
         <f t="shared" si="1"/>
         <v>132.00000000000003</v>
       </c>
@@ -8830,17 +8824,17 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="45">
         <v>3.4490740740740745E-3</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="45">
         <v>4.9768518518518521E-3</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="46">
         <f t="shared" si="0"/>
         <v>1.5277777777777776E-3</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="42">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
@@ -8849,17 +8843,17 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="45">
         <v>5.1273148148148146E-3</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="45">
         <v>7.8125E-3</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="46">
         <f t="shared" si="0"/>
         <v>2.6851851851851854E-3</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="42">
         <f t="shared" si="1"/>
         <v>232.00000000000003</v>
       </c>
@@ -8868,17 +8862,17 @@
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="45">
         <v>5.5671296296296302E-3</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="45">
         <v>6.7129629629629622E-3</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="46">
         <f t="shared" si="0"/>
         <v>1.145833333333332E-3</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="42">
         <f t="shared" si="1"/>
         <v>98.999999999999886</v>
       </c>
@@ -8887,17 +8881,17 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="45">
         <v>5.7291666666666671E-3</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="45">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="46">
         <f t="shared" si="0"/>
         <v>1.2152777777777769E-3</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="42">
         <f t="shared" si="1"/>
         <v>104.99999999999993</v>
       </c>
@@ -8906,17 +8900,17 @@
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="45">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="45">
         <v>8.8310185185185176E-3</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="46">
         <f t="shared" si="0"/>
         <v>1.1921296296296289E-3</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="42">
         <f t="shared" si="1"/>
         <v>102.99999999999994</v>
       </c>
@@ -8927,8 +8921,8 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -8936,8 +8930,8 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -8945,8 +8939,8 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -8954,8 +8948,8 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -8963,8 +8957,8 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -8972,8 +8966,8 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -8981,8 +8975,8 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
@@ -8990,8 +8984,8 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data-supermarket.xlsx
+++ b/data-supermarket.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="890" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="890" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Obsluha na pokladni" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Por. Číslo</t>
   </si>
@@ -179,6 +179,57 @@
   </si>
   <si>
     <t xml:space="preserve"> Početnosť skupiniek pri príchode do systému</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Largest(1)</t>
+  </si>
+  <si>
+    <t>Smallest(1)</t>
+  </si>
+  <si>
+    <t>Confidence Level(95.0%)</t>
   </si>
 </sst>
 </file>
@@ -287,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -319,11 +370,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -422,15 +493,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -443,6 +505,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,7 +826,7 @@
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,14 +848,14 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="48"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
@@ -3353,30 +3428,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -3384,7 +3462,7 @@
       </c>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3397,8 +3475,15 @@
         <v>2.9999999999956728</v>
       </c>
       <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>IF(C3&gt;2,C3,0)</f>
+        <v>2.9999999999956728</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3411,8 +3496,14 @@
         <v>1.9999999999987139</v>
       </c>
       <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -3425,8 +3516,15 @@
         <v>2.9999999999956728</v>
       </c>
       <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" ref="E4:E67" si="1">IF(C5&gt;2,C5,0)</f>
+        <v>2.9999999999956728</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -3439,8 +3537,19 @@
         <v>3.9999999999974278</v>
       </c>
       <c r="D6" s="26"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>3.9999999999974278</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="58"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3453,8 +3562,17 @@
         <v>7.9999999999996518</v>
       </c>
       <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>7.9999999999996518</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -3467,8 +3585,21 @@
         <v>3.0000000000052651</v>
       </c>
       <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3.0000000000052651</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="16">
+        <v>10.583333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3481,8 +3612,21 @@
         <v>7.000000000002693</v>
       </c>
       <c r="D9" s="26"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>7.000000000002693</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="16">
+        <v>2.8621193289484101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3495,8 +3639,21 @@
         <v>12.000000000001876</v>
       </c>
       <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>12.000000000001876</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3509,8 +3666,21 @@
         <v>14.999999999997549</v>
       </c>
       <c r="D11" s="26"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>14.999999999997549</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -3523,8 +3693,21 @@
         <v>3.000000000000469</v>
       </c>
       <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3.000000000000469</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="16">
+        <v>14.021463877761207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -3537,8 +3720,21 @@
         <v>29.999999999999893</v>
       </c>
       <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>29.999999999999893</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="16">
+        <v>196.60144927536234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -3551,8 +3747,21 @@
         <v>4.9999999999943867</v>
       </c>
       <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>4.9999999999943867</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="16">
+        <v>7.8603765496970084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -3565,8 +3774,21 @@
         <v>1.9999999999987139</v>
       </c>
       <c r="D15" s="26"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>62</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="16">
+        <v>2.7359311609892436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -3579,8 +3801,21 @@
         <v>2.9999999999956728</v>
       </c>
       <c r="D16" s="26"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2.9999999999956728</v>
+      </c>
+      <c r="H16">
+        <v>38</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -3593,8 +3828,21 @@
         <v>1.0000000000065512</v>
       </c>
       <c r="D17" s="26"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -3607,8 +3855,21 @@
         <v>61.999999999993705</v>
       </c>
       <c r="D18" s="26"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>61.999999999993705</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -3621,8 +3882,21 @@
         <v>1.9999999999987139</v>
       </c>
       <c r="D19" s="26"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="16">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -3635,8 +3909,21 @@
         <v>1.000000000001755</v>
       </c>
       <c r="D20" s="26"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -3649,8 +3936,20 @@
         <v>2.0000000000035101</v>
       </c>
       <c r="D21" s="26"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -3663,8 +3962,21 @@
         <v>1.9999999999939178</v>
       </c>
       <c r="D22" s="26"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -3677,8 +3989,21 @@
         <v>37.999999999999545</v>
       </c>
       <c r="D23" s="26"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>37.999999999999545</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="57">
+        <v>5.9207449317565866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -3691,8 +4016,15 @@
         <v>14.000000000005386</v>
       </c>
       <c r="D24" s="26"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>14.000000000005386</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -3705,8 +4037,15 @@
         <v>2.0000000000035101</v>
       </c>
       <c r="D25" s="26"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.0000000000035101</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -3719,8 +4058,15 @@
         <v>2.0000000000035101</v>
       </c>
       <c r="D26" s="26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>2.0000000000035101</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -3733,8 +4079,12 @@
         <v>3.9999999999974278</v>
       </c>
       <c r="D27" s="26"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>3.9999999999974278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -3747,8 +4097,12 @@
         <v>4.0000000000070202</v>
       </c>
       <c r="D28" s="26"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>4.0000000000070202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -3761,8 +4115,11 @@
         <v>2.0000000000035101</v>
       </c>
       <c r="D29" s="26"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -3775,8 +4132,12 @@
         <v>2.9999999999908766</v>
       </c>
       <c r="D30" s="26"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>2.9999999999908766</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -3789,8 +4150,12 @@
         <v>1.9999999999939178</v>
       </c>
       <c r="D31" s="26"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -3803,8 +4168,12 @@
         <v>0.99999999999695888</v>
       </c>
       <c r="D32" s="26"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -3817,8 +4186,12 @@
         <v>5.000000000003979</v>
       </c>
       <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>5.000000000003979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -3831,8 +4204,12 @@
         <v>1.0000000000065512</v>
       </c>
       <c r="D34" s="26"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -3841,12 +4218,16 @@
         <v>2.3148148148077752E-5</v>
       </c>
       <c r="C35" s="17">
-        <f t="shared" ref="C35:C66" si="1">B35*86400</f>
+        <f t="shared" ref="C35:C65" si="2">B35*86400</f>
         <v>1.9999999999939178</v>
       </c>
       <c r="D35" s="26"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -3855,12 +4236,16 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C36" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D36" s="26"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -3869,12 +4254,16 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C37" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D37" s="26"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -3883,12 +4272,16 @@
         <v>8.1018518518494176E-5</v>
       </c>
       <c r="C38" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9999999999978968</v>
       </c>
       <c r="D38" s="26"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>6.9999999999978968</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -3897,12 +4290,16 @@
         <v>1.1574074074072183E-4</v>
       </c>
       <c r="C39" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999983658</v>
       </c>
       <c r="D39" s="26"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>9.9999999999983658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -3911,12 +4308,16 @@
         <v>1.1574074074149898E-5</v>
       </c>
       <c r="C40" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000065512</v>
       </c>
       <c r="D40" s="26"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -3925,12 +4326,16 @@
         <v>1.1574074074149898E-5</v>
       </c>
       <c r="C41" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000065512</v>
       </c>
       <c r="D41" s="26"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -3939,12 +4344,16 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C42" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D42" s="26"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -3953,12 +4362,16 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C43" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D43" s="26"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -3967,12 +4380,16 @@
         <v>5.7870370370416424E-5</v>
       </c>
       <c r="C44" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.000000000003979</v>
       </c>
       <c r="D44" s="26"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>5.000000000003979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -3981,12 +4398,16 @@
         <v>3.472222222222765E-5</v>
       </c>
       <c r="C45" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.000000000000469</v>
       </c>
       <c r="D45" s="26"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>3.000000000000469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -3995,12 +4416,16 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C46" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D46" s="26"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -4009,12 +4434,15 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C47" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D47" s="26"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -4023,12 +4451,16 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C48" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D48" s="26"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -4037,12 +4469,16 @@
         <v>1.1574074074149898E-5</v>
       </c>
       <c r="C49" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000065512</v>
       </c>
       <c r="D49" s="26"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -4051,12 +4487,16 @@
         <v>3.4722222222116628E-5</v>
       </c>
       <c r="C50" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9999999999908766</v>
       </c>
       <c r="D50" s="26"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>2.9999999999908766</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>49</v>
       </c>
@@ -4065,12 +4505,16 @@
         <v>1.1574074074149898E-5</v>
       </c>
       <c r="C51" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000065512</v>
       </c>
       <c r="D51" s="26"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>50</v>
       </c>
@@ -4079,12 +4523,15 @@
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C52" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D52" s="26"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -4093,12 +4540,16 @@
         <v>0</v>
       </c>
       <c r="C53" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D53" s="26"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>52</v>
       </c>
@@ -4107,12 +4558,16 @@
         <v>5.7870370370416424E-5</v>
       </c>
       <c r="C54" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.000000000003979</v>
       </c>
       <c r="D54" s="26"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>5.000000000003979</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>53</v>
       </c>
@@ -4121,12 +4576,16 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C55" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D55" s="26"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>54</v>
       </c>
@@ -4135,12 +4594,16 @@
         <v>4.6296296296155504E-5</v>
       </c>
       <c r="C56" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9999999999878355</v>
       </c>
       <c r="D56" s="26"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>3.9999999999878355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>55</v>
       </c>
@@ -4149,12 +4612,16 @@
         <v>4.6296296296377548E-5</v>
       </c>
       <c r="C57" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000070202</v>
       </c>
       <c r="D57" s="26"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>4.0000000000070202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>56</v>
       </c>
@@ -4163,12 +4630,16 @@
         <v>3.472222222222765E-5</v>
       </c>
       <c r="C58" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.000000000000469</v>
       </c>
       <c r="D58" s="26"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>3.000000000000469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>57</v>
       </c>
@@ -4177,12 +4648,16 @@
         <v>2.3148148148077752E-5</v>
       </c>
       <c r="C59" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9999999999939178</v>
       </c>
       <c r="D59" s="26"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>58</v>
       </c>
@@ -4191,12 +4666,16 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C60" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D60" s="26"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>59</v>
       </c>
@@ -4205,12 +4684,16 @@
         <v>5.7870370370305402E-5</v>
       </c>
       <c r="C61" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9999999999943867</v>
       </c>
       <c r="D61" s="26"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>4.9999999999943867</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>60</v>
       </c>
@@ -4219,12 +4702,16 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C62" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D62" s="26"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>61</v>
       </c>
@@ -4233,12 +4720,16 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C63" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D63" s="26"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>62</v>
       </c>
@@ -4247,12 +4738,16 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C64" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D64" s="26"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>63</v>
       </c>
@@ -4261,520 +4756,644 @@
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C65" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D65" s="26"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>64</v>
       </c>
       <c r="B66" s="14">
-        <f>'Obsluha na pokladni'!C68-'Obsluha na pokladni'!E67</f>
-        <v>3.2523148148148051E-3</v>
+        <f>'Obsluha na pokladni'!C69-'Obsluha na pokladni'!E68</f>
+        <v>5.7870370370372015E-4</v>
       </c>
       <c r="C66" s="17">
-        <f t="shared" si="1"/>
-        <v>280.99999999999915</v>
+        <f t="shared" ref="C66:C97" si="3">B66*86400</f>
+        <v>50.000000000001421</v>
       </c>
       <c r="D66" s="26"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>50.000000000001421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>65</v>
       </c>
       <c r="B67" s="14">
-        <f>'Obsluha na pokladni'!C69-'Obsluha na pokladni'!E68</f>
-        <v>5.7870370370372015E-4</v>
+        <f>'Obsluha na pokladni'!C70-'Obsluha na pokladni'!E69</f>
+        <v>4.6296296296377548E-5</v>
       </c>
       <c r="C67" s="17">
-        <f t="shared" ref="C67:C98" si="2">B67*86400</f>
-        <v>50.000000000001421</v>
+        <f t="shared" si="3"/>
+        <v>4.0000000000070202</v>
       </c>
       <c r="D67" s="26"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>4.0000000000070202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>66</v>
       </c>
       <c r="B68" s="14">
-        <f>'Obsluha na pokladni'!C70-'Obsluha na pokladni'!E69</f>
-        <v>4.6296296296377548E-5</v>
+        <f>'Obsluha na pokladni'!C71-'Obsluha na pokladni'!E70</f>
+        <v>1.0416666666668295E-4</v>
       </c>
       <c r="C68" s="17">
-        <f t="shared" si="2"/>
-        <v>4.0000000000070202</v>
+        <f t="shared" si="3"/>
+        <v>9.0000000000014069</v>
       </c>
       <c r="D68" s="26"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" ref="E68:E100" si="4">IF(C68&gt;2,C68,0)</f>
+        <v>9.0000000000014069</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>67</v>
       </c>
       <c r="B69" s="14">
-        <f>'Obsluha na pokladni'!C71-'Obsluha na pokladni'!E70</f>
-        <v>1.0416666666668295E-4</v>
+        <f>'Obsluha na pokladni'!C72-'Obsluha na pokladni'!E71</f>
+        <v>7.2916666666666963E-4</v>
       </c>
       <c r="C69" s="17">
-        <f t="shared" si="2"/>
-        <v>9.0000000000014069</v>
+        <f t="shared" si="3"/>
+        <v>63.000000000000256</v>
       </c>
       <c r="D69" s="26"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>63.000000000000256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>68</v>
       </c>
       <c r="B70" s="14">
-        <f>'Obsluha na pokladni'!C72-'Obsluha na pokladni'!E71</f>
-        <v>7.2916666666666963E-4</v>
+        <f>'Obsluha na pokladni'!C73-'Obsluha na pokladni'!E72</f>
+        <v>2.3148148148188774E-5</v>
       </c>
       <c r="C70" s="17">
-        <f t="shared" si="2"/>
-        <v>63.000000000000256</v>
+        <f t="shared" si="3"/>
+        <v>2.0000000000035101</v>
       </c>
       <c r="D70" s="26"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>69</v>
       </c>
       <c r="B71" s="14">
-        <f>'Obsluha na pokladni'!C73-'Obsluha na pokladni'!E72</f>
-        <v>2.3148148148188774E-5</v>
+        <f>'Obsluha na pokladni'!C74-'Obsluha na pokladni'!E73</f>
+        <v>1.1574074074038876E-5</v>
       </c>
       <c r="C71" s="17">
-        <f t="shared" si="2"/>
-        <v>2.0000000000035101</v>
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
       </c>
       <c r="D71" s="26"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>70</v>
       </c>
       <c r="B72" s="14">
-        <f>'Obsluha na pokladni'!C74-'Obsluha na pokladni'!E73</f>
+        <f>'Obsluha na pokladni'!C75-'Obsluha na pokladni'!E74</f>
         <v>1.1574074074038876E-5</v>
       </c>
       <c r="C72" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999695888</v>
       </c>
       <c r="D72" s="26"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>71</v>
       </c>
       <c r="B73" s="14">
-        <f>'Obsluha na pokladni'!C75-'Obsluha na pokladni'!E74</f>
-        <v>1.1574074074038876E-5</v>
+        <f>'Obsluha na pokladni'!C76-'Obsluha na pokladni'!E75</f>
+        <v>4.6296296296266526E-5</v>
       </c>
       <c r="C73" s="17">
-        <f t="shared" si="2"/>
-        <v>0.99999999999695888</v>
+        <f t="shared" si="3"/>
+        <v>3.9999999999974278</v>
       </c>
       <c r="D73" s="26"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>3.9999999999974278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>72</v>
       </c>
       <c r="B74" s="14">
-        <f>'Obsluha na pokladni'!C76-'Obsluha na pokladni'!E75</f>
-        <v>4.6296296296266526E-5</v>
+        <f>'Obsluha na pokladni'!C77-'Obsluha na pokladni'!E76</f>
+        <v>9.2592592592644074E-5</v>
       </c>
       <c r="C74" s="17">
-        <f t="shared" si="2"/>
-        <v>3.9999999999974278</v>
+        <f t="shared" si="3"/>
+        <v>8.000000000004448</v>
       </c>
       <c r="D74" s="26"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>8.000000000004448</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>73</v>
       </c>
       <c r="B75" s="14">
-        <f>'Obsluha na pokladni'!C77-'Obsluha na pokladni'!E76</f>
-        <v>9.2592592592644074E-5</v>
+        <f>'Obsluha na pokladni'!C78-'Obsluha na pokladni'!E77</f>
+        <v>0</v>
       </c>
       <c r="C75" s="17">
-        <f t="shared" si="2"/>
-        <v>8.000000000004448</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D75" s="26"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>74</v>
       </c>
       <c r="B76" s="14">
-        <f>'Obsluha na pokladni'!C78-'Obsluha na pokladni'!E77</f>
+        <f>'Obsluha na pokladni'!C79-'Obsluha na pokladni'!E78</f>
+        <v>2.3148148148188774E-5</v>
+      </c>
+      <c r="C76" s="17">
+        <f t="shared" si="3"/>
+        <v>2.0000000000035101</v>
+      </c>
+      <c r="D76" s="26"/>
+      <c r="E76">
         <v>0</v>
       </c>
-      <c r="C76" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D76" s="26"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>75</v>
       </c>
       <c r="B77" s="14">
-        <f>'Obsluha na pokladni'!C79-'Obsluha na pokladni'!E78</f>
-        <v>2.3148148148188774E-5</v>
+        <f>'Obsluha na pokladni'!C80-'Obsluha na pokladni'!E79</f>
+        <v>2.3148148148144365E-4</v>
       </c>
       <c r="C77" s="17">
-        <f t="shared" si="2"/>
-        <v>2.0000000000035101</v>
+        <f t="shared" si="3"/>
+        <v>19.999999999996732</v>
       </c>
       <c r="D77" s="26"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>19.999999999996732</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>76</v>
       </c>
       <c r="B78" s="14">
-        <f>'Obsluha na pokladni'!C80-'Obsluha na pokladni'!E79</f>
-        <v>2.3148148148144365E-4</v>
+        <f>'Obsluha na pokladni'!C81-'Obsluha na pokladni'!E80</f>
+        <v>1.3888888888879958E-4</v>
       </c>
       <c r="C78" s="17">
-        <f t="shared" si="2"/>
-        <v>19.999999999996732</v>
+        <f t="shared" si="3"/>
+        <v>11.999999999992284</v>
       </c>
       <c r="D78" s="26"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>11.999999999992284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>77</v>
       </c>
       <c r="B79" s="14">
-        <f>'Obsluha na pokladni'!C81-'Obsluha na pokladni'!E80</f>
-        <v>1.3888888888879958E-4</v>
+        <f>'Obsluha na pokladni'!C82-'Obsluha na pokladni'!E81</f>
+        <v>2.3148148148188774E-5</v>
       </c>
       <c r="C79" s="17">
-        <f t="shared" si="2"/>
-        <v>11.999999999992284</v>
+        <f t="shared" si="3"/>
+        <v>2.0000000000035101</v>
       </c>
       <c r="D79" s="26"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>78</v>
       </c>
       <c r="B80" s="14">
-        <f>'Obsluha na pokladni'!C82-'Obsluha na pokladni'!E81</f>
-        <v>2.3148148148188774E-5</v>
+        <f>'Obsluha na pokladni'!C83-'Obsluha na pokladni'!E82</f>
+        <v>1.1574074074038876E-5</v>
       </c>
       <c r="C80" s="17">
-        <f t="shared" si="2"/>
-        <v>2.0000000000035101</v>
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
       </c>
       <c r="D80" s="26"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>79</v>
       </c>
       <c r="B81" s="14">
-        <f>'Obsluha na pokladni'!C83-'Obsluha na pokladni'!E82</f>
-        <v>1.1574074074038876E-5</v>
+        <f>'Obsluha na pokladni'!C84-'Obsluha na pokladni'!E83</f>
+        <v>3.472222222222765E-5</v>
       </c>
       <c r="C81" s="17">
-        <f t="shared" si="2"/>
-        <v>0.99999999999695888</v>
+        <f t="shared" si="3"/>
+        <v>3.000000000000469</v>
       </c>
       <c r="D81" s="26"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>3.000000000000469</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>80</v>
       </c>
       <c r="B82" s="14">
-        <f>'Obsluha na pokladni'!C84-'Obsluha na pokladni'!E83</f>
-        <v>3.472222222222765E-5</v>
+        <f>'Obsluha na pokladni'!C85-'Obsluha na pokladni'!E84</f>
+        <v>4.6296296296266526E-5</v>
       </c>
       <c r="C82" s="17">
-        <f t="shared" si="2"/>
-        <v>3.000000000000469</v>
+        <f t="shared" si="3"/>
+        <v>3.9999999999974278</v>
       </c>
       <c r="D82" s="26"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>3.9999999999974278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>81</v>
       </c>
       <c r="B83" s="14">
-        <f>'Obsluha na pokladni'!C85-'Obsluha na pokladni'!E84</f>
+        <f>'Obsluha na pokladni'!C86-'Obsluha na pokladni'!E85</f>
         <v>4.6296296296266526E-5</v>
       </c>
       <c r="C83" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9999999999974278</v>
       </c>
       <c r="D83" s="26"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>3.9999999999974278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>82</v>
       </c>
       <c r="B84" s="14">
-        <f>'Obsluha na pokladni'!C86-'Obsluha na pokladni'!E85</f>
-        <v>4.6296296296266526E-5</v>
+        <f>'Obsluha na pokladni'!C87-'Obsluha na pokladni'!E86</f>
+        <v>1.7361111111113825E-4</v>
       </c>
       <c r="C84" s="17">
-        <f t="shared" si="2"/>
-        <v>3.9999999999974278</v>
+        <f t="shared" si="3"/>
+        <v>15.000000000002345</v>
       </c>
       <c r="D84" s="26"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>15.000000000002345</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>83</v>
       </c>
       <c r="B85" s="14">
-        <f>'Obsluha na pokladni'!C87-'Obsluha na pokladni'!E86</f>
-        <v>1.7361111111113825E-4</v>
+        <f>'Obsluha na pokladni'!C88-'Obsluha na pokladni'!E87</f>
+        <v>1.0416666666668295E-4</v>
       </c>
       <c r="C85" s="17">
-        <f t="shared" si="2"/>
-        <v>15.000000000002345</v>
+        <f t="shared" si="3"/>
+        <v>9.0000000000014069</v>
       </c>
       <c r="D85" s="26"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>9.0000000000014069</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>84</v>
       </c>
       <c r="B86" s="14">
-        <f>'Obsluha na pokladni'!C88-'Obsluha na pokladni'!E87</f>
-        <v>1.0416666666668295E-4</v>
+        <f>'Obsluha na pokladni'!C89-'Obsluha na pokladni'!E88</f>
+        <v>2.3148148148188774E-5</v>
       </c>
       <c r="C86" s="17">
-        <f t="shared" si="2"/>
-        <v>9.0000000000014069</v>
+        <f t="shared" si="3"/>
+        <v>2.0000000000035101</v>
       </c>
       <c r="D86" s="26"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>85</v>
       </c>
       <c r="B87" s="14">
-        <f>'Obsluha na pokladni'!C89-'Obsluha na pokladni'!E88</f>
-        <v>2.3148148148188774E-5</v>
+        <f>'Obsluha na pokladni'!C90-'Obsluha na pokladni'!E89</f>
+        <v>3.240740740739767E-4</v>
       </c>
       <c r="C87" s="17">
-        <f t="shared" si="2"/>
-        <v>2.0000000000035101</v>
+        <f t="shared" si="3"/>
+        <v>27.999999999991587</v>
       </c>
       <c r="D87" s="26"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>27.999999999991587</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>86</v>
       </c>
       <c r="B88" s="14">
-        <f>'Obsluha na pokladni'!C90-'Obsluha na pokladni'!E89</f>
-        <v>3.240740740739767E-4</v>
+        <f>'Obsluha na pokladni'!C91-'Obsluha na pokladni'!E90</f>
+        <v>3.472222222222765E-5</v>
       </c>
       <c r="C88" s="17">
-        <f t="shared" si="2"/>
-        <v>27.999999999991587</v>
+        <f t="shared" si="3"/>
+        <v>3.000000000000469</v>
       </c>
       <c r="D88" s="26"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>3.000000000000469</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>87</v>
       </c>
       <c r="B89" s="14">
-        <f>'Obsluha na pokladni'!C91-'Obsluha na pokladni'!E90</f>
-        <v>3.472222222222765E-5</v>
+        <f>'Obsluha na pokladni'!C92-'Obsluha na pokladni'!E91</f>
+        <v>2.3148148148188774E-5</v>
       </c>
       <c r="C89" s="17">
-        <f t="shared" si="2"/>
-        <v>3.000000000000469</v>
+        <f t="shared" si="3"/>
+        <v>2.0000000000035101</v>
       </c>
       <c r="D89" s="26"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>88</v>
       </c>
       <c r="B90" s="14">
-        <f>'Obsluha na pokladni'!C92-'Obsluha na pokladni'!E91</f>
+        <f>'Obsluha na pokladni'!C93-'Obsluha na pokladni'!E92</f>
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C90" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D90" s="26"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>89</v>
       </c>
       <c r="B91" s="14">
-        <f>'Obsluha na pokladni'!C93-'Obsluha na pokladni'!E92</f>
+        <f>'Obsluha na pokladni'!C94-'Obsluha na pokladni'!E93</f>
         <v>2.3148148148188774E-5</v>
       </c>
       <c r="C91" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0000000000035101</v>
       </c>
       <c r="D91" s="26"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>90</v>
       </c>
       <c r="B92" s="14">
-        <f>'Obsluha na pokladni'!C94-'Obsluha na pokladni'!E93</f>
-        <v>2.3148148148188774E-5</v>
+        <f>'Obsluha na pokladni'!C95-'Obsluha na pokladni'!E94</f>
+        <v>0</v>
       </c>
       <c r="C92" s="17">
-        <f t="shared" si="2"/>
-        <v>2.0000000000035101</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D92" s="26"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>91</v>
       </c>
       <c r="B93" s="14">
-        <f>'Obsluha na pokladni'!C95-'Obsluha na pokladni'!E94</f>
-        <v>0</v>
+        <f>'Obsluha na pokladni'!C96-'Obsluha na pokladni'!E95</f>
+        <v>3.4722222222116628E-5</v>
       </c>
       <c r="C93" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.9999999999908766</v>
       </c>
       <c r="D93" s="26"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <f t="shared" si="4"/>
+        <v>2.9999999999908766</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>92</v>
       </c>
       <c r="B94" s="14">
-        <f>'Obsluha na pokladni'!C96-'Obsluha na pokladni'!E95</f>
-        <v>3.4722222222116628E-5</v>
+        <f>'Obsluha na pokladni'!C97-'Obsluha na pokladni'!E96</f>
+        <v>1.1574074074038876E-5</v>
       </c>
       <c r="C94" s="17">
-        <f t="shared" si="2"/>
-        <v>2.9999999999908766</v>
+        <f t="shared" si="3"/>
+        <v>0.99999999999695888</v>
       </c>
       <c r="D94" s="26"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>93</v>
       </c>
       <c r="B95" s="14">
-        <f>'Obsluha na pokladni'!C97-'Obsluha na pokladni'!E96</f>
-        <v>1.1574074074038876E-5</v>
+        <f>'Obsluha na pokladni'!C98-'Obsluha na pokladni'!E97</f>
+        <v>1.1574074074149898E-5</v>
       </c>
       <c r="C95" s="17">
-        <f t="shared" si="2"/>
-        <v>0.99999999999695888</v>
+        <f t="shared" si="3"/>
+        <v>1.0000000000065512</v>
       </c>
       <c r="D95" s="26"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>94</v>
       </c>
       <c r="B96" s="14">
-        <f>'Obsluha na pokladni'!C98-'Obsluha na pokladni'!E97</f>
+        <f>'Obsluha na pokladni'!C99-'Obsluha na pokladni'!E98</f>
         <v>1.1574074074149898E-5</v>
       </c>
       <c r="C96" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000065512</v>
       </c>
       <c r="D96" s="26"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>95</v>
       </c>
       <c r="B97" s="14">
-        <f>'Obsluha na pokladni'!C99-'Obsluha na pokladni'!E98</f>
-        <v>1.1574074074149898E-5</v>
+        <f>'Obsluha na pokladni'!C100-'Obsluha na pokladni'!E99</f>
+        <v>1.8518518518517713E-4</v>
       </c>
       <c r="C97" s="17">
-        <f t="shared" si="2"/>
-        <v>1.0000000000065512</v>
+        <f t="shared" si="3"/>
+        <v>15.999999999999304</v>
       </c>
       <c r="D97" s="26"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <f t="shared" si="4"/>
+        <v>15.999999999999304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>96</v>
       </c>
       <c r="B98" s="14">
-        <f>'Obsluha na pokladni'!C100-'Obsluha na pokladni'!E99</f>
-        <v>1.8518518518517713E-4</v>
+        <f>'Obsluha na pokladni'!C101-'Obsluha na pokladni'!E100</f>
+        <v>0</v>
       </c>
       <c r="C98" s="17">
-        <f t="shared" si="2"/>
-        <v>15.999999999999304</v>
+        <f t="shared" ref="C98:C100" si="5">B98*86400</f>
+        <v>0</v>
       </c>
       <c r="D98" s="26"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>97</v>
       </c>
       <c r="B99" s="14">
-        <f>'Obsluha na pokladni'!C101-'Obsluha na pokladni'!E100</f>
-        <v>0</v>
+        <f>'Obsluha na pokladni'!C102-'Obsluha na pokladni'!E101</f>
+        <v>4.6296296296377548E-5</v>
       </c>
       <c r="C99" s="17">
-        <f t="shared" ref="C99:C101" si="3">B99*86400</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4.0000000000070202</v>
       </c>
       <c r="D99" s="26"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <f t="shared" si="4"/>
+        <v>4.0000000000070202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>98</v>
       </c>
       <c r="B100" s="14">
-        <f>'Obsluha na pokladni'!C102-'Obsluha na pokladni'!E101</f>
-        <v>4.6296296296377548E-5</v>
+        <f>'Obsluha na pokladni'!C103-'Obsluha na pokladni'!E102</f>
+        <v>6.94444444444553E-5</v>
       </c>
       <c r="C100" s="17">
-        <f t="shared" si="3"/>
-        <v>4.0000000000070202</v>
+        <f t="shared" si="5"/>
+        <v>6.0000000000009379</v>
       </c>
       <c r="D100" s="26"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>6.0000000000009379</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>99</v>
       </c>
-      <c r="B101" s="14">
-        <f>'Obsluha na pokladni'!C103-'Obsluha na pokladni'!E102</f>
-        <v>6.94444444444553E-5</v>
-      </c>
-      <c r="C101" s="17">
-        <f t="shared" si="3"/>
-        <v>6.0000000000009379</v>
-      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="17"/>
       <c r="D101" s="26"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4786,7 +5405,7 @@
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4822,7 +5441,7 @@
       <c r="B3" s="45">
         <v>0.63468749999999996</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="48">
         <f>B4-B3</f>
         <v>2.1990740740740478E-4</v>
       </c>
@@ -4838,7 +5457,7 @@
       <c r="B4" s="45">
         <v>0.63490740740740736</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="48">
         <f t="shared" ref="C4:C40" si="0">B5-B4</f>
         <v>1.1226851851852127E-3</v>
       </c>
@@ -4854,7 +5473,7 @@
       <c r="B5" s="45">
         <v>0.63603009259259258</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="48">
         <f t="shared" si="0"/>
         <v>6.94444444444553E-5</v>
       </c>
@@ -4870,7 +5489,7 @@
       <c r="B6" s="45">
         <v>0.63609953703703703</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="48">
         <f t="shared" si="0"/>
         <v>2.083333333333659E-4</v>
       </c>
@@ -4886,7 +5505,7 @@
       <c r="B7" s="45">
         <v>0.6363078703703704</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="48">
         <f t="shared" si="0"/>
         <v>3.7037037037035425E-4</v>
       </c>
@@ -4902,7 +5521,7 @@
       <c r="B8" s="45">
         <v>0.63667824074074075</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="48">
         <f t="shared" si="0"/>
         <v>1.1111111111110628E-3</v>
       </c>
@@ -4918,7 +5537,7 @@
       <c r="B9" s="45">
         <v>0.63778935185185182</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="48">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -4934,7 +5553,7 @@
       <c r="B10" s="45">
         <v>0.6378125</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="48">
         <f t="shared" si="0"/>
         <v>1.2731481481487172E-4</v>
       </c>
@@ -4950,7 +5569,7 @@
       <c r="B11" s="45">
         <v>0.63793981481481488</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="48">
         <f t="shared" si="0"/>
         <v>1.5046296296294948E-4</v>
       </c>
@@ -4966,7 +5585,7 @@
       <c r="B12" s="45">
         <v>0.63809027777777783</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="48">
         <f t="shared" si="0"/>
         <v>8.1018518518494176E-5</v>
       </c>
@@ -4982,7 +5601,7 @@
       <c r="B13" s="45">
         <v>0.63817129629629632</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="48">
         <f t="shared" si="0"/>
         <v>1.1574074074038876E-5</v>
       </c>
@@ -4998,7 +5617,7 @@
       <c r="B14" s="45">
         <v>0.63818287037037036</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="48">
         <f t="shared" si="0"/>
         <v>1.5046296296294948E-4</v>
       </c>
@@ -5014,7 +5633,7 @@
       <c r="B15" s="45">
         <v>0.63833333333333331</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="48">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5030,7 +5649,7 @@
       <c r="B16" s="45">
         <v>0.6383564814814815</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="48">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5046,7 +5665,7 @@
       <c r="B17" s="45">
         <v>0.63837962962962969</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="48">
         <f t="shared" si="0"/>
         <v>1.96759259259216E-4</v>
       </c>
@@ -5062,7 +5681,7 @@
       <c r="B18" s="45">
         <v>0.6385763888888889</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="48">
         <f t="shared" si="0"/>
         <v>5.7870370370305402E-5</v>
       </c>
@@ -5078,7 +5697,7 @@
       <c r="B19" s="45">
         <v>0.63863425925925921</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="48">
         <f t="shared" si="0"/>
         <v>4.3981481481480955E-4</v>
       </c>
@@ -5094,7 +5713,7 @@
       <c r="B20" s="45">
         <v>0.63907407407407402</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="48">
         <f t="shared" si="0"/>
         <v>2.5462962962974345E-4</v>
       </c>
@@ -5110,7 +5729,7 @@
       <c r="B21" s="45">
         <v>0.63932870370370376</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="48">
         <f t="shared" si="0"/>
         <v>1.1574074074038876E-5</v>
       </c>
@@ -5126,7 +5745,7 @@
       <c r="B22" s="45">
         <v>0.6393402777777778</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="48">
         <f t="shared" si="0"/>
         <v>2.777777777778212E-4</v>
       </c>
@@ -5142,7 +5761,7 @@
       <c r="B23" s="45">
         <v>0.63961805555555562</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="48">
         <f t="shared" si="0"/>
         <v>4.9768518518511495E-4</v>
       </c>
@@ -5158,7 +5777,7 @@
       <c r="B24" s="45">
         <v>0.64011574074074074</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="48">
         <f t="shared" si="0"/>
         <v>6.3657407407402555E-4</v>
       </c>
@@ -5174,7 +5793,7 @@
       <c r="B25" s="45">
         <v>0.64075231481481476</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="48">
         <f t="shared" si="0"/>
         <v>4.9768518518522598E-4</v>
       </c>
@@ -5190,7 +5809,7 @@
       <c r="B26" s="45">
         <v>0.64124999999999999</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="48">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-4</v>
       </c>
@@ -5206,7 +5825,7 @@
       <c r="B27" s="45">
         <v>0.64150462962962962</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="48">
         <f t="shared" si="0"/>
         <v>2.1990740740740478E-4</v>
       </c>
@@ -5222,7 +5841,7 @@
       <c r="B28" s="45">
         <v>0.64172453703703702</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="48">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5238,7 +5857,7 @@
       <c r="B29" s="45">
         <v>0.64174768518518521</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="48">
         <f t="shared" si="0"/>
         <v>1.273148148147607E-4</v>
       </c>
@@ -5254,7 +5873,7 @@
       <c r="B30" s="45">
         <v>0.64187499999999997</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="48">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5270,7 +5889,7 @@
       <c r="B31" s="45">
         <v>0.64189814814814816</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="48">
         <f t="shared" si="0"/>
         <v>3.472222222222765E-4</v>
       </c>
@@ -5286,7 +5905,7 @@
       <c r="B32" s="45">
         <v>0.64224537037037044</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="48">
         <f t="shared" si="0"/>
         <v>2.0833333333325488E-4</v>
       </c>
@@ -5302,7 +5921,7 @@
       <c r="B33" s="45">
         <v>0.64245370370370369</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="48">
         <f t="shared" si="0"/>
         <v>1.1342592592592515E-3</v>
       </c>
@@ -5318,7 +5937,7 @@
       <c r="B34" s="45">
         <v>0.64358796296296295</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="48">
         <f t="shared" si="0"/>
         <v>4.6296296296299833E-4</v>
       </c>
@@ -5334,7 +5953,7 @@
       <c r="B35" s="45">
         <v>0.64405092592592594</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="48">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5350,7 +5969,7 @@
       <c r="B36" s="45">
         <v>0.64407407407407413</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="48">
         <f t="shared" si="0"/>
         <v>2.3148148148077752E-5</v>
       </c>
@@ -5366,7 +5985,7 @@
       <c r="B37" s="45">
         <v>0.64409722222222221</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="48">
         <f t="shared" si="0"/>
         <v>8.1018518518494176E-5</v>
       </c>
@@ -5382,7 +6001,7 @@
       <c r="B38" s="45">
         <v>0.6441782407407407</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="48">
         <f t="shared" si="0"/>
         <v>3.472222222222765E-5</v>
       </c>
@@ -5398,7 +6017,7 @@
       <c r="B39" s="45">
         <v>0.64421296296296293</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="48">
         <f t="shared" si="0"/>
         <v>6.94444444444553E-5</v>
       </c>
@@ -5414,7 +6033,7 @@
       <c r="B40" s="45">
         <v>0.64428240740740739</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="48">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5430,7 +6049,7 @@
       <c r="B41" s="45">
         <v>0.64430555555555558</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5814,8 +6433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5828,11 +6447,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -5850,7 +6469,7 @@
       <c r="B3" s="33">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="50" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="31">
@@ -5872,13 +6491,13 @@
       <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="51" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5889,14 +6508,14 @@
       <c r="B6" s="33">
         <v>1</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="52">
         <v>1</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="52">
         <f>COUNTIF(B3:B57,1)</f>
         <v>37</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="52">
         <f>E6*100/E3</f>
         <v>67.272727272727266</v>
       </c>
@@ -5908,14 +6527,14 @@
       <c r="B7" s="33">
         <v>1</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="52">
         <v>2</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="52">
         <f>COUNTIF(B3:B57,2)</f>
         <v>13</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="52">
         <f>E7*100/E3</f>
         <v>23.636363636363637</v>
       </c>
@@ -5927,14 +6546,14 @@
       <c r="B8" s="33">
         <v>1</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="52">
         <v>3</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="52">
         <f>COUNTIF(B3:B57,3)</f>
         <v>5</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="52">
         <f>E8*100/E3</f>
         <v>9.0909090909090917</v>
       </c>
@@ -5946,10 +6565,10 @@
       <c r="B9" s="33">
         <v>2</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="53">
         <f>SUM(F6:F8)</f>
         <v>100</v>
       </c>
@@ -8657,18 +9276,18 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">

--- a/data-supermarket.xlsx
+++ b/data-supermarket.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="890" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Obsluha na pokladni" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="VAL - Doba čakania v rade" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="cas_v_systeme_Katka" localSheetId="4">'VAL - Pobyt v systéme'!$B$24:$C$31</definedName>
     <definedName name="dlzkaRadu" localSheetId="5">'VAL - Dĺžka radu pri pokladni'!$B$4:$C$61</definedName>
     <definedName name="doba_obsluhypokladne_1" localSheetId="0">'Obsluha na pokladni'!$B$4:$E$101</definedName>
     <definedName name="New_Text_Document" localSheetId="0">'Obsluha na pokladni'!$G$4:$G$102</definedName>
@@ -38,7 +39,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="dlzkaRadu" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" name="cas_v_systeme_Katka" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\Data\Downloads\cas_v_systeme_Katka.txt">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="dlzkaRadu" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Data\Documents\vysokaSkola\MAS\MAS_billa_simulation\dlzkaRadu.txt" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
@@ -46,7 +55,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="doba_obsluhypokladne" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="3" name="doba_obsluhypokladne" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Data\Documents\vysokaSkola\MAS\semestralna praca\doba_obsluhypokladne.txt" delimited="0">
       <textFields count="4">
         <textField/>
@@ -56,14 +65,14 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="New Text Document" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="4" name="New Text Document" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\Data\Documents\vysokaSkola\MAS\MAS_billa_simulation\New Text Document.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="pocet_prichLudi1" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="5" name="pocet_prichLudi1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Data\Documents\vysokaSkola\MAS\MAS_billa_simulation\pocet_prichLudi.txt" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
@@ -71,7 +80,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="pocet_prichLudi2" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="6" name="pocet_prichLudi2" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\Data\Documents\vysokaSkola\MAS\MAS_billa_simulation\pocet_prichLudi.txt" tab="0" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
@@ -83,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Por. Číslo</t>
   </si>
@@ -231,6 +240,15 @@
   <si>
     <t>Confidence Level(95.0%)</t>
   </si>
+  <si>
+    <t>priemer</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,18 +340,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,19 +483,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,16 +506,24 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
+    <xf numFmtId="21" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,23 +547,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="doba_obsluhypokladne_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="doba_obsluhypokladne_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pocet_prichLudi_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pocet_prichLudi_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pocet_prichLudi" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pocet_prichLudi" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dlzkaRadu" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cas_v_systeme_Katka" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dlzkaRadu" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,7 +836,7 @@
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,14 +858,14 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="54"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
@@ -907,8 +917,18 @@
         <f>F4*86400</f>
         <v>47.000000000005748</v>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="22">
+        <f>AVERAGE(G4:G103)</f>
+        <v>45.330000000000219</v>
+      </c>
       <c r="J4" s="22"/>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <f>MIN(G4:G103)</f>
+        <v>4.9999999999991829</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -936,6 +956,13 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5">
+        <f>MAX(G4:G103)</f>
+        <v>146.00000000000205</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -3430,8 +3457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,10 +3478,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -3517,7 +3544,7 @@
       </c>
       <c r="D5" s="26"/>
       <c r="E5">
-        <f t="shared" ref="E4:E67" si="1">IF(C5&gt;2,C5,0)</f>
+        <f t="shared" ref="E5:E67" si="1">IF(C5&gt;2,C5,0)</f>
         <v>2.9999999999956728</v>
       </c>
       <c r="H5">
@@ -3544,10 +3571,10 @@
       <c r="H6">
         <v>8</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="58"/>
+      <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -3996,10 +4023,10 @@
       <c r="H23">
         <v>10</v>
       </c>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="57">
+      <c r="L23" s="49">
         <v>5.9207449317565866</v>
       </c>
     </row>
@@ -5404,7 +5431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -5435,13 +5462,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="40">
         <v>0.63468749999999996</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="42">
         <f>B4-B3</f>
         <v>2.1990740740740478E-4</v>
       </c>
@@ -5451,13 +5478,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="40">
         <v>0.63490740740740736</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="42">
         <f t="shared" ref="C4:C40" si="0">B5-B4</f>
         <v>1.1226851851852127E-3</v>
       </c>
@@ -5467,13 +5494,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="40">
         <v>0.63603009259259258</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="42">
         <f t="shared" si="0"/>
         <v>6.94444444444553E-5</v>
       </c>
@@ -5483,13 +5510,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="40">
         <v>0.63609953703703703</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="42">
         <f t="shared" si="0"/>
         <v>2.083333333333659E-4</v>
       </c>
@@ -5499,13 +5526,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="40">
         <v>0.6363078703703704</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="42">
         <f t="shared" si="0"/>
         <v>3.7037037037035425E-4</v>
       </c>
@@ -5515,13 +5542,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="40">
         <v>0.63667824074074075</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="42">
         <f t="shared" si="0"/>
         <v>1.1111111111110628E-3</v>
       </c>
@@ -5531,13 +5558,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="40">
         <v>0.63778935185185182</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="42">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5547,13 +5574,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="40">
         <v>0.6378125</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="42">
         <f t="shared" si="0"/>
         <v>1.2731481481487172E-4</v>
       </c>
@@ -5563,13 +5590,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="40">
         <v>0.63793981481481488</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="42">
         <f t="shared" si="0"/>
         <v>1.5046296296294948E-4</v>
       </c>
@@ -5579,13 +5606,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="47">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="40">
         <v>0.63809027777777783</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="42">
         <f t="shared" si="0"/>
         <v>8.1018518518494176E-5</v>
       </c>
@@ -5595,13 +5622,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="47">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="40">
         <v>0.63817129629629632</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="42">
         <f t="shared" si="0"/>
         <v>1.1574074074038876E-5</v>
       </c>
@@ -5611,13 +5638,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="47">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="40">
         <v>0.63818287037037036</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="42">
         <f t="shared" si="0"/>
         <v>1.5046296296294948E-4</v>
       </c>
@@ -5627,13 +5654,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="47">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="40">
         <v>0.63833333333333331</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="42">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5643,13 +5670,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="47">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="40">
         <v>0.6383564814814815</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="42">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5659,13 +5686,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="47">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="40">
         <v>0.63837962962962969</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="42">
         <f t="shared" si="0"/>
         <v>1.96759259259216E-4</v>
       </c>
@@ -5675,13 +5702,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="47">
+      <c r="A18" s="41">
         <v>16</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="40">
         <v>0.6385763888888889</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="42">
         <f t="shared" si="0"/>
         <v>5.7870370370305402E-5</v>
       </c>
@@ -5691,13 +5718,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="47">
+      <c r="A19" s="41">
         <v>17</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="40">
         <v>0.63863425925925921</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="42">
         <f t="shared" si="0"/>
         <v>4.3981481481480955E-4</v>
       </c>
@@ -5707,13 +5734,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="47">
+      <c r="A20" s="41">
         <v>18</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="40">
         <v>0.63907407407407402</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="42">
         <f t="shared" si="0"/>
         <v>2.5462962962974345E-4</v>
       </c>
@@ -5723,13 +5750,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="47">
+      <c r="A21" s="41">
         <v>19</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="40">
         <v>0.63932870370370376</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="42">
         <f t="shared" si="0"/>
         <v>1.1574074074038876E-5</v>
       </c>
@@ -5739,13 +5766,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="47">
+      <c r="A22" s="41">
         <v>20</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="40">
         <v>0.6393402777777778</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="42">
         <f t="shared" si="0"/>
         <v>2.777777777778212E-4</v>
       </c>
@@ -5755,13 +5782,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="47">
+      <c r="A23" s="41">
         <v>21</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="40">
         <v>0.63961805555555562</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="42">
         <f t="shared" si="0"/>
         <v>4.9768518518511495E-4</v>
       </c>
@@ -5771,13 +5798,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="47">
+      <c r="A24" s="41">
         <v>22</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="40">
         <v>0.64011574074074074</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="42">
         <f t="shared" si="0"/>
         <v>6.3657407407402555E-4</v>
       </c>
@@ -5787,13 +5814,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="47">
+      <c r="A25" s="41">
         <v>23</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="40">
         <v>0.64075231481481476</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="42">
         <f t="shared" si="0"/>
         <v>4.9768518518522598E-4</v>
       </c>
@@ -5803,13 +5830,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="47">
+      <c r="A26" s="41">
         <v>24</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="40">
         <v>0.64124999999999999</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="42">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-4</v>
       </c>
@@ -5819,13 +5846,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="47">
+      <c r="A27" s="41">
         <v>25</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="40">
         <v>0.64150462962962962</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="42">
         <f t="shared" si="0"/>
         <v>2.1990740740740478E-4</v>
       </c>
@@ -5835,13 +5862,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="47">
+      <c r="A28" s="41">
         <v>26</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="40">
         <v>0.64172453703703702</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="42">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5851,13 +5878,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="47">
+      <c r="A29" s="41">
         <v>27</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="40">
         <v>0.64174768518518521</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="42">
         <f t="shared" si="0"/>
         <v>1.273148148147607E-4</v>
       </c>
@@ -5867,13 +5894,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="47">
+      <c r="A30" s="41">
         <v>28</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="40">
         <v>0.64187499999999997</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="42">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5883,13 +5910,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="47">
+      <c r="A31" s="41">
         <v>29</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B31" s="40">
         <v>0.64189814814814816</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="42">
         <f t="shared" si="0"/>
         <v>3.472222222222765E-4</v>
       </c>
@@ -5899,13 +5926,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="47">
+      <c r="A32" s="41">
         <v>30</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="40">
         <v>0.64224537037037044</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="42">
         <f t="shared" si="0"/>
         <v>2.0833333333325488E-4</v>
       </c>
@@ -5915,13 +5942,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="47">
+      <c r="A33" s="41">
         <v>31</v>
       </c>
-      <c r="B33" s="45">
+      <c r="B33" s="40">
         <v>0.64245370370370369</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="42">
         <f t="shared" si="0"/>
         <v>1.1342592592592515E-3</v>
       </c>
@@ -5931,13 +5958,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="47">
+      <c r="A34" s="41">
         <v>32</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="40">
         <v>0.64358796296296295</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="42">
         <f t="shared" si="0"/>
         <v>4.6296296296299833E-4</v>
       </c>
@@ -5947,13 +5974,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="47">
+      <c r="A35" s="41">
         <v>33</v>
       </c>
-      <c r="B35" s="45">
+      <c r="B35" s="40">
         <v>0.64405092592592594</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="42">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5963,13 +5990,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="47">
+      <c r="A36" s="41">
         <v>34</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="40">
         <v>0.64407407407407413</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="42">
         <f t="shared" si="0"/>
         <v>2.3148148148077752E-5</v>
       </c>
@@ -5979,13 +6006,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="47">
+      <c r="A37" s="41">
         <v>35</v>
       </c>
-      <c r="B37" s="45">
+      <c r="B37" s="40">
         <v>0.64409722222222221</v>
       </c>
-      <c r="C37" s="48">
+      <c r="C37" s="42">
         <f t="shared" si="0"/>
         <v>8.1018518518494176E-5</v>
       </c>
@@ -5995,13 +6022,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="47">
+      <c r="A38" s="41">
         <v>36</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="40">
         <v>0.6441782407407407</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="42">
         <f t="shared" si="0"/>
         <v>3.472222222222765E-5</v>
       </c>
@@ -6011,13 +6038,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="47">
+      <c r="A39" s="41">
         <v>37</v>
       </c>
-      <c r="B39" s="45">
+      <c r="B39" s="40">
         <v>0.64421296296296293</v>
       </c>
-      <c r="C39" s="48">
+      <c r="C39" s="42">
         <f t="shared" si="0"/>
         <v>6.94444444444553E-5</v>
       </c>
@@ -6027,13 +6054,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="47">
+      <c r="A40" s="41">
         <v>38</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="40">
         <v>0.64428240740740739</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="42">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -6043,13 +6070,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="47">
+      <c r="A41" s="41">
         <v>39</v>
       </c>
-      <c r="B41" s="45">
+      <c r="B41" s="40">
         <v>0.64430555555555558</v>
       </c>
-      <c r="C41" s="48"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6447,11 +6474,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -6469,7 +6496,7 @@
       <c r="B3" s="33">
         <v>2</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="44" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="31">
@@ -6491,13 +6518,13 @@
       <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="45" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6508,14 +6535,14 @@
       <c r="B6" s="33">
         <v>1</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="46">
         <v>1</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="46">
         <f>COUNTIF(B3:B57,1)</f>
         <v>37</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="46">
         <f>E6*100/E3</f>
         <v>67.272727272727266</v>
       </c>
@@ -6527,14 +6554,14 @@
       <c r="B7" s="33">
         <v>1</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="46">
         <v>2</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="46">
         <f>COUNTIF(B3:B57,2)</f>
         <v>13</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="46">
         <f>E7*100/E3</f>
         <v>23.636363636363637</v>
       </c>
@@ -6546,14 +6573,14 @@
       <c r="B8" s="33">
         <v>1</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="46">
         <v>3</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="46">
         <f>COUNTIF(B3:B57,3)</f>
         <v>5</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="46">
         <f>E8*100/E3</f>
         <v>9.0909090909090917</v>
       </c>
@@ -6565,10 +6592,10 @@
       <c r="B9" s="33">
         <v>2</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="47">
         <f>SUM(F6:F8)</f>
         <v>100</v>
       </c>
@@ -6982,23 +7009,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="2" max="3" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -7008,275 +7035,294 @@
       <c r="C2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="39">
         <v>0</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="39">
         <v>4.5949074074074078E-3</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="58">
         <f>C3-B3</f>
         <v>4.5949074074074078E-3</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="57">
         <f>D3*86400</f>
         <v>397.00000000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="56">
+        <f>AVERAGE(E3:E31)</f>
+        <v>513.44827586206895</v>
+      </c>
+      <c r="K3">
+        <f>513-156-45</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="39">
         <v>2.8935185185185189E-4</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="39">
         <v>4.2013888888888891E-3</v>
       </c>
-      <c r="D4" s="41">
-        <f t="shared" ref="D4:D23" si="0">C4-B4</f>
+      <c r="D4" s="58">
+        <f t="shared" ref="D4:D31" si="0">C4-B4</f>
         <v>3.9120370370370368E-3</v>
       </c>
-      <c r="E4" s="42">
-        <f t="shared" ref="E4:E23" si="1">D4*86400</f>
+      <c r="E4" s="57">
+        <f t="shared" ref="E4:E31" si="1">D4*86400</f>
         <v>338</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4" s="56">
+        <f>MAX(E3:E31)</f>
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="39">
         <v>1.0763888888888889E-3</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="39">
         <v>1.238425925925926E-2</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="58">
         <f t="shared" si="0"/>
         <v>1.1307870370370371E-2</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="57">
         <f t="shared" si="1"/>
         <v>977</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5" s="56">
+        <f>MIN(E3:E31)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="39">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="39">
         <v>7.9861111111111122E-3</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="58">
         <f t="shared" si="0"/>
         <v>6.3657407407407421E-3</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="57">
         <f t="shared" si="1"/>
         <v>550.00000000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="39">
         <v>2.5925925925925925E-3</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="39">
         <v>8.4027777777777781E-3</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="58">
         <f t="shared" si="0"/>
         <v>5.8101851851851856E-3</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="57">
         <f t="shared" si="1"/>
         <v>502.00000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="39">
         <v>6.7129629629629622E-3</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="39">
         <v>9.4212962962962957E-3</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="58">
         <f t="shared" si="0"/>
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="57">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="39">
         <v>8.0671296296296307E-3</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="39">
         <v>1.2962962962962963E-2</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="58">
         <f t="shared" si="0"/>
         <v>4.8958333333333319E-3</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="57">
         <f t="shared" si="1"/>
         <v>422.99999999999989</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="39">
         <v>1.0393518518518519E-2</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="39">
         <v>1.8483796296296297E-2</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="58">
         <f t="shared" si="0"/>
         <v>8.0902777777777778E-3</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="57">
         <f t="shared" si="1"/>
         <v>699</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="39">
         <v>1.4120370370370368E-2</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="39">
         <v>2.0034722222222221E-2</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="58">
         <f t="shared" si="0"/>
         <v>5.9143518518518529E-3</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="57">
         <f t="shared" si="1"/>
         <v>511.00000000000011</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="39">
         <v>1.486111111111111E-2</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="39">
         <v>1.9247685185185184E-2</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="58">
         <f t="shared" si="0"/>
         <v>4.386574074074074E-3</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="57">
         <f t="shared" si="1"/>
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="39">
         <v>1.6342592592592593E-2</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="39">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="58">
         <f t="shared" si="0"/>
         <v>3.1018518518518522E-3</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="57">
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="39">
         <v>1.8194444444444444E-2</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="39">
         <v>2.298611111111111E-2</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="58">
         <f t="shared" si="0"/>
         <v>4.7916666666666663E-3</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="57">
         <f t="shared" si="1"/>
         <v>413.99999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="39">
         <v>2.0983796296296296E-2</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="39">
         <v>2.6469907407407411E-2</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="58">
         <f t="shared" si="0"/>
         <v>5.4861111111111152E-3</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="57">
         <f t="shared" si="1"/>
         <v>474.00000000000034</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="39">
         <v>0</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="39">
         <v>3.3680555555555551E-3</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="58">
         <f t="shared" si="0"/>
         <v>3.3680555555555551E-3</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="57">
         <f t="shared" si="1"/>
         <v>290.99999999999994</v>
       </c>
@@ -7285,17 +7331,17 @@
       <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="39">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="39">
         <v>3.37962962962963E-3</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="58">
         <f t="shared" si="0"/>
         <v>3.368055555555556E-3</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="57">
         <f t="shared" si="1"/>
         <v>291.00000000000006</v>
       </c>
@@ -7304,17 +7350,17 @@
       <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="39">
         <v>1.7361111111111112E-4</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="39">
         <v>7.9976851851851858E-3</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="58">
         <f t="shared" si="0"/>
         <v>7.8240740740740753E-3</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="57">
         <f t="shared" si="1"/>
         <v>676.00000000000011</v>
       </c>
@@ -7323,17 +7369,17 @@
       <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="39">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="39">
         <v>6.4814814814814813E-3</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="58">
         <f t="shared" si="0"/>
         <v>6.1342592592592594E-3</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="57">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
@@ -7342,17 +7388,17 @@
       <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="39">
         <v>3.5879629629629635E-4</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="39">
         <v>8.7962962962962968E-3</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="58">
         <f t="shared" si="0"/>
         <v>8.4375000000000006E-3</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="57">
         <f t="shared" si="1"/>
         <v>729</v>
       </c>
@@ -7361,17 +7407,17 @@
       <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="39">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="39">
         <v>7.0023148148148154E-3</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="58">
         <f t="shared" si="0"/>
         <v>6.5625000000000006E-3</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="57">
         <f t="shared" si="1"/>
         <v>567</v>
       </c>
@@ -7380,17 +7426,17 @@
       <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="39">
         <v>8.564814814814815E-4</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="39">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="58">
         <f t="shared" si="0"/>
         <v>5.1967592592592595E-3</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="57">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
@@ -7399,17 +7445,17 @@
       <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="39">
         <v>1.7245370370370372E-3</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="39">
         <v>5.3240740740740748E-3</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="58">
         <f t="shared" si="0"/>
         <v>3.5995370370370374E-3</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="57">
         <f t="shared" si="1"/>
         <v>311.00000000000006</v>
       </c>
@@ -7418,73 +7464,153 @@
       <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
+      <c r="B24" s="40">
+        <v>0</v>
+      </c>
+      <c r="C24" s="40">
+        <v>4.9768518518518521E-3</v>
+      </c>
+      <c r="D24" s="58">
+        <f t="shared" si="0"/>
+        <v>4.9768518518518521E-3</v>
+      </c>
+      <c r="E24" s="57">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="40">
+        <v>4.0509259259259258E-4</v>
+      </c>
+      <c r="C25" s="40">
+        <v>8.5416666666666679E-3</v>
+      </c>
+      <c r="D25" s="58">
+        <f t="shared" si="0"/>
+        <v>8.1365740740740756E-3</v>
+      </c>
+      <c r="E25" s="57">
+        <f t="shared" si="1"/>
+        <v>703.00000000000011</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
+      <c r="B26" s="40">
+        <v>8.3333333333333339E-4</v>
+      </c>
+      <c r="C26" s="40">
+        <v>4.340277777777778E-3</v>
+      </c>
+      <c r="D26" s="58">
+        <f t="shared" si="0"/>
+        <v>3.5069444444444445E-3</v>
+      </c>
+      <c r="E26" s="57">
+        <f t="shared" si="1"/>
+        <v>303</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
+      <c r="B27" s="40">
+        <v>1.0763888888888889E-3</v>
+      </c>
+      <c r="C27" s="40">
+        <v>7.1296296296296307E-3</v>
+      </c>
+      <c r="D27" s="58">
+        <f t="shared" si="0"/>
+        <v>6.0532407407407418E-3</v>
+      </c>
+      <c r="E27" s="57">
+        <f t="shared" si="1"/>
+        <v>523.00000000000011</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>26</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
+      <c r="B28" s="40">
+        <v>1.2152777777777778E-3</v>
+      </c>
+      <c r="C28" s="40">
+        <v>1.6284722222222221E-2</v>
+      </c>
+      <c r="D28" s="58">
+        <f t="shared" si="0"/>
+        <v>1.5069444444444444E-2</v>
+      </c>
+      <c r="E28" s="57">
+        <f t="shared" si="1"/>
+        <v>1302</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>27</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="B29" s="40">
+        <v>1.8402777777777777E-3</v>
+      </c>
+      <c r="C29" s="40">
+        <v>1.1909722222222223E-2</v>
+      </c>
+      <c r="D29" s="58">
+        <f t="shared" si="0"/>
+        <v>1.0069444444444445E-2</v>
+      </c>
+      <c r="E29" s="57">
+        <f t="shared" si="1"/>
+        <v>870</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="B30" s="40">
+        <v>2.4074074074074076E-3</v>
+      </c>
+      <c r="C30" s="40">
+        <v>8.0208333333333329E-3</v>
+      </c>
+      <c r="D30" s="58">
+        <f t="shared" si="0"/>
+        <v>5.6134259259259254E-3</v>
+      </c>
+      <c r="E30" s="57">
+        <f t="shared" si="1"/>
+        <v>484.99999999999994</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="B31" s="40">
+        <v>2.627314814814815E-3</v>
+      </c>
+      <c r="C31" s="40">
+        <v>5.6828703703703702E-3</v>
+      </c>
+      <c r="D31" s="58">
+        <f t="shared" si="0"/>
+        <v>3.0555555555555553E-3</v>
+      </c>
+      <c r="E31" s="57">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
@@ -7492,11 +7618,11 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -7504,7 +7630,7 @@
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -7512,7 +7638,7 @@
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -7520,7 +7646,7 @@
       <c r="F35" s="26"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -7528,7 +7654,7 @@
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
@@ -7536,7 +7662,7 @@
       <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -7544,7 +7670,7 @@
       <c r="F38" s="26"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -7552,7 +7678,7 @@
       <c r="F39" s="26"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -7560,7 +7686,7 @@
       <c r="F40" s="26"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
@@ -7568,7 +7694,7 @@
       <c r="F41" s="26"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
@@ -7576,7 +7702,7 @@
       <c r="F42" s="26"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
@@ -7584,7 +7710,7 @@
       <c r="F43" s="26"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
@@ -7592,7 +7718,7 @@
       <c r="F44" s="26"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
@@ -7600,7 +7726,7 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
@@ -7608,7 +7734,7 @@
       <c r="F46" s="26"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -7616,7 +7742,7 @@
       <c r="F47" s="26"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
@@ -7624,7 +7750,7 @@
       <c r="F48" s="26"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
@@ -7632,7 +7758,7 @@
       <c r="F49" s="26"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
@@ -7640,7 +7766,7 @@
       <c r="F50" s="26"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
@@ -7648,7 +7774,7 @@
       <c r="F51" s="26"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
@@ -7656,7 +7782,7 @@
       <c r="F52" s="26"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -7664,7 +7790,7 @@
       <c r="F53" s="26"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -7672,7 +7798,7 @@
       <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -7680,7 +7806,7 @@
       <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -7688,7 +7814,7 @@
       <c r="F56" s="26"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
@@ -7696,7 +7822,7 @@
       <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -7704,7 +7830,7 @@
       <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
@@ -7712,7 +7838,7 @@
       <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
@@ -7720,7 +7846,7 @@
       <c r="F60" s="26"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="38"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
@@ -7728,7 +7854,7 @@
       <c r="F61" s="26"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+      <c r="A62" s="38"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
@@ -7736,7 +7862,7 @@
       <c r="F62" s="26"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="38"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
@@ -7744,7 +7870,7 @@
       <c r="F63" s="26"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+      <c r="A64" s="38"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
@@ -7752,7 +7878,7 @@
       <c r="F64" s="26"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+      <c r="A65" s="38"/>
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
@@ -7760,7 +7886,7 @@
       <c r="F65" s="26"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
@@ -7768,7 +7894,7 @@
       <c r="F66" s="26"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+      <c r="A67" s="38"/>
       <c r="B67" s="25"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
@@ -7776,7 +7902,7 @@
       <c r="F67" s="26"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="38"/>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
@@ -7784,7 +7910,7 @@
       <c r="F68" s="26"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+      <c r="A69" s="38"/>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
@@ -7792,7 +7918,7 @@
       <c r="F69" s="26"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
@@ -7800,7 +7926,7 @@
       <c r="F70" s="26"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+      <c r="A71" s="38"/>
       <c r="B71" s="25"/>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
@@ -7808,7 +7934,7 @@
       <c r="F71" s="26"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
@@ -7816,7 +7942,7 @@
       <c r="F72" s="26"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+      <c r="A73" s="38"/>
       <c r="B73" s="25"/>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
@@ -7824,7 +7950,7 @@
       <c r="F73" s="26"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
@@ -7832,7 +7958,7 @@
       <c r="F74" s="26"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+      <c r="A75" s="38"/>
       <c r="B75" s="25"/>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
@@ -7840,7 +7966,7 @@
       <c r="F75" s="26"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
@@ -7848,7 +7974,7 @@
       <c r="F76" s="26"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="38"/>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
@@ -7856,7 +7982,7 @@
       <c r="F77" s="26"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
@@ -7864,7 +7990,7 @@
       <c r="F78" s="26"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="38"/>
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
@@ -7872,7 +7998,7 @@
       <c r="F79" s="26"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -7880,7 +8006,7 @@
       <c r="F80" s="26"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="25"/>
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
@@ -7888,7 +8014,7 @@
       <c r="F81" s="26"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="25"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
@@ -7896,7 +8022,7 @@
       <c r="F82" s="26"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="25"/>
       <c r="C83" s="26"/>
       <c r="D83" s="26"/>
@@ -7904,7 +8030,7 @@
       <c r="F83" s="26"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="38"/>
       <c r="B84" s="25"/>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
@@ -7912,7 +8038,7 @@
       <c r="F84" s="26"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="38"/>
       <c r="B85" s="25"/>
       <c r="C85" s="26"/>
       <c r="D85" s="26"/>
@@ -7920,7 +8046,7 @@
       <c r="F85" s="26"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="38"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
@@ -7928,7 +8054,7 @@
       <c r="F86" s="26"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="38"/>
       <c r="B87" s="25"/>
       <c r="C87" s="26"/>
       <c r="D87" s="26"/>
@@ -7936,7 +8062,7 @@
       <c r="F87" s="26"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="38"/>
       <c r="B88" s="25"/>
       <c r="C88" s="26"/>
       <c r="D88" s="26"/>
@@ -7944,7 +8070,7 @@
       <c r="F88" s="26"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="38"/>
       <c r="B89" s="25"/>
       <c r="C89" s="26"/>
       <c r="D89" s="26"/>
@@ -7952,7 +8078,7 @@
       <c r="F89" s="26"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="38"/>
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
@@ -7960,7 +8086,7 @@
       <c r="F90" s="26"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="38"/>
       <c r="B91" s="25"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
@@ -7968,7 +8094,7 @@
       <c r="F91" s="26"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="38"/>
       <c r="B92" s="25"/>
       <c r="C92" s="26"/>
       <c r="D92" s="26"/>
@@ -7976,7 +8102,7 @@
       <c r="F92" s="26"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="38"/>
       <c r="B93" s="25"/>
       <c r="C93" s="26"/>
       <c r="D93" s="26"/>
@@ -7984,7 +8110,7 @@
       <c r="F93" s="26"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="38"/>
       <c r="B94" s="25"/>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
@@ -7992,7 +8118,7 @@
       <c r="F94" s="26"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="38"/>
       <c r="B95" s="25"/>
       <c r="C95" s="26"/>
       <c r="D95" s="26"/>
@@ -8000,7 +8126,7 @@
       <c r="F95" s="26"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="38"/>
       <c r="B96" s="25"/>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
@@ -8008,7 +8134,7 @@
       <c r="F96" s="26"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="38"/>
       <c r="B97" s="25"/>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
@@ -8016,7 +8142,7 @@
       <c r="F97" s="26"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="38"/>
       <c r="B98" s="25"/>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
@@ -8024,7 +8150,7 @@
       <c r="F98" s="26"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="38"/>
       <c r="B99" s="25"/>
       <c r="C99" s="26"/>
       <c r="D99" s="26"/>
@@ -8032,7 +8158,7 @@
       <c r="F99" s="26"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="38"/>
       <c r="B100" s="25"/>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
@@ -8040,7 +8166,7 @@
       <c r="F100" s="26"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="38"/>
       <c r="B101" s="25"/>
       <c r="C101" s="26"/>
       <c r="D101" s="26"/>
@@ -8048,7 +8174,7 @@
       <c r="F101" s="26"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="38"/>
       <c r="B102" s="25"/>
       <c r="C102" s="26"/>
       <c r="D102" s="26"/>
@@ -8072,8 +8198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8118,10 +8244,10 @@
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="55">
         <f>COUNT(C4:C61)</f>
         <v>58</v>
       </c>
@@ -8138,10 +8264,10 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="55">
         <f>AVERAGE(C4:C61)</f>
         <v>4.1724137931034484</v>
       </c>
@@ -9268,28 +9394,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-    </row>
-    <row r="2" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+    </row>
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -9299,258 +9426,270 @@
       <c r="C2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="40">
         <v>0</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="40">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="42">
         <f>C3-B3</f>
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="57">
         <f>D3*86400</f>
         <v>163</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="56">
+        <f>AVERAGE(E3:E14)</f>
+        <v>155.91666666666666</v>
+      </c>
+      <c r="I3" s="56">
+        <f>MIN(E3:E14)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="40">
         <v>0</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="40">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="42">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="57">
         <f t="shared" ref="E4:E14" si="1">D4*86400</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4" s="56">
+        <f>MAX(E3:E14)</f>
+        <v>315.99999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="40">
         <v>3.9351851851851852E-4</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="40">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="42">
         <f t="shared" si="0"/>
         <v>9.9537037037037042E-4</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="57">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="40">
         <v>3.9351851851851852E-4</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="40">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="42">
         <f t="shared" si="0"/>
         <v>2.3842592592592596E-3</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="57">
         <f t="shared" si="1"/>
         <v>206.00000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="40">
         <v>1.1226851851851851E-3</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="40">
         <v>4.7800925925925919E-3</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="42">
         <f t="shared" si="0"/>
         <v>3.657407407407407E-3</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="57">
         <f t="shared" si="1"/>
         <v>315.99999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="40">
         <v>2.5462962962962961E-3</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="40">
         <v>4.363425925925926E-3</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="42">
         <f t="shared" si="0"/>
         <v>1.8171296296296299E-3</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="57">
         <f t="shared" si="1"/>
         <v>157.00000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="40">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="40">
         <v>4.5138888888888893E-3</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="42">
         <f t="shared" si="0"/>
         <v>1.5277777777777781E-3</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="57">
         <f t="shared" si="1"/>
         <v>132.00000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="40">
         <v>3.4490740740740745E-3</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="40">
         <v>4.9768518518518521E-3</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="42">
         <f t="shared" si="0"/>
         <v>1.5277777777777776E-3</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="57">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="40">
         <v>5.1273148148148146E-3</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="40">
         <v>7.8125E-3</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="42">
         <f t="shared" si="0"/>
         <v>2.6851851851851854E-3</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="57">
         <f t="shared" si="1"/>
         <v>232.00000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="40">
         <v>5.5671296296296302E-3</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="40">
         <v>6.7129629629629622E-3</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="42">
         <f t="shared" si="0"/>
         <v>1.145833333333332E-3</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="57">
         <f t="shared" si="1"/>
         <v>98.999999999999886</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="40">
         <v>5.7291666666666671E-3</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="40">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="42">
         <f t="shared" si="0"/>
         <v>1.2152777777777769E-3</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="57">
         <f t="shared" si="1"/>
         <v>104.99999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="40">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="40">
         <v>8.8310185185185176E-3</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="42">
         <f t="shared" si="0"/>
         <v>1.1921296296296289E-3</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="57">
         <f t="shared" si="1"/>
         <v>102.99999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -9558,8 +9697,8 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -9567,8 +9706,8 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -9576,8 +9715,8 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -9585,8 +9724,8 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -9594,8 +9733,8 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
@@ -9603,8 +9742,8 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data-supermarket.xlsx
+++ b/data-supermarket.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="890" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="890" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Obsluha na pokladni" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="VAL - Pobyt v systéme" sheetId="4" r:id="rId5"/>
     <sheet name="VAL - Dĺžka radu pri pokladni" sheetId="5" r:id="rId6"/>
     <sheet name="VAL - Doba čakania v rade" sheetId="8" r:id="rId7"/>
+    <sheet name="Validacia modelu" sheetId="9" r:id="rId8"/>
+    <sheet name="Vyhodnotenie experimentov" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="cas_v_systeme_Katka" localSheetId="4">'VAL - Pobyt v systéme'!$B$24:$C$31</definedName>
@@ -92,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
   <si>
     <t>Por. Číslo</t>
   </si>
@@ -249,16 +251,97 @@
   <si>
     <t>max</t>
   </si>
+  <si>
+    <t>VALIDÁCIA MODELU</t>
+  </si>
+  <si>
+    <t>Skúmaná charakteristika</t>
+  </si>
+  <si>
+    <t>Hodnota z reality</t>
+  </si>
+  <si>
+    <t>Hodnota z modelu</t>
+  </si>
+  <si>
+    <t>Rozdiel</t>
+  </si>
+  <si>
+    <t>priemerný pobyt v systéme</t>
+  </si>
+  <si>
+    <t>priemerná doba obsluhy na pokladni</t>
+  </si>
+  <si>
+    <t>statPriemDlzkaRaduPokladna1</t>
+  </si>
+  <si>
+    <t>statPriemDlzkaRaduPokladna2</t>
+  </si>
+  <si>
+    <t>statPriemDlzkaRaduPokladna3</t>
+  </si>
+  <si>
+    <t>statPriemDlzkaRaduPokladna4</t>
+  </si>
+  <si>
+    <t>statPriemCasObsluhyPokladna</t>
+  </si>
+  <si>
+    <t>statPriemCasCakaniaRad</t>
+  </si>
+  <si>
+    <t>statPriemPobytVSysteme</t>
+  </si>
+  <si>
+    <t>statPercentaLudiSoZlavou</t>
+  </si>
+  <si>
+    <t>Hodnota po vykonaní experientu</t>
+  </si>
+  <si>
+    <t>Hodnota pred vykonaním experimentu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1 Experiment zvýšenie hodnoty vstupného toku o 50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3 Experiment zaúčanie jedného brigádnika </t>
+  </si>
+  <si>
+    <t>Hodnota po vykonaní experimentu</t>
+  </si>
+  <si>
+    <t>5.3 Experiment zaúčanie dvoch brigadnikov</t>
+  </si>
+  <si>
+    <t>5.3 Experiment zaúčanie 3 brigadnikov</t>
+  </si>
+  <si>
+    <t>5.3 Experiment zaúčanie 4 brigadnikov</t>
+  </si>
+  <si>
+    <t>5.2 Experiment zvýšenie hodnoty vstupného toku o 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvaja v rade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 v rade </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="167" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0000;[Red]0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +384,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E74B5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -400,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -440,9 +530,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,17 +600,38 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="21" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,11 +655,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="doba_obsluhypokladne_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="doba_obsluhypokladne_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -836,7 +944,7 @@
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +955,8 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="9" max="10" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -858,14 +967,14 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="51"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
@@ -917,15 +1026,10 @@
         <f>F4*86400</f>
         <v>47.000000000005748</v>
       </c>
-      <c r="I4" s="22">
-        <f>AVERAGE(G4:G103)</f>
-        <v>45.330000000000219</v>
-      </c>
-      <c r="J4" s="22"/>
-      <c r="K4" t="s">
+      <c r="I4" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="L4">
+      <c r="J4" s="60">
         <f>MIN(G4:G103)</f>
         <v>4.9999999999991829</v>
       </c>
@@ -954,12 +1058,10 @@
         <f t="shared" ref="G5:G68" si="1">F5*86400</f>
         <v>99.00000000000108</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" t="s">
+      <c r="I5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="L5">
+      <c r="J5" s="60">
         <f>MAX(G4:G103)</f>
         <v>146.00000000000205</v>
       </c>
@@ -988,8 +1090,13 @@
         <f t="shared" si="1"/>
         <v>16.0000000000041</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="60">
+        <f>AVERAGE(G4:G103)</f>
+        <v>45.330000000000219</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -3458,7 +3565,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,16 +3585,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -3501,7 +3608,7 @@
         <f t="shared" ref="C3:C34" si="0">B3*86400</f>
         <v>2.9999999999956728</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="25"/>
       <c r="E3">
         <f>IF(C3&gt;2,C3,0)</f>
         <v>2.9999999999956728</v>
@@ -3522,7 +3629,7 @@
         <f t="shared" si="0"/>
         <v>1.9999999999987139</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="25"/>
       <c r="E4">
         <v>0</v>
       </c>
@@ -3542,7 +3649,7 @@
         <f t="shared" si="0"/>
         <v>2.9999999999956728</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="25"/>
       <c r="E5">
         <f t="shared" ref="E5:E67" si="1">IF(C5&gt;2,C5,0)</f>
         <v>2.9999999999956728</v>
@@ -3563,7 +3670,7 @@
         <f t="shared" si="0"/>
         <v>3.9999999999974278</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="25"/>
       <c r="E6">
         <f t="shared" si="1"/>
         <v>3.9999999999974278</v>
@@ -3571,10 +3678,10 @@
       <c r="H6">
         <v>8</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="50"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -3588,7 +3695,7 @@
         <f t="shared" si="0"/>
         <v>7.9999999999996518</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="25"/>
       <c r="E7">
         <f t="shared" si="1"/>
         <v>7.9999999999996518</v>
@@ -3611,7 +3718,7 @@
         <f t="shared" si="0"/>
         <v>3.0000000000052651</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="25"/>
       <c r="E8">
         <f t="shared" si="1"/>
         <v>3.0000000000052651</v>
@@ -3638,7 +3745,7 @@
         <f t="shared" si="0"/>
         <v>7.000000000002693</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="25"/>
       <c r="E9">
         <f t="shared" si="1"/>
         <v>7.000000000002693</v>
@@ -3665,7 +3772,7 @@
         <f t="shared" si="0"/>
         <v>12.000000000001876</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="25"/>
       <c r="E10">
         <f t="shared" si="1"/>
         <v>12.000000000001876</v>
@@ -3692,7 +3799,7 @@
         <f t="shared" si="0"/>
         <v>14.999999999997549</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="25"/>
       <c r="E11">
         <f t="shared" si="1"/>
         <v>14.999999999997549</v>
@@ -3719,7 +3826,7 @@
         <f t="shared" si="0"/>
         <v>3.000000000000469</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="25"/>
       <c r="E12">
         <f t="shared" si="1"/>
         <v>3.000000000000469</v>
@@ -3746,7 +3853,7 @@
         <f t="shared" si="0"/>
         <v>29.999999999999893</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="25"/>
       <c r="E13">
         <f t="shared" si="1"/>
         <v>29.999999999999893</v>
@@ -3773,7 +3880,7 @@
         <f t="shared" si="0"/>
         <v>4.9999999999943867</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="25"/>
       <c r="E14">
         <f t="shared" si="1"/>
         <v>4.9999999999943867</v>
@@ -3800,7 +3907,7 @@
         <f t="shared" si="0"/>
         <v>1.9999999999987139</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="25"/>
       <c r="E15">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3827,7 +3934,7 @@
         <f t="shared" si="0"/>
         <v>2.9999999999956728</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="25"/>
       <c r="E16">
         <f t="shared" si="1"/>
         <v>2.9999999999956728</v>
@@ -3854,7 +3961,7 @@
         <f t="shared" si="0"/>
         <v>1.0000000000065512</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="25"/>
       <c r="E17">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3881,7 +3988,7 @@
         <f t="shared" si="0"/>
         <v>61.999999999993705</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="25"/>
       <c r="E18">
         <f t="shared" si="1"/>
         <v>61.999999999993705</v>
@@ -3908,7 +4015,7 @@
         <f t="shared" si="0"/>
         <v>1.9999999999987139</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="25"/>
       <c r="E19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3935,7 +4042,7 @@
         <f t="shared" si="0"/>
         <v>1.000000000001755</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="25"/>
       <c r="E20">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3962,7 +4069,7 @@
         <f t="shared" si="0"/>
         <v>2.0000000000035101</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="25"/>
       <c r="E21">
         <v>0</v>
       </c>
@@ -3988,7 +4095,7 @@
         <f t="shared" si="0"/>
         <v>1.9999999999939178</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="25"/>
       <c r="E22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4015,7 +4122,7 @@
         <f t="shared" si="0"/>
         <v>37.999999999999545</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="25"/>
       <c r="E23">
         <f t="shared" si="1"/>
         <v>37.999999999999545</v>
@@ -4023,10 +4130,10 @@
       <c r="H23">
         <v>10</v>
       </c>
-      <c r="K23" s="49" t="s">
+      <c r="K23" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="49">
+      <c r="L23" s="48">
         <v>5.9207449317565866</v>
       </c>
     </row>
@@ -4042,7 +4149,7 @@
         <f t="shared" si="0"/>
         <v>14.000000000005386</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="25"/>
       <c r="E24">
         <f t="shared" si="1"/>
         <v>14.000000000005386</v>
@@ -4063,10 +4170,9 @@
         <f t="shared" si="0"/>
         <v>2.0000000000035101</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="25"/>
       <c r="E25">
-        <f t="shared" si="1"/>
-        <v>2.0000000000035101</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -4084,10 +4190,9 @@
         <f t="shared" si="0"/>
         <v>2.0000000000035101</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="25"/>
       <c r="E26">
-        <f t="shared" si="1"/>
-        <v>2.0000000000035101</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -4105,7 +4210,7 @@
         <f t="shared" si="0"/>
         <v>3.9999999999974278</v>
       </c>
-      <c r="D27" s="26"/>
+      <c r="D27" s="25"/>
       <c r="E27">
         <f t="shared" si="1"/>
         <v>3.9999999999974278</v>
@@ -4123,7 +4228,7 @@
         <f t="shared" si="0"/>
         <v>4.0000000000070202</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="25"/>
       <c r="E28">
         <f t="shared" si="1"/>
         <v>4.0000000000070202</v>
@@ -4141,7 +4246,7 @@
         <f t="shared" si="0"/>
         <v>2.0000000000035101</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="25"/>
       <c r="E29">
         <v>0</v>
       </c>
@@ -4158,7 +4263,7 @@
         <f t="shared" si="0"/>
         <v>2.9999999999908766</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="25"/>
       <c r="E30">
         <f t="shared" si="1"/>
         <v>2.9999999999908766</v>
@@ -4176,7 +4281,7 @@
         <f t="shared" si="0"/>
         <v>1.9999999999939178</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="25"/>
       <c r="E31">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4194,7 +4299,7 @@
         <f t="shared" si="0"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="25"/>
       <c r="E32">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4212,7 +4317,7 @@
         <f t="shared" si="0"/>
         <v>5.000000000003979</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="25"/>
       <c r="E33">
         <f t="shared" si="1"/>
         <v>5.000000000003979</v>
@@ -4230,7 +4335,7 @@
         <f t="shared" si="0"/>
         <v>1.0000000000065512</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="25"/>
       <c r="E34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4248,7 +4353,7 @@
         <f t="shared" ref="C35:C65" si="2">B35*86400</f>
         <v>1.9999999999939178</v>
       </c>
-      <c r="D35" s="26"/>
+      <c r="D35" s="25"/>
       <c r="E35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4266,7 +4371,7 @@
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D36" s="26"/>
+      <c r="D36" s="25"/>
       <c r="E36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4284,7 +4389,7 @@
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D37" s="26"/>
+      <c r="D37" s="25"/>
       <c r="E37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4302,7 +4407,7 @@
         <f t="shared" si="2"/>
         <v>6.9999999999978968</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="25"/>
       <c r="E38">
         <f t="shared" si="1"/>
         <v>6.9999999999978968</v>
@@ -4320,7 +4425,7 @@
         <f t="shared" si="2"/>
         <v>9.9999999999983658</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="25"/>
       <c r="E39">
         <f t="shared" si="1"/>
         <v>9.9999999999983658</v>
@@ -4338,7 +4443,7 @@
         <f t="shared" si="2"/>
         <v>1.0000000000065512</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="25"/>
       <c r="E40">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4356,7 +4461,7 @@
         <f t="shared" si="2"/>
         <v>1.0000000000065512</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="25"/>
       <c r="E41">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4374,7 +4479,7 @@
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D42" s="26"/>
+      <c r="D42" s="25"/>
       <c r="E42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4392,7 +4497,7 @@
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D43" s="26"/>
+      <c r="D43" s="25"/>
       <c r="E43">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4410,7 +4515,7 @@
         <f t="shared" si="2"/>
         <v>5.000000000003979</v>
       </c>
-      <c r="D44" s="26"/>
+      <c r="D44" s="25"/>
       <c r="E44">
         <f t="shared" si="1"/>
         <v>5.000000000003979</v>
@@ -4428,7 +4533,7 @@
         <f t="shared" si="2"/>
         <v>3.000000000000469</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="25"/>
       <c r="E45">
         <f t="shared" si="1"/>
         <v>3.000000000000469</v>
@@ -4446,7 +4551,7 @@
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="25"/>
       <c r="E46">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4464,7 +4569,7 @@
         <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="25"/>
       <c r="E47">
         <v>0</v>
       </c>
@@ -4481,7 +4586,7 @@
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D48" s="26"/>
+      <c r="D48" s="25"/>
       <c r="E48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4499,7 +4604,7 @@
         <f t="shared" si="2"/>
         <v>1.0000000000065512</v>
       </c>
-      <c r="D49" s="26"/>
+      <c r="D49" s="25"/>
       <c r="E49">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4517,7 +4622,7 @@
         <f t="shared" si="2"/>
         <v>2.9999999999908766</v>
       </c>
-      <c r="D50" s="26"/>
+      <c r="D50" s="25"/>
       <c r="E50">
         <f t="shared" si="1"/>
         <v>2.9999999999908766</v>
@@ -4535,7 +4640,7 @@
         <f t="shared" si="2"/>
         <v>1.0000000000065512</v>
       </c>
-      <c r="D51" s="26"/>
+      <c r="D51" s="25"/>
       <c r="E51">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4553,7 +4658,7 @@
         <f t="shared" si="2"/>
         <v>2.0000000000035101</v>
       </c>
-      <c r="D52" s="26"/>
+      <c r="D52" s="25"/>
       <c r="E52">
         <v>0</v>
       </c>
@@ -4570,7 +4675,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D53" s="26"/>
+      <c r="D53" s="25"/>
       <c r="E53">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4588,7 +4693,7 @@
         <f t="shared" si="2"/>
         <v>5.000000000003979</v>
       </c>
-      <c r="D54" s="26"/>
+      <c r="D54" s="25"/>
       <c r="E54">
         <f t="shared" si="1"/>
         <v>5.000000000003979</v>
@@ -4606,7 +4711,7 @@
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D55" s="26"/>
+      <c r="D55" s="25"/>
       <c r="E55">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4624,7 +4729,7 @@
         <f t="shared" si="2"/>
         <v>3.9999999999878355</v>
       </c>
-      <c r="D56" s="26"/>
+      <c r="D56" s="25"/>
       <c r="E56">
         <f t="shared" si="1"/>
         <v>3.9999999999878355</v>
@@ -4642,7 +4747,7 @@
         <f t="shared" si="2"/>
         <v>4.0000000000070202</v>
       </c>
-      <c r="D57" s="26"/>
+      <c r="D57" s="25"/>
       <c r="E57">
         <f t="shared" si="1"/>
         <v>4.0000000000070202</v>
@@ -4660,7 +4765,7 @@
         <f t="shared" si="2"/>
         <v>3.000000000000469</v>
       </c>
-      <c r="D58" s="26"/>
+      <c r="D58" s="25"/>
       <c r="E58">
         <f t="shared" si="1"/>
         <v>3.000000000000469</v>
@@ -4678,7 +4783,7 @@
         <f t="shared" si="2"/>
         <v>1.9999999999939178</v>
       </c>
-      <c r="D59" s="26"/>
+      <c r="D59" s="25"/>
       <c r="E59">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4696,7 +4801,7 @@
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D60" s="26"/>
+      <c r="D60" s="25"/>
       <c r="E60">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4714,7 +4819,7 @@
         <f t="shared" si="2"/>
         <v>4.9999999999943867</v>
       </c>
-      <c r="D61" s="26"/>
+      <c r="D61" s="25"/>
       <c r="E61">
         <f t="shared" si="1"/>
         <v>4.9999999999943867</v>
@@ -4732,7 +4837,7 @@
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D62" s="26"/>
+      <c r="D62" s="25"/>
       <c r="E62">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4750,7 +4855,7 @@
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D63" s="26"/>
+      <c r="D63" s="25"/>
       <c r="E63">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4768,7 +4873,7 @@
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D64" s="26"/>
+      <c r="D64" s="25"/>
       <c r="E64">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4786,7 +4891,7 @@
         <f t="shared" si="2"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D65" s="26"/>
+      <c r="D65" s="25"/>
       <c r="E65">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4804,7 +4909,7 @@
         <f t="shared" ref="C66:C97" si="3">B66*86400</f>
         <v>50.000000000001421</v>
       </c>
-      <c r="D66" s="26"/>
+      <c r="D66" s="25"/>
       <c r="E66">
         <f t="shared" si="1"/>
         <v>50.000000000001421</v>
@@ -4822,7 +4927,7 @@
         <f t="shared" si="3"/>
         <v>4.0000000000070202</v>
       </c>
-      <c r="D67" s="26"/>
+      <c r="D67" s="25"/>
       <c r="E67">
         <f t="shared" si="1"/>
         <v>4.0000000000070202</v>
@@ -4840,7 +4945,7 @@
         <f t="shared" si="3"/>
         <v>9.0000000000014069</v>
       </c>
-      <c r="D68" s="26"/>
+      <c r="D68" s="25"/>
       <c r="E68">
         <f t="shared" ref="E68:E100" si="4">IF(C68&gt;2,C68,0)</f>
         <v>9.0000000000014069</v>
@@ -4858,7 +4963,7 @@
         <f t="shared" si="3"/>
         <v>63.000000000000256</v>
       </c>
-      <c r="D69" s="26"/>
+      <c r="D69" s="25"/>
       <c r="E69">
         <f t="shared" si="4"/>
         <v>63.000000000000256</v>
@@ -4876,7 +4981,7 @@
         <f t="shared" si="3"/>
         <v>2.0000000000035101</v>
       </c>
-      <c r="D70" s="26"/>
+      <c r="D70" s="25"/>
       <c r="E70">
         <v>0</v>
       </c>
@@ -4893,7 +4998,7 @@
         <f t="shared" si="3"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D71" s="26"/>
+      <c r="D71" s="25"/>
       <c r="E71">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4911,7 +5016,7 @@
         <f t="shared" si="3"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D72" s="26"/>
+      <c r="D72" s="25"/>
       <c r="E72">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4929,7 +5034,7 @@
         <f t="shared" si="3"/>
         <v>3.9999999999974278</v>
       </c>
-      <c r="D73" s="26"/>
+      <c r="D73" s="25"/>
       <c r="E73">
         <f t="shared" si="4"/>
         <v>3.9999999999974278</v>
@@ -4947,7 +5052,7 @@
         <f t="shared" si="3"/>
         <v>8.000000000004448</v>
       </c>
-      <c r="D74" s="26"/>
+      <c r="D74" s="25"/>
       <c r="E74">
         <f t="shared" si="4"/>
         <v>8.000000000004448</v>
@@ -4965,7 +5070,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D75" s="26"/>
+      <c r="D75" s="25"/>
       <c r="E75">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4983,7 +5088,7 @@
         <f t="shared" si="3"/>
         <v>2.0000000000035101</v>
       </c>
-      <c r="D76" s="26"/>
+      <c r="D76" s="25"/>
       <c r="E76">
         <v>0</v>
       </c>
@@ -5000,7 +5105,7 @@
         <f t="shared" si="3"/>
         <v>19.999999999996732</v>
       </c>
-      <c r="D77" s="26"/>
+      <c r="D77" s="25"/>
       <c r="E77">
         <f t="shared" si="4"/>
         <v>19.999999999996732</v>
@@ -5018,7 +5123,7 @@
         <f t="shared" si="3"/>
         <v>11.999999999992284</v>
       </c>
-      <c r="D78" s="26"/>
+      <c r="D78" s="25"/>
       <c r="E78">
         <f t="shared" si="4"/>
         <v>11.999999999992284</v>
@@ -5036,7 +5141,7 @@
         <f t="shared" si="3"/>
         <v>2.0000000000035101</v>
       </c>
-      <c r="D79" s="26"/>
+      <c r="D79" s="25"/>
       <c r="E79">
         <v>0</v>
       </c>
@@ -5053,7 +5158,7 @@
         <f t="shared" si="3"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D80" s="26"/>
+      <c r="D80" s="25"/>
       <c r="E80">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5071,7 +5176,7 @@
         <f t="shared" si="3"/>
         <v>3.000000000000469</v>
       </c>
-      <c r="D81" s="26"/>
+      <c r="D81" s="25"/>
       <c r="E81">
         <f t="shared" si="4"/>
         <v>3.000000000000469</v>
@@ -5089,7 +5194,7 @@
         <f t="shared" si="3"/>
         <v>3.9999999999974278</v>
       </c>
-      <c r="D82" s="26"/>
+      <c r="D82" s="25"/>
       <c r="E82">
         <f t="shared" si="4"/>
         <v>3.9999999999974278</v>
@@ -5107,7 +5212,7 @@
         <f t="shared" si="3"/>
         <v>3.9999999999974278</v>
       </c>
-      <c r="D83" s="26"/>
+      <c r="D83" s="25"/>
       <c r="E83">
         <f t="shared" si="4"/>
         <v>3.9999999999974278</v>
@@ -5125,7 +5230,7 @@
         <f t="shared" si="3"/>
         <v>15.000000000002345</v>
       </c>
-      <c r="D84" s="26"/>
+      <c r="D84" s="25"/>
       <c r="E84">
         <f t="shared" si="4"/>
         <v>15.000000000002345</v>
@@ -5143,7 +5248,7 @@
         <f t="shared" si="3"/>
         <v>9.0000000000014069</v>
       </c>
-      <c r="D85" s="26"/>
+      <c r="D85" s="25"/>
       <c r="E85">
         <f t="shared" si="4"/>
         <v>9.0000000000014069</v>
@@ -5161,7 +5266,7 @@
         <f t="shared" si="3"/>
         <v>2.0000000000035101</v>
       </c>
-      <c r="D86" s="26"/>
+      <c r="D86" s="25"/>
       <c r="E86">
         <v>0</v>
       </c>
@@ -5178,7 +5283,7 @@
         <f t="shared" si="3"/>
         <v>27.999999999991587</v>
       </c>
-      <c r="D87" s="26"/>
+      <c r="D87" s="25"/>
       <c r="E87">
         <f t="shared" si="4"/>
         <v>27.999999999991587</v>
@@ -5196,7 +5301,7 @@
         <f t="shared" si="3"/>
         <v>3.000000000000469</v>
       </c>
-      <c r="D88" s="26"/>
+      <c r="D88" s="25"/>
       <c r="E88">
         <f t="shared" si="4"/>
         <v>3.000000000000469</v>
@@ -5214,7 +5319,7 @@
         <f t="shared" si="3"/>
         <v>2.0000000000035101</v>
       </c>
-      <c r="D89" s="26"/>
+      <c r="D89" s="25"/>
       <c r="E89">
         <v>0</v>
       </c>
@@ -5231,7 +5336,7 @@
         <f t="shared" si="3"/>
         <v>2.0000000000035101</v>
       </c>
-      <c r="D90" s="26"/>
+      <c r="D90" s="25"/>
       <c r="E90">
         <v>0</v>
       </c>
@@ -5248,7 +5353,7 @@
         <f t="shared" si="3"/>
         <v>2.0000000000035101</v>
       </c>
-      <c r="D91" s="26"/>
+      <c r="D91" s="25"/>
       <c r="E91">
         <v>0</v>
       </c>
@@ -5265,7 +5370,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D92" s="26"/>
+      <c r="D92" s="25"/>
       <c r="E92">
         <v>0</v>
       </c>
@@ -5282,7 +5387,7 @@
         <f t="shared" si="3"/>
         <v>2.9999999999908766</v>
       </c>
-      <c r="D93" s="26"/>
+      <c r="D93" s="25"/>
       <c r="E93">
         <f t="shared" si="4"/>
         <v>2.9999999999908766</v>
@@ -5300,7 +5405,7 @@
         <f t="shared" si="3"/>
         <v>0.99999999999695888</v>
       </c>
-      <c r="D94" s="26"/>
+      <c r="D94" s="25"/>
       <c r="E94">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5318,7 +5423,7 @@
         <f t="shared" si="3"/>
         <v>1.0000000000065512</v>
       </c>
-      <c r="D95" s="26"/>
+      <c r="D95" s="25"/>
       <c r="E95">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5336,7 +5441,7 @@
         <f t="shared" si="3"/>
         <v>1.0000000000065512</v>
       </c>
-      <c r="D96" s="26"/>
+      <c r="D96" s="25"/>
       <c r="E96">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5354,7 +5459,7 @@
         <f t="shared" si="3"/>
         <v>15.999999999999304</v>
       </c>
-      <c r="D97" s="26"/>
+      <c r="D97" s="25"/>
       <c r="E97">
         <f t="shared" si="4"/>
         <v>15.999999999999304</v>
@@ -5372,7 +5477,7 @@
         <f t="shared" ref="C98:C100" si="5">B98*86400</f>
         <v>0</v>
       </c>
-      <c r="D98" s="26"/>
+      <c r="D98" s="25"/>
       <c r="E98">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5390,7 +5495,7 @@
         <f t="shared" si="5"/>
         <v>4.0000000000070202</v>
       </c>
-      <c r="D99" s="26"/>
+      <c r="D99" s="25"/>
       <c r="E99">
         <f t="shared" si="4"/>
         <v>4.0000000000070202</v>
@@ -5408,7 +5513,7 @@
         <f t="shared" si="5"/>
         <v>6.0000000000009379</v>
       </c>
-      <c r="D100" s="26"/>
+      <c r="D100" s="25"/>
       <c r="E100">
         <f t="shared" si="4"/>
         <v>6.0000000000009379</v>
@@ -5420,7 +5525,7 @@
       </c>
       <c r="B101" s="14"/>
       <c r="C101" s="17"/>
-      <c r="D101" s="26"/>
+      <c r="D101" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5431,8 +5536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5462,13 +5567,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="39">
         <v>0.63468749999999996</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <f>B4-B3</f>
         <v>2.1990740740740478E-4</v>
       </c>
@@ -5478,13 +5583,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="40">
         <v>2</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="39">
         <v>0.63490740740740736</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <f t="shared" ref="C4:C40" si="0">B5-B4</f>
         <v>1.1226851851852127E-3</v>
       </c>
@@ -5494,13 +5599,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="40">
         <v>3</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>0.63603009259259258</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <f t="shared" si="0"/>
         <v>6.94444444444553E-5</v>
       </c>
@@ -5510,13 +5615,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="40">
         <v>4</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>0.63609953703703703</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <f t="shared" si="0"/>
         <v>2.083333333333659E-4</v>
       </c>
@@ -5526,13 +5631,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="40">
         <v>5</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <v>0.6363078703703704</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <f t="shared" si="0"/>
         <v>3.7037037037035425E-4</v>
       </c>
@@ -5542,13 +5647,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="40">
         <v>6</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>0.63667824074074075</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <f t="shared" si="0"/>
         <v>1.1111111111110628E-3</v>
       </c>
@@ -5558,13 +5663,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="40">
         <v>7</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>0.63778935185185182</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5574,13 +5679,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="40">
         <v>8</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="39">
         <v>0.6378125</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <f t="shared" si="0"/>
         <v>1.2731481481487172E-4</v>
       </c>
@@ -5590,13 +5695,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
+      <c r="A11" s="40">
         <v>9</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="39">
         <v>0.63793981481481488</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <f t="shared" si="0"/>
         <v>1.5046296296294948E-4</v>
       </c>
@@ -5606,13 +5711,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="40">
         <v>10</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="39">
         <v>0.63809027777777783</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <f t="shared" si="0"/>
         <v>8.1018518518494176E-5</v>
       </c>
@@ -5622,13 +5727,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
+      <c r="A13" s="40">
         <v>11</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="39">
         <v>0.63817129629629632</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <f t="shared" si="0"/>
         <v>1.1574074074038876E-5</v>
       </c>
@@ -5638,13 +5743,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+      <c r="A14" s="40">
         <v>12</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="39">
         <v>0.63818287037037036</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <f t="shared" si="0"/>
         <v>1.5046296296294948E-4</v>
       </c>
@@ -5654,13 +5759,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="40">
         <v>13</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="39">
         <v>0.63833333333333331</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5670,13 +5775,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="40">
         <v>14</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="39">
         <v>0.6383564814814815</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5686,13 +5791,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
+      <c r="A17" s="40">
         <v>15</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="39">
         <v>0.63837962962962969</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="41">
         <f t="shared" si="0"/>
         <v>1.96759259259216E-4</v>
       </c>
@@ -5702,13 +5807,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
+      <c r="A18" s="40">
         <v>16</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="39">
         <v>0.6385763888888889</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <f t="shared" si="0"/>
         <v>5.7870370370305402E-5</v>
       </c>
@@ -5718,13 +5823,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
+      <c r="A19" s="40">
         <v>17</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="39">
         <v>0.63863425925925921</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="41">
         <f t="shared" si="0"/>
         <v>4.3981481481480955E-4</v>
       </c>
@@ -5734,13 +5839,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+      <c r="A20" s="40">
         <v>18</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="39">
         <v>0.63907407407407402</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <f t="shared" si="0"/>
         <v>2.5462962962974345E-4</v>
       </c>
@@ -5750,13 +5855,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="40">
         <v>19</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="39">
         <v>0.63932870370370376</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="41">
         <f t="shared" si="0"/>
         <v>1.1574074074038876E-5</v>
       </c>
@@ -5766,13 +5871,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="40">
         <v>20</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="39">
         <v>0.6393402777777778</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="41">
         <f t="shared" si="0"/>
         <v>2.777777777778212E-4</v>
       </c>
@@ -5782,13 +5887,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="41">
+      <c r="A23" s="40">
         <v>21</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="39">
         <v>0.63961805555555562</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="41">
         <f t="shared" si="0"/>
         <v>4.9768518518511495E-4</v>
       </c>
@@ -5798,13 +5903,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="41">
+      <c r="A24" s="40">
         <v>22</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="39">
         <v>0.64011574074074074</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="41">
         <f t="shared" si="0"/>
         <v>6.3657407407402555E-4</v>
       </c>
@@ -5814,13 +5919,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="41">
+      <c r="A25" s="40">
         <v>23</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="39">
         <v>0.64075231481481476</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="41">
         <f t="shared" si="0"/>
         <v>4.9768518518522598E-4</v>
       </c>
@@ -5830,13 +5935,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
+      <c r="A26" s="40">
         <v>24</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="39">
         <v>0.64124999999999999</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="41">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-4</v>
       </c>
@@ -5846,13 +5951,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="41">
+      <c r="A27" s="40">
         <v>25</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="39">
         <v>0.64150462962962962</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="41">
         <f t="shared" si="0"/>
         <v>2.1990740740740478E-4</v>
       </c>
@@ -5862,13 +5967,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="41">
+      <c r="A28" s="40">
         <v>26</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="39">
         <v>0.64172453703703702</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="41">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5878,13 +5983,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="41">
+      <c r="A29" s="40">
         <v>27</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="39">
         <v>0.64174768518518521</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="41">
         <f t="shared" si="0"/>
         <v>1.273148148147607E-4</v>
       </c>
@@ -5894,13 +5999,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="41">
+      <c r="A30" s="40">
         <v>28</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="39">
         <v>0.64187499999999997</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5910,13 +6015,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="41">
+      <c r="A31" s="40">
         <v>29</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="39">
         <v>0.64189814814814816</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="41">
         <f t="shared" si="0"/>
         <v>3.472222222222765E-4</v>
       </c>
@@ -5926,13 +6031,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="41">
+      <c r="A32" s="40">
         <v>30</v>
       </c>
-      <c r="B32" s="40">
+      <c r="B32" s="39">
         <v>0.64224537037037044</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="41">
         <f t="shared" si="0"/>
         <v>2.0833333333325488E-4</v>
       </c>
@@ -5942,13 +6047,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="41">
+      <c r="A33" s="40">
         <v>31</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B33" s="39">
         <v>0.64245370370370369</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="41">
         <f t="shared" si="0"/>
         <v>1.1342592592592515E-3</v>
       </c>
@@ -5958,13 +6063,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="41">
+      <c r="A34" s="40">
         <v>32</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="39">
         <v>0.64358796296296295</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="41">
         <f t="shared" si="0"/>
         <v>4.6296296296299833E-4</v>
       </c>
@@ -5974,13 +6079,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="41">
+      <c r="A35" s="40">
         <v>33</v>
       </c>
-      <c r="B35" s="40">
+      <c r="B35" s="39">
         <v>0.64405092592592594</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="41">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -5990,13 +6095,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="41">
+      <c r="A36" s="40">
         <v>34</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="39">
         <v>0.64407407407407413</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="41">
         <f t="shared" si="0"/>
         <v>2.3148148148077752E-5</v>
       </c>
@@ -6006,13 +6111,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="41">
+      <c r="A37" s="40">
         <v>35</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B37" s="39">
         <v>0.64409722222222221</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="41">
         <f t="shared" si="0"/>
         <v>8.1018518518494176E-5</v>
       </c>
@@ -6022,13 +6127,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="41">
+      <c r="A38" s="40">
         <v>36</v>
       </c>
-      <c r="B38" s="40">
+      <c r="B38" s="39">
         <v>0.6441782407407407</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="41">
         <f t="shared" si="0"/>
         <v>3.472222222222765E-5</v>
       </c>
@@ -6038,13 +6143,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="41">
+      <c r="A39" s="40">
         <v>37</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="39">
         <v>0.64421296296296293</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="41">
         <f t="shared" si="0"/>
         <v>6.94444444444553E-5</v>
       </c>
@@ -6054,13 +6159,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="41">
+      <c r="A40" s="40">
         <v>38</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="39">
         <v>0.64428240740740739</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="41">
         <f t="shared" si="0"/>
         <v>2.3148148148188774E-5</v>
       </c>
@@ -6070,386 +6175,386 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="41">
+      <c r="A41" s="40">
         <v>39</v>
       </c>
-      <c r="B41" s="40">
+      <c r="B41" s="39">
         <v>0.64430555555555558</v>
       </c>
-      <c r="C41" s="42"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6474,11 +6579,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -6487,517 +6592,517 @@
       <c r="B2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>2</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>3</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="44" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>4</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>1</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <f>COUNTIF(B3:B57,1)</f>
         <v>37</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <f>E6*100/E3</f>
         <v>67.272727272727266</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>5</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>1</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>2</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <f>COUNTIF(B3:B57,2)</f>
         <v>13</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <f>E7*100/E3</f>
         <v>23.636363636363637</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>6</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>1</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>3</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <f>COUNTIF(B3:B57,3)</f>
         <v>5</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <f>E8*100/E3</f>
         <v>9.0909090909090917</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>7</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>2</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <f>SUM(F6:F8)</f>
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>8</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>9</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>10</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>11</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>12</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>13</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>14</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>15</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <v>16</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <v>17</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <v>18</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <v>19</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <v>20</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="A23" s="31">
         <v>21</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="A24" s="31">
         <v>22</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <v>23</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="A26" s="31">
         <v>24</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
+      <c r="A27" s="31">
         <v>25</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+      <c r="A28" s="31">
         <v>26</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="A29" s="31">
         <v>27</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="31">
         <v>28</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="31">
         <v>29</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="A32" s="31">
         <v>30</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="31">
         <v>31</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="31">
         <v>32</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="A35" s="31">
         <v>33</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="31">
         <v>34</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="31">
         <v>35</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="31">
         <v>36</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
+      <c r="A39" s="31">
         <v>37</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="32">
+      <c r="A40" s="31">
         <v>38</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="31">
         <v>39</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
+      <c r="A42" s="31">
         <v>40</v>
       </c>
-      <c r="B42" s="33">
+      <c r="B42" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+      <c r="A43" s="31">
         <v>41</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="32">
+      <c r="A44" s="31">
         <v>42</v>
       </c>
-      <c r="B44" s="33">
+      <c r="B44" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="32">
+      <c r="A45" s="31">
         <v>43</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="32">
+      <c r="A46" s="31">
         <v>44</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B46" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="32">
+      <c r="A47" s="31">
         <v>45</v>
       </c>
-      <c r="B47" s="33">
+      <c r="B47" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="32">
+      <c r="A48" s="31">
         <v>46</v>
       </c>
-      <c r="B48" s="33">
+      <c r="B48" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="32">
+      <c r="A49" s="31">
         <v>47</v>
       </c>
-      <c r="B49" s="33">
+      <c r="B49" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="32">
+      <c r="A50" s="31">
         <v>48</v>
       </c>
-      <c r="B50" s="33">
+      <c r="B50" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="32">
+      <c r="A51" s="31">
         <v>49</v>
       </c>
-      <c r="B51" s="33">
+      <c r="B51" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="32">
+      <c r="A52" s="31">
         <v>50</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="32">
+      <c r="A53" s="31">
         <v>51</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="32">
+      <c r="A54" s="31">
         <v>52</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="32">
+      <c r="A55" s="31">
         <v>53</v>
       </c>
-      <c r="B55" s="33">
+      <c r="B55" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="32">
+      <c r="A56" s="31">
         <v>54</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B56" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="32">
+      <c r="A57" s="31">
         <v>55</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
+      <c r="A58" s="29"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
+      <c r="A59" s="29"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
+      <c r="A60" s="29"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
+      <c r="A61" s="29"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
+      <c r="A62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7009,10 +7114,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7020,12 +7125,12 @@
     <col min="2" max="3" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -7042,287 +7147,289 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="38">
         <v>0</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>4.5949074074074078E-3</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="55">
         <f>C3-B3</f>
         <v>4.5949074074074078E-3</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="54">
         <f>D3*86400</f>
         <v>397.00000000000006</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="61">
+        <f>MAX(E3:E31)</f>
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38">
+        <v>2.8935185185185189E-4</v>
+      </c>
+      <c r="C4" s="38">
+        <v>4.2013888888888891E-3</v>
+      </c>
+      <c r="D4" s="55">
+        <f t="shared" ref="D4:D31" si="0">C4-B4</f>
+        <v>3.9120370370370368E-3</v>
+      </c>
+      <c r="E4" s="54">
+        <f t="shared" ref="E4:E31" si="1">D4*86400</f>
+        <v>338</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="61">
+        <f>MIN(E3:E31)</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38">
+        <v>1.0763888888888889E-3</v>
+      </c>
+      <c r="C5" s="38">
+        <v>1.238425925925926E-2</v>
+      </c>
+      <c r="D5" s="55">
+        <f t="shared" si="0"/>
+        <v>1.1307870370370371E-2</v>
+      </c>
+      <c r="E5" s="54">
+        <f t="shared" si="1"/>
+        <v>977</v>
+      </c>
+      <c r="G5" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="56">
+      <c r="H5" s="61">
         <f>AVERAGE(E3:E31)</f>
         <v>513.44827586206895</v>
       </c>
-      <c r="K3">
-        <f>513-156-45</f>
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="39">
-        <v>2.8935185185185189E-4</v>
-      </c>
-      <c r="C4" s="39">
-        <v>4.2013888888888891E-3</v>
-      </c>
-      <c r="D4" s="58">
-        <f t="shared" ref="D4:D31" si="0">C4-B4</f>
-        <v>3.9120370370370368E-3</v>
-      </c>
-      <c r="E4" s="57">
-        <f t="shared" ref="E4:E31" si="1">D4*86400</f>
-        <v>338</v>
-      </c>
-      <c r="I4" s="56">
-        <f>MAX(E3:E31)</f>
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="39">
-        <v>1.0763888888888889E-3</v>
-      </c>
-      <c r="C5" s="39">
-        <v>1.238425925925926E-2</v>
-      </c>
-      <c r="D5" s="58">
-        <f t="shared" si="0"/>
-        <v>1.1307870370370371E-2</v>
-      </c>
-      <c r="E5" s="57">
-        <f t="shared" si="1"/>
-        <v>977</v>
-      </c>
-      <c r="I5" s="56">
-        <f>MIN(E3:E31)</f>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="38">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <v>7.9861111111111122E-3</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="55">
         <f t="shared" si="0"/>
         <v>6.3657407407407421E-3</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="54">
         <f t="shared" si="1"/>
         <v>550.00000000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <v>2.5925925925925925E-3</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="38">
         <v>8.4027777777777781E-3</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="55">
         <f t="shared" si="0"/>
         <v>5.8101851851851856E-3</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="54">
         <f t="shared" si="1"/>
         <v>502.00000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="38">
         <v>6.7129629629629622E-3</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="38">
         <v>9.4212962962962957E-3</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="55">
         <f t="shared" si="0"/>
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="54">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <v>8.0671296296296307E-3</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="38">
         <v>1.2962962962962963E-2</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="55">
         <f t="shared" si="0"/>
         <v>4.8958333333333319E-3</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="54">
         <f t="shared" si="1"/>
         <v>422.99999999999989</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="38">
         <v>1.0393518518518519E-2</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="38">
         <v>1.8483796296296297E-2</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="55">
         <f t="shared" si="0"/>
         <v>8.0902777777777778E-3</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="54">
         <f t="shared" si="1"/>
         <v>699</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="38">
         <v>1.4120370370370368E-2</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="38">
         <v>2.0034722222222221E-2</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="55">
         <f t="shared" si="0"/>
         <v>5.9143518518518529E-3</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <f t="shared" si="1"/>
         <v>511.00000000000011</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="38">
         <v>1.486111111111111E-2</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="38">
         <v>1.9247685185185184E-2</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="55">
         <f t="shared" si="0"/>
         <v>4.386574074074074E-3</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="54">
         <f t="shared" si="1"/>
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="38">
         <v>1.6342592592592593E-2</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="38">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="55">
         <f t="shared" si="0"/>
         <v>3.1018518518518522E-3</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="54">
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="38">
         <v>1.8194444444444444E-2</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="38">
         <v>2.298611111111111E-2</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="55">
         <f t="shared" si="0"/>
         <v>4.7916666666666663E-3</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="54">
         <f t="shared" si="1"/>
         <v>413.99999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="38">
         <v>2.0983796296296296E-2</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="38">
         <v>2.6469907407407411E-2</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="55">
         <f t="shared" si="0"/>
         <v>5.4861111111111152E-3</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="54">
         <f t="shared" si="1"/>
         <v>474.00000000000034</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="38">
         <v>0</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="38">
         <v>3.3680555555555551E-3</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="55">
         <f t="shared" si="0"/>
         <v>3.3680555555555551E-3</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="54">
         <f t="shared" si="1"/>
         <v>290.99999999999994</v>
       </c>
@@ -7331,17 +7438,17 @@
       <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="38">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="38">
         <v>3.37962962962963E-3</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="55">
         <f t="shared" si="0"/>
         <v>3.368055555555556E-3</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="54">
         <f t="shared" si="1"/>
         <v>291.00000000000006</v>
       </c>
@@ -7350,17 +7457,17 @@
       <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="38">
         <v>1.7361111111111112E-4</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="38">
         <v>7.9976851851851858E-3</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="55">
         <f t="shared" si="0"/>
         <v>7.8240740740740753E-3</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="54">
         <f t="shared" si="1"/>
         <v>676.00000000000011</v>
       </c>
@@ -7369,17 +7476,17 @@
       <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="38">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="38">
         <v>6.4814814814814813E-3</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="55">
         <f t="shared" si="0"/>
         <v>6.1342592592592594E-3</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="54">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
@@ -7388,17 +7495,17 @@
       <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="38">
         <v>3.5879629629629635E-4</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="38">
         <v>8.7962962962962968E-3</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="55">
         <f t="shared" si="0"/>
         <v>8.4375000000000006E-3</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="54">
         <f t="shared" si="1"/>
         <v>729</v>
       </c>
@@ -7407,17 +7514,17 @@
       <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="38">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="38">
         <v>7.0023148148148154E-3</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="55">
         <f t="shared" si="0"/>
         <v>6.5625000000000006E-3</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="54">
         <f t="shared" si="1"/>
         <v>567</v>
       </c>
@@ -7426,17 +7533,17 @@
       <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="38">
         <v>8.564814814814815E-4</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="38">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="55">
         <f t="shared" si="0"/>
         <v>5.1967592592592595E-3</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="54">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
@@ -7445,17 +7552,17 @@
       <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="38">
         <v>1.7245370370370372E-3</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="38">
         <v>5.3240740740740748E-3</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="55">
         <f t="shared" si="0"/>
         <v>3.5995370370370374E-3</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="54">
         <f t="shared" si="1"/>
         <v>311.00000000000006</v>
       </c>
@@ -7464,17 +7571,17 @@
       <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="39">
         <v>0</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="39">
         <v>4.9768518518518521E-3</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="55">
         <f t="shared" si="0"/>
         <v>4.9768518518518521E-3</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="54">
         <f t="shared" si="1"/>
         <v>430</v>
       </c>
@@ -7483,17 +7590,17 @@
       <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="39">
         <v>4.0509259259259258E-4</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="39">
         <v>8.5416666666666679E-3</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="55">
         <f t="shared" si="0"/>
         <v>8.1365740740740756E-3</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="54">
         <f t="shared" si="1"/>
         <v>703.00000000000011</v>
       </c>
@@ -7502,17 +7609,17 @@
       <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="39">
         <v>8.3333333333333339E-4</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="39">
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="55">
         <f t="shared" si="0"/>
         <v>3.5069444444444445E-3</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="54">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
@@ -7521,17 +7628,17 @@
       <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="39">
         <v>1.0763888888888889E-3</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="39">
         <v>7.1296296296296307E-3</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="55">
         <f t="shared" si="0"/>
         <v>6.0532407407407418E-3</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="54">
         <f t="shared" si="1"/>
         <v>523.00000000000011</v>
       </c>
@@ -7540,17 +7647,17 @@
       <c r="A28" s="10">
         <v>26</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="39">
         <v>1.2152777777777778E-3</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="39">
         <v>1.6284722222222221E-2</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="55">
         <f t="shared" si="0"/>
         <v>1.5069444444444444E-2</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="54">
         <f t="shared" si="1"/>
         <v>1302</v>
       </c>
@@ -7559,17 +7666,17 @@
       <c r="A29" s="10">
         <v>27</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="39">
         <v>1.8402777777777777E-3</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="39">
         <v>1.1909722222222223E-2</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="55">
         <f t="shared" si="0"/>
         <v>1.0069444444444445E-2</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="54">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
@@ -7578,17 +7685,17 @@
       <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="39">
         <v>2.4074074074074076E-3</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="39">
         <v>8.0208333333333329E-3</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="55">
         <f t="shared" si="0"/>
         <v>5.6134259259259254E-3</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="54">
         <f t="shared" si="1"/>
         <v>484.99999999999994</v>
       </c>
@@ -7597,17 +7704,17 @@
       <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="39">
         <v>2.627314814814815E-3</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="39">
         <v>5.6828703703703702E-3</v>
       </c>
-      <c r="D31" s="58">
+      <c r="D31" s="55">
         <f t="shared" si="0"/>
         <v>3.0555555555555553E-3</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="54">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
@@ -7618,576 +7725,576 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="38"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="38"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="38"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="38"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8225,7 +8332,7 @@
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="11"/>
@@ -8236,18 +8343,18 @@
       <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>0.66517361111111117</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>7</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="52">
         <f>COUNT(C4:C61)</f>
         <v>58</v>
       </c>
@@ -8256,18 +8363,18 @@
       <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>0.66606481481481483</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>5</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="52">
         <f>AVERAGE(C4:C61)</f>
         <v>4.1724137931034484</v>
       </c>
@@ -8276,10 +8383,10 @@
       <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>0.6665740740740741</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>4</v>
       </c>
       <c r="D6" s="11"/>
@@ -8290,10 +8397,10 @@
       <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>0.66728009259259258</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>5</v>
       </c>
       <c r="D7" s="11"/>
@@ -8304,10 +8411,10 @@
       <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>0.66734953703703714</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>4</v>
       </c>
       <c r="D8" s="11"/>
@@ -8318,10 +8425,10 @@
       <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>0.66766203703703697</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>3</v>
       </c>
       <c r="D9" s="11"/>
@@ -8332,10 +8439,10 @@
       <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>0.66843750000000002</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>2</v>
       </c>
       <c r="D10" s="11"/>
@@ -8346,10 +8453,10 @@
       <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>0.66870370370370369</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>3</v>
       </c>
       <c r="D11" s="11"/>
@@ -8360,10 +8467,10 @@
       <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>0.66890046296296291</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>2</v>
       </c>
       <c r="D12" s="11"/>
@@ -8374,10 +8481,10 @@
       <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>0.66900462962962959</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>3</v>
       </c>
       <c r="D13" s="11"/>
@@ -8388,10 +8495,10 @@
       <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <v>0.66905092592592597</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>4</v>
       </c>
       <c r="D14" s="11"/>
@@ -8402,10 +8509,10 @@
       <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>0.66918981481481488</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>3</v>
       </c>
       <c r="D15" s="11"/>
@@ -8416,10 +8523,10 @@
       <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>0.66956018518518512</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>2</v>
       </c>
       <c r="D16" s="11"/>
@@ -8430,10 +8537,10 @@
       <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>0.66982638888888879</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>3</v>
       </c>
       <c r="D17" s="11"/>
@@ -8444,10 +8551,10 @@
       <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>0.6699652777777777</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>4</v>
       </c>
       <c r="D18" s="11"/>
@@ -8458,10 +8565,10 @@
       <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>0.67052083333333334</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>3</v>
       </c>
       <c r="D19" s="11"/>
@@ -8472,10 +8579,10 @@
       <c r="A20" s="18">
         <v>17</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="35">
         <v>0.6705902777777778</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>4</v>
       </c>
       <c r="D20" s="11"/>
@@ -8486,10 +8593,10 @@
       <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="35">
         <v>0.67076388888888883</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>5</v>
       </c>
       <c r="D21" s="11"/>
@@ -8500,10 +8607,10 @@
       <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <v>0.67104166666666665</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>4</v>
       </c>
       <c r="D22" s="11"/>
@@ -8514,10 +8621,10 @@
       <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <v>0.67129629629629628</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <v>3</v>
       </c>
       <c r="D23" s="11"/>
@@ -8528,10 +8635,10 @@
       <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="35">
         <v>0.67153935185185187</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="36">
         <v>2</v>
       </c>
       <c r="D24" s="11"/>
@@ -8542,10 +8649,10 @@
       <c r="A25" s="18">
         <v>22</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="35">
         <v>0.67162037037037037</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="36">
         <v>3</v>
       </c>
       <c r="D25" s="11"/>
@@ -8556,10 +8663,10 @@
       <c r="A26" s="18">
         <v>23</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="35">
         <v>0.67177083333333332</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="36">
         <v>4</v>
       </c>
       <c r="D26" s="11"/>
@@ -8570,10 +8677,10 @@
       <c r="A27" s="18">
         <v>24</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="35">
         <v>0.67181712962962958</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="36">
         <v>5</v>
       </c>
       <c r="D27" s="11"/>
@@ -8584,10 +8691,10 @@
       <c r="A28" s="18">
         <v>25</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="35">
         <v>0.67225694444444439</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="36">
         <v>4</v>
       </c>
       <c r="D28" s="11"/>
@@ -8598,10 +8705,10 @@
       <c r="A29" s="18">
         <v>26</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="35">
         <v>0.67276620370370377</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="36">
         <v>3</v>
       </c>
       <c r="D29" s="11"/>
@@ -8612,10 +8719,10 @@
       <c r="A30" s="18">
         <v>27</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="35">
         <v>0.67305555555555552</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="36">
         <v>2</v>
       </c>
       <c r="D30" s="11"/>
@@ -8626,10 +8733,10 @@
       <c r="A31" s="18">
         <v>28</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="35">
         <v>0.67318287037037028</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="36">
         <v>3</v>
       </c>
       <c r="D31" s="11"/>
@@ -8640,10 +8747,10 @@
       <c r="A32" s="18">
         <v>29</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="35">
         <v>0.67320601851851858</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="36">
         <v>4</v>
       </c>
       <c r="D32" s="11"/>
@@ -8654,10 +8761,10 @@
       <c r="A33" s="18">
         <v>30</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="35">
         <v>0.67365740740740743</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="36">
         <v>3</v>
       </c>
       <c r="D33" s="11"/>
@@ -8668,10 +8775,10 @@
       <c r="A34" s="18">
         <v>31</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="35">
         <v>0.67401620370370363</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="36">
         <v>2</v>
       </c>
       <c r="D34" s="11"/>
@@ -8682,10 +8789,10 @@
       <c r="A35" s="18">
         <v>32</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="35">
         <v>0.67417824074074073</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="36">
         <v>1</v>
       </c>
       <c r="D35" s="11"/>
@@ -8696,10 +8803,10 @@
       <c r="A36" s="18">
         <v>33</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="35">
         <v>0.67436342592592602</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="36">
         <v>2</v>
       </c>
       <c r="D36" s="11"/>
@@ -8710,10 +8817,10 @@
       <c r="A37" s="18">
         <v>34</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="35">
         <v>0.67453703703703705</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="36">
         <v>3</v>
       </c>
       <c r="D37" s="11"/>
@@ -8724,10 +8831,10 @@
       <c r="A38" s="18">
         <v>35</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="35">
         <v>0.67466435185185192</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="36">
         <v>2</v>
       </c>
       <c r="D38" s="11"/>
@@ -8738,10 +8845,10 @@
       <c r="A39" s="18">
         <v>36</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="35">
         <v>0.67486111111111102</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="36">
         <v>3</v>
       </c>
       <c r="D39" s="11"/>
@@ -8752,10 +8859,10 @@
       <c r="A40" s="18">
         <v>37</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="35">
         <v>0.67502314814814823</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="36">
         <v>4</v>
       </c>
       <c r="D40" s="11"/>
@@ -8766,10 +8873,10 @@
       <c r="A41" s="18">
         <v>38</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="35">
         <v>0.6750694444444445</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="36">
         <v>5</v>
       </c>
       <c r="D41" s="11"/>
@@ -8780,10 +8887,10 @@
       <c r="A42" s="18">
         <v>39</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="35">
         <v>0.67521990740740734</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="36">
         <v>4</v>
       </c>
       <c r="D42" s="11"/>
@@ -8794,10 +8901,10 @@
       <c r="A43" s="18">
         <v>40</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="35">
         <v>0.6756712962962963</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="36">
         <v>3</v>
       </c>
       <c r="D43" s="11"/>
@@ -8808,10 +8915,10 @@
       <c r="A44" s="18">
         <v>41</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="35">
         <v>0.67571759259259256</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="36">
         <v>4</v>
       </c>
       <c r="D44" s="11"/>
@@ -8822,10 +8929,10 @@
       <c r="A45" s="18">
         <v>42</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="35">
         <v>0.67606481481481484</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="36">
         <v>5</v>
       </c>
       <c r="D45" s="11"/>
@@ -8836,10 +8943,10 @@
       <c r="A46" s="18">
         <v>43</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="35">
         <v>0.6761921296296296</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="36">
         <v>6</v>
       </c>
       <c r="D46" s="11"/>
@@ -8850,10 +8957,10 @@
       <c r="A47" s="18">
         <v>44</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="35">
         <v>0.67621527777777779</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="36">
         <v>5</v>
       </c>
       <c r="D47" s="11"/>
@@ -8864,10 +8971,10 @@
       <c r="A48" s="18">
         <v>45</v>
       </c>
-      <c r="B48" s="36">
+      <c r="B48" s="35">
         <v>0.67660879629629633</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="36">
         <v>6</v>
       </c>
       <c r="D48" s="11"/>
@@ -8878,10 +8985,10 @@
       <c r="A49" s="18">
         <v>46</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="35">
         <v>0.67672453703703705</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="36">
         <v>5</v>
       </c>
       <c r="D49" s="11"/>
@@ -8892,10 +8999,10 @@
       <c r="A50" s="18">
         <v>47</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="35">
         <v>0.67677083333333332</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="36">
         <v>6</v>
       </c>
       <c r="D50" s="11"/>
@@ -8906,10 +9013,10 @@
       <c r="A51" s="18">
         <v>48</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="35">
         <v>0.6769560185185185</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="36">
         <v>7</v>
       </c>
       <c r="D51" s="11"/>
@@ -8920,10 +9027,10 @@
       <c r="A52" s="18">
         <v>49</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="35">
         <v>0.67709490740740741</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="36">
         <v>8</v>
       </c>
       <c r="D52" s="11"/>
@@ -8934,10 +9041,10 @@
       <c r="A53" s="18">
         <v>50</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="35">
         <v>0.67711805555555549</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="36">
         <v>7</v>
       </c>
       <c r="D53" s="11"/>
@@ -8948,10 +9055,10 @@
       <c r="A54" s="18">
         <v>51</v>
       </c>
-      <c r="B54" s="36">
+      <c r="B54" s="35">
         <v>0.67743055555555554</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="36">
         <v>8</v>
       </c>
       <c r="D54" s="11"/>
@@ -8962,10 +9069,10 @@
       <c r="A55" s="18">
         <v>52</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55" s="35">
         <v>0.67782407407407408</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="36">
         <v>7</v>
       </c>
       <c r="D55" s="11"/>
@@ -8976,10 +9083,10 @@
       <c r="A56" s="18">
         <v>53</v>
       </c>
-      <c r="B56" s="36">
+      <c r="B56" s="35">
         <v>0.67842592592592599</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="36">
         <v>6</v>
       </c>
       <c r="D56" s="11"/>
@@ -8990,10 +9097,10 @@
       <c r="A57" s="18">
         <v>54</v>
       </c>
-      <c r="B57" s="36">
+      <c r="B57" s="35">
         <v>0.67881944444444453</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="36">
         <v>5</v>
       </c>
       <c r="D57" s="11"/>
@@ -9004,10 +9111,10 @@
       <c r="A58" s="18">
         <v>55</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="35">
         <v>0.67901620370370364</v>
       </c>
-      <c r="C58" s="37">
+      <c r="C58" s="36">
         <v>6</v>
       </c>
       <c r="D58" s="11"/>
@@ -9018,10 +9125,10 @@
       <c r="A59" s="18">
         <v>56</v>
       </c>
-      <c r="B59" s="36">
+      <c r="B59" s="35">
         <v>0.67930555555555561</v>
       </c>
-      <c r="C59" s="37">
+      <c r="C59" s="36">
         <v>5</v>
       </c>
       <c r="D59" s="11"/>
@@ -9032,10 +9139,10 @@
       <c r="A60" s="18">
         <v>57</v>
       </c>
-      <c r="B60" s="36">
+      <c r="B60" s="35">
         <v>0.67969907407407415</v>
       </c>
-      <c r="C60" s="37">
+      <c r="C60" s="36">
         <v>6</v>
       </c>
       <c r="D60" s="11"/>
@@ -9046,10 +9153,10 @@
       <c r="A61" s="18">
         <v>58</v>
       </c>
-      <c r="B61" s="36">
+      <c r="B61" s="35">
         <v>0.68008101851851854</v>
       </c>
-      <c r="C61" s="37">
+      <c r="C61" s="36">
         <v>5</v>
       </c>
       <c r="D61" s="11"/>
@@ -9057,340 +9164,340 @@
       <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="34"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="11"/>
       <c r="E62" s="12"/>
       <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="34"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="33"/>
       <c r="D63" s="11"/>
       <c r="E63" s="12"/>
       <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="34"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="33"/>
       <c r="D64" s="11"/>
       <c r="E64" s="12"/>
       <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="34"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="11"/>
       <c r="E65" s="12"/>
       <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="34"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="33"/>
       <c r="D66" s="11"/>
       <c r="E66" s="12"/>
       <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="34"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="11"/>
       <c r="E67" s="12"/>
       <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="34"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="33"/>
       <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="34"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="33"/>
       <c r="D69" s="11"/>
       <c r="E69" s="12"/>
       <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="34"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="11"/>
       <c r="E70" s="12"/>
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="34"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="33"/>
       <c r="D71" s="11"/>
       <c r="E71" s="12"/>
       <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="34"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="33"/>
       <c r="D72" s="11"/>
       <c r="E72" s="12"/>
       <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="34"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="11"/>
       <c r="E73" s="12"/>
       <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="34"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="33"/>
       <c r="D74" s="11"/>
       <c r="E74" s="12"/>
       <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="34"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="11"/>
       <c r="E75" s="12"/>
       <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="34"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="33"/>
       <c r="D76" s="11"/>
       <c r="E76" s="12"/>
       <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="34"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="33"/>
       <c r="D77" s="11"/>
       <c r="E77" s="12"/>
       <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="34"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="11"/>
       <c r="E78" s="12"/>
       <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="34"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="33"/>
       <c r="D79" s="11"/>
       <c r="E79" s="12"/>
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="34"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="33"/>
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="34"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="33"/>
       <c r="D81" s="11"/>
       <c r="E81" s="12"/>
       <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="34"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="33"/>
       <c r="D82" s="11"/>
       <c r="E82" s="12"/>
       <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="34"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="33"/>
       <c r="D83" s="11"/>
       <c r="E83" s="12"/>
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="34"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="33"/>
       <c r="D84" s="11"/>
       <c r="E84" s="12"/>
       <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="34"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="33"/>
       <c r="D85" s="11"/>
       <c r="E85" s="12"/>
       <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="34"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="33"/>
       <c r="D86" s="11"/>
       <c r="E86" s="12"/>
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="34"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="33"/>
       <c r="D87" s="11"/>
       <c r="E87" s="12"/>
       <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="34"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="33"/>
       <c r="D88" s="11"/>
       <c r="E88" s="12"/>
       <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="34"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="33"/>
       <c r="D89" s="11"/>
       <c r="E89" s="12"/>
       <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="34"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="33"/>
       <c r="D90" s="11"/>
       <c r="E90" s="12"/>
       <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="34"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="33"/>
       <c r="D91" s="11"/>
       <c r="E91" s="12"/>
       <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="34"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="33"/>
       <c r="D92" s="11"/>
       <c r="E92" s="12"/>
       <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="34"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="33"/>
       <c r="D93" s="11"/>
       <c r="E93" s="12"/>
       <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="34"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="33"/>
       <c r="D94" s="11"/>
       <c r="E94" s="12"/>
       <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="34"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="33"/>
       <c r="D95" s="11"/>
       <c r="E95" s="12"/>
       <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="34"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="33"/>
       <c r="D96" s="11"/>
       <c r="E96" s="12"/>
       <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="34"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="33"/>
       <c r="D97" s="11"/>
       <c r="E97" s="12"/>
       <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="34"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="33"/>
       <c r="D98" s="11"/>
       <c r="E98" s="12"/>
       <c r="F98" s="11"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="34"/>
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="33"/>
       <c r="D99" s="11"/>
       <c r="E99" s="12"/>
       <c r="F99" s="11"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="34"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="33"/>
       <c r="D100" s="11"/>
       <c r="E100" s="12"/>
       <c r="F100" s="11"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="34"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="33"/>
       <c r="D101" s="11"/>
       <c r="E101" s="12"/>
       <c r="F101" s="11"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="34"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="33"/>
       <c r="D102" s="11"/>
       <c r="E102" s="12"/>
       <c r="F102" s="11"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9403,27 +9510,27 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="50" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -9437,25 +9544,25 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="39">
         <v>0</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="39">
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <f>C3-B3</f>
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="54">
         <f>D3*86400</f>
         <v>163</v>
       </c>
-      <c r="G3" s="56">
-        <f>AVERAGE(E3:E14)</f>
-        <v>155.91666666666666</v>
-      </c>
-      <c r="I3" s="56">
+      <c r="G3" s="53"/>
+      <c r="H3" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="62">
         <f>MIN(E3:E14)</f>
         <v>86</v>
       </c>
@@ -9464,21 +9571,24 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="39">
         <v>0</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="39">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="54">
         <f t="shared" ref="E4:E14" si="1">D4*86400</f>
         <v>140</v>
       </c>
-      <c r="I4" s="56">
+      <c r="H4" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="62">
         <f>MAX(E3:E14)</f>
         <v>315.99999999999994</v>
       </c>
@@ -9487,36 +9597,43 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>3.9351851851851852E-4</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="41">
         <f t="shared" si="0"/>
         <v>9.9537037037037042E-4</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="54">
         <f t="shared" si="1"/>
         <v>86</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="62">
+        <f>AVERAGE(E3:E14)</f>
+        <v>155.91666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>3.9351851851851852E-4</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="39">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <f t="shared" si="0"/>
         <v>2.3842592592592596E-3</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="54">
         <f t="shared" si="1"/>
         <v>206.00000000000003</v>
       </c>
@@ -9525,17 +9642,17 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <v>1.1226851851851851E-3</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="39">
         <v>4.7800925925925919E-3</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="41">
         <f t="shared" si="0"/>
         <v>3.657407407407407E-3</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="54">
         <f t="shared" si="1"/>
         <v>315.99999999999994</v>
       </c>
@@ -9544,17 +9661,17 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>2.5462962962962961E-3</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="39">
         <v>4.363425925925926E-3</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <f t="shared" si="0"/>
         <v>1.8171296296296299E-3</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="54">
         <f t="shared" si="1"/>
         <v>157.00000000000003</v>
       </c>
@@ -9563,17 +9680,17 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>2.9861111111111113E-3</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="39">
         <v>4.5138888888888893E-3</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <f t="shared" si="0"/>
         <v>1.5277777777777781E-3</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="54">
         <f t="shared" si="1"/>
         <v>132.00000000000003</v>
       </c>
@@ -9582,17 +9699,17 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="39">
         <v>3.4490740740740745E-3</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="39">
         <v>4.9768518518518521E-3</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <f t="shared" si="0"/>
         <v>1.5277777777777776E-3</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="54">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
@@ -9601,17 +9718,17 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="39">
         <v>5.1273148148148146E-3</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="39">
         <v>7.8125E-3</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <f t="shared" si="0"/>
         <v>2.6851851851851854E-3</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <f t="shared" si="1"/>
         <v>232.00000000000003</v>
       </c>
@@ -9620,17 +9737,17 @@
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="39">
         <v>5.5671296296296302E-3</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="39">
         <v>6.7129629629629622E-3</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <f t="shared" si="0"/>
         <v>1.145833333333332E-3</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="54">
         <f t="shared" si="1"/>
         <v>98.999999999999886</v>
       </c>
@@ -9639,17 +9756,17 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="39">
         <v>5.7291666666666671E-3</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="39">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <f t="shared" si="0"/>
         <v>1.2152777777777769E-3</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="54">
         <f t="shared" si="1"/>
         <v>104.99999999999993</v>
       </c>
@@ -9658,92 +9775,76 @@
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="39">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="39">
         <v>8.8310185185185176E-3</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <f t="shared" si="0"/>
         <v>1.1921296296296289E-3</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="54">
         <f t="shared" si="1"/>
         <v>102.99999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9751,4 +9852,1247 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="66">
+        <v>513</v>
+      </c>
+      <c r="C4" s="66">
+        <v>521.81700000000001</v>
+      </c>
+      <c r="D4" s="66">
+        <f>ABS(B4-C4)</f>
+        <v>8.8170000000000073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="66">
+        <v>45.33</v>
+      </c>
+      <c r="C5" s="66">
+        <v>45.03</v>
+      </c>
+      <c r="D5" s="66">
+        <f>ABS(B5-C5)</f>
+        <v>0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:D96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="68">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="C3" s="68">
+        <v>22.32</v>
+      </c>
+      <c r="D3" s="68">
+        <f>ABS(B3-C3)</f>
+        <v>21.655000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="C4" s="68">
+        <v>12.948</v>
+      </c>
+      <c r="D4" s="68">
+        <f t="shared" ref="D4:D10" si="0">ABS(B4-C4)</f>
+        <v>12.498000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="68">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C5" s="68">
+        <v>13.06</v>
+      </c>
+      <c r="D5" s="68">
+        <f t="shared" si="0"/>
+        <v>12.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="68">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C6" s="68">
+        <v>13.21</v>
+      </c>
+      <c r="D6" s="68">
+        <f t="shared" si="0"/>
+        <v>12.295000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="68">
+        <v>45.341999999999999</v>
+      </c>
+      <c r="C7" s="68">
+        <v>45.375</v>
+      </c>
+      <c r="D7" s="68">
+        <f t="shared" si="0"/>
+        <v>3.3000000000001251E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="68">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="C8" s="68">
+        <v>814.08600000000001</v>
+      </c>
+      <c r="D8" s="68">
+        <f t="shared" si="0"/>
+        <v>775.91899999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="68">
+        <v>521.375</v>
+      </c>
+      <c r="C9" s="68">
+        <v>1294.6590000000001</v>
+      </c>
+      <c r="D9" s="68">
+        <f t="shared" si="0"/>
+        <v>773.28400000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="68">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D10" s="68">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="68">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="C16" s="68">
+        <v>1.663</v>
+      </c>
+      <c r="D16" s="68">
+        <f>ABS(B16-C16)</f>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="C17" s="68">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="D17" s="68">
+        <f t="shared" ref="D17:D23" si="1">ABS(B17-C17)</f>
+        <v>0.37270000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="68">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C18" s="68">
+        <v>1.022</v>
+      </c>
+      <c r="D18" s="68">
+        <f t="shared" si="1"/>
+        <v>0.33699999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="68">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C19" s="68">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D19" s="68">
+        <f t="shared" si="1"/>
+        <v>0.37999999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="68">
+        <v>45.341999999999999</v>
+      </c>
+      <c r="C20" s="68">
+        <v>45.381999999999998</v>
+      </c>
+      <c r="D20" s="68">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="68">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="C21" s="68">
+        <v>53.220999999999997</v>
+      </c>
+      <c r="D21" s="68">
+        <f t="shared" si="1"/>
+        <v>15.053999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="68">
+        <v>521.375</v>
+      </c>
+      <c r="C22" s="68">
+        <v>535.75099999999998</v>
+      </c>
+      <c r="D22" s="68">
+        <f t="shared" si="1"/>
+        <v>14.375999999999976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C23" s="68">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D23" s="68">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="68">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="C29" s="68">
+        <v>1.26</v>
+      </c>
+      <c r="D29" s="68">
+        <f>ABS(B29-C29)</f>
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="C30" s="68">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="D30" s="68">
+        <f t="shared" ref="D30:D36" si="2">ABS(B30-C30)</f>
+        <v>7.6000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="68">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C31" s="68">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="D31" s="68">
+        <f t="shared" si="2"/>
+        <v>7.3999999999999955E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="68">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C32" s="68">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="D32" s="68">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="68">
+        <v>45.341999999999999</v>
+      </c>
+      <c r="C33" s="68">
+        <v>47.435000000000002</v>
+      </c>
+      <c r="D33" s="68">
+        <f t="shared" si="2"/>
+        <v>2.0930000000000035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="68">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="C34" s="68">
+        <v>49.777999999999999</v>
+      </c>
+      <c r="D34" s="68">
+        <f t="shared" si="2"/>
+        <v>11.610999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="68">
+        <v>521.375</v>
+      </c>
+      <c r="C35" s="68">
+        <v>535.31600000000003</v>
+      </c>
+      <c r="D35" s="68">
+        <f t="shared" si="2"/>
+        <v>13.941000000000031</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C36" s="68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D36" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="68">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="C41" s="68">
+        <v>2.294</v>
+      </c>
+      <c r="D41" s="68">
+        <f>ABS(B41-C41)</f>
+        <v>1.629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="C42" s="68">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D42" s="68">
+        <f t="shared" ref="D42:D48" si="3">ABS(B42-C42)</f>
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="68">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C43" s="68">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D43" s="68">
+        <f t="shared" si="3"/>
+        <v>0.27399999999999991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="68">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C44" s="68">
+        <v>1.27</v>
+      </c>
+      <c r="D44" s="68">
+        <f t="shared" si="3"/>
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="68">
+        <v>45.341999999999999</v>
+      </c>
+      <c r="C45" s="68">
+        <v>50.430999999999997</v>
+      </c>
+      <c r="D45" s="68">
+        <f t="shared" si="3"/>
+        <v>5.0889999999999986</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="68">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="C46" s="68">
+        <v>67.444000000000003</v>
+      </c>
+      <c r="D46" s="68">
+        <f t="shared" si="3"/>
+        <v>29.277000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="68">
+        <v>521.375</v>
+      </c>
+      <c r="C47" s="68">
+        <v>556.03099999999995</v>
+      </c>
+      <c r="D47" s="68">
+        <f t="shared" si="3"/>
+        <v>34.655999999999949</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="68">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="C52" s="68">
+        <v>7.468</v>
+      </c>
+      <c r="D52" s="68">
+        <f>ABS(B52-C52)</f>
+        <v>6.8029999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="C53" s="68">
+        <v>1.984</v>
+      </c>
+      <c r="D53" s="68">
+        <f t="shared" ref="D53:D59" si="4">ABS(B53-C53)</f>
+        <v>1.534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="68">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C54" s="68">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="D54" s="68">
+        <f t="shared" si="4"/>
+        <v>1.548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="68">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C55" s="68">
+        <v>2.36</v>
+      </c>
+      <c r="D55" s="68">
+        <f t="shared" si="4"/>
+        <v>1.4449999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="68">
+        <v>45.341999999999999</v>
+      </c>
+      <c r="C56" s="68">
+        <v>54.411000000000001</v>
+      </c>
+      <c r="D56" s="68">
+        <f t="shared" si="4"/>
+        <v>9.0690000000000026</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="68">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="C57" s="68">
+        <v>108.753</v>
+      </c>
+      <c r="D57" s="68">
+        <f t="shared" si="4"/>
+        <v>70.585999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="68">
+        <v>521.375</v>
+      </c>
+      <c r="C58" s="68">
+        <v>601.15300000000002</v>
+      </c>
+      <c r="D58" s="68">
+        <f t="shared" si="4"/>
+        <v>79.77800000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C59" s="68">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D59" s="68">
+        <f t="shared" si="4"/>
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="68">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="C64" s="68">
+        <v>13.323</v>
+      </c>
+      <c r="D64" s="68">
+        <f>ABS(B64-C64)</f>
+        <v>12.658000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="C65" s="68">
+        <v>5.069</v>
+      </c>
+      <c r="D65" s="68">
+        <f t="shared" ref="D65:D71" si="5">ABS(B65-C65)</f>
+        <v>4.6189999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="68">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C66" s="68">
+        <v>5.516</v>
+      </c>
+      <c r="D66" s="68">
+        <f t="shared" si="5"/>
+        <v>4.8309999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="68">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C67" s="68">
+        <v>5.6959999999999997</v>
+      </c>
+      <c r="D67" s="68">
+        <f t="shared" si="5"/>
+        <v>4.7809999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="68">
+        <v>45.341999999999999</v>
+      </c>
+      <c r="C68" s="68">
+        <v>58.982999999999997</v>
+      </c>
+      <c r="D68" s="68">
+        <f t="shared" si="5"/>
+        <v>13.640999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="68">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="C69" s="68">
+        <v>220.26499999999999</v>
+      </c>
+      <c r="D69" s="68">
+        <f t="shared" si="5"/>
+        <v>182.09799999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="68">
+        <v>521.375</v>
+      </c>
+      <c r="C70" s="68">
+        <v>717.15800000000002</v>
+      </c>
+      <c r="D70" s="68">
+        <f t="shared" si="5"/>
+        <v>195.78300000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C71" s="68">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D71" s="68">
+        <f t="shared" si="5"/>
+        <v>9.5999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="68">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="C76" s="68">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D76" s="68">
+        <f>ABS(B76-C76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="C77" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="D77" s="68">
+        <f t="shared" ref="D77:D83" si="6">ABS(B77-C77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="68">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C78" s="68">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="D78" s="68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="68">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C79" s="68">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D79" s="68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="68">
+        <v>45.341999999999999</v>
+      </c>
+      <c r="C80" s="68">
+        <v>45.341999999999999</v>
+      </c>
+      <c r="D80" s="68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="68">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="C81" s="68">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="D81" s="68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="68">
+        <v>521.375</v>
+      </c>
+      <c r="C82" s="68">
+        <v>521.375</v>
+      </c>
+      <c r="D82" s="68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C83" s="68">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D83" s="68">
+        <f t="shared" si="6"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="68">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="C89" s="68">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D89" s="68">
+        <f>ABS(B89-C89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="C90" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="D90" s="68">
+        <f t="shared" ref="D90:D96" si="7">ABS(B90-C90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" s="68">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C91" s="68">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="D91" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="68">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C92" s="68">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D92" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" s="68">
+        <v>45.341999999999999</v>
+      </c>
+      <c r="C93" s="68">
+        <v>45.341999999999999</v>
+      </c>
+      <c r="D93" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="68">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="C94" s="68">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="D94" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" s="68">
+        <v>521.375</v>
+      </c>
+      <c r="C95" s="68">
+        <v>521.375</v>
+      </c>
+      <c r="D95" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C96" s="68">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D96" s="68">
+        <f t="shared" si="7"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-supermarket.xlsx
+++ b/data-supermarket.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="890" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="890" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Obsluha na pokladni" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="84">
   <si>
     <t>Por. Číslo</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>Dĺžka radu</t>
-  </si>
-  <si>
-    <t>Priemerná dĺžka radu:</t>
   </si>
   <si>
     <t xml:space="preserve">Doba čakania v rade </t>
@@ -329,6 +326,27 @@
   <si>
     <t xml:space="preserve">4 v rade </t>
   </si>
+  <si>
+    <t>Jeden  brigádnik</t>
+  </si>
+  <si>
+    <t>Dvaja brigádnici</t>
+  </si>
+  <si>
+    <t>Traja brigádnici</t>
+  </si>
+  <si>
+    <t>Štyria brigádnici</t>
+  </si>
+  <si>
+    <t>Porovnanie</t>
+  </si>
+  <si>
+    <t>Dvaja v rade pred zákazníkom</t>
+  </si>
+  <si>
+    <t>Štyria v rade pred zákazníkom</t>
+  </si>
 </sst>
 </file>
 
@@ -339,7 +357,7 @@
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="166" formatCode="0;[Red]0"/>
     <numFmt numFmtId="167" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0000;[Red]0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000;[Red]0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -490,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -600,20 +618,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,11 +635,27 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,11 +679,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="doba_obsluhypokladne_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="New Text Document" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="doba_obsluhypokladne_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -967,14 +991,14 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="56"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
@@ -1027,9 +1051,9 @@
         <v>47.000000000005748</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="60">
+        <v>49</v>
+      </c>
+      <c r="J4" s="56">
         <f>MIN(G4:G103)</f>
         <v>4.9999999999991829</v>
       </c>
@@ -1059,9 +1083,9 @@
         <v>99.00000000000108</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="60">
+        <v>50</v>
+      </c>
+      <c r="J5" s="56">
         <f>MAX(G4:G103)</f>
         <v>146.00000000000205</v>
       </c>
@@ -1091,9 +1115,9 @@
         <v>16.0000000000041</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="60">
+        <v>48</v>
+      </c>
+      <c r="J6" s="56">
         <f>AVERAGE(G4:G103)</f>
         <v>45.330000000000219</v>
       </c>
@@ -3679,7 +3703,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="49"/>
     </row>
@@ -3727,7 +3751,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="16">
         <v>10.583333333333334</v>
@@ -3754,7 +3778,7 @@
         <v>12</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" s="16">
         <v>2.8621193289484101</v>
@@ -3781,7 +3805,7 @@
         <v>15</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L10" s="16">
         <v>5</v>
@@ -3808,7 +3832,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="16">
         <v>3</v>
@@ -3835,7 +3859,7 @@
         <v>30</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="16">
         <v>14.021463877761207</v>
@@ -3862,7 +3886,7 @@
         <v>5</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L13" s="16">
         <v>196.60144927536234</v>
@@ -3889,7 +3913,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" s="16">
         <v>7.8603765496970084</v>
@@ -3916,7 +3940,7 @@
         <v>62</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="16">
         <v>2.7359311609892436</v>
@@ -3943,7 +3967,7 @@
         <v>38</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L16" s="16">
         <v>59</v>
@@ -3970,7 +3994,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L17" s="16">
         <v>3</v>
@@ -3997,7 +4021,7 @@
         <v>4</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L18" s="16">
         <v>62</v>
@@ -4024,7 +4048,7 @@
         <v>4</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L19" s="16">
         <v>254</v>
@@ -4051,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L20" s="16">
         <v>24</v>
@@ -4077,7 +4101,7 @@
         <v>5</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L21" s="16">
         <v>62</v>
@@ -4104,7 +4128,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L22" s="16">
         <v>3</v>
@@ -4131,7 +4155,7 @@
         <v>10</v>
       </c>
       <c r="K23" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" s="48">
         <v>5.9207449317565866</v>
@@ -6579,11 +6603,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="A1" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
     </row>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -6698,7 +6722,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="46">
         <f>SUM(F6:F8)</f>
@@ -7157,18 +7181,18 @@
       <c r="C3" s="38">
         <v>4.5949074074074078E-3</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="54">
         <f>C3-B3</f>
         <v>4.5949074074074078E-3</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="53">
         <f>D3*86400</f>
         <v>397.00000000000006</v>
       </c>
-      <c r="G3" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="61">
+      <c r="G3" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="57">
         <f>MAX(E3:E31)</f>
         <v>1302</v>
       </c>
@@ -7183,18 +7207,18 @@
       <c r="C4" s="38">
         <v>4.2013888888888891E-3</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="54">
         <f t="shared" ref="D4:D31" si="0">C4-B4</f>
         <v>3.9120370370370368E-3</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="53">
         <f t="shared" ref="E4:E31" si="1">D4*86400</f>
         <v>338</v>
       </c>
-      <c r="G4" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="61">
+      <c r="G4" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="57">
         <f>MIN(E3:E31)</f>
         <v>234</v>
       </c>
@@ -7209,18 +7233,18 @@
       <c r="C5" s="38">
         <v>1.238425925925926E-2</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="54">
         <f t="shared" si="0"/>
         <v>1.1307870370370371E-2</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="53">
         <f t="shared" si="1"/>
         <v>977</v>
       </c>
-      <c r="G5" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="61">
+      <c r="G5" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="57">
         <f>AVERAGE(E3:E31)</f>
         <v>513.44827586206895</v>
       </c>
@@ -7235,11 +7259,11 @@
       <c r="C6" s="38">
         <v>7.9861111111111122E-3</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="54">
         <f t="shared" si="0"/>
         <v>6.3657407407407421E-3</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="53">
         <f t="shared" si="1"/>
         <v>550.00000000000011</v>
       </c>
@@ -7254,11 +7278,11 @@
       <c r="C7" s="38">
         <v>8.4027777777777781E-3</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="54">
         <f t="shared" si="0"/>
         <v>5.8101851851851856E-3</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="53">
         <f t="shared" si="1"/>
         <v>502.00000000000006</v>
       </c>
@@ -7273,11 +7297,11 @@
       <c r="C8" s="38">
         <v>9.4212962962962957E-3</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="54">
         <f t="shared" si="0"/>
         <v>2.7083333333333334E-3</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="53">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
@@ -7292,11 +7316,11 @@
       <c r="C9" s="38">
         <v>1.2962962962962963E-2</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="54">
         <f t="shared" si="0"/>
         <v>4.8958333333333319E-3</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="53">
         <f t="shared" si="1"/>
         <v>422.99999999999989</v>
       </c>
@@ -7311,11 +7335,11 @@
       <c r="C10" s="38">
         <v>1.8483796296296297E-2</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="54">
         <f t="shared" si="0"/>
         <v>8.0902777777777778E-3</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="53">
         <f t="shared" si="1"/>
         <v>699</v>
       </c>
@@ -7330,11 +7354,11 @@
       <c r="C11" s="38">
         <v>2.0034722222222221E-2</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="54">
         <f t="shared" si="0"/>
         <v>5.9143518518518529E-3</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="53">
         <f t="shared" si="1"/>
         <v>511.00000000000011</v>
       </c>
@@ -7349,11 +7373,11 @@
       <c r="C12" s="38">
         <v>1.9247685185185184E-2</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="54">
         <f t="shared" si="0"/>
         <v>4.386574074074074E-3</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="53">
         <f t="shared" si="1"/>
         <v>379</v>
       </c>
@@ -7368,11 +7392,11 @@
       <c r="C13" s="38">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="54">
         <f t="shared" si="0"/>
         <v>3.1018518518518522E-3</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="53">
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
@@ -7387,11 +7411,11 @@
       <c r="C14" s="38">
         <v>2.298611111111111E-2</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="54">
         <f t="shared" si="0"/>
         <v>4.7916666666666663E-3</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="53">
         <f t="shared" si="1"/>
         <v>413.99999999999994</v>
       </c>
@@ -7406,11 +7430,11 @@
       <c r="C15" s="38">
         <v>2.6469907407407411E-2</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="54">
         <f t="shared" si="0"/>
         <v>5.4861111111111152E-3</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="53">
         <f t="shared" si="1"/>
         <v>474.00000000000034</v>
       </c>
@@ -7425,11 +7449,11 @@
       <c r="C16" s="38">
         <v>3.3680555555555551E-3</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="54">
         <f t="shared" si="0"/>
         <v>3.3680555555555551E-3</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="53">
         <f t="shared" si="1"/>
         <v>290.99999999999994</v>
       </c>
@@ -7444,11 +7468,11 @@
       <c r="C17" s="38">
         <v>3.37962962962963E-3</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="54">
         <f t="shared" si="0"/>
         <v>3.368055555555556E-3</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="53">
         <f t="shared" si="1"/>
         <v>291.00000000000006</v>
       </c>
@@ -7463,11 +7487,11 @@
       <c r="C18" s="38">
         <v>7.9976851851851858E-3</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="54">
         <f t="shared" si="0"/>
         <v>7.8240740740740753E-3</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="53">
         <f t="shared" si="1"/>
         <v>676.00000000000011</v>
       </c>
@@ -7482,11 +7506,11 @@
       <c r="C19" s="38">
         <v>6.4814814814814813E-3</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="54">
         <f t="shared" si="0"/>
         <v>6.1342592592592594E-3</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="53">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
@@ -7501,11 +7525,11 @@
       <c r="C20" s="38">
         <v>8.7962962962962968E-3</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="54">
         <f t="shared" si="0"/>
         <v>8.4375000000000006E-3</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="53">
         <f t="shared" si="1"/>
         <v>729</v>
       </c>
@@ -7520,11 +7544,11 @@
       <c r="C21" s="38">
         <v>7.0023148148148154E-3</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="54">
         <f t="shared" si="0"/>
         <v>6.5625000000000006E-3</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="53">
         <f t="shared" si="1"/>
         <v>567</v>
       </c>
@@ -7539,11 +7563,11 @@
       <c r="C22" s="38">
         <v>6.053240740740741E-3</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="54">
         <f t="shared" si="0"/>
         <v>5.1967592592592595E-3</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="53">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
@@ -7558,11 +7582,11 @@
       <c r="C23" s="38">
         <v>5.3240740740740748E-3</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="54">
         <f t="shared" si="0"/>
         <v>3.5995370370370374E-3</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="53">
         <f t="shared" si="1"/>
         <v>311.00000000000006</v>
       </c>
@@ -7577,11 +7601,11 @@
       <c r="C24" s="39">
         <v>4.9768518518518521E-3</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="54">
         <f t="shared" si="0"/>
         <v>4.9768518518518521E-3</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="53">
         <f t="shared" si="1"/>
         <v>430</v>
       </c>
@@ -7596,11 +7620,11 @@
       <c r="C25" s="39">
         <v>8.5416666666666679E-3</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="54">
         <f t="shared" si="0"/>
         <v>8.1365740740740756E-3</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="53">
         <f t="shared" si="1"/>
         <v>703.00000000000011</v>
       </c>
@@ -7615,11 +7639,11 @@
       <c r="C26" s="39">
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D26" s="54">
         <f t="shared" si="0"/>
         <v>3.5069444444444445E-3</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="53">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
@@ -7634,11 +7658,11 @@
       <c r="C27" s="39">
         <v>7.1296296296296307E-3</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="54">
         <f t="shared" si="0"/>
         <v>6.0532407407407418E-3</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="53">
         <f t="shared" si="1"/>
         <v>523.00000000000011</v>
       </c>
@@ -7653,11 +7677,11 @@
       <c r="C28" s="39">
         <v>1.6284722222222221E-2</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D28" s="54">
         <f t="shared" si="0"/>
         <v>1.5069444444444444E-2</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="53">
         <f t="shared" si="1"/>
         <v>1302</v>
       </c>
@@ -7672,11 +7696,11 @@
       <c r="C29" s="39">
         <v>1.1909722222222223E-2</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="54">
         <f t="shared" si="0"/>
         <v>1.0069444444444445E-2</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="53">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
@@ -7691,11 +7715,11 @@
       <c r="C30" s="39">
         <v>8.0208333333333329E-3</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D30" s="54">
         <f t="shared" si="0"/>
         <v>5.6134259259259254E-3</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="53">
         <f t="shared" si="1"/>
         <v>484.99999999999994</v>
       </c>
@@ -7710,11 +7734,11 @@
       <c r="C31" s="39">
         <v>5.6828703703703702E-3</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="54">
         <f t="shared" si="0"/>
         <v>3.0555555555555553E-3</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="53">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
@@ -7725,8 +7749,8 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
@@ -8306,7 +8330,7 @@
   <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8337,7 +8361,8 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
@@ -8347,17 +8372,12 @@
         <v>0.66517361111111117</v>
       </c>
       <c r="C4" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="52">
-        <f>COUNT(C4:C61)</f>
-        <v>58</v>
-      </c>
+      <c r="F4" s="74"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -8371,13 +8391,8 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="52">
-        <f>AVERAGE(C4:C61)</f>
-        <v>4.1724137931034484</v>
-      </c>
+      <c r="F5" s="74"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
@@ -9509,35 +9524,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="A1" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9554,15 +9569,15 @@
         <f>C3-B3</f>
         <v>1.8865740740740742E-3</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="53">
         <f>D3*86400</f>
         <v>163</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="62">
+        <v>49</v>
+      </c>
+      <c r="I3" s="58">
         <f>MIN(E3:E14)</f>
         <v>86</v>
       </c>
@@ -9581,14 +9596,14 @@
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="53">
         <f t="shared" ref="E4:E14" si="1">D4*86400</f>
         <v>140</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="62">
+        <v>50</v>
+      </c>
+      <c r="I4" s="58">
         <f>MAX(E3:E14)</f>
         <v>315.99999999999994</v>
       </c>
@@ -9607,14 +9622,14 @@
         <f t="shared" si="0"/>
         <v>9.9537037037037042E-4</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="53">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="62">
+        <v>48</v>
+      </c>
+      <c r="I5" s="58">
         <f>AVERAGE(E3:E14)</f>
         <v>155.91666666666666</v>
       </c>
@@ -9633,7 +9648,7 @@
         <f t="shared" si="0"/>
         <v>2.3842592592592596E-3</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="53">
         <f t="shared" si="1"/>
         <v>206.00000000000003</v>
       </c>
@@ -9652,7 +9667,7 @@
         <f t="shared" si="0"/>
         <v>3.657407407407407E-3</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="53">
         <f t="shared" si="1"/>
         <v>315.99999999999994</v>
       </c>
@@ -9671,7 +9686,7 @@
         <f t="shared" si="0"/>
         <v>1.8171296296296299E-3</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="53">
         <f t="shared" si="1"/>
         <v>157.00000000000003</v>
       </c>
@@ -9690,7 +9705,7 @@
         <f t="shared" si="0"/>
         <v>1.5277777777777781E-3</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="53">
         <f t="shared" si="1"/>
         <v>132.00000000000003</v>
       </c>
@@ -9709,7 +9724,7 @@
         <f t="shared" si="0"/>
         <v>1.5277777777777776E-3</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="53">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
@@ -9728,7 +9743,7 @@
         <f t="shared" si="0"/>
         <v>2.6851851851851854E-3</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="53">
         <f t="shared" si="1"/>
         <v>232.00000000000003</v>
       </c>
@@ -9747,7 +9762,7 @@
         <f t="shared" si="0"/>
         <v>1.145833333333332E-3</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="53">
         <f t="shared" si="1"/>
         <v>98.999999999999886</v>
       </c>
@@ -9766,7 +9781,7 @@
         <f t="shared" si="0"/>
         <v>1.2152777777777769E-3</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="53">
         <f t="shared" si="1"/>
         <v>104.99999999999993</v>
       </c>
@@ -9785,7 +9800,7 @@
         <f t="shared" si="0"/>
         <v>1.1921296296296289E-3</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="53">
         <f t="shared" si="1"/>
         <v>102.99999999999994</v>
       </c>
@@ -9871,95 +9886,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="C3" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="60" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="66">
+        <v>56</v>
+      </c>
+      <c r="B4" s="62">
         <v>513</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="62">
         <v>521.81700000000001</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="62">
         <f>ABS(B4-C4)</f>
         <v>8.8170000000000073</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="66">
+        <v>57</v>
+      </c>
+      <c r="B5" s="62">
         <v>45.33</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="62">
         <v>45.03</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="62">
         <f>ABS(B5-C5)</f>
         <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9968,10 +9983,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:D96"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75:K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9980,1114 +9995,1320 @@
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>56</v>
+      <c r="A2" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="68">
+      <c r="A3" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="64">
         <v>0.66500000000000004</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="64">
         <v>22.32</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="64">
         <f>ABS(B3-C3)</f>
         <v>21.655000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="68">
+      <c r="A4" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="64">
         <v>0.45</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="64">
         <v>12.948</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="64">
         <f t="shared" ref="D4:D10" si="0">ABS(B4-C4)</f>
         <v>12.498000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="64">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C5" s="64">
+        <v>13.06</v>
+      </c>
+      <c r="D5" s="64">
+        <f t="shared" si="0"/>
+        <v>12.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="68">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="C5" s="68">
-        <v>13.06</v>
-      </c>
-      <c r="D5" s="68">
-        <f t="shared" si="0"/>
-        <v>12.375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="B6" s="64">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C6" s="64">
+        <v>13.21</v>
+      </c>
+      <c r="D6" s="64">
+        <f t="shared" si="0"/>
+        <v>12.295000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="68">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="C6" s="68">
-        <v>13.21</v>
-      </c>
-      <c r="D6" s="68">
-        <f t="shared" si="0"/>
-        <v>12.295000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="B7" s="64">
+        <v>45.341999999999999</v>
+      </c>
+      <c r="C7" s="64">
+        <v>45.375</v>
+      </c>
+      <c r="D7" s="64">
+        <f t="shared" si="0"/>
+        <v>3.3000000000001251E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="68">
-        <v>45.341999999999999</v>
-      </c>
-      <c r="C7" s="68">
-        <v>45.375</v>
-      </c>
-      <c r="D7" s="68">
-        <f t="shared" si="0"/>
-        <v>3.3000000000001251E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="B8" s="64">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="C8" s="64">
+        <v>814.08600000000001</v>
+      </c>
+      <c r="D8" s="64">
+        <f t="shared" si="0"/>
+        <v>775.91899999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="68">
-        <v>38.167000000000002</v>
-      </c>
-      <c r="C8" s="68">
-        <v>814.08600000000001</v>
-      </c>
-      <c r="D8" s="68">
-        <f t="shared" si="0"/>
-        <v>775.91899999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="B9" s="64">
+        <v>521.375</v>
+      </c>
+      <c r="C9" s="64">
+        <v>1294.6590000000001</v>
+      </c>
+      <c r="D9" s="64">
+        <f t="shared" si="0"/>
+        <v>773.28400000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="68">
-        <v>521.375</v>
-      </c>
-      <c r="C9" s="68">
-        <v>1294.6590000000001</v>
-      </c>
-      <c r="D9" s="68">
-        <f t="shared" si="0"/>
-        <v>773.28400000000011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="68">
+      <c r="B10" s="64">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="64">
         <v>0.65600000000000003</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="64">
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="64" t="s">
+      <c r="A15" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="64" t="s">
-        <v>56</v>
+      <c r="C15" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="68">
+      <c r="A16" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="64">
         <v>0.66500000000000004</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="64">
         <v>1.663</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="64">
         <f>ABS(B16-C16)</f>
         <v>0.998</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="68">
+      <c r="A17" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="64">
         <v>0.45</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="64">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="64">
         <f t="shared" ref="D17:D23" si="1">ABS(B17-C17)</f>
         <v>0.37270000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="64">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="C18" s="64">
+        <v>1.022</v>
+      </c>
+      <c r="D18" s="64">
+        <f t="shared" si="1"/>
+        <v>0.33699999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="68">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="C18" s="68">
-        <v>1.022</v>
-      </c>
-      <c r="D18" s="68">
-        <f t="shared" si="1"/>
-        <v>0.33699999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+      <c r="B19" s="64">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C19" s="64">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D19" s="64">
+        <f t="shared" si="1"/>
+        <v>0.37999999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="68">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="C19" s="68">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="D19" s="68">
-        <f t="shared" si="1"/>
-        <v>0.37999999999999989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="B20" s="64">
+        <v>45.341999999999999</v>
+      </c>
+      <c r="C20" s="64">
+        <v>45.381999999999998</v>
+      </c>
+      <c r="D20" s="64">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="68">
-        <v>45.341999999999999</v>
-      </c>
-      <c r="C20" s="68">
-        <v>45.381999999999998</v>
-      </c>
-      <c r="D20" s="68">
-        <f t="shared" si="1"/>
-        <v>3.9999999999999147E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+      <c r="B21" s="64">
+        <v>38.167000000000002</v>
+      </c>
+      <c r="C21" s="64">
+        <v>53.220999999999997</v>
+      </c>
+      <c r="D21" s="64">
+        <f t="shared" si="1"/>
+        <v>15.053999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="68">
-        <v>38.167000000000002</v>
-      </c>
-      <c r="C21" s="68">
-        <v>53.220999999999997</v>
-      </c>
-      <c r="D21" s="68">
-        <f t="shared" si="1"/>
-        <v>15.053999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="B22" s="64">
+        <v>521.375</v>
+      </c>
+      <c r="C22" s="64">
+        <v>535.75099999999998</v>
+      </c>
+      <c r="D22" s="64">
+        <f t="shared" si="1"/>
+        <v>14.375999999999976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="68">
-        <v>521.375</v>
-      </c>
-      <c r="C22" s="68">
-        <v>535.75099999999998</v>
-      </c>
-      <c r="D22" s="68">
-        <f t="shared" si="1"/>
-        <v>14.375999999999976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="68">
+      <c r="B23" s="64">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="64">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="64">
         <f t="shared" si="1"/>
         <v>1E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="64" t="s">
-        <v>56</v>
+      <c r="D28" s="60" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="68">
+      <c r="A29" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="64">
         <v>0.66500000000000004</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="64">
         <v>1.26</v>
       </c>
-      <c r="D29" s="68">
+      <c r="D29" s="64">
         <f>ABS(B29-C29)</f>
         <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="68">
+      <c r="A30" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="64">
         <v>0.45</v>
       </c>
-      <c r="C30" s="68">
+      <c r="C30" s="64">
         <v>0.52600000000000002</v>
       </c>
-      <c r="D30" s="68">
+      <c r="D30" s="64">
         <f t="shared" ref="D30:D36" si="2">ABS(B30-C30)</f>
         <v>7.6000000000000012E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="68">
+      <c r="A31" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="64">
         <v>0.68500000000000005</v>
       </c>
-      <c r="C31" s="68">
+      <c r="C31" s="64">
         <v>0.75900000000000001</v>
       </c>
-      <c r="D31" s="68">
+      <c r="D31" s="64">
         <f t="shared" si="2"/>
         <v>7.3999999999999955E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="68">
+      <c r="A32" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="64">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C32" s="68">
+      <c r="C32" s="64">
         <v>1.0149999999999999</v>
       </c>
-      <c r="D32" s="68">
+      <c r="D32" s="64">
         <f t="shared" si="2"/>
         <v>9.9999999999999867E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="68">
+      <c r="A33" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="64">
         <v>45.341999999999999</v>
       </c>
-      <c r="C33" s="68">
+      <c r="C33" s="64">
         <v>47.435000000000002</v>
       </c>
-      <c r="D33" s="68">
+      <c r="D33" s="64">
         <f t="shared" si="2"/>
         <v>2.0930000000000035</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="68">
+      <c r="A34" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="64">
         <v>38.167000000000002</v>
       </c>
-      <c r="C34" s="68">
+      <c r="C34" s="64">
         <v>49.777999999999999</v>
       </c>
-      <c r="D34" s="68">
+      <c r="D34" s="64">
         <f t="shared" si="2"/>
         <v>11.610999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="68">
+      <c r="A35" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="64">
         <v>521.375</v>
       </c>
-      <c r="C35" s="68">
+      <c r="C35" s="64">
         <v>535.31600000000003</v>
       </c>
-      <c r="D35" s="68">
+      <c r="D35" s="64">
         <f t="shared" si="2"/>
         <v>13.941000000000031</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="68">
+      <c r="A36" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="64">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C36" s="68">
+      <c r="C36" s="64">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D36" s="68">
+      <c r="D36" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="64" t="s">
-        <v>56</v>
+      <c r="A40" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="68">
+      <c r="A41" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="64">
         <v>0.66500000000000004</v>
       </c>
-      <c r="C41" s="68">
+      <c r="C41" s="64">
         <v>2.294</v>
       </c>
-      <c r="D41" s="68">
+      <c r="D41" s="64">
         <f>ABS(B41-C41)</f>
         <v>1.629</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="68">
+      <c r="A42" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="64">
         <v>0.45</v>
       </c>
-      <c r="C42" s="68">
+      <c r="C42" s="64">
         <v>0.88200000000000001</v>
       </c>
-      <c r="D42" s="68">
+      <c r="D42" s="64">
         <f t="shared" ref="D42:D48" si="3">ABS(B42-C42)</f>
         <v>0.432</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="68">
+      <c r="A43" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="64">
         <v>0.68500000000000005</v>
       </c>
-      <c r="C43" s="68">
+      <c r="C43" s="64">
         <v>0.95899999999999996</v>
       </c>
-      <c r="D43" s="68">
+      <c r="D43" s="64">
         <f t="shared" si="3"/>
         <v>0.27399999999999991</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="68">
+      <c r="A44" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="64">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C44" s="68">
+      <c r="C44" s="64">
         <v>1.27</v>
       </c>
-      <c r="D44" s="68">
+      <c r="D44" s="64">
         <f t="shared" si="3"/>
         <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="68">
+      <c r="A45" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="64">
         <v>45.341999999999999</v>
       </c>
-      <c r="C45" s="68">
+      <c r="C45" s="64">
         <v>50.430999999999997</v>
       </c>
-      <c r="D45" s="68">
+      <c r="D45" s="64">
         <f t="shared" si="3"/>
         <v>5.0889999999999986</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="68">
+      <c r="A46" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="64">
         <v>38.167000000000002</v>
       </c>
-      <c r="C46" s="68">
+      <c r="C46" s="64">
         <v>67.444000000000003</v>
       </c>
-      <c r="D46" s="68">
+      <c r="D46" s="64">
         <f t="shared" si="3"/>
         <v>29.277000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="68">
+      <c r="A47" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="64">
         <v>521.375</v>
       </c>
-      <c r="C47" s="68">
+      <c r="C47" s="64">
         <v>556.03099999999995</v>
       </c>
-      <c r="D47" s="68">
+      <c r="D47" s="64">
         <f t="shared" si="3"/>
         <v>34.655999999999949</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="68">
+      <c r="A48" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="64">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68">
+      <c r="C48" s="64">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D48" s="64">
         <f t="shared" si="3"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="68">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="64">
         <v>0.66500000000000004</v>
       </c>
-      <c r="C52" s="68">
+      <c r="C52" s="64">
         <v>7.468</v>
       </c>
-      <c r="D52" s="68">
+      <c r="D52" s="64">
         <f>ABS(B52-C52)</f>
         <v>6.8029999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="68">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="64">
         <v>0.45</v>
       </c>
-      <c r="C53" s="68">
+      <c r="C53" s="64">
         <v>1.984</v>
       </c>
-      <c r="D53" s="68">
+      <c r="D53" s="64">
         <f t="shared" ref="D53:D59" si="4">ABS(B53-C53)</f>
         <v>1.534</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="68">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="64">
         <v>0.68500000000000005</v>
       </c>
-      <c r="C54" s="68">
+      <c r="C54" s="64">
         <v>2.2330000000000001</v>
       </c>
-      <c r="D54" s="68">
+      <c r="D54" s="64">
         <f t="shared" si="4"/>
         <v>1.548</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="68">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="64">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C55" s="68">
+      <c r="C55" s="64">
         <v>2.36</v>
       </c>
-      <c r="D55" s="68">
+      <c r="D55" s="64">
         <f t="shared" si="4"/>
         <v>1.4449999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="68">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="64">
         <v>45.341999999999999</v>
       </c>
-      <c r="C56" s="68">
+      <c r="C56" s="64">
         <v>54.411000000000001</v>
       </c>
-      <c r="D56" s="68">
+      <c r="D56" s="64">
         <f t="shared" si="4"/>
         <v>9.0690000000000026</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="68">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="64">
         <v>38.167000000000002</v>
       </c>
-      <c r="C57" s="68">
+      <c r="C57" s="64">
         <v>108.753</v>
       </c>
-      <c r="D57" s="68">
+      <c r="D57" s="64">
         <f t="shared" si="4"/>
         <v>70.585999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="68">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="64">
         <v>521.375</v>
       </c>
-      <c r="C58" s="68">
+      <c r="C58" s="64">
         <v>601.15300000000002</v>
       </c>
-      <c r="D58" s="68">
+      <c r="D58" s="64">
         <f t="shared" si="4"/>
         <v>79.77800000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="68">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="64">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C59" s="68">
+      <c r="C59" s="64">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D59" s="68">
+      <c r="D59" s="64">
         <f t="shared" si="4"/>
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="68">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="J63" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="K63" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="L63" s="60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="64">
         <v>0.66500000000000004</v>
       </c>
-      <c r="C64" s="68">
+      <c r="C64" s="64">
         <v>13.323</v>
       </c>
-      <c r="D64" s="68">
+      <c r="D64" s="64">
         <f>ABS(B64-C64)</f>
         <v>12.658000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="68">
+      <c r="H64" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="I64" s="64">
+        <v>1.26</v>
+      </c>
+      <c r="J64" s="64">
+        <v>2.294</v>
+      </c>
+      <c r="K64" s="64">
+        <v>7.468</v>
+      </c>
+      <c r="L64" s="64">
+        <v>13.323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="64">
         <v>0.45</v>
       </c>
-      <c r="C65" s="68">
+      <c r="C65" s="64">
         <v>5.069</v>
       </c>
-      <c r="D65" s="68">
+      <c r="D65" s="64">
         <f t="shared" ref="D65:D71" si="5">ABS(B65-C65)</f>
         <v>4.6189999999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="68">
+      <c r="H65" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I65" s="64">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="J65" s="64">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="K65" s="64">
+        <v>1.984</v>
+      </c>
+      <c r="L65" s="64">
+        <v>5.069</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="64">
         <v>0.68500000000000005</v>
       </c>
-      <c r="C66" s="68">
+      <c r="C66" s="64">
         <v>5.516</v>
       </c>
-      <c r="D66" s="68">
+      <c r="D66" s="64">
         <f t="shared" si="5"/>
         <v>4.8309999999999995</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="68">
+      <c r="H66" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66" s="64">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="J66" s="64">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="K66" s="64">
+        <v>2.2330000000000001</v>
+      </c>
+      <c r="L66" s="64">
+        <v>5.516</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="64">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C67" s="68">
+      <c r="C67" s="64">
         <v>5.6959999999999997</v>
       </c>
-      <c r="D67" s="68">
+      <c r="D67" s="64">
         <f t="shared" si="5"/>
         <v>4.7809999999999997</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="68">
+      <c r="H67" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="64">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="J67" s="64">
+        <v>1.27</v>
+      </c>
+      <c r="K67" s="64">
+        <v>2.36</v>
+      </c>
+      <c r="L67" s="64">
+        <v>5.6959999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="64">
         <v>45.341999999999999</v>
       </c>
-      <c r="C68" s="68">
+      <c r="C68" s="64">
         <v>58.982999999999997</v>
       </c>
-      <c r="D68" s="68">
+      <c r="D68" s="64">
         <f t="shared" si="5"/>
         <v>13.640999999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="68">
+      <c r="H68" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="I68" s="64">
+        <v>47.435000000000002</v>
+      </c>
+      <c r="J68" s="64">
+        <v>50.430999999999997</v>
+      </c>
+      <c r="K68" s="64">
+        <v>54.411000000000001</v>
+      </c>
+      <c r="L68" s="64">
+        <v>58.982999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="64">
         <v>38.167000000000002</v>
       </c>
-      <c r="C69" s="68">
+      <c r="C69" s="64">
         <v>220.26499999999999</v>
       </c>
-      <c r="D69" s="68">
+      <c r="D69" s="64">
         <f t="shared" si="5"/>
         <v>182.09799999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" s="68">
+      <c r="H69" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="I69" s="64">
+        <v>49.777999999999999</v>
+      </c>
+      <c r="J69" s="64">
+        <v>67.444000000000003</v>
+      </c>
+      <c r="K69" s="64">
+        <v>108.753</v>
+      </c>
+      <c r="L69" s="64">
+        <v>220.26499999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="64">
         <v>521.375</v>
       </c>
-      <c r="C70" s="68">
+      <c r="C70" s="64">
         <v>717.15800000000002</v>
       </c>
-      <c r="D70" s="68">
+      <c r="D70" s="64">
         <f t="shared" si="5"/>
         <v>195.78300000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="68">
+      <c r="H70" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70" s="64">
+        <v>535.31600000000003</v>
+      </c>
+      <c r="J70" s="64">
+        <v>556.03099999999995</v>
+      </c>
+      <c r="K70" s="64">
+        <v>601.15300000000002</v>
+      </c>
+      <c r="L70" s="64">
+        <v>717.15800000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="64">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C71" s="68">
+      <c r="C71" s="64">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D71" s="68">
+      <c r="D71" s="64">
         <f t="shared" si="5"/>
         <v>9.5999999999999988E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B75" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="68">
+      <c r="H71" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="I71" s="64">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J71" s="64">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K71" s="64">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L71" s="64">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="J75" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="K75" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L75" s="72"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="64">
         <v>0.66500000000000004</v>
       </c>
-      <c r="C76" s="68">
+      <c r="C76" s="64">
         <v>0.66500000000000004</v>
       </c>
-      <c r="D76" s="68">
+      <c r="D76" s="64">
         <f>ABS(B76-C76)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="68">
+      <c r="H76" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="I76" s="64">
+        <f>0.006*100</f>
+        <v>0.6</v>
+      </c>
+      <c r="J76" s="64">
+        <f>0.013*100</f>
+        <v>1.3</v>
+      </c>
+      <c r="K76" s="64">
+        <f>0.004*100</f>
+        <v>0.4</v>
+      </c>
+      <c r="L76" s="71"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" s="64">
         <v>0.45</v>
       </c>
-      <c r="C77" s="68">
+      <c r="C77" s="64">
         <v>0.45</v>
       </c>
-      <c r="D77" s="68">
+      <c r="D77" s="64">
         <f t="shared" ref="D77:D83" si="6">ABS(B77-C77)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" s="68">
+      <c r="H77" s="70"/>
+      <c r="I77" s="71"/>
+      <c r="J77" s="71"/>
+      <c r="K77" s="71"/>
+      <c r="L77" s="71"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="64">
         <v>0.68500000000000005</v>
       </c>
-      <c r="C78" s="68">
+      <c r="C78" s="64">
         <v>0.68500000000000005</v>
       </c>
-      <c r="D78" s="68">
+      <c r="D78" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="68">
+      <c r="H78" s="70"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="71"/>
+      <c r="L78" s="71"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="64">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C79" s="68">
+      <c r="C79" s="64">
         <v>0.91500000000000004</v>
       </c>
-      <c r="D79" s="68">
+      <c r="D79" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" s="68">
+      <c r="H79" s="70"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="71"/>
+      <c r="K79" s="71"/>
+      <c r="L79" s="71"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="64">
         <v>45.341999999999999</v>
       </c>
-      <c r="C80" s="68">
+      <c r="C80" s="64">
         <v>45.341999999999999</v>
       </c>
-      <c r="D80" s="68">
+      <c r="D80" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" s="68">
+      <c r="H80" s="70"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="71"/>
+      <c r="L80" s="71"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="64">
         <v>38.167000000000002</v>
       </c>
-      <c r="C81" s="68">
+      <c r="C81" s="64">
         <v>38.167000000000002</v>
       </c>
-      <c r="D81" s="68">
+      <c r="D81" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B82" s="68">
+      <c r="H81" s="70"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="71"/>
+      <c r="K81" s="71"/>
+      <c r="L81" s="71"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="64">
         <v>521.375</v>
       </c>
-      <c r="C82" s="68">
+      <c r="C82" s="64">
         <v>521.375</v>
       </c>
-      <c r="D82" s="68">
+      <c r="D82" s="64">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="68">
+      <c r="H82" s="70"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="71"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="64">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C83" s="68">
+      <c r="C83" s="64">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D83" s="68">
+      <c r="D83" s="64">
         <f t="shared" si="6"/>
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="70" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C88" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D88" s="64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B89" s="68">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="64">
         <v>0.66500000000000004</v>
       </c>
-      <c r="C89" s="68">
+      <c r="C89" s="64">
         <v>0.66500000000000004</v>
       </c>
-      <c r="D89" s="68">
+      <c r="D89" s="64">
         <f>ABS(B89-C89)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="B90" s="68">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="64">
         <v>0.45</v>
       </c>
-      <c r="C90" s="68">
+      <c r="C90" s="64">
         <v>0.45</v>
       </c>
-      <c r="D90" s="68">
+      <c r="D90" s="64">
         <f t="shared" ref="D90:D96" si="7">ABS(B90-C90)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B91" s="68">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="64">
         <v>0.68500000000000005</v>
       </c>
-      <c r="C91" s="68">
+      <c r="C91" s="64">
         <v>0.68500000000000005</v>
       </c>
-      <c r="D91" s="68">
+      <c r="D91" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" s="68">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" s="64">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C92" s="68">
+      <c r="C92" s="64">
         <v>0.91500000000000004</v>
       </c>
-      <c r="D92" s="68">
+      <c r="D92" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="B93" s="68">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="64">
         <v>45.341999999999999</v>
       </c>
-      <c r="C93" s="68">
+      <c r="C93" s="64">
         <v>45.341999999999999</v>
       </c>
-      <c r="D93" s="68">
+      <c r="D93" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B94" s="68">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" s="64">
         <v>38.167000000000002</v>
       </c>
-      <c r="C94" s="68">
+      <c r="C94" s="64">
         <v>38.167000000000002</v>
       </c>
-      <c r="D94" s="68">
+      <c r="D94" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B95" s="68">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B95" s="64">
         <v>521.375</v>
       </c>
-      <c r="C95" s="68">
+      <c r="C95" s="64">
         <v>521.375</v>
       </c>
-      <c r="D95" s="68">
+      <c r="D95" s="64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B96" s="68">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B96" s="64">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C96" s="68">
+      <c r="C96" s="64">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D96" s="68">
+      <c r="D96" s="64">
         <f t="shared" si="7"/>
         <v>2E-3</v>
       </c>
